--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="975">
   <si>
     <t>8</t>
   </si>
@@ -3493,18 +3493,12 @@
     <t xml:space="preserve">1.size 2.QueryName3.FileName 4.code Form 5.font  </t>
   </si>
   <si>
-    <t xml:space="preserve">1.size 2.QueryName3.FileName  4.font  </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.size 2.QueryName3.FileName 4.font   </t>
   </si>
   <si>
     <t xml:space="preserve">1.font   2.QueryName3.FileName  </t>
   </si>
   <si>
-    <t xml:space="preserve">1.size 2.QueryName3.FileName  4.font   </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.size 2.QueryName3.FileName  4.font </t>
   </si>
   <si>
@@ -3553,9 +3547,6 @@
     <t>1.FileName 2.QueryName</t>
   </si>
   <si>
-    <t xml:space="preserve">1.size    2.QueryName    3.FileName    4.font     </t>
-  </si>
-  <si>
     <t>ستون هایی که با سبز مشخص شده اند کمترین مشکل را دارند و این مشکل در خارج از لی اوت آن ها می باشد</t>
   </si>
   <si>
@@ -3571,7 +3562,79 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>1.size   2.QueryName  3.FileName    4.check Query(P104_)</t>
+    <t>FINANCE_BALANCE_113_950_MULTIFORMCODE_GENERAL_Q1</t>
+  </si>
+  <si>
+    <t>این چاپ برای تراز(کل،گروه،معین)می باشد</t>
+  </si>
+  <si>
+    <t>تراز عمودی</t>
+  </si>
+  <si>
+    <t>FINANCE_BALANCE_113_950_MULTIFORMCODE_GENERAL_Q1_L2.rtf</t>
+  </si>
+  <si>
+    <t>FINANCE_BALANCE_113_950_MULTIFORMCODE_GENERAL_Q1_L1.rtf</t>
+  </si>
+  <si>
+    <t>تراز افقی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BookOfAccount_113_952_MultiFormCode_GENERAL_Q1_L1.RTF </t>
+  </si>
+  <si>
+    <t>BookOfAccount_113_952_MultiFormCode_GENERAL_Q1_L3.RTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F5VOUCHERLISTITEM_113_202_24_Q1_L1.rtf </t>
+  </si>
+  <si>
+    <t>BookOfAccount_113_953_MultiFormCode_GENERAL_Q1_L5.RTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DetailedBalence_113_951_MultiFormCode_GENERAL_Q1_L9.rtf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BookOfAccount_113_953_MultiFormCode_GENERAL_Q1_L2.RTF </t>
+  </si>
+  <si>
+    <t>BookOfAccount_113_952_MultiFormCode_GENERAL_Q1_L2.rtf</t>
+  </si>
+  <si>
+    <t>confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> confirmed</t>
+  </si>
+  <si>
+    <t>تاریخ تایید</t>
+  </si>
+  <si>
+    <t>1-10-1400</t>
+  </si>
+  <si>
+    <t>4-10-1400</t>
+  </si>
+  <si>
+    <t>Vocher_List_113_201_1049_Q1</t>
+  </si>
+  <si>
+    <t>Vocher_List_113_201_1049_Q1_L1.rtf</t>
+  </si>
+  <si>
+    <t>1.size 2.QueryName3.FileName  4.font  (ERROR)</t>
+  </si>
+  <si>
+    <t>1.size 2.QueryName3.FileName  4.font   (NO DATA)</t>
+  </si>
+  <si>
+    <t>5-10-1400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirmed </t>
+  </si>
+  <si>
+    <t>F5FINANCIAL_113_951_262_GENERAL_Q1</t>
   </si>
 </sst>
 </file>
@@ -3857,14 +3920,8 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3875,19 +3932,21 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11192,19 +11251,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="3" width="30.7109375" style="24" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="24"/>
-    <col min="6" max="7" width="20.7109375" style="24" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="24" customWidth="1"/>
-    <col min="9" max="9" width="70.7109375" style="24" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="9.140625" style="29"/>
+    <col min="2" max="3" width="30.7109375" style="29" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="29"/>
+    <col min="6" max="7" width="20.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="29" customWidth="1"/>
+    <col min="9" max="9" width="55.7109375" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11235,2317 +11294,2406 @@
       <c r="I1" s="22" t="s">
         <v>826</v>
       </c>
+      <c r="J1" s="22" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="26">
+        <v>203</v>
+      </c>
+      <c r="F2" s="26">
+        <v>1048</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>15</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="26">
+        <v>950</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>16</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="26">
+        <v>952</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>17</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="26">
+        <v>953</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26" t="s">
+        <v>832</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
+        <v>926</v>
+      </c>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>18</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="26">
+        <v>957</v>
+      </c>
+      <c r="F6" s="26">
+        <v>294</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>829</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>19</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="26">
+        <v>950</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>20</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="26">
+        <v>203</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>22</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>950</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>951</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="25">
+        <v>950</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>955</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>954</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>964</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>23</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="26">
+        <v>952</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>24</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="26">
+        <v>953</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
+        <v>833</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>25</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="26">
+        <v>957</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>26</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="26">
+        <v>203</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <v>27</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="26">
+        <v>950</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
+        <v>830</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>28</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="26">
+        <v>952</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>29</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="26">
+        <v>957</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>30</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="26">
+        <v>950</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26" t="s">
+        <v>831</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>31</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="26">
+        <v>952</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>32</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="26">
+        <v>957</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
+        <v>33</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="26">
+        <v>950</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26" t="s">
+        <v>835</v>
+      </c>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>34</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="26">
+        <v>953</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <v>35</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="26">
+        <v>957</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
+        <v>36</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="26">
+        <v>950</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26" t="s">
+        <v>836</v>
+      </c>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
+        <v>37</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="26">
+        <v>952</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
+        <v>38</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="26">
+        <v>957</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
+        <v>39</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="26">
+        <v>950</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26" t="s">
+        <v>837</v>
+      </c>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
+        <v>40</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="26">
+        <v>952</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
+        <v>41</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="26">
+        <v>950</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26" t="s">
+        <v>839</v>
+      </c>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26">
+        <v>42</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="26">
+        <v>952</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26">
+        <v>43</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="26">
+        <v>950</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26" t="s">
+        <v>838</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26">
+        <v>44</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="26">
+        <v>952</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
+        <v>59</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="26">
+        <v>950</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26" t="s">
+        <v>828</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26">
         <v>61</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B33" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C33" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="28">
+      <c r="D33" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="26">
         <v>950</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28" t="s">
+      <c r="F33" s="26"/>
+      <c r="G33" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28" t="s">
+      <c r="H33" s="26"/>
+      <c r="I33" s="26" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
-        <v>19</v>
-      </c>
-      <c r="B3" s="28" t="s">
+    <row r="34" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
+        <v>65</v>
+      </c>
+      <c r="B34" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="28">
-        <v>950</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
-        <v>29</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="28" t="s">
+      <c r="C34" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="26">
+        <v>974</v>
+      </c>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
+        <v>67</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="26">
+        <v>974</v>
+      </c>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26">
+        <v>68</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="26">
+        <v>974</v>
+      </c>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25">
+        <v>136</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>968</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="25">
+        <v>201</v>
+      </c>
+      <c r="F37" s="25">
+        <v>1049</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>827</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25" t="s">
+        <v>963</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26">
+        <v>152</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="26">
+        <v>1055</v>
+      </c>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26" t="s">
+        <v>840</v>
+      </c>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
+        <v>157</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>847</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>974</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="34">
+        <v>951</v>
+      </c>
+      <c r="F39" s="34">
         <v>262</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="28">
-        <v>957</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
-        <v>136</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="28">
-        <v>201</v>
-      </c>
-      <c r="F5" s="28">
-        <v>1049</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>827</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28" t="s">
-        <v>953</v>
-      </c>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
-        <v>65</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="28">
-        <v>974</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <v>67</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="28">
-        <v>974</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
-        <v>68</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="28">
-        <v>974</v>
-      </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
-        <v>59</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="28">
-        <v>950</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28" t="s">
-        <v>828</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
-        <v>22</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="28">
-        <v>950</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>829</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
-        <v>27</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="28">
-        <v>950</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28" t="s">
-        <v>830</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
-        <v>30</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="28">
-        <v>950</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28" t="s">
-        <v>831</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
-        <v>16</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="28">
-        <v>952</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
-        <v>28</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="28">
-        <v>952</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
-        <v>31</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="28">
-        <v>952</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
-        <v>37</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="28">
-        <v>952</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
-        <v>40</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="28">
-        <v>952</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
-        <v>44</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="28">
-        <v>952</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
-        <v>17</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="28">
-        <v>953</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
-        <v>24</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="28">
-        <v>953</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
-        <v>15</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="28">
-        <v>950</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28" t="s">
-        <v>834</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
-        <v>33</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="28">
-        <v>950</v>
-      </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28" t="s">
-        <v>835</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
-        <v>36</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="28">
-        <v>950</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28" t="s">
-        <v>836</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
-        <v>39</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="28">
-        <v>950</v>
-      </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28" t="s">
-        <v>837</v>
-      </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
-        <v>43</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="28">
-        <v>950</v>
-      </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28" t="s">
-        <v>838</v>
-      </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
-        <v>1</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="28">
-        <v>203</v>
-      </c>
-      <c r="F26" s="28">
-        <v>1048</v>
-      </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
-        <v>20</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="28">
-        <v>203</v>
-      </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
-        <v>25</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="28">
-        <v>957</v>
-      </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
-        <v>32</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="28">
-        <v>957</v>
-      </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28">
-        <v>35</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="28">
-        <v>957</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
-        <v>38</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="28">
-        <v>957</v>
-      </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
-        <v>23</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="28">
-        <v>952</v>
-      </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
-        <v>34</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="28">
-        <v>953</v>
-      </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28">
-        <v>42</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="28">
-        <v>952</v>
-      </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28">
-        <v>41</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="28">
-        <v>950</v>
-      </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28" t="s">
-        <v>839</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28">
-        <v>26</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="28">
-        <v>203</v>
-      </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
-        <v>18</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="28">
-        <v>957</v>
-      </c>
-      <c r="F37" s="28">
-        <v>294</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>829</v>
-      </c>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28">
-        <v>152</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="28">
-        <v>1055</v>
-      </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28" t="s">
-        <v>840</v>
-      </c>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34">
-        <v>166</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="34">
-        <v>950</v>
-      </c>
-      <c r="F39" s="34">
-        <v>259</v>
-      </c>
       <c r="G39" s="34" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="H39" s="34"/>
       <c r="I39" s="34" t="s">
+        <v>973</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26">
+        <v>162</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>841</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>842</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="26">
+        <v>953</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>843</v>
+      </c>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="25">
+        <v>163</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>851</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>852</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="25">
+        <v>952</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>843</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>956</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="28">
+        <v>166</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="28">
+        <v>950</v>
+      </c>
+      <c r="F42" s="28">
+        <v>259</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28">
+        <v>167</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="28">
+        <v>950</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="26">
+        <v>168</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>845</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>846</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="26">
+        <v>953</v>
+      </c>
+      <c r="F44" s="26">
+        <v>266</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28">
-        <v>162</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>842</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="28">
-        <v>953</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>843</v>
-      </c>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28">
-        <v>168</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>845</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="28">
-        <v>953</v>
-      </c>
-      <c r="F41" s="28">
-        <v>266</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34">
-        <v>157</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>847</v>
-      </c>
-      <c r="C42" s="34" t="s">
+    <row r="45" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28">
+        <v>171</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="28" t="s">
         <v>848</v>
       </c>
-      <c r="D42" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="34">
+      <c r="D45" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="28">
         <v>951</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F45" s="28">
         <v>262</v>
       </c>
-      <c r="G42" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34">
-        <v>167</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>849</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="34">
-        <v>950</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="G43" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34">
-        <v>171</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>848</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="34">
-        <v>951</v>
-      </c>
-      <c r="F44" s="34">
-        <v>262</v>
-      </c>
-      <c r="G44" s="34" t="s">
+      <c r="G45" s="28" t="s">
         <v>850</v>
       </c>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="27">
-        <v>163</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>851</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>852</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="27">
-        <v>952</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>843</v>
-      </c>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="28"/>
+      <c r="I45" s="28" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28">
-        <v>260</v>
+        <v>179</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>853</v>
+        <v>76</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>854</v>
+        <v>907</v>
       </c>
       <c r="D46" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E46" s="28">
-        <v>1977</v>
+        <v>201</v>
       </c>
       <c r="F46" s="28">
-        <v>1977</v>
+        <v>1049</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>855</v>
+        <v>76</v>
       </c>
       <c r="H46" s="28"/>
       <c r="I46" s="28" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="27">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="25">
+        <v>183</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>865</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="25">
+        <v>950</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="25">
+        <v>184</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>898</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="25">
+        <v>951</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>899</v>
+      </c>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="25">
+        <v>185</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="25">
+        <v>952</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="25">
         <v>186</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B50" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C50" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="D47" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="27">
+      <c r="D50" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="25">
         <v>953</v>
       </c>
-      <c r="F47" s="27" t="s">
+      <c r="F50" s="25" t="s">
         <v>856</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="G50" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34">
-        <v>201</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>857</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="34">
-        <v>1673</v>
-      </c>
-      <c r="F48" s="34">
-        <v>673</v>
-      </c>
-      <c r="G48" s="34" t="s">
-        <v>858</v>
-      </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="27">
-        <v>276</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>859</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>860</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="27">
-        <v>951</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27">
-        <v>293</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>861</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>862</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="27">
-        <v>202</v>
-      </c>
-      <c r="F50" s="27">
-        <v>24</v>
-      </c>
-      <c r="G50" s="27" t="s">
-        <v>843</v>
-      </c>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27" t="s">
-        <v>951</v>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27">
-        <v>312</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>842</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>863</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="27">
-        <v>953</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G51" s="27" t="s">
-        <v>864</v>
-      </c>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27" t="s">
-        <v>952</v>
+      <c r="A51" s="28">
+        <v>197</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>884</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="28">
+        <v>955</v>
+      </c>
+      <c r="F51" s="28">
+        <v>269</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>885</v>
+      </c>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="27">
-        <v>183</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>865</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="27">
-        <v>950</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="G52" s="27" t="s">
+      <c r="A52" s="25">
+        <v>198</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>886</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="25">
+        <v>955</v>
+      </c>
+      <c r="F52" s="25">
+        <v>269</v>
+      </c>
+      <c r="G52" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27" t="s">
-        <v>935</v>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="27">
-        <v>295</v>
+      <c r="A53" s="24">
+        <v>199</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>866</v>
+        <v>896</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>862</v>
+        <v>897</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>867</v>
+        <v>69</v>
       </c>
       <c r="E53" s="27">
-        <v>202</v>
+        <v>955</v>
       </c>
       <c r="F53" s="27">
-        <v>24</v>
+        <v>269</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>868</v>
+        <v>896</v>
       </c>
       <c r="H53" s="27"/>
       <c r="I53" s="27" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28">
-        <v>263</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>869</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="28">
-        <v>1976</v>
-      </c>
-      <c r="F54" s="28">
-        <v>1976</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>869</v>
-      </c>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28" t="s">
-        <v>937</v>
+      <c r="A54" s="25">
+        <v>200</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="25">
+        <v>235</v>
+      </c>
+      <c r="F54" s="25">
+        <v>1100</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="29">
-        <v>294</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>870</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>862</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="29">
-        <v>202</v>
-      </c>
-      <c r="F55" s="29">
-        <v>24</v>
-      </c>
-      <c r="G55" s="29" t="s">
-        <v>871</v>
-      </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29" t="s">
-        <v>872</v>
+      <c r="A55" s="28">
+        <v>201</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>857</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="28">
+        <v>1673</v>
+      </c>
+      <c r="F55" s="28">
+        <v>673</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>858</v>
+      </c>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="29">
-        <v>297</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>873</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>874</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="29">
-        <v>202</v>
-      </c>
-      <c r="F56" s="29">
-        <v>24</v>
-      </c>
-      <c r="G56" s="29" t="s">
-        <v>875</v>
-      </c>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29" t="s">
-        <v>876</v>
+      <c r="A56" s="25">
+        <v>208</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>900</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="25">
+        <v>235</v>
+      </c>
+      <c r="F56" s="25">
+        <v>1100</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="29">
-        <v>298</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>877</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>874</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E57" s="29">
-        <v>202</v>
-      </c>
-      <c r="F57" s="29">
-        <v>24</v>
-      </c>
-      <c r="G57" s="29" t="s">
-        <v>878</v>
-      </c>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29" t="s">
-        <v>879</v>
+      <c r="A57" s="27">
+        <v>209</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>900</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="27">
+        <v>235</v>
+      </c>
+      <c r="F57" s="27">
+        <v>1100</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="29">
-        <v>299</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>880</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>862</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E58" s="29">
-        <v>202</v>
-      </c>
-      <c r="F58" s="29">
-        <v>24</v>
-      </c>
-      <c r="G58" s="29" t="s">
-        <v>881</v>
-      </c>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29" t="s">
-        <v>879</v>
+      <c r="A58" s="27">
+        <v>210</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>900</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="27">
+        <v>235</v>
+      </c>
+      <c r="F58" s="27">
+        <v>1100</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="29">
-        <v>300</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>882</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>874</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59" s="29">
-        <v>202</v>
-      </c>
-      <c r="F59" s="29">
-        <v>24</v>
-      </c>
-      <c r="G59" s="29" t="s">
-        <v>883</v>
-      </c>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29" t="s">
-        <v>879</v>
+      <c r="A59" s="27">
+        <v>211</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="27">
+        <v>235</v>
+      </c>
+      <c r="F59" s="27">
+        <v>1100</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="34">
-        <v>197</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>884</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E60" s="34">
-        <v>955</v>
-      </c>
-      <c r="F60" s="34">
-        <v>269</v>
-      </c>
-      <c r="G60" s="34" t="s">
-        <v>885</v>
-      </c>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34" t="s">
+      <c r="A60" s="27">
+        <v>212</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="27">
+        <v>235</v>
+      </c>
+      <c r="F60" s="27">
+        <v>1100</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>886</v>
+        <v>109</v>
       </c>
       <c r="D61" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E61" s="27">
-        <v>955</v>
+        <v>235</v>
       </c>
       <c r="F61" s="27">
-        <v>269</v>
+        <v>1100</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H61" s="27"/>
       <c r="I61" s="27" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="27">
+      <c r="A62" s="26">
+        <v>260</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>853</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>854</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="26">
+        <v>1977</v>
+      </c>
+      <c r="F62" s="26">
+        <v>1977</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>855</v>
+      </c>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26">
+        <v>263</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>869</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="26">
+        <v>1976</v>
+      </c>
+      <c r="F63" s="26">
+        <v>1976</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>869</v>
+      </c>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="25">
+        <v>275</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>901</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="25">
+        <v>951</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="I64" s="25" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="25">
+        <v>276</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>859</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>860</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="25">
+        <v>951</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="I65" s="25" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="25">
         <v>277</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B66" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C66" s="25" t="s">
         <v>860</v>
       </c>
-      <c r="D62" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="27">
+      <c r="D66" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="25">
         <v>951</v>
       </c>
-      <c r="F62" s="27">
+      <c r="F66" s="25">
         <v>263</v>
       </c>
-      <c r="G62" s="27" t="s">
+      <c r="G66" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27" t="s">
+      <c r="H66" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="I66" s="25" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="25">
+        <v>278</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="25">
         <v>951</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="27">
-        <v>278</v>
-      </c>
-      <c r="B63" s="27" t="s">
+      <c r="F67" s="25">
+        <v>263</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>887</v>
+      </c>
+      <c r="H67" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="I67" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="25">
+        <v>279</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>888</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>860</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="25">
+        <v>951</v>
+      </c>
+      <c r="F68" s="25">
+        <v>263</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>889</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="I68" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="25">
+        <v>280</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D63" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="27">
+      <c r="D69" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="25">
         <v>951</v>
       </c>
-      <c r="F63" s="27">
+      <c r="F69" s="25">
         <v>263</v>
       </c>
-      <c r="G63" s="27" t="s">
-        <v>887</v>
-      </c>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="27">
-        <v>279</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>888</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>860</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="27">
+      <c r="G69" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="I69" s="25" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="25">
+        <v>281</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="25">
         <v>951</v>
       </c>
-      <c r="F64" s="27">
+      <c r="F70" s="25">
         <v>263</v>
       </c>
-      <c r="G64" s="27" t="s">
-        <v>889</v>
-      </c>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="27">
-        <v>280</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C65" s="27" t="s">
+      <c r="G70" s="25" t="s">
+        <v>890</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="I70" s="25" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="25">
+        <v>282</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D65" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="27">
+      <c r="D71" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="25">
         <v>951</v>
       </c>
-      <c r="F65" s="27">
+      <c r="F71" s="25">
         <v>263</v>
       </c>
-      <c r="G65" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27" t="s">
+      <c r="G71" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="I71" s="25" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="25">
+        <v>283</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="25">
         <v>951</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="27">
-        <v>281</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="C66" s="27" t="s">
+      <c r="F72" s="25">
+        <v>263</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>960</v>
+      </c>
+      <c r="I72" s="25"/>
+    </row>
+    <row r="73" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="25">
+        <v>284</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D66" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" s="27">
+      <c r="D73" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="25">
         <v>951</v>
       </c>
-      <c r="F66" s="27">
+      <c r="F73" s="25">
         <v>263</v>
       </c>
-      <c r="G66" s="27" t="s">
-        <v>890</v>
-      </c>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="27">
-        <v>282</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="27">
-        <v>951</v>
-      </c>
-      <c r="F67" s="27">
-        <v>263</v>
-      </c>
-      <c r="G67" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="27">
-        <v>283</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E68" s="27">
-        <v>951</v>
-      </c>
-      <c r="F68" s="27">
-        <v>263</v>
-      </c>
-      <c r="G68" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-    </row>
-    <row r="69" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="27">
-        <v>284</v>
-      </c>
-      <c r="B69" s="27" t="s">
+      <c r="G73" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="H73" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="C69" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E69" s="27">
-        <v>951</v>
-      </c>
-      <c r="F69" s="27">
-        <v>263</v>
-      </c>
-      <c r="G69" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-    </row>
-    <row r="70" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="27">
-        <v>285</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70" s="27">
-        <v>951</v>
-      </c>
-      <c r="F70" s="27">
-        <v>263</v>
-      </c>
-      <c r="G70" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-    </row>
-    <row r="71" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="27">
-        <v>286</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E71" s="27">
-        <v>951</v>
-      </c>
-      <c r="F71" s="27">
-        <v>263</v>
-      </c>
-      <c r="G71" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-    </row>
-    <row r="72" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="27">
-        <v>287</v>
-      </c>
-      <c r="B72" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>842</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="27">
-        <v>953</v>
-      </c>
-      <c r="F72" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G72" s="27" t="s">
-        <v>893</v>
-      </c>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-    </row>
-    <row r="73" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="29">
-        <v>296</v>
-      </c>
-      <c r="B73" s="29" t="s">
-        <v>894</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>874</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" s="29">
-        <v>202</v>
-      </c>
-      <c r="F73" s="29">
-        <v>24</v>
-      </c>
-      <c r="G73" s="29" t="s">
-        <v>895</v>
-      </c>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29" t="s">
-        <v>879</v>
-      </c>
+      <c r="I73" s="25"/>
     </row>
     <row r="74" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
-        <v>199</v>
-      </c>
-      <c r="B74" s="29" t="s">
-        <v>896</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>897</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="29">
-        <v>955</v>
-      </c>
-      <c r="F74" s="29">
-        <v>269</v>
-      </c>
-      <c r="G74" s="29" t="s">
-        <v>896</v>
-      </c>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29" t="s">
-        <v>940</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>891</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="25">
+        <v>951</v>
+      </c>
+      <c r="F74" s="25">
+        <v>263</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="I74" s="25"/>
     </row>
     <row r="75" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="27">
-        <v>184</v>
-      </c>
-      <c r="B75" s="27" t="s">
-        <v>898</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E75" s="27">
+      <c r="A75" s="25">
+        <v>286</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="25">
         <v>951</v>
       </c>
-      <c r="F75" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="G75" s="27" t="s">
-        <v>899</v>
-      </c>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27" t="s">
-        <v>946</v>
-      </c>
+      <c r="F75" s="25">
+        <v>263</v>
+      </c>
+      <c r="G75" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="H75" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="I75" s="25"/>
     </row>
     <row r="76" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="29">
-        <v>209</v>
-      </c>
-      <c r="B76" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>900</v>
-      </c>
-      <c r="D76" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="29">
-        <v>235</v>
-      </c>
-      <c r="F76" s="29">
-        <v>1100</v>
-      </c>
-      <c r="G76" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29" t="s">
-        <v>941</v>
-      </c>
+      <c r="A76" s="25">
+        <v>287</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>892</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>842</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="25">
+        <v>953</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>893</v>
+      </c>
+      <c r="H76" s="25" t="s">
+        <v>961</v>
+      </c>
+      <c r="I76" s="25"/>
     </row>
     <row r="77" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="29">
-        <v>210</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C77" s="29" t="s">
-        <v>900</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="29">
-        <v>235</v>
-      </c>
-      <c r="F77" s="29">
-        <v>1100</v>
-      </c>
-      <c r="G77" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29" t="s">
-        <v>942</v>
+      <c r="A77" s="26">
+        <v>288</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>902</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>863</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="26">
+        <v>953</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>903</v>
+      </c>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="29">
-        <v>211</v>
-      </c>
-      <c r="B78" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" s="29">
-        <v>235</v>
-      </c>
-      <c r="F78" s="29">
-        <v>1100</v>
-      </c>
-      <c r="G78" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29" t="s">
-        <v>940</v>
+      <c r="A78" s="25">
+        <v>289</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>905</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>842</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="25">
+        <v>953</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>906</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>905</v>
+      </c>
+      <c r="I78" s="25" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="29">
-        <v>212</v>
-      </c>
-      <c r="B79" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D79" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E79" s="29">
-        <v>235</v>
-      </c>
-      <c r="F79" s="29">
-        <v>1100</v>
-      </c>
-      <c r="G79" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29" t="s">
-        <v>940</v>
-      </c>
+      <c r="A79" s="25">
+        <v>290</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>909</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="25">
+        <v>952</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>912</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>962</v>
+      </c>
+      <c r="I79" s="25"/>
     </row>
     <row r="80" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="29">
-        <v>213</v>
-      </c>
-      <c r="B80" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C80" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D80" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E80" s="29">
-        <v>235</v>
-      </c>
-      <c r="F80" s="29">
-        <v>1100</v>
-      </c>
-      <c r="G80" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="27">
-        <v>275</v>
-      </c>
-      <c r="B81" s="27" t="s">
-        <v>901</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E81" s="27">
-        <v>951</v>
-      </c>
-      <c r="F81" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="G81" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="27">
-        <v>200</v>
-      </c>
-      <c r="B82" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E82" s="27">
-        <v>235</v>
-      </c>
-      <c r="F82" s="27">
-        <v>1100</v>
-      </c>
-      <c r="G82" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="25">
+        <v>291</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>913</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>852</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="25">
+        <v>952</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>903</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>957</v>
+      </c>
+      <c r="I80" s="25"/>
+    </row>
+    <row r="81" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="25">
+        <v>292</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>908</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>909</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="25">
+        <v>952</v>
+      </c>
+      <c r="F81" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G81" s="25" t="s">
+        <v>910</v>
+      </c>
+      <c r="H81" s="25" t="s">
+        <v>908</v>
+      </c>
+      <c r="I81" s="25" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="25">
+        <v>293</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>861</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>862</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="25">
+        <v>202</v>
+      </c>
+      <c r="F82" s="25">
+        <v>24</v>
+      </c>
+      <c r="G82" s="25" t="s">
+        <v>843</v>
+      </c>
+      <c r="H82" s="25" t="s">
+        <v>958</v>
+      </c>
+      <c r="I82" s="25" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>109</v>
+        <v>870</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>900</v>
+        <v>862</v>
       </c>
       <c r="D83" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E83" s="27">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="F83" s="27">
-        <v>1100</v>
+        <v>24</v>
       </c>
       <c r="G83" s="27" t="s">
-        <v>118</v>
+        <v>871</v>
       </c>
       <c r="H83" s="27"/>
       <c r="I83" s="27" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="28">
-        <v>288</v>
-      </c>
-      <c r="B84" s="28" t="s">
-        <v>902</v>
-      </c>
-      <c r="C84" s="28" t="s">
-        <v>863</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E84" s="28">
-        <v>953</v>
-      </c>
-      <c r="F84" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="G84" s="28" t="s">
-        <v>903</v>
-      </c>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="25">
+        <v>295</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>866</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>862</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>867</v>
+      </c>
+      <c r="E84" s="25">
+        <v>202</v>
+      </c>
+      <c r="F84" s="25">
+        <v>24</v>
+      </c>
+      <c r="G84" s="25" t="s">
+        <v>868</v>
+      </c>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="27">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>842</v>
+        <v>874</v>
       </c>
       <c r="D85" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E85" s="27">
-        <v>953</v>
-      </c>
-      <c r="F85" s="27" t="s">
-        <v>245</v>
+        <v>202</v>
+      </c>
+      <c r="F85" s="27">
+        <v>24</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="H85" s="27"/>
       <c r="I85" s="27" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="34">
-        <v>179</v>
-      </c>
-      <c r="B86" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C86" s="34" t="s">
-        <v>907</v>
-      </c>
-      <c r="D86" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E86" s="34">
-        <v>201</v>
-      </c>
-      <c r="F86" s="34">
-        <v>1049</v>
-      </c>
-      <c r="G86" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="27">
+        <v>297</v>
+      </c>
+      <c r="B86" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>874</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="27">
+        <v>202</v>
+      </c>
+      <c r="F86" s="27">
+        <v>24</v>
+      </c>
+      <c r="G86" s="27" t="s">
+        <v>875</v>
+      </c>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27">
-        <v>185</v>
+        <v>298</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>234</v>
+        <v>877</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>234</v>
+        <v>874</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E87" s="27">
-        <v>952</v>
-      </c>
-      <c r="F87" s="27" t="s">
-        <v>232</v>
+        <v>202</v>
+      </c>
+      <c r="F87" s="27">
+        <v>24</v>
       </c>
       <c r="G87" s="27" t="s">
-        <v>63</v>
+        <v>878</v>
       </c>
       <c r="H87" s="27"/>
       <c r="I87" s="27" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>908</v>
+        <v>880</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>909</v>
+        <v>862</v>
       </c>
       <c r="D88" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E88" s="27">
-        <v>952</v>
-      </c>
-      <c r="F88" s="27" t="s">
-        <v>232</v>
+        <v>202</v>
+      </c>
+      <c r="F88" s="27">
+        <v>24</v>
       </c>
       <c r="G88" s="27" t="s">
-        <v>910</v>
+        <v>881</v>
       </c>
       <c r="H88" s="27"/>
       <c r="I88" s="27" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="27">
+        <v>300</v>
+      </c>
+      <c r="B89" s="27" t="s">
+        <v>882</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>874</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="27">
+        <v>202</v>
+      </c>
+      <c r="F89" s="27">
+        <v>24</v>
+      </c>
+      <c r="G89" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="25">
+        <v>312</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>842</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>863</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="25">
+        <v>953</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="G90" s="25" t="s">
+        <v>864</v>
+      </c>
+      <c r="H90" s="25" t="s">
+        <v>959</v>
+      </c>
+      <c r="I90" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="25">
+        <v>320</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>950</v>
+      </c>
+      <c r="C91" s="25" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="27">
-        <v>290</v>
-      </c>
-      <c r="B89" s="27" t="s">
-        <v>911</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>909</v>
-      </c>
-      <c r="D89" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E89" s="27">
+      <c r="D91" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="25">
+        <v>950</v>
+      </c>
+      <c r="F91" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G91" s="25" t="s">
         <v>952</v>
       </c>
-      <c r="F89" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="G89" s="27" t="s">
-        <v>912</v>
-      </c>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-    </row>
-    <row r="90" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="27">
-        <v>291</v>
-      </c>
-      <c r="B90" s="27" t="s">
-        <v>913</v>
-      </c>
-      <c r="C90" s="27" t="s">
-        <v>852</v>
-      </c>
-      <c r="D90" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E90" s="27">
-        <v>952</v>
-      </c>
-      <c r="F90" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="G90" s="27" t="s">
-        <v>903</v>
-      </c>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-    </row>
-    <row r="91" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I92" s="26" t="s">
+      <c r="H91" s="25" t="s">
+        <v>953</v>
+      </c>
+      <c r="I91" s="25" t="s">
+        <v>963</v>
+      </c>
+      <c r="J91" s="31" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I92" s="32" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I94" s="30" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I95" s="31" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I96" s="32" t="s">
-        <v>949</v>
+    <row r="93" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I94" s="26" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I95" s="25" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I96" s="27" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="97" spans="9:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I97" s="33"/>
+      <c r="I97" s="24"/>
     </row>
   </sheetData>
+  <sortState ref="A2:I97">
+    <sortCondition ref="A59"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="979">
   <si>
     <t>8</t>
   </si>
@@ -3631,17 +3631,29 @@
     <t>5-10-1400</t>
   </si>
   <si>
-    <t xml:space="preserve">confirmed </t>
-  </si>
-  <si>
     <t>F5FINANCIAL_113_951_262_GENERAL_Q1</t>
+  </si>
+  <si>
+    <t>6-10-1400</t>
+  </si>
+  <si>
+    <t>تایید نهایی شده اند</t>
+  </si>
+  <si>
+    <t>به دلایلی حذف شده اند</t>
+  </si>
+  <si>
+    <t>DELETE(copy for 275)</t>
+  </si>
+  <si>
+    <t>DELETE(copy for 276)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3726,8 +3738,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3803,6 +3822,16 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -3843,13 +3872,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3939,18 +3970,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="Accent1" xfId="5" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -11249,10 +11291,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11266,7 +11308,7 @@
     <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>797</v>
       </c>
@@ -11298,7 +11340,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -11323,7 +11365,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>15</v>
       </c>
@@ -11348,7 +11390,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>16</v>
       </c>
@@ -11371,7 +11413,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>17</v>
       </c>
@@ -11397,7 +11439,7 @@
       </c>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>18</v>
       </c>
@@ -11424,7 +11466,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>19</v>
       </c>
@@ -11449,7 +11491,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>20</v>
       </c>
@@ -11472,39 +11514,40 @@
         <v>926</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+    <row r="9" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36">
         <v>22</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="36" t="s">
         <v>950</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="36" t="s">
         <v>951</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="25">
+      <c r="D9" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="36">
         <v>950</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="36" t="s">
         <v>955</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="36" t="s">
         <v>954</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="36" t="s">
         <v>964</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="37" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="37"/>
+    </row>
+    <row r="10" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>23</v>
       </c>
@@ -11527,7 +11570,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>24</v>
       </c>
@@ -11552,7 +11595,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>25</v>
       </c>
@@ -11575,7 +11618,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>26</v>
       </c>
@@ -11598,7 +11641,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>27</v>
       </c>
@@ -11623,7 +11666,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>28</v>
       </c>
@@ -11646,7 +11689,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>29</v>
       </c>
@@ -12051,7 +12094,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>61</v>
       </c>
@@ -12076,7 +12119,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <v>65</v>
       </c>
@@ -12099,7 +12142,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>67</v>
       </c>
@@ -12122,7 +12165,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>68</v>
       </c>
@@ -12145,37 +12188,38 @@
         <v>920</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25">
+    <row r="37" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="36">
         <v>136</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="36" t="s">
         <v>968</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="36" t="s">
         <v>969</v>
       </c>
-      <c r="D37" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="25">
+      <c r="D37" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="36">
         <v>201</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="36">
         <v>1049</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="36" t="s">
         <v>827</v>
       </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25" t="s">
+      <c r="H37" s="36"/>
+      <c r="I37" s="36" t="s">
         <v>963</v>
       </c>
-      <c r="J37" s="31" t="s">
+      <c r="J37" s="37" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="37"/>
+    </row>
+    <row r="38" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <v>152</v>
       </c>
@@ -12200,37 +12244,37 @@
         <v>926</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33">
+    <row r="39" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
         <v>157</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="C39" s="34" t="s">
-        <v>974</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="34">
+      <c r="C39" s="33" t="s">
+        <v>973</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="33">
         <v>951</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="33">
         <v>262</v>
       </c>
-      <c r="G39" s="34" t="s">
+      <c r="G39" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34" t="s">
-        <v>973</v>
-      </c>
-      <c r="J39" s="31" t="s">
+      <c r="H39" s="33"/>
+      <c r="I39" s="33" t="s">
+        <v>977</v>
+      </c>
+      <c r="J39" s="35" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>162</v>
       </c>
@@ -12257,7 +12301,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <v>163</v>
       </c>
@@ -12286,7 +12330,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>166</v>
       </c>
@@ -12313,7 +12357,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>167</v>
       </c>
@@ -12340,7 +12384,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <v>168</v>
       </c>
@@ -12367,34 +12411,38 @@
         <v>928</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28">
+    <row r="45" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="33">
         <v>171</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="33" t="s">
         <v>848</v>
       </c>
-      <c r="D45" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="28">
+      <c r="D45" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="33">
         <v>951</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="33">
         <v>262</v>
       </c>
-      <c r="G45" s="28" t="s">
+      <c r="G45" s="33" t="s">
         <v>850</v>
       </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="33"/>
+      <c r="I45" s="33" t="s">
+        <v>978</v>
+      </c>
+      <c r="J45" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="K45" s="35"/>
+    </row>
+    <row r="46" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28">
         <v>179</v>
       </c>
@@ -12421,7 +12469,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
         <v>183</v>
       </c>
@@ -12448,7 +12496,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <v>184</v>
       </c>
@@ -12475,7 +12523,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
         <v>185</v>
       </c>
@@ -12502,7 +12550,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
         <v>186</v>
       </c>
@@ -12529,7 +12577,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
         <v>197</v>
       </c>
@@ -12556,7 +12604,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <v>198</v>
       </c>
@@ -12583,7 +12631,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>199</v>
       </c>
@@ -12610,7 +12658,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25">
         <v>200</v>
       </c>
@@ -12637,7 +12685,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
         <v>201</v>
       </c>
@@ -12664,7 +12712,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
         <v>208</v>
       </c>
@@ -12691,7 +12739,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27">
         <v>209</v>
       </c>
@@ -12718,7 +12766,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27">
         <v>210</v>
       </c>
@@ -12745,7 +12793,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27">
         <v>211</v>
       </c>
@@ -12772,7 +12820,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27">
         <v>212</v>
       </c>
@@ -12799,7 +12847,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27">
         <v>213</v>
       </c>
@@ -12826,7 +12874,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="26">
         <v>260</v>
       </c>
@@ -12853,7 +12901,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="26">
         <v>263</v>
       </c>
@@ -12880,65 +12928,72 @@
         <v>935</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="25">
+    <row r="64" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="36">
         <v>275</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="36" t="s">
         <v>901</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="D64" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="25">
+      <c r="D64" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="36">
         <v>951</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F64" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="G64" s="25" t="s">
+      <c r="G64" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="H64" s="25" t="s">
+      <c r="H64" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="I64" s="25" t="s">
+      <c r="I64" s="36" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="25">
+      <c r="J64" s="37" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="36">
         <v>276</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="36" t="s">
         <v>859</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="36" t="s">
         <v>860</v>
       </c>
-      <c r="D65" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="25">
+      <c r="D65" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="36">
         <v>951</v>
       </c>
-      <c r="F65" s="25" t="s">
+      <c r="F65" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="G65" s="25" t="s">
+      <c r="G65" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="H65" s="25" t="s">
+      <c r="H65" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="I65" s="25" t="s">
+      <c r="I65" s="36" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J65" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="K65" s="37"/>
+    </row>
+    <row r="66" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
         <v>277</v>
       </c>
@@ -12967,7 +13022,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
         <v>278</v>
       </c>
@@ -12996,7 +13051,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25">
         <v>279</v>
       </c>
@@ -13025,7 +13080,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25">
         <v>280</v>
       </c>
@@ -13054,7 +13109,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25">
         <v>281</v>
       </c>
@@ -13083,7 +13138,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
         <v>282</v>
       </c>
@@ -13112,7 +13167,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
         <v>283</v>
       </c>
@@ -13139,7 +13194,7 @@
       </c>
       <c r="I72" s="25"/>
     </row>
-    <row r="73" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25">
         <v>284</v>
       </c>
@@ -13166,7 +13221,7 @@
       </c>
       <c r="I73" s="25"/>
     </row>
-    <row r="74" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
         <v>285</v>
       </c>
@@ -13193,7 +13248,7 @@
       </c>
       <c r="I74" s="25"/>
     </row>
-    <row r="75" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
         <v>286</v>
       </c>
@@ -13220,7 +13275,7 @@
       </c>
       <c r="I75" s="25"/>
     </row>
-    <row r="76" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
         <v>287</v>
       </c>
@@ -13247,7 +13302,7 @@
       </c>
       <c r="I76" s="25"/>
     </row>
-    <row r="77" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="26">
         <v>288</v>
       </c>
@@ -13274,7 +13329,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25">
         <v>289</v>
       </c>
@@ -13303,7 +13358,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25">
         <v>290</v>
       </c>
@@ -13330,7 +13385,7 @@
       </c>
       <c r="I79" s="25"/>
     </row>
-    <row r="80" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25">
         <v>291</v>
       </c>
@@ -13357,7 +13412,7 @@
       </c>
       <c r="I80" s="25"/>
     </row>
-    <row r="81" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25">
         <v>292</v>
       </c>
@@ -13386,7 +13441,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25">
         <v>293</v>
       </c>
@@ -13415,7 +13470,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27">
         <v>294</v>
       </c>
@@ -13442,7 +13497,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25">
         <v>295</v>
       </c>
@@ -13469,7 +13524,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="27">
         <v>296</v>
       </c>
@@ -13496,7 +13551,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27">
         <v>297</v>
       </c>
@@ -13523,7 +13578,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27">
         <v>298</v>
       </c>
@@ -13550,7 +13605,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27">
         <v>299</v>
       </c>
@@ -13577,7 +13632,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27">
         <v>300</v>
       </c>
@@ -13604,7 +13659,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25">
         <v>312</v>
       </c>
@@ -13633,61 +13688,69 @@
         <v>949</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="25">
+    <row r="91" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="36">
         <v>320</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="36" t="s">
         <v>950</v>
       </c>
-      <c r="C91" s="25" t="s">
+      <c r="C91" s="36" t="s">
         <v>951</v>
       </c>
-      <c r="D91" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E91" s="25">
+      <c r="D91" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="36">
         <v>950</v>
       </c>
-      <c r="F91" s="25" t="s">
+      <c r="F91" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="G91" s="25" t="s">
+      <c r="G91" s="36" t="s">
         <v>952</v>
       </c>
-      <c r="H91" s="25" t="s">
+      <c r="H91" s="36" t="s">
         <v>953</v>
       </c>
-      <c r="I91" s="25" t="s">
+      <c r="I91" s="36" t="s">
         <v>963</v>
       </c>
-      <c r="J91" s="31" t="s">
+      <c r="J91" s="37" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I92" s="32" t="s">
+      <c r="K91" s="37"/>
+    </row>
+    <row r="92" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I92" s="31" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I93" s="34" t="s">
+        <v>976</v>
+      </c>
+      <c r="J93" s="24"/>
+    </row>
+    <row r="94" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I94" s="26" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I95" s="25" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I96" s="27" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="97" spans="9:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I97" s="24"/>
+      <c r="I97" s="36" t="s">
+        <v>975</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:I97">

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="980">
   <si>
     <t>8</t>
   </si>
@@ -3647,6 +3647,9 @@
   </si>
   <si>
     <t>DELETE(copy for 276)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirmed </t>
   </si>
 </sst>
 </file>
@@ -11293,8 +11296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12954,7 +12957,7 @@
         <v>213</v>
       </c>
       <c r="I64" s="36" t="s">
-        <v>948</v>
+        <v>979</v>
       </c>
       <c r="J64" s="37" t="s">
         <v>974</v>
@@ -12986,7 +12989,7 @@
         <v>176</v>
       </c>
       <c r="I65" s="36" t="s">
-        <v>948</v>
+        <v>979</v>
       </c>
       <c r="J65" s="37" t="s">
         <v>974</v>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="980">
   <si>
     <t>8</t>
   </si>
@@ -3244,9 +3244,6 @@
     <t>چاپ عمودی</t>
   </si>
   <si>
-    <t xml:space="preserve">1.FileName 2.size </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Book_Of_Account_Selected دفتر حساب تفصیلی 1 با فیلتر</t>
   </si>
   <si>
@@ -3650,6 +3647,9 @@
   </si>
   <si>
     <t xml:space="preserve">confirmed </t>
+  </si>
+  <si>
+    <t>11-10-1400</t>
   </si>
 </sst>
 </file>
@@ -11294,10 +11294,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11340,7 +11340,7 @@
         <v>826</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11365,7 +11365,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11413,7 +11413,7 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11438,7 +11438,7 @@
       </c>
       <c r="H5" s="26"/>
       <c r="I5" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -11466,7 +11466,7 @@
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="26" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="26" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11514,7 +11514,7 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11522,10 +11522,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="36" t="s">
+        <v>949</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>950</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>951</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>69</v>
@@ -11537,16 +11537,16 @@
         <v>132</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="K9" s="37"/>
     </row>
@@ -11570,7 +11570,7 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11595,7 +11595,7 @@
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11618,7 +11618,7 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11641,7 +11641,7 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="26" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11689,7 +11689,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11712,7 +11712,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11760,7 +11760,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11783,7 +11783,7 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11808,7 +11808,7 @@
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11831,7 +11831,7 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11854,7 +11854,7 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11879,7 +11879,7 @@
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11902,7 +11902,7 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11925,7 +11925,7 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11973,7 +11973,7 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11998,7 +11998,7 @@
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12021,7 +12021,7 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
       <c r="I29" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12046,7 +12046,7 @@
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12069,7 +12069,7 @@
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
       <c r="I31" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12094,10 +12094,10 @@
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="26" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>61</v>
       </c>
@@ -12119,10 +12119,10 @@
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="26" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <v>65</v>
       </c>
@@ -12142,10 +12142,10 @@
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>67</v>
       </c>
@@ -12165,10 +12165,10 @@
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
       <c r="I35" s="26" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>68</v>
       </c>
@@ -12188,18 +12188,18 @@
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
       <c r="I36" s="26" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>136</v>
       </c>
       <c r="B37" s="36" t="s">
+        <v>967</v>
+      </c>
+      <c r="C37" s="36" t="s">
         <v>968</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>969</v>
       </c>
       <c r="D37" s="36" t="s">
         <v>69</v>
@@ -12215,14 +12215,14 @@
       </c>
       <c r="H37" s="36"/>
       <c r="I37" s="36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J37" s="37" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="K37" s="37"/>
     </row>
-    <row r="38" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <v>152</v>
       </c>
@@ -12244,18 +12244,18 @@
       </c>
       <c r="H38" s="26"/>
       <c r="I38" s="26" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32">
         <v>157</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D39" s="33" t="s">
         <v>69</v>
@@ -12271,48 +12271,53 @@
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="33" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="36">
         <v>162</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="36" t="s">
         <v>841</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="36" t="s">
         <v>842</v>
       </c>
-      <c r="D40" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="26">
+      <c r="D40" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="36">
         <v>953</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="36" t="s">
         <v>843</v>
       </c>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="36"/>
+      <c r="I40" s="36" t="s">
+        <v>962</v>
+      </c>
+      <c r="J40" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="K40"/>
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <v>163</v>
       </c>
       <c r="B41" s="25" t="s">
+        <v>850</v>
+      </c>
+      <c r="C41" s="25" t="s">
         <v>851</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>852</v>
       </c>
       <c r="D41" s="25" t="s">
         <v>69</v>
@@ -12327,13 +12332,13 @@
         <v>843</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>166</v>
       </c>
@@ -12357,15 +12362,15 @@
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="28" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>167</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C43" s="28" t="s">
         <v>161</v>
@@ -12384,18 +12389,18 @@
       </c>
       <c r="H43" s="28"/>
       <c r="I43" s="28" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <v>168</v>
       </c>
       <c r="B44" s="26" t="s">
+        <v>844</v>
+      </c>
+      <c r="C44" s="26" t="s">
         <v>845</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>846</v>
       </c>
       <c r="D44" s="26" t="s">
         <v>69</v>
@@ -12411,10 +12416,10 @@
       </c>
       <c r="H44" s="26"/>
       <c r="I44" s="26" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33">
         <v>171</v>
       </c>
@@ -12422,7 +12427,7 @@
         <v>172</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D45" s="33" t="s">
         <v>69</v>
@@ -12434,18 +12439,18 @@
         <v>262</v>
       </c>
       <c r="G45" s="33" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H45" s="33"/>
       <c r="I45" s="33" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J45" s="35" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="K45" s="35"/>
     </row>
-    <row r="46" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28">
         <v>179</v>
       </c>
@@ -12453,7 +12458,7 @@
         <v>76</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D46" s="28" t="s">
         <v>69</v>
@@ -12469,10 +12474,10 @@
       </c>
       <c r="H46" s="28"/>
       <c r="I46" s="28" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
         <v>183</v>
       </c>
@@ -12480,7 +12485,7 @@
         <v>131</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>69</v>
@@ -12496,15 +12501,15 @@
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="25" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <v>184</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>210</v>
@@ -12519,11 +12524,11 @@
         <v>177</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="25" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12550,7 +12555,7 @@
       </c>
       <c r="H49" s="25"/>
       <c r="I49" s="25" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12570,14 +12575,14 @@
         <v>953</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G50" s="25" t="s">
         <v>63</v>
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="25" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12588,7 +12593,7 @@
         <v>254</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D51" s="28" t="s">
         <v>69</v>
@@ -12600,11 +12605,11 @@
         <v>269</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H51" s="28"/>
       <c r="I51" s="28" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12615,7 +12620,7 @@
         <v>254</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>69</v>
@@ -12631,7 +12636,7 @@
       </c>
       <c r="H52" s="25"/>
       <c r="I52" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12639,10 +12644,10 @@
         <v>199</v>
       </c>
       <c r="B53" s="27" t="s">
+        <v>895</v>
+      </c>
+      <c r="C53" s="27" t="s">
         <v>896</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>897</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>69</v>
@@ -12654,11 +12659,11 @@
         <v>269</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H53" s="27"/>
       <c r="I53" s="27" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12685,7 +12690,7 @@
       </c>
       <c r="H54" s="25"/>
       <c r="I54" s="25" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12696,7 +12701,7 @@
         <v>284</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D55" s="28" t="s">
         <v>69</v>
@@ -12708,11 +12713,11 @@
         <v>673</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H55" s="28"/>
       <c r="I55" s="28" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12723,7 +12728,7 @@
         <v>109</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>69</v>
@@ -12739,7 +12744,7 @@
       </c>
       <c r="H56" s="25"/>
       <c r="I56" s="25" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12750,7 +12755,7 @@
         <v>109</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>69</v>
@@ -12766,7 +12771,7 @@
       </c>
       <c r="H57" s="27"/>
       <c r="I57" s="27" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12777,7 +12782,7 @@
         <v>109</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>69</v>
@@ -12793,7 +12798,7 @@
       </c>
       <c r="H58" s="27"/>
       <c r="I58" s="27" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12820,7 +12825,7 @@
       </c>
       <c r="H59" s="27"/>
       <c r="I59" s="27" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12847,7 +12852,7 @@
       </c>
       <c r="H60" s="27"/>
       <c r="I60" s="27" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12874,7 +12879,7 @@
       </c>
       <c r="H61" s="27"/>
       <c r="I61" s="27" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12882,10 +12887,10 @@
         <v>260</v>
       </c>
       <c r="B62" s="26" t="s">
+        <v>852</v>
+      </c>
+      <c r="C62" s="26" t="s">
         <v>853</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>854</v>
       </c>
       <c r="D62" s="26" t="s">
         <v>69</v>
@@ -12897,11 +12902,11 @@
         <v>1977</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H62" s="26"/>
       <c r="I62" s="26" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12909,7 +12914,7 @@
         <v>263</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>286</v>
@@ -12924,11 +12929,11 @@
         <v>1976</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H63" s="26"/>
       <c r="I63" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12936,7 +12941,7 @@
         <v>275</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C64" s="36" t="s">
         <v>174</v>
@@ -12957,10 +12962,10 @@
         <v>213</v>
       </c>
       <c r="I64" s="36" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J64" s="37" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12968,10 +12973,10 @@
         <v>276</v>
       </c>
       <c r="B65" s="36" t="s">
+        <v>858</v>
+      </c>
+      <c r="C65" s="36" t="s">
         <v>859</v>
-      </c>
-      <c r="C65" s="36" t="s">
-        <v>860</v>
       </c>
       <c r="D65" s="36" t="s">
         <v>69</v>
@@ -12989,10 +12994,10 @@
         <v>176</v>
       </c>
       <c r="I65" s="36" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J65" s="37" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="K65" s="37"/>
     </row>
@@ -13004,7 +13009,7 @@
         <v>180</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>69</v>
@@ -13022,7 +13027,7 @@
         <v>180</v>
       </c>
       <c r="I66" s="25" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13045,13 +13050,13 @@
         <v>263</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H67" s="25" t="s">
         <v>184</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13059,10 +13064,10 @@
         <v>279</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>69</v>
@@ -13074,13 +13079,13 @@
         <v>263</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H68" s="25" t="s">
         <v>187</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13109,7 +13114,7 @@
         <v>190</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13132,13 +13137,13 @@
         <v>263</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H70" s="25" t="s">
         <v>193</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13167,7 +13172,7 @@
         <v>196</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13193,7 +13198,7 @@
         <v>198</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I72" s="25"/>
     </row>
@@ -13229,7 +13234,7 @@
         <v>285</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C74" s="25" t="s">
         <v>174</v>
@@ -13279,41 +13284,46 @@
       <c r="I75" s="25"/>
     </row>
     <row r="76" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="25">
+      <c r="A76" s="36">
         <v>287</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="36" t="s">
+        <v>891</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>842</v>
+      </c>
+      <c r="D76" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="36">
+        <v>953</v>
+      </c>
+      <c r="F76" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="G76" s="36" t="s">
         <v>892</v>
       </c>
-      <c r="C76" s="25" t="s">
-        <v>842</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="25">
-        <v>953</v>
-      </c>
-      <c r="F76" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="G76" s="25" t="s">
-        <v>893</v>
-      </c>
-      <c r="H76" s="25" t="s">
-        <v>961</v>
-      </c>
-      <c r="I76" s="25"/>
+      <c r="H76" s="36" t="s">
+        <v>960</v>
+      </c>
+      <c r="I76" s="36" t="s">
+        <v>962</v>
+      </c>
+      <c r="J76" s="37" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="77" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="26">
         <v>288</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D77" s="26" t="s">
         <v>69</v>
@@ -13325,40 +13335,40 @@
         <v>245</v>
       </c>
       <c r="G77" s="26" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H77" s="26"/>
       <c r="I77" s="26" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="26">
+        <v>289</v>
+      </c>
+      <c r="B78" s="26" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="25">
-        <v>289</v>
-      </c>
-      <c r="B78" s="25" t="s">
+      <c r="C78" s="26" t="s">
+        <v>842</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="26">
+        <v>953</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G78" s="26" t="s">
         <v>905</v>
       </c>
-      <c r="C78" s="25" t="s">
-        <v>842</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" s="25">
-        <v>953</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="G78" s="25" t="s">
-        <v>906</v>
-      </c>
-      <c r="H78" s="25" t="s">
-        <v>905</v>
-      </c>
-      <c r="I78" s="25" t="s">
-        <v>948</v>
+      <c r="H78" s="26" t="s">
+        <v>904</v>
+      </c>
+      <c r="I78" s="26" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13366,10 +13376,10 @@
         <v>290</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D79" s="25" t="s">
         <v>69</v>
@@ -13381,10 +13391,10 @@
         <v>232</v>
       </c>
       <c r="G79" s="25" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I79" s="25"/>
     </row>
@@ -13393,10 +13403,10 @@
         <v>291</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D80" s="25" t="s">
         <v>69</v>
@@ -13408,10 +13418,10 @@
         <v>232</v>
       </c>
       <c r="G80" s="25" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="I80" s="25"/>
     </row>
@@ -13420,10 +13430,10 @@
         <v>292</v>
       </c>
       <c r="B81" s="25" t="s">
+        <v>907</v>
+      </c>
+      <c r="C81" s="25" t="s">
         <v>908</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>909</v>
       </c>
       <c r="D81" s="25" t="s">
         <v>69</v>
@@ -13435,13 +13445,13 @@
         <v>232</v>
       </c>
       <c r="G81" s="25" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I81" s="25" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13449,10 +13459,10 @@
         <v>293</v>
       </c>
       <c r="B82" s="25" t="s">
+        <v>860</v>
+      </c>
+      <c r="C82" s="25" t="s">
         <v>861</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>862</v>
       </c>
       <c r="D82" s="25" t="s">
         <v>69</v>
@@ -13467,10 +13477,10 @@
         <v>843</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I82" s="25" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13478,10 +13488,10 @@
         <v>294</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D83" s="27" t="s">
         <v>69</v>
@@ -13493,11 +13503,11 @@
         <v>24</v>
       </c>
       <c r="G83" s="27" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H83" s="27"/>
       <c r="I83" s="27" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13505,13 +13515,13 @@
         <v>295</v>
       </c>
       <c r="B84" s="25" t="s">
+        <v>865</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>861</v>
+      </c>
+      <c r="D84" s="25" t="s">
         <v>866</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>862</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>867</v>
       </c>
       <c r="E84" s="25">
         <v>202</v>
@@ -13520,11 +13530,11 @@
         <v>24</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H84" s="25"/>
       <c r="I84" s="25" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13532,10 +13542,10 @@
         <v>296</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D85" s="27" t="s">
         <v>69</v>
@@ -13547,11 +13557,11 @@
         <v>24</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H85" s="27"/>
       <c r="I85" s="27" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13559,10 +13569,10 @@
         <v>297</v>
       </c>
       <c r="B86" s="27" t="s">
+        <v>872</v>
+      </c>
+      <c r="C86" s="27" t="s">
         <v>873</v>
-      </c>
-      <c r="C86" s="27" t="s">
-        <v>874</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>69</v>
@@ -13574,11 +13584,11 @@
         <v>24</v>
       </c>
       <c r="G86" s="27" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H86" s="27"/>
       <c r="I86" s="27" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13586,10 +13596,10 @@
         <v>298</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>69</v>
@@ -13601,11 +13611,11 @@
         <v>24</v>
       </c>
       <c r="G87" s="27" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H87" s="27"/>
       <c r="I87" s="27" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13613,10 +13623,10 @@
         <v>299</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D88" s="27" t="s">
         <v>69</v>
@@ -13628,11 +13638,11 @@
         <v>24</v>
       </c>
       <c r="G88" s="27" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H88" s="27"/>
       <c r="I88" s="27" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13640,10 +13650,10 @@
         <v>300</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D89" s="27" t="s">
         <v>69</v>
@@ -13655,11 +13665,11 @@
         <v>24</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H89" s="27"/>
       <c r="I89" s="27" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13670,7 +13680,7 @@
         <v>842</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D90" s="25" t="s">
         <v>69</v>
@@ -13682,13 +13692,13 @@
         <v>245</v>
       </c>
       <c r="G90" s="25" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H90" s="25" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I90" s="25" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13696,10 +13706,10 @@
         <v>320</v>
       </c>
       <c r="B91" s="36" t="s">
+        <v>949</v>
+      </c>
+      <c r="C91" s="36" t="s">
         <v>950</v>
-      </c>
-      <c r="C91" s="36" t="s">
-        <v>951</v>
       </c>
       <c r="D91" s="36" t="s">
         <v>69</v>
@@ -13711,48 +13721,48 @@
         <v>132</v>
       </c>
       <c r="G91" s="36" t="s">
+        <v>951</v>
+      </c>
+      <c r="H91" s="36" t="s">
         <v>952</v>
       </c>
-      <c r="H91" s="36" t="s">
-        <v>953</v>
-      </c>
       <c r="I91" s="36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J91" s="37" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="K91" s="37"/>
     </row>
     <row r="92" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I92" s="31" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I93" s="34" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I94" s="26" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I95" s="25" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I96" s="27" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="97" spans="9:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I97" s="36" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="979">
   <si>
     <t>8</t>
   </si>
@@ -3419,9 +3419,6 @@
   </si>
   <si>
     <t>چاپ افقی با اطلاعات کمکی</t>
-  </si>
-  <si>
-    <t>1.FileName 2.font</t>
   </si>
   <si>
     <t>BookOfAccount_113_953_MultiFormCode_GENERAL_Q1_L4.RTF</t>
@@ -11296,8 +11293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11340,7 +11337,7 @@
         <v>826</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11365,7 +11362,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11390,7 +11387,7 @@
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11413,7 +11410,7 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11438,7 +11435,7 @@
       </c>
       <c r="H5" s="26"/>
       <c r="I5" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -11466,7 +11463,7 @@
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="26" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11491,7 +11488,7 @@
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="26" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11514,7 +11511,7 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11522,10 +11519,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="36" t="s">
+        <v>948</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>949</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>950</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>69</v>
@@ -11537,16 +11534,16 @@
         <v>132</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="K9" s="37"/>
     </row>
@@ -11570,7 +11567,7 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11595,7 +11592,7 @@
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11618,7 +11615,7 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11641,7 +11638,7 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11666,7 +11663,7 @@
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="26" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11689,7 +11686,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11712,7 +11709,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11737,7 +11734,7 @@
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11760,7 +11757,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11783,7 +11780,7 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11808,7 +11805,7 @@
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11831,7 +11828,7 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11854,7 +11851,7 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11879,7 +11876,7 @@
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11902,7 +11899,7 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11925,7 +11922,7 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11950,7 +11947,7 @@
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11973,7 +11970,7 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11998,7 +11995,7 @@
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12021,7 +12018,7 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
       <c r="I29" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12046,7 +12043,7 @@
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12069,7 +12066,7 @@
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
       <c r="I31" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12094,7 +12091,7 @@
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="26" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12119,7 +12116,7 @@
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="26" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12142,7 +12139,7 @@
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12165,7 +12162,7 @@
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
       <c r="I35" s="26" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12188,7 +12185,7 @@
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
       <c r="I36" s="26" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12196,10 +12193,10 @@
         <v>136</v>
       </c>
       <c r="B37" s="36" t="s">
+        <v>966</v>
+      </c>
+      <c r="C37" s="36" t="s">
         <v>967</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>968</v>
       </c>
       <c r="D37" s="36" t="s">
         <v>69</v>
@@ -12215,10 +12212,10 @@
       </c>
       <c r="H37" s="36"/>
       <c r="I37" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J37" s="37" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="K37" s="37"/>
     </row>
@@ -12244,7 +12241,7 @@
       </c>
       <c r="H38" s="26"/>
       <c r="I38" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12255,7 +12252,7 @@
         <v>846</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D39" s="33" t="s">
         <v>69</v>
@@ -12271,10 +12268,10 @@
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="33" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12301,10 +12298,10 @@
       </c>
       <c r="H40" s="36"/>
       <c r="I40" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J40" s="37" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
@@ -12332,10 +12329,10 @@
         <v>843</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12362,7 +12359,7 @@
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="28" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12389,7 +12386,7 @@
       </c>
       <c r="H43" s="28"/>
       <c r="I43" s="28" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12416,7 +12413,7 @@
       </c>
       <c r="H44" s="26"/>
       <c r="I44" s="26" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12443,10 +12440,10 @@
       </c>
       <c r="H45" s="33"/>
       <c r="I45" s="33" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J45" s="35" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="K45" s="35"/>
     </row>
@@ -12458,7 +12455,7 @@
         <v>76</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D46" s="28" t="s">
         <v>69</v>
@@ -12474,7 +12471,7 @@
       </c>
       <c r="H46" s="28"/>
       <c r="I46" s="28" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12501,7 +12498,7 @@
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="25" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12528,7 +12525,7 @@
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="25" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12555,7 +12552,7 @@
       </c>
       <c r="H49" s="25"/>
       <c r="I49" s="25" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12582,7 +12579,7 @@
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="25" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12609,7 +12606,7 @@
       </c>
       <c r="H51" s="28"/>
       <c r="I51" s="28" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12636,7 +12633,7 @@
       </c>
       <c r="H52" s="25"/>
       <c r="I52" s="25" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12663,7 +12660,7 @@
       </c>
       <c r="H53" s="27"/>
       <c r="I53" s="27" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12690,7 +12687,7 @@
       </c>
       <c r="H54" s="25"/>
       <c r="I54" s="25" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12717,7 +12714,7 @@
       </c>
       <c r="H55" s="28"/>
       <c r="I55" s="28" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12744,7 +12741,7 @@
       </c>
       <c r="H56" s="25"/>
       <c r="I56" s="25" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12771,7 +12768,7 @@
       </c>
       <c r="H57" s="27"/>
       <c r="I57" s="27" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12798,7 +12795,7 @@
       </c>
       <c r="H58" s="27"/>
       <c r="I58" s="27" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12825,7 +12822,7 @@
       </c>
       <c r="H59" s="27"/>
       <c r="I59" s="27" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12852,7 +12849,7 @@
       </c>
       <c r="H60" s="27"/>
       <c r="I60" s="27" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12879,7 +12876,7 @@
       </c>
       <c r="H61" s="27"/>
       <c r="I61" s="27" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12906,7 +12903,7 @@
       </c>
       <c r="H62" s="26"/>
       <c r="I62" s="26" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12933,7 +12930,7 @@
       </c>
       <c r="H63" s="26"/>
       <c r="I63" s="26" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12962,10 +12959,10 @@
         <v>213</v>
       </c>
       <c r="I64" s="36" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J64" s="37" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12994,10 +12991,10 @@
         <v>176</v>
       </c>
       <c r="I65" s="36" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J65" s="37" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="K65" s="37"/>
     </row>
@@ -13027,7 +13024,7 @@
         <v>180</v>
       </c>
       <c r="I66" s="25" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13056,7 +13053,7 @@
         <v>184</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13085,7 +13082,7 @@
         <v>187</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13114,7 +13111,7 @@
         <v>190</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13143,7 +13140,7 @@
         <v>193</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13172,7 +13169,7 @@
         <v>196</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13198,7 +13195,7 @@
         <v>198</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I72" s="25"/>
     </row>
@@ -13306,40 +13303,43 @@
         <v>892</v>
       </c>
       <c r="H76" s="36" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I76" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J76" s="37" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="26">
+      <c r="A77" s="36">
         <v>288</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="36" t="s">
         <v>901</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="36" t="s">
         <v>862</v>
       </c>
-      <c r="D77" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="26">
+      <c r="D77" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="36">
         <v>953</v>
       </c>
-      <c r="F77" s="26" t="s">
+      <c r="F77" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="G77" s="26" t="s">
+      <c r="G77" s="36" t="s">
         <v>902</v>
       </c>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26" t="s">
-        <v>903</v>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36" t="s">
+        <v>961</v>
+      </c>
+      <c r="J77" s="37" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13347,7 +13347,7 @@
         <v>289</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>842</v>
@@ -13362,13 +13362,13 @@
         <v>245</v>
       </c>
       <c r="G78" s="26" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H78" s="26" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="I78" s="26" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13376,10 +13376,10 @@
         <v>290</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D79" s="25" t="s">
         <v>69</v>
@@ -13391,10 +13391,10 @@
         <v>232</v>
       </c>
       <c r="G79" s="25" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I79" s="25"/>
     </row>
@@ -13403,7 +13403,7 @@
         <v>291</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C80" s="25" t="s">
         <v>851</v>
@@ -13421,7 +13421,7 @@
         <v>902</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="I80" s="25"/>
     </row>
@@ -13430,10 +13430,10 @@
         <v>292</v>
       </c>
       <c r="B81" s="25" t="s">
+        <v>906</v>
+      </c>
+      <c r="C81" s="25" t="s">
         <v>907</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>908</v>
       </c>
       <c r="D81" s="25" t="s">
         <v>69</v>
@@ -13445,13 +13445,13 @@
         <v>232</v>
       </c>
       <c r="G81" s="25" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I81" s="25" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13477,10 +13477,10 @@
         <v>843</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="I82" s="25" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13534,7 +13534,7 @@
       </c>
       <c r="H84" s="25"/>
       <c r="I84" s="25" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13695,10 +13695,10 @@
         <v>863</v>
       </c>
       <c r="H90" s="25" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I90" s="25" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13706,10 +13706,10 @@
         <v>320</v>
       </c>
       <c r="B91" s="36" t="s">
+        <v>948</v>
+      </c>
+      <c r="C91" s="36" t="s">
         <v>949</v>
-      </c>
-      <c r="C91" s="36" t="s">
-        <v>950</v>
       </c>
       <c r="D91" s="36" t="s">
         <v>69</v>
@@ -13721,48 +13721,48 @@
         <v>132</v>
       </c>
       <c r="G91" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="H91" s="36" t="s">
         <v>951</v>
       </c>
-      <c r="H91" s="36" t="s">
-        <v>952</v>
-      </c>
       <c r="I91" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J91" s="37" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="K91" s="37"/>
     </row>
     <row r="92" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I92" s="31" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I93" s="34" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I94" s="26" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I95" s="25" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I96" s="27" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="97" spans="9:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I97" s="36" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
   </sheetData>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="983">
   <si>
     <t>8</t>
   </si>
@@ -3647,13 +3647,25 @@
   </si>
   <si>
     <t>11-10-1400</t>
+  </si>
+  <si>
+    <t>تاریخ انتقال به misdata</t>
+  </si>
+  <si>
+    <t>تاریخ انتقال به کارون</t>
+  </si>
+  <si>
+    <t>تاریخ انتقال به سمنان</t>
+  </si>
+  <si>
+    <t>13-10-1400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3744,6 +3756,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
     </font>
   </fonts>
   <fills count="16">
@@ -3880,7 +3898,7 @@
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3988,6 +4006,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -11291,10 +11312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11305,10 +11326,12 @@
     <col min="6" max="7" width="20.7109375" style="29" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" style="29" customWidth="1"/>
     <col min="9" max="9" width="55.7109375" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
+    <col min="10" max="10" width="9.140625" style="29"/>
+    <col min="11" max="13" width="20.7109375" style="29" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>797</v>
       </c>
@@ -11339,8 +11362,17 @@
       <c r="J1" s="22" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="38" t="s">
+        <v>979</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>980</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -11365,7 +11397,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>15</v>
       </c>
@@ -11390,7 +11422,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>16</v>
       </c>
@@ -11413,7 +11445,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>17</v>
       </c>
@@ -11439,7 +11471,7 @@
       </c>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>18</v>
       </c>
@@ -11466,7 +11498,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>19</v>
       </c>
@@ -11491,7 +11523,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>20</v>
       </c>
@@ -11514,7 +11546,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>22</v>
       </c>
@@ -11547,7 +11579,7 @@
       </c>
       <c r="K9" s="37"/>
     </row>
-    <row r="10" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>23</v>
       </c>
@@ -11570,7 +11602,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>24</v>
       </c>
@@ -11595,7 +11627,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>25</v>
       </c>
@@ -11618,7 +11650,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>26</v>
       </c>
@@ -11641,7 +11673,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>27</v>
       </c>
@@ -11666,7 +11698,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>28</v>
       </c>
@@ -11689,7 +11721,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>29</v>
       </c>
@@ -13343,32 +13375,35 @@
       </c>
     </row>
     <row r="78" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="26">
+      <c r="A78" s="36">
         <v>289</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="36" t="s">
         <v>903</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="36" t="s">
         <v>842</v>
       </c>
-      <c r="D78" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" s="26">
+      <c r="D78" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="36">
         <v>953</v>
       </c>
-      <c r="F78" s="26" t="s">
+      <c r="F78" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="G78" s="26" t="s">
+      <c r="G78" s="36" t="s">
         <v>904</v>
       </c>
-      <c r="H78" s="26" t="s">
+      <c r="H78" s="36" t="s">
         <v>903</v>
       </c>
-      <c r="I78" s="26" t="s">
-        <v>946</v>
+      <c r="I78" s="36" t="s">
+        <v>977</v>
+      </c>
+      <c r="J78" s="37" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="981">
   <si>
     <t>8</t>
   </si>
@@ -3244,9 +3244,6 @@
     <t>چاپ عمودی</t>
   </si>
   <si>
-    <t xml:space="preserve">1.FileName 2.size </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Book_Of_Account_Selected دفتر حساب تفصیلی 1 با فیلتر</t>
   </si>
   <si>
@@ -3304,9 +3301,6 @@
     <t xml:space="preserve"> BookOfAccount_113_953_MultiFormCode_GENERAL_Q1</t>
   </si>
   <si>
-    <t>تفضیلی تست خلیلی2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> FINANCE_950_balance_Excel </t>
   </si>
   <si>
@@ -3424,9 +3418,6 @@
     <t>چاپ افقی با اطلاعات کمکی</t>
   </si>
   <si>
-    <t>1.FileName 2.font</t>
-  </si>
-  <si>
     <t>BookOfAccount_113_953_MultiFormCode_GENERAL_Q1_L4.RTF</t>
   </si>
   <si>
@@ -3496,9 +3487,6 @@
     <t xml:space="preserve">1.size 2.QueryName3.FileName 4.font   </t>
   </si>
   <si>
-    <t xml:space="preserve">1.font   2.QueryName3.FileName  </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.size 2.QueryName3.FileName  4.font </t>
   </si>
   <si>
@@ -3541,9 +3529,6 @@
     <t>1.FileName  2.QueryName</t>
   </si>
   <si>
-    <t>1.size 2.QueryName3.FileName 4.font</t>
-  </si>
-  <si>
     <t>1.FileName 2.QueryName</t>
   </si>
   <si>
@@ -3589,9 +3574,6 @@
     <t xml:space="preserve">F5VOUCHERLISTITEM_113_202_24_Q1_L1.rtf </t>
   </si>
   <si>
-    <t>BookOfAccount_113_953_MultiFormCode_GENERAL_Q1_L5.RTF</t>
-  </si>
-  <si>
     <t xml:space="preserve">DetailedBalence_113_951_MultiFormCode_GENERAL_Q1_L9.rtf </t>
   </si>
   <si>
@@ -3631,17 +3613,56 @@
     <t>5-10-1400</t>
   </si>
   <si>
+    <t>F5FINANCIAL_113_951_262_GENERAL_Q1</t>
+  </si>
+  <si>
+    <t>6-10-1400</t>
+  </si>
+  <si>
+    <t>تایید نهایی شده اند</t>
+  </si>
+  <si>
+    <t>به دلایلی حذف شده اند</t>
+  </si>
+  <si>
+    <t>DELETE(copy for 275)</t>
+  </si>
+  <si>
+    <t>DELETE(copy for 276)</t>
+  </si>
+  <si>
     <t xml:space="preserve">confirmed </t>
   </si>
   <si>
-    <t>F5FINANCIAL_113_951_262_GENERAL_Q1</t>
+    <t>11-10-1400</t>
+  </si>
+  <si>
+    <t>تاریخ انتقال به misdata</t>
+  </si>
+  <si>
+    <t>تاریخ انتقال به کارون</t>
+  </si>
+  <si>
+    <t>تاریخ انتقال به سمنان</t>
+  </si>
+  <si>
+    <t>13-10-1400</t>
+  </si>
+  <si>
+    <t>1.font   2.QueryName3.FileName  4. do not show data</t>
+  </si>
+  <si>
+    <t>1.size 2.QueryName3.FileName 4.font 5. not open</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3726,8 +3747,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3803,6 +3845,16 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -3843,13 +3895,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3939,19 +3994,43 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="12" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
+    <cellStyle name="Accent1" xfId="5" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Comma" xfId="6" builtinId="3"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11249,10 +11328,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11263,10 +11342,12 @@
     <col min="6" max="7" width="20.7109375" style="29" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" style="29" customWidth="1"/>
     <col min="9" max="9" width="55.7109375" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
+    <col min="10" max="10" width="9.140625" style="29"/>
+    <col min="11" max="13" width="20.7109375" style="29" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>797</v>
       </c>
@@ -11295,35 +11376,44 @@
         <v>826</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+        <v>959</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>975</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="26">
+      <c r="D2" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="41">
         <v>203</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="41">
         <v>1048</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>15</v>
       </c>
@@ -11345,10 +11435,10 @@
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="26" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>16</v>
       </c>
@@ -11368,10 +11458,10 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>17</v>
       </c>
@@ -11393,38 +11483,38 @@
       </c>
       <c r="H5" s="26"/>
       <c r="I5" s="26" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+    <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
         <v>18</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="26">
+      <c r="D6" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="27">
         <v>957</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="27">
         <v>294</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="27" t="s">
         <v>829</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="27"/>
+      <c r="I6" s="27" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>19</v>
       </c>
@@ -11446,10 +11536,10 @@
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="26" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>20</v>
       </c>
@@ -11469,42 +11559,43 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36">
         <v>22</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="36" t="s">
+        <v>945</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>946</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="36">
         <v>950</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>951</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="25">
+      <c r="F9" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="36" t="s">
         <v>950</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>955</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>954</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>964</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="36" t="s">
+        <v>949</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>958</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>960</v>
+      </c>
+      <c r="K9" s="37"/>
+    </row>
+    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>23</v>
       </c>
@@ -11524,10 +11615,10 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>24</v>
       </c>
@@ -11549,10 +11640,10 @@
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>25</v>
       </c>
@@ -11572,10 +11663,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>26</v>
       </c>
@@ -11595,10 +11686,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>27</v>
       </c>
@@ -11620,10 +11711,10 @@
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="26" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>28</v>
       </c>
@@ -11643,10 +11734,10 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>29</v>
       </c>
@@ -11666,7 +11757,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11691,7 +11782,7 @@
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11714,7 +11805,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11737,7 +11828,7 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11762,7 +11853,7 @@
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="26" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11785,7 +11876,7 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11808,7 +11899,7 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11833,7 +11924,7 @@
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="26" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11856,7 +11947,7 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11879,7 +11970,7 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11904,7 +11995,7 @@
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="26" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11927,7 +12018,7 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="26" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11952,7 +12043,7 @@
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="26" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11975,7 +12066,7 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
       <c r="I29" s="26" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12000,7 +12091,7 @@
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12023,7 +12114,7 @@
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
       <c r="I31" s="26" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12048,10 +12139,10 @@
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="26" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>61</v>
       </c>
@@ -12073,10 +12164,10 @@
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="26" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <v>65</v>
       </c>
@@ -12096,10 +12187,10 @@
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>67</v>
       </c>
@@ -12119,10 +12210,10 @@
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
       <c r="I35" s="26" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>68</v>
       </c>
@@ -12142,40 +12233,41 @@
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
       <c r="I36" s="26" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="36">
         <v>136</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>968</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>969</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="25">
+      <c r="B37" s="36" t="s">
+        <v>962</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>963</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="36">
         <v>201</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="36">
         <v>1049</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="36" t="s">
         <v>827</v>
       </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25" t="s">
-        <v>963</v>
-      </c>
-      <c r="J37" s="31" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="36"/>
+      <c r="I37" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="J37" s="37" t="s">
+        <v>961</v>
+      </c>
+      <c r="K37" s="37"/>
+    </row>
+    <row r="38" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <v>152</v>
       </c>
@@ -12197,75 +12289,80 @@
       </c>
       <c r="H38" s="26"/>
       <c r="I38" s="26" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
         <v>157</v>
       </c>
-      <c r="B39" s="34" t="s">
-        <v>847</v>
-      </c>
-      <c r="C39" s="34" t="s">
+      <c r="B39" s="33" t="s">
+        <v>846</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>967</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="33">
+        <v>951</v>
+      </c>
+      <c r="F39" s="33">
+        <v>262</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="J39" s="35" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="36">
+        <v>162</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>842</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="36">
+        <v>953</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>843</v>
+      </c>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="J40" s="37" t="s">
         <v>974</v>
       </c>
-      <c r="D39" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="34">
-        <v>951</v>
-      </c>
-      <c r="F39" s="34">
-        <v>262</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34" t="s">
-        <v>973</v>
-      </c>
-      <c r="J39" s="31" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26">
-        <v>162</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>841</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>842</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="26">
-        <v>953</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>843</v>
-      </c>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K40"/>
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <v>163</v>
       </c>
       <c r="B41" s="25" t="s">
+        <v>850</v>
+      </c>
+      <c r="C41" s="25" t="s">
         <v>851</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>852</v>
       </c>
       <c r="D41" s="25" t="s">
         <v>69</v>
@@ -12280,13 +12377,13 @@
         <v>843</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>166</v>
       </c>
@@ -12310,45 +12407,45 @@
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="28" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="40">
         <v>167</v>
       </c>
-      <c r="B43" s="28" t="s">
-        <v>849</v>
-      </c>
-      <c r="C43" s="28" t="s">
+      <c r="B43" s="40" t="s">
+        <v>848</v>
+      </c>
+      <c r="C43" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="28">
+      <c r="D43" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="40">
         <v>950</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="G43" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="40"/>
+      <c r="I43" s="40" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <v>168</v>
       </c>
       <c r="B44" s="26" t="s">
+        <v>844</v>
+      </c>
+      <c r="C44" s="26" t="s">
         <v>845</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>846</v>
       </c>
       <c r="D44" s="26" t="s">
         <v>69</v>
@@ -12364,64 +12461,68 @@
       </c>
       <c r="H44" s="26"/>
       <c r="I44" s="26" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="33">
         <v>171</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="28">
+      <c r="C45" s="33" t="s">
+        <v>847</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="33">
         <v>951</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="33">
         <v>262</v>
       </c>
-      <c r="G45" s="28" t="s">
-        <v>850</v>
-      </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28">
+      <c r="G45" s="33" t="s">
+        <v>849</v>
+      </c>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33" t="s">
+        <v>972</v>
+      </c>
+      <c r="J45" s="35" t="s">
+        <v>968</v>
+      </c>
+      <c r="K45" s="35"/>
+    </row>
+    <row r="46" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="40">
         <v>179</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="28" t="s">
-        <v>907</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="28">
+      <c r="C46" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="40">
         <v>201</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="40">
         <v>1049</v>
       </c>
-      <c r="G46" s="28" t="s">
+      <c r="G46" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="40"/>
+      <c r="I46" s="40" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
         <v>183</v>
       </c>
@@ -12429,7 +12530,7 @@
         <v>131</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>69</v>
@@ -12445,15 +12546,15 @@
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="25" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <v>184</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>210</v>
@@ -12468,14 +12569,14 @@
         <v>177</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="25" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
         <v>185</v>
       </c>
@@ -12499,10 +12600,10 @@
       </c>
       <c r="H49" s="25"/>
       <c r="I49" s="25" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
         <v>186</v>
       </c>
@@ -12519,79 +12620,79 @@
         <v>953</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G50" s="25" t="s">
         <v>63</v>
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="25" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="40">
         <v>197</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="40" t="s">
+        <v>882</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="40">
+        <v>955</v>
+      </c>
+      <c r="F51" s="40">
+        <v>269</v>
+      </c>
+      <c r="G51" s="40" t="s">
+        <v>883</v>
+      </c>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="27">
+        <v>198</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" s="27" t="s">
         <v>884</v>
       </c>
-      <c r="D51" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="28">
+      <c r="D52" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="27">
         <v>955</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F52" s="27">
         <v>269</v>
       </c>
-      <c r="G51" s="28" t="s">
-        <v>885</v>
-      </c>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25">
-        <v>198</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>886</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="25">
-        <v>955</v>
-      </c>
-      <c r="F52" s="25">
-        <v>269</v>
-      </c>
-      <c r="G52" s="25" t="s">
+      <c r="G52" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="24">
+      <c r="H52" s="27"/>
+      <c r="I52" s="27" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="27">
         <v>199</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>69</v>
@@ -12603,41 +12704,42 @@
         <v>269</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H53" s="27"/>
       <c r="I53" s="27" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="27">
+        <v>200</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="27">
+        <v>235</v>
+      </c>
+      <c r="F54" s="27">
+        <v>1100</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25">
-        <v>200</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="25">
-        <v>235</v>
-      </c>
-      <c r="F54" s="25">
-        <v>1100</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J54" s="39"/>
+    </row>
+    <row r="55" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
         <v>201</v>
       </c>
@@ -12645,7 +12747,7 @@
         <v>284</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D55" s="28" t="s">
         <v>69</v>
@@ -12657,41 +12759,41 @@
         <v>673</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H55" s="28"/>
       <c r="I55" s="28" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="27">
         <v>208</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="25" t="s">
-        <v>900</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="25">
+      <c r="C56" s="27" t="s">
+        <v>898</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="27">
         <v>235</v>
       </c>
-      <c r="F56" s="25">
+      <c r="F56" s="27">
         <v>1100</v>
       </c>
-      <c r="G56" s="25" t="s">
+      <c r="G56" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="27"/>
+      <c r="I56" s="27" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27">
         <v>209</v>
       </c>
@@ -12699,7 +12801,7 @@
         <v>109</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>69</v>
@@ -12715,10 +12817,10 @@
       </c>
       <c r="H57" s="27"/>
       <c r="I57" s="27" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27">
         <v>210</v>
       </c>
@@ -12726,7 +12828,7 @@
         <v>109</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>69</v>
@@ -12742,10 +12844,10 @@
       </c>
       <c r="H58" s="27"/>
       <c r="I58" s="27" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27">
         <v>211</v>
       </c>
@@ -12769,10 +12871,10 @@
       </c>
       <c r="H59" s="27"/>
       <c r="I59" s="27" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27">
         <v>212</v>
       </c>
@@ -12796,10 +12898,10 @@
       </c>
       <c r="H60" s="27"/>
       <c r="I60" s="27" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27">
         <v>213</v>
       </c>
@@ -12823,18 +12925,18 @@
       </c>
       <c r="H61" s="27"/>
       <c r="I61" s="27" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="26">
         <v>260</v>
       </c>
       <c r="B62" s="26" t="s">
+        <v>852</v>
+      </c>
+      <c r="C62" s="26" t="s">
         <v>853</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>854</v>
       </c>
       <c r="D62" s="26" t="s">
         <v>69</v>
@@ -12846,19 +12948,19 @@
         <v>1977</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H62" s="26"/>
       <c r="I62" s="26" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="26">
         <v>263</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>286</v>
@@ -12873,72 +12975,79 @@
         <v>1976</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H63" s="26"/>
       <c r="I63" s="26" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="25">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="36">
         <v>275</v>
       </c>
-      <c r="B64" s="25" t="s">
-        <v>901</v>
-      </c>
-      <c r="C64" s="25" t="s">
+      <c r="B64" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="C64" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="D64" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="25">
+      <c r="D64" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="36">
         <v>951</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F64" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="G64" s="25" t="s">
+      <c r="G64" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="H64" s="25" t="s">
+      <c r="H64" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="I64" s="25" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="25">
+      <c r="I64" s="36" t="s">
+        <v>973</v>
+      </c>
+      <c r="J64" s="37" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="36">
         <v>276</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="36" t="s">
+        <v>858</v>
+      </c>
+      <c r="C65" s="36" t="s">
         <v>859</v>
       </c>
-      <c r="C65" s="25" t="s">
-        <v>860</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="25">
+      <c r="D65" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="36">
         <v>951</v>
       </c>
-      <c r="F65" s="25" t="s">
+      <c r="F65" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="G65" s="25" t="s">
+      <c r="G65" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="H65" s="25" t="s">
+      <c r="H65" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="I65" s="25" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="36" t="s">
+        <v>973</v>
+      </c>
+      <c r="J65" s="37" t="s">
+        <v>968</v>
+      </c>
+      <c r="K65" s="37"/>
+    </row>
+    <row r="66" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
         <v>277</v>
       </c>
@@ -12946,7 +13055,7 @@
         <v>180</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>69</v>
@@ -12964,10 +13073,10 @@
         <v>180</v>
       </c>
       <c r="I66" s="25" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
         <v>278</v>
       </c>
@@ -12987,24 +13096,24 @@
         <v>263</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H67" s="25" t="s">
         <v>184</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25">
         <v>279</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>69</v>
@@ -13016,16 +13125,16 @@
         <v>263</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H68" s="25" t="s">
         <v>187</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25">
         <v>280</v>
       </c>
@@ -13051,10 +13160,10 @@
         <v>190</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25">
         <v>281</v>
       </c>
@@ -13074,16 +13183,16 @@
         <v>263</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H70" s="25" t="s">
         <v>193</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
         <v>282</v>
       </c>
@@ -13109,10 +13218,10 @@
         <v>196</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
         <v>283</v>
       </c>
@@ -13135,11 +13244,11 @@
         <v>198</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="I72" s="25"/>
     </row>
-    <row r="73" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25">
         <v>284</v>
       </c>
@@ -13166,12 +13275,12 @@
       </c>
       <c r="I73" s="25"/>
     </row>
-    <row r="74" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
         <v>285</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C74" s="25" t="s">
         <v>174</v>
@@ -13193,7 +13302,7 @@
       </c>
       <c r="I74" s="25"/>
     </row>
-    <row r="75" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
         <v>286</v>
       </c>
@@ -13220,98 +13329,109 @@
       </c>
       <c r="I75" s="25"/>
     </row>
-    <row r="76" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="25">
+    <row r="76" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="36">
         <v>287</v>
       </c>
-      <c r="B76" s="25" t="s">
-        <v>892</v>
-      </c>
-      <c r="C76" s="25" t="s">
+      <c r="B76" s="36" t="s">
+        <v>890</v>
+      </c>
+      <c r="C76" s="36" t="s">
         <v>842</v>
       </c>
-      <c r="D76" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="25">
+      <c r="D76" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="36">
         <v>953</v>
       </c>
-      <c r="F76" s="25" t="s">
+      <c r="F76" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="G76" s="25" t="s">
-        <v>893</v>
-      </c>
-      <c r="H76" s="25" t="s">
-        <v>961</v>
-      </c>
-      <c r="I76" s="25"/>
-    </row>
-    <row r="77" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="26">
+      <c r="G76" s="36" t="s">
+        <v>891</v>
+      </c>
+      <c r="H76" s="36" t="s">
+        <v>955</v>
+      </c>
+      <c r="I76" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="J76" s="37" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="36">
         <v>288</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="36" t="s">
+        <v>900</v>
+      </c>
+      <c r="C77" s="36" t="s">
+        <v>862</v>
+      </c>
+      <c r="D77" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="36">
+        <v>953</v>
+      </c>
+      <c r="F77" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="G77" s="36" t="s">
+        <v>901</v>
+      </c>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="J77" s="37" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="36">
+        <v>289</v>
+      </c>
+      <c r="B78" s="36" t="s">
         <v>902</v>
       </c>
-      <c r="C77" s="26" t="s">
-        <v>863</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="26">
+      <c r="C78" s="36" t="s">
+        <v>842</v>
+      </c>
+      <c r="D78" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="36">
         <v>953</v>
       </c>
-      <c r="F77" s="26" t="s">
+      <c r="F78" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="G77" s="26" t="s">
+      <c r="G78" s="36" t="s">
         <v>903</v>
       </c>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="25">
-        <v>289</v>
-      </c>
-      <c r="B78" s="25" t="s">
-        <v>905</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>842</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" s="25">
-        <v>953</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="G78" s="25" t="s">
-        <v>906</v>
-      </c>
-      <c r="H78" s="25" t="s">
-        <v>905</v>
-      </c>
-      <c r="I78" s="25" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="36" t="s">
+        <v>902</v>
+      </c>
+      <c r="I78" s="36" t="s">
+        <v>973</v>
+      </c>
+      <c r="J78" s="37" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25">
         <v>290</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D79" s="25" t="s">
         <v>69</v>
@@ -13323,22 +13443,22 @@
         <v>232</v>
       </c>
       <c r="G79" s="25" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="I79" s="25"/>
     </row>
-    <row r="80" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25">
         <v>291</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D80" s="25" t="s">
         <v>69</v>
@@ -13350,22 +13470,22 @@
         <v>232</v>
       </c>
       <c r="G80" s="25" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="I80" s="25"/>
     </row>
-    <row r="81" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25">
         <v>292</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D81" s="25" t="s">
         <v>69</v>
@@ -13377,53 +13497,53 @@
         <v>232</v>
       </c>
       <c r="G81" s="25" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="I81" s="25" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="25">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="27">
         <v>293</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="27" t="s">
+        <v>860</v>
+      </c>
+      <c r="C82" s="27" t="s">
         <v>861</v>
       </c>
-      <c r="C82" s="25" t="s">
-        <v>862</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E82" s="25">
+      <c r="D82" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="27">
         <v>202</v>
       </c>
-      <c r="F82" s="25">
+      <c r="F82" s="27">
         <v>24</v>
       </c>
-      <c r="G82" s="25" t="s">
+      <c r="G82" s="27" t="s">
         <v>843</v>
       </c>
-      <c r="H82" s="25" t="s">
-        <v>958</v>
-      </c>
-      <c r="I82" s="25" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="27" t="s">
+        <v>953</v>
+      </c>
+      <c r="I82" s="27" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27">
         <v>294</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D83" s="27" t="s">
         <v>69</v>
@@ -13435,49 +13555,49 @@
         <v>24</v>
       </c>
       <c r="G83" s="27" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H83" s="27"/>
       <c r="I83" s="27" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="25">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="27">
         <v>295</v>
       </c>
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="27" t="s">
+        <v>864</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>861</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>865</v>
+      </c>
+      <c r="E84" s="27">
+        <v>202</v>
+      </c>
+      <c r="F84" s="27">
+        <v>24</v>
+      </c>
+      <c r="G84" s="27" t="s">
         <v>866</v>
       </c>
-      <c r="C84" s="25" t="s">
-        <v>862</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>867</v>
-      </c>
-      <c r="E84" s="25">
-        <v>202</v>
-      </c>
-      <c r="F84" s="25">
-        <v>24</v>
-      </c>
-      <c r="G84" s="25" t="s">
-        <v>868</v>
-      </c>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H84" s="27"/>
+      <c r="I84" s="27" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="27">
         <v>296</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D85" s="27" t="s">
         <v>69</v>
@@ -13489,22 +13609,22 @@
         <v>24</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H85" s="27"/>
       <c r="I85" s="27" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27">
         <v>297</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>69</v>
@@ -13516,22 +13636,22 @@
         <v>24</v>
       </c>
       <c r="G86" s="27" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H86" s="27"/>
       <c r="I86" s="27" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27">
         <v>298</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>69</v>
@@ -13543,22 +13663,22 @@
         <v>24</v>
       </c>
       <c r="G87" s="27" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H87" s="27"/>
       <c r="I87" s="27" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27">
         <v>299</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D88" s="27" t="s">
         <v>69</v>
@@ -13570,22 +13690,22 @@
         <v>24</v>
       </c>
       <c r="G88" s="27" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="H88" s="27"/>
       <c r="I88" s="27" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27">
         <v>300</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D89" s="27" t="s">
         <v>69</v>
@@ -13597,98 +13717,78 @@
         <v>24</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="H89" s="27"/>
       <c r="I89" s="27" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="25">
-        <v>312</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>842</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>863</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E90" s="25">
-        <v>953</v>
-      </c>
-      <c r="F90" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="G90" s="25" t="s">
-        <v>864</v>
-      </c>
-      <c r="H90" s="25" t="s">
-        <v>959</v>
-      </c>
-      <c r="I90" s="25" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="36">
         <v>320</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B90" s="36" t="s">
+        <v>945</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>946</v>
+      </c>
+      <c r="D90" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="36">
         <v>950</v>
       </c>
-      <c r="C91" s="25" t="s">
-        <v>951</v>
-      </c>
-      <c r="D91" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E91" s="25">
-        <v>950</v>
-      </c>
-      <c r="F91" s="25" t="s">
+      <c r="F90" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="G91" s="25" t="s">
-        <v>952</v>
-      </c>
-      <c r="H91" s="25" t="s">
-        <v>953</v>
-      </c>
-      <c r="I91" s="25" t="s">
-        <v>963</v>
-      </c>
-      <c r="J91" s="31" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I92" s="32" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I94" s="26" t="s">
+      <c r="G90" s="36" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I95" s="25" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I96" s="27" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="97" spans="9:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I97" s="24"/>
-    </row>
+      <c r="H90" s="36" t="s">
+        <v>948</v>
+      </c>
+      <c r="I90" s="36" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I91" s="31" t="s">
+        <v>911</v>
+      </c>
+      <c r="J91" s="37" t="s">
+        <v>960</v>
+      </c>
+      <c r="K91" s="37"/>
+    </row>
+    <row r="92" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I92" s="34" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I93" s="26" t="s">
+        <v>942</v>
+      </c>
+      <c r="J93" s="24"/>
+    </row>
+    <row r="94" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I94" s="25" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I95" s="27" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I96" s="36" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A2:I97">
     <sortCondition ref="A59"/>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="981">
   <si>
     <t>8</t>
   </si>
@@ -3301,9 +3301,6 @@
     <t xml:space="preserve"> BookOfAccount_113_953_MultiFormCode_GENERAL_Q1</t>
   </si>
   <si>
-    <t>تفضیلی تست خلیلی2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> FINANCE_950_balance_Excel </t>
   </si>
   <si>
@@ -3490,9 +3487,6 @@
     <t xml:space="preserve">1.size 2.QueryName3.FileName 4.font   </t>
   </si>
   <si>
-    <t xml:space="preserve">1.font   2.QueryName3.FileName  </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.size 2.QueryName3.FileName  4.font </t>
   </si>
   <si>
@@ -3535,9 +3529,6 @@
     <t>1.FileName  2.QueryName</t>
   </si>
   <si>
-    <t>1.size 2.QueryName3.FileName 4.font</t>
-  </si>
-  <si>
     <t>1.FileName 2.QueryName</t>
   </si>
   <si>
@@ -3583,9 +3574,6 @@
     <t xml:space="preserve">F5VOUCHERLISTITEM_113_202_24_Q1_L1.rtf </t>
   </si>
   <si>
-    <t>BookOfAccount_113_953_MultiFormCode_GENERAL_Q1_L5.RTF</t>
-  </si>
-  <si>
     <t xml:space="preserve">DetailedBalence_113_951_MultiFormCode_GENERAL_Q1_L9.rtf </t>
   </si>
   <si>
@@ -3659,13 +3647,22 @@
   </si>
   <si>
     <t>13-10-1400</t>
+  </si>
+  <si>
+    <t>1.font   2.QueryName3.FileName  4. do not show data</t>
+  </si>
+  <si>
+    <t>1.size 2.QueryName3.FileName 4.font 5. not open</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3762,6 +3759,14 @@
       <color rgb="FFC00000"/>
       <name val="B Nazanin"/>
       <charset val="178"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="16">
@@ -3890,15 +3895,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4010,11 +4016,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="12" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Comma" xfId="6" builtinId="3"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11314,8 +11330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11360,41 +11376,41 @@
         <v>826</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="M1" s="38" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="26">
+      <c r="D2" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="41">
         <v>203</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="41">
         <v>1048</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26" t="s">
-        <v>968</v>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11419,7 +11435,7 @@
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11442,7 +11458,7 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11467,35 +11483,35 @@
       </c>
       <c r="H5" s="26"/>
       <c r="I5" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="27">
         <v>18</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="26">
+      <c r="D6" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="27">
         <v>957</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="27">
         <v>294</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="27" t="s">
         <v>829</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26" t="s">
-        <v>969</v>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11520,7 +11536,7 @@
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="26" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11543,7 +11559,7 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11551,10 +11567,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>69</v>
@@ -11566,16 +11582,16 @@
         <v>132</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="K9" s="37"/>
     </row>
@@ -11599,7 +11615,7 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11624,7 +11640,7 @@
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11647,7 +11663,7 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11670,7 +11686,7 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11695,7 +11711,7 @@
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="26" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11718,7 +11734,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11741,7 +11757,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11766,7 +11782,7 @@
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11789,7 +11805,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11812,7 +11828,7 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11837,7 +11853,7 @@
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11860,7 +11876,7 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11883,7 +11899,7 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11908,7 +11924,7 @@
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11931,7 +11947,7 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11954,7 +11970,7 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11979,7 +11995,7 @@
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12002,7 +12018,7 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12027,7 +12043,7 @@
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12050,7 +12066,7 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
       <c r="I29" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12075,7 +12091,7 @@
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12098,7 +12114,7 @@
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
       <c r="I31" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12123,7 +12139,7 @@
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="26" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12148,7 +12164,7 @@
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="26" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12171,7 +12187,7 @@
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12194,7 +12210,7 @@
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
       <c r="I35" s="26" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12217,7 +12233,7 @@
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
       <c r="I36" s="26" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12225,10 +12241,10 @@
         <v>136</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="D37" s="36" t="s">
         <v>69</v>
@@ -12244,10 +12260,10 @@
       </c>
       <c r="H37" s="36"/>
       <c r="I37" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="J37" s="37" t="s">
         <v>961</v>
-      </c>
-      <c r="J37" s="37" t="s">
-        <v>965</v>
       </c>
       <c r="K37" s="37"/>
     </row>
@@ -12273,7 +12289,7 @@
       </c>
       <c r="H38" s="26"/>
       <c r="I38" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12284,7 +12300,7 @@
         <v>846</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="D39" s="33" t="s">
         <v>69</v>
@@ -12300,10 +12316,10 @@
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="33" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12330,10 +12346,10 @@
       </c>
       <c r="H40" s="36"/>
       <c r="I40" s="36" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="J40" s="37" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
@@ -12361,10 +12377,10 @@
         <v>843</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12391,34 +12407,34 @@
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="28" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="40">
+        <v>167</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>848</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="40">
+        <v>950</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40" t="s">
         <v>925</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28">
-        <v>167</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="28">
-        <v>950</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12445,7 +12461,7 @@
       </c>
       <c r="H44" s="26"/>
       <c r="I44" s="26" t="s">
-        <v>926</v>
+        <v>979</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12472,38 +12488,38 @@
       </c>
       <c r="H45" s="33"/>
       <c r="I45" s="33" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="J45" s="35" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="K45" s="35"/>
     </row>
     <row r="46" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28">
+      <c r="A46" s="40">
         <v>179</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="28" t="s">
-        <v>905</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="28">
+      <c r="C46" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="40">
         <v>201</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="40">
         <v>1049</v>
       </c>
-      <c r="G46" s="28" t="s">
+      <c r="G46" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28" t="s">
-        <v>941</v>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12514,7 +12530,7 @@
         <v>131</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>69</v>
@@ -12530,7 +12546,7 @@
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="25" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12538,7 +12554,7 @@
         <v>184</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>210</v>
@@ -12553,11 +12569,11 @@
         <v>177</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="25" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12584,7 +12600,7 @@
       </c>
       <c r="H49" s="25"/>
       <c r="I49" s="25" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12611,72 +12627,72 @@
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="25" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28">
+      <c r="A51" s="40">
         <v>197</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="40" t="s">
+        <v>882</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="40">
+        <v>955</v>
+      </c>
+      <c r="F51" s="40">
+        <v>269</v>
+      </c>
+      <c r="G51" s="40" t="s">
         <v>883</v>
       </c>
-      <c r="D51" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="28">
+      <c r="H51" s="40"/>
+      <c r="I51" s="40" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="27">
+        <v>198</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="27">
         <v>955</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F52" s="27">
         <v>269</v>
       </c>
-      <c r="G51" s="28" t="s">
-        <v>884</v>
-      </c>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25">
-        <v>198</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>885</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="25">
-        <v>955</v>
-      </c>
-      <c r="F52" s="25">
-        <v>269</v>
-      </c>
-      <c r="G52" s="25" t="s">
+      <c r="G52" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25" t="s">
-        <v>935</v>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="24">
+      <c r="A53" s="27">
         <v>199</v>
       </c>
       <c r="B53" s="27" t="s">
+        <v>894</v>
+      </c>
+      <c r="C53" s="27" t="s">
         <v>895</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>896</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>69</v>
@@ -12688,39 +12704,40 @@
         <v>269</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H53" s="27"/>
       <c r="I53" s="27" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25">
+      <c r="A54" s="27">
         <v>200</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="25">
+      <c r="D54" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="27">
         <v>235</v>
       </c>
-      <c r="F54" s="25">
+      <c r="F54" s="27">
         <v>1100</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25" t="s">
-        <v>940</v>
-      </c>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27" t="s">
+        <v>938</v>
+      </c>
+      <c r="J54" s="39"/>
     </row>
     <row r="55" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
@@ -12746,34 +12763,34 @@
       </c>
       <c r="H55" s="28"/>
       <c r="I55" s="28" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25">
+      <c r="A56" s="27">
         <v>208</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="25" t="s">
-        <v>899</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="25">
+      <c r="C56" s="27" t="s">
+        <v>898</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="27">
         <v>235</v>
       </c>
-      <c r="F56" s="25">
+      <c r="F56" s="27">
         <v>1100</v>
       </c>
-      <c r="G56" s="25" t="s">
+      <c r="G56" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25" t="s">
-        <v>940</v>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12784,7 +12801,7 @@
         <v>109</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>69</v>
@@ -12800,7 +12817,7 @@
       </c>
       <c r="H57" s="27"/>
       <c r="I57" s="27" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12811,7 +12828,7 @@
         <v>109</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>69</v>
@@ -12827,7 +12844,7 @@
       </c>
       <c r="H58" s="27"/>
       <c r="I58" s="27" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12854,7 +12871,7 @@
       </c>
       <c r="H59" s="27"/>
       <c r="I59" s="27" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12881,7 +12898,7 @@
       </c>
       <c r="H60" s="27"/>
       <c r="I60" s="27" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12908,7 +12925,7 @@
       </c>
       <c r="H61" s="27"/>
       <c r="I61" s="27" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12935,7 +12952,7 @@
       </c>
       <c r="H62" s="26"/>
       <c r="I62" s="26" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12943,7 +12960,7 @@
         <v>263</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>286</v>
@@ -12958,11 +12975,11 @@
         <v>1976</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H63" s="26"/>
       <c r="I63" s="26" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12970,7 +12987,7 @@
         <v>275</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C64" s="36" t="s">
         <v>174</v>
@@ -12991,10 +13008,10 @@
         <v>213</v>
       </c>
       <c r="I64" s="36" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="J64" s="37" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13023,10 +13040,10 @@
         <v>176</v>
       </c>
       <c r="I65" s="36" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="J65" s="37" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="K65" s="37"/>
     </row>
@@ -13056,7 +13073,7 @@
         <v>180</v>
       </c>
       <c r="I66" s="25" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13079,13 +13096,13 @@
         <v>263</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H67" s="25" t="s">
         <v>184</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13093,7 +13110,7 @@
         <v>279</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>859</v>
@@ -13108,13 +13125,13 @@
         <v>263</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H68" s="25" t="s">
         <v>187</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13143,7 +13160,7 @@
         <v>190</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13166,13 +13183,13 @@
         <v>263</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H70" s="25" t="s">
         <v>193</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13201,7 +13218,7 @@
         <v>196</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13227,7 +13244,7 @@
         <v>198</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="I72" s="25"/>
     </row>
@@ -13263,7 +13280,7 @@
         <v>285</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C74" s="25" t="s">
         <v>174</v>
@@ -13317,7 +13334,7 @@
         <v>287</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C76" s="36" t="s">
         <v>842</v>
@@ -13332,16 +13349,16 @@
         <v>245</v>
       </c>
       <c r="G76" s="36" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H76" s="36" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="I76" s="36" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="J76" s="37" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13349,7 +13366,7 @@
         <v>288</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C77" s="36" t="s">
         <v>862</v>
@@ -13364,14 +13381,14 @@
         <v>245</v>
       </c>
       <c r="G77" s="36" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H77" s="36"/>
       <c r="I77" s="36" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="J77" s="37" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13379,7 +13396,7 @@
         <v>289</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C78" s="36" t="s">
         <v>842</v>
@@ -13394,16 +13411,16 @@
         <v>245</v>
       </c>
       <c r="G78" s="36" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H78" s="36" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I78" s="36" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="J78" s="37" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13411,10 +13428,10 @@
         <v>290</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D79" s="25" t="s">
         <v>69</v>
@@ -13426,10 +13443,10 @@
         <v>232</v>
       </c>
       <c r="G79" s="25" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="I79" s="25"/>
     </row>
@@ -13438,7 +13455,7 @@
         <v>291</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C80" s="25" t="s">
         <v>851</v>
@@ -13453,10 +13470,10 @@
         <v>232</v>
       </c>
       <c r="G80" s="25" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="I80" s="25"/>
     </row>
@@ -13465,10 +13482,10 @@
         <v>292</v>
       </c>
       <c r="B81" s="25" t="s">
+        <v>905</v>
+      </c>
+      <c r="C81" s="25" t="s">
         <v>906</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>907</v>
       </c>
       <c r="D81" s="25" t="s">
         <v>69</v>
@@ -13480,42 +13497,42 @@
         <v>232</v>
       </c>
       <c r="G81" s="25" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I81" s="25" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="25">
+      <c r="A82" s="27">
         <v>293</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="27" t="s">
         <v>860</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="27" t="s">
         <v>861</v>
       </c>
-      <c r="D82" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E82" s="25">
+      <c r="D82" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="27">
         <v>202</v>
       </c>
-      <c r="F82" s="25">
+      <c r="F82" s="27">
         <v>24</v>
       </c>
-      <c r="G82" s="25" t="s">
+      <c r="G82" s="27" t="s">
         <v>843</v>
       </c>
-      <c r="H82" s="25" t="s">
-        <v>956</v>
-      </c>
-      <c r="I82" s="25" t="s">
-        <v>946</v>
+      <c r="H82" s="27" t="s">
+        <v>953</v>
+      </c>
+      <c r="I82" s="27" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13523,7 +13540,7 @@
         <v>294</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C83" s="27" t="s">
         <v>861</v>
@@ -13538,38 +13555,38 @@
         <v>24</v>
       </c>
       <c r="G83" s="27" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H83" s="27"/>
       <c r="I83" s="27" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="25">
+      <c r="A84" s="27">
         <v>295</v>
       </c>
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="27" t="s">
+        <v>864</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>861</v>
+      </c>
+      <c r="D84" s="27" t="s">
         <v>865</v>
       </c>
-      <c r="C84" s="25" t="s">
-        <v>861</v>
-      </c>
-      <c r="D84" s="25" t="s">
+      <c r="E84" s="27">
+        <v>202</v>
+      </c>
+      <c r="F84" s="27">
+        <v>24</v>
+      </c>
+      <c r="G84" s="27" t="s">
         <v>866</v>
       </c>
-      <c r="E84" s="25">
-        <v>202</v>
-      </c>
-      <c r="F84" s="25">
-        <v>24</v>
-      </c>
-      <c r="G84" s="25" t="s">
-        <v>867</v>
-      </c>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25" t="s">
-        <v>932</v>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13577,10 +13594,10 @@
         <v>296</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D85" s="27" t="s">
         <v>69</v>
@@ -13592,11 +13609,11 @@
         <v>24</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H85" s="27"/>
       <c r="I85" s="27" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13604,10 +13621,10 @@
         <v>297</v>
       </c>
       <c r="B86" s="27" t="s">
+        <v>871</v>
+      </c>
+      <c r="C86" s="27" t="s">
         <v>872</v>
-      </c>
-      <c r="C86" s="27" t="s">
-        <v>873</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>69</v>
@@ -13619,11 +13636,11 @@
         <v>24</v>
       </c>
       <c r="G86" s="27" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H86" s="27"/>
       <c r="I86" s="27" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13631,10 +13648,10 @@
         <v>298</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>69</v>
@@ -13646,11 +13663,11 @@
         <v>24</v>
       </c>
       <c r="G87" s="27" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H87" s="27"/>
       <c r="I87" s="27" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13658,7 +13675,7 @@
         <v>299</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C88" s="27" t="s">
         <v>861</v>
@@ -13673,11 +13690,11 @@
         <v>24</v>
       </c>
       <c r="G88" s="27" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H88" s="27"/>
       <c r="I88" s="27" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13685,10 +13702,10 @@
         <v>300</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D89" s="27" t="s">
         <v>69</v>
@@ -13700,106 +13717,78 @@
         <v>24</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H89" s="27"/>
       <c r="I89" s="27" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="25">
-        <v>312</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>842</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>862</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E90" s="25">
-        <v>953</v>
-      </c>
-      <c r="F90" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="G90" s="25" t="s">
-        <v>863</v>
-      </c>
-      <c r="H90" s="25" t="s">
+      <c r="A90" s="36">
+        <v>320</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>945</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>946</v>
+      </c>
+      <c r="D90" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="36">
+        <v>950</v>
+      </c>
+      <c r="F90" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="G90" s="36" t="s">
+        <v>947</v>
+      </c>
+      <c r="H90" s="36" t="s">
+        <v>948</v>
+      </c>
+      <c r="I90" s="36" t="s">
         <v>957</v>
       </c>
-      <c r="I90" s="25" t="s">
-        <v>947</v>
-      </c>
     </row>
     <row r="91" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="36">
-        <v>320</v>
-      </c>
-      <c r="B91" s="36" t="s">
-        <v>948</v>
-      </c>
-      <c r="C91" s="36" t="s">
-        <v>949</v>
-      </c>
-      <c r="D91" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E91" s="36">
-        <v>950</v>
-      </c>
-      <c r="F91" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="G91" s="36" t="s">
-        <v>950</v>
-      </c>
-      <c r="H91" s="36" t="s">
-        <v>951</v>
-      </c>
-      <c r="I91" s="36" t="s">
-        <v>961</v>
+      <c r="I91" s="31" t="s">
+        <v>911</v>
       </c>
       <c r="J91" s="37" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="K91" s="37"/>
     </row>
     <row r="92" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I92" s="31" t="s">
-        <v>912</v>
+      <c r="I92" s="34" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I93" s="34" t="s">
-        <v>974</v>
+      <c r="I93" s="26" t="s">
+        <v>942</v>
       </c>
       <c r="J93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I94" s="26" t="s">
-        <v>945</v>
+      <c r="I94" s="25" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I95" s="25" t="s">
-        <v>943</v>
+      <c r="I95" s="27" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I96" s="27" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="97" spans="9:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I97" s="36" t="s">
-        <v>973</v>
-      </c>
-    </row>
+      <c r="I96" s="36" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A2:I97">
     <sortCondition ref="A59"/>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="982">
   <si>
     <t>8</t>
   </si>
@@ -3653,6 +3653,9 @@
   </si>
   <si>
     <t>1.size 2.QueryName3.FileName 4.font 5. not open</t>
+  </si>
+  <si>
+    <t>کد فرم ندارند</t>
   </si>
 </sst>
 </file>
@@ -3662,13 +3665,20 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3769,7 +3779,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3855,6 +3865,12 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -3895,138 +3911,143 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="12" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="12" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
+    <cellStyle name="20% - Accent1" xfId="7" builtinId="30"/>
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -11330,8 +11351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11414,75 +11435,75 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="42">
         <v>15</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="26">
+      <c r="D3" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="42">
         <v>950</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26" t="s">
+      <c r="F3" s="42"/>
+      <c r="G3" s="42" t="s">
         <v>834</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26" t="s">
+      <c r="H3" s="42"/>
+      <c r="I3" s="42" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="42">
         <v>16</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="26">
+      <c r="D4" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="42">
         <v>952</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="42">
         <v>17</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="26">
+      <c r="D5" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="42">
         <v>953</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42" t="s">
         <v>832</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26" t="s">
+      <c r="H5" s="42"/>
+      <c r="I5" s="42" t="s">
         <v>923</v>
       </c>
       <c r="J5" s="30"/>
@@ -11515,50 +11536,50 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="42">
         <v>19</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="D7" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="42">
         <v>950</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26" t="s">
+      <c r="F7" s="42"/>
+      <c r="G7" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26" t="s">
+      <c r="H7" s="42"/>
+      <c r="I7" s="42" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="42">
         <v>20</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="26">
+      <c r="D8" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="42">
         <v>203</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26" t="s">
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42" t="s">
         <v>923</v>
       </c>
     </row>
@@ -11596,643 +11617,643 @@
       <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="42">
         <v>23</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="26">
+      <c r="D10" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="42">
         <v>952</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26" t="s">
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="42">
         <v>24</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="26">
+      <c r="D11" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="42">
         <v>953</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26" t="s">
+      <c r="F11" s="42"/>
+      <c r="G11" s="42" t="s">
         <v>833</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26" t="s">
+      <c r="H11" s="42"/>
+      <c r="I11" s="42" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="A12" s="42">
         <v>25</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="26">
+      <c r="D12" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="42">
         <v>957</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26" t="s">
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="A13" s="42">
         <v>26</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="26">
+      <c r="D13" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="42">
         <v>203</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26" t="s">
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="A14" s="42">
         <v>27</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="26">
+      <c r="D14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="42">
         <v>950</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26" t="s">
+      <c r="F14" s="42"/>
+      <c r="G14" s="42" t="s">
         <v>830</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26" t="s">
+      <c r="H14" s="42"/>
+      <c r="I14" s="42" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+      <c r="A15" s="42">
         <v>28</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="26">
+      <c r="D15" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="42">
         <v>952</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26" t="s">
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+      <c r="A16" s="42">
         <v>29</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="26">
+      <c r="D16" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="42">
         <v>957</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26" t="s">
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+      <c r="A17" s="42">
         <v>30</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="26">
+      <c r="D17" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="42">
         <v>950</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26" t="s">
+      <c r="F17" s="42"/>
+      <c r="G17" s="42" t="s">
         <v>831</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26" t="s">
+      <c r="H17" s="42"/>
+      <c r="I17" s="42" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+      <c r="A18" s="42">
         <v>31</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="26">
+      <c r="D18" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="42">
         <v>952</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26" t="s">
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
+      <c r="A19" s="42">
         <v>32</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="26">
+      <c r="D19" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="42">
         <v>957</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26" t="s">
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+      <c r="A20" s="42">
         <v>33</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="26">
+      <c r="D20" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="42">
         <v>950</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26" t="s">
+      <c r="F20" s="42"/>
+      <c r="G20" s="42" t="s">
         <v>835</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26" t="s">
+      <c r="H20" s="42"/>
+      <c r="I20" s="42" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
+      <c r="A21" s="42">
         <v>34</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="26">
+      <c r="D21" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="42">
         <v>953</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26" t="s">
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+      <c r="A22" s="42">
         <v>35</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="26">
+      <c r="D22" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="42">
         <v>957</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26" t="s">
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
+      <c r="A23" s="42">
         <v>36</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="26">
+      <c r="D23" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="42">
         <v>950</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26" t="s">
+      <c r="F23" s="42"/>
+      <c r="G23" s="42" t="s">
         <v>836</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26" t="s">
+      <c r="H23" s="42"/>
+      <c r="I23" s="42" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
+      <c r="A24" s="42">
         <v>37</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="D24" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="26">
+      <c r="D24" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="42">
         <v>952</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26" t="s">
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
+      <c r="A25" s="42">
         <v>38</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="26">
+      <c r="D25" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="42">
         <v>957</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26" t="s">
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+      <c r="A26" s="42">
         <v>39</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="26">
+      <c r="D26" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="42">
         <v>950</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26" t="s">
+      <c r="F26" s="42"/>
+      <c r="G26" s="42" t="s">
         <v>837</v>
       </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26" t="s">
+      <c r="H26" s="42"/>
+      <c r="I26" s="42" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26">
+      <c r="A27" s="42">
         <v>40</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="26">
+      <c r="D27" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="42">
         <v>952</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26" t="s">
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
+      <c r="A28" s="42">
         <v>41</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="26">
+      <c r="D28" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="42">
         <v>950</v>
       </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26" t="s">
+      <c r="F28" s="42"/>
+      <c r="G28" s="42" t="s">
         <v>839</v>
       </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26" t="s">
+      <c r="H28" s="42"/>
+      <c r="I28" s="42" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26">
+      <c r="A29" s="42">
         <v>42</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="26">
+      <c r="D29" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="42">
         <v>952</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26" t="s">
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
+      <c r="A30" s="42">
         <v>43</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="26">
+      <c r="D30" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="42">
         <v>950</v>
       </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26" t="s">
+      <c r="F30" s="42"/>
+      <c r="G30" s="42" t="s">
         <v>838</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26" t="s">
+      <c r="H30" s="42"/>
+      <c r="I30" s="42" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26">
+      <c r="A31" s="42">
         <v>44</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="26">
+      <c r="D31" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="42">
         <v>952</v>
       </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26" t="s">
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26">
+      <c r="A32" s="42">
         <v>59</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="26">
+      <c r="D32" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="42">
         <v>950</v>
       </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26" t="s">
+      <c r="F32" s="42"/>
+      <c r="G32" s="42" t="s">
         <v>828</v>
       </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26" t="s">
+      <c r="H32" s="42"/>
+      <c r="I32" s="42" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26">
+      <c r="A33" s="42">
         <v>61</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="26">
+      <c r="D33" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="42">
         <v>950</v>
       </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26" t="s">
+      <c r="F33" s="42"/>
+      <c r="G33" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26" t="s">
+      <c r="H33" s="42"/>
+      <c r="I33" s="42" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
+      <c r="A34" s="42">
         <v>65</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="26">
+      <c r="D34" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="42">
         <v>974</v>
       </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26" t="s">
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26">
+      <c r="A35" s="42">
         <v>67</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="D35" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="26">
+      <c r="D35" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="42">
         <v>974</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26" t="s">
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26">
+      <c r="A36" s="42">
         <v>68</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="D36" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="26">
+      <c r="D36" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="42">
         <v>974</v>
       </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26" t="s">
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42" t="s">
         <v>917</v>
       </c>
     </row>
@@ -12268,27 +12289,27 @@
       <c r="K37" s="37"/>
     </row>
     <row r="38" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26">
+      <c r="A38" s="42">
         <v>152</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="D38" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="26">
+      <c r="D38" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="42">
         <v>1055</v>
       </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26" t="s">
+      <c r="F38" s="42"/>
+      <c r="G38" s="42" t="s">
         <v>840</v>
       </c>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26" t="s">
+      <c r="H38" s="42"/>
+      <c r="I38" s="42" t="s">
         <v>923</v>
       </c>
     </row>
@@ -13788,7 +13809,11 @@
         <v>969</v>
       </c>
     </row>
-    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="9:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I97" s="42" t="s">
+        <v>981</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I97">
     <sortCondition ref="A59"/>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="982">
   <si>
     <t>8</t>
   </si>
@@ -3445,9 +3445,6 @@
     <t xml:space="preserve"> BookOfAccount_113_952_MultiFormCode_GENERAL_Q1_L3.RTF</t>
   </si>
   <si>
-    <t xml:space="preserve">چاپ های صفحات 235-955-202 لود نمی شوند که در مجموع 18 چاپ هستند. چاپ لیست اسناد حسابداری در صفحه 201 هم لود نمی شود.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.size  2.QueryName  3.FileName  4.code Form  5.font </t>
   </si>
   <si>
@@ -3490,9 +3487,6 @@
     <t xml:space="preserve">1.size 2.QueryName3.FileName  4.font </t>
   </si>
   <si>
-    <t xml:space="preserve">1.size 2.QueryName3.FileName </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.FileName     2.QueryName  </t>
   </si>
   <si>
@@ -3656,6 +3650,12 @@
   </si>
   <si>
     <t>کد فرم ندارند</t>
+  </si>
+  <si>
+    <t>22-10-1400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  confirmed</t>
   </si>
 </sst>
 </file>
@@ -3665,7 +3665,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3769,14 +3769,6 @@
       <color rgb="FFC00000"/>
       <name val="B Nazanin"/>
       <charset val="178"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="178"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="17">
@@ -3911,17 +3903,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4014,7 +4005,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4034,24 +4024,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="12" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="13" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="20% - Accent1" xfId="7" builtinId="30"/>
+  <cellStyles count="7">
+    <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Comma" xfId="6" builtinId="3"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11351,8 +11340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="D88" workbookViewId="0">
+      <selection activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11397,114 +11386,114 @@
         <v>826</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>959</v>
-      </c>
-      <c r="K1" s="38" t="s">
+        <v>957</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>973</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="M1" s="37" t="s">
         <v>975</v>
       </c>
-      <c r="L1" s="38" t="s">
-        <v>976</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>977</v>
-      </c>
     </row>
     <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="41">
+      <c r="D2" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="40">
         <v>203</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="40">
         <v>1048</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41" t="s">
-        <v>964</v>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42">
+      <c r="A3" s="39">
         <v>15</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="42">
+      <c r="D3" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="39">
         <v>950</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39" t="s">
         <v>834</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42" t="s">
-        <v>923</v>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42">
+      <c r="A4" s="39">
         <v>16</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="42">
+      <c r="D4" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="39">
         <v>952</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42" t="s">
-        <v>921</v>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
+      <c r="A5" s="39">
         <v>17</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="42">
+      <c r="D5" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="39">
         <v>953</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42" t="s">
+      <c r="F5" s="39"/>
+      <c r="G5" s="39" t="s">
         <v>832</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42" t="s">
-        <v>923</v>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39" t="s">
+        <v>922</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -11532,845 +11521,845 @@
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
+        <v>19</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="39">
+        <v>950</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
+        <v>20</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="39">
+        <v>203</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
+        <v>22</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>943</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>944</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="35">
+        <v>950</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>948</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>947</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>956</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>958</v>
+      </c>
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
+        <v>23</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="39">
+        <v>952</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
+        <v>24</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="39">
+        <v>953</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39" t="s">
+        <v>833</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <v>25</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="39">
+        <v>957</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>26</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="39">
+        <v>203</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <v>27</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="39">
+        <v>950</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39" t="s">
+        <v>830</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <v>28</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="39">
+        <v>952</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>29</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="39">
+        <v>957</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <v>30</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="39">
+        <v>950</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39" t="s">
+        <v>831</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>31</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="39">
+        <v>952</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>32</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="39">
+        <v>957</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>33</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="39">
+        <v>950</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39" t="s">
+        <v>835</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <v>34</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="39">
+        <v>953</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
+        <v>35</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="39">
+        <v>957</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
+        <v>36</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="39">
+        <v>950</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39" t="s">
+        <v>836</v>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
+        <v>37</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="39">
+        <v>952</v>
+      </c>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
+        <v>38</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="39">
+        <v>957</v>
+      </c>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <v>39</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="39">
+        <v>950</v>
+      </c>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39" t="s">
+        <v>837</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
+        <v>40</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="39">
+        <v>952</v>
+      </c>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
+        <v>41</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="39">
+        <v>950</v>
+      </c>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39" t="s">
+        <v>839</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39">
+        <v>42</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="39">
+        <v>952</v>
+      </c>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
+        <v>43</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="39">
+        <v>950</v>
+      </c>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39" t="s">
+        <v>838</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39">
+        <v>44</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="39">
+        <v>952</v>
+      </c>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39">
+        <v>59</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="39">
+        <v>950</v>
+      </c>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39" t="s">
+        <v>828</v>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39">
+        <v>61</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="39">
+        <v>950</v>
+      </c>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39">
+        <v>65</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="39">
+        <v>974</v>
+      </c>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="39">
+        <v>67</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="39">
+        <v>974</v>
+      </c>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39">
+        <v>68</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="39">
+        <v>974</v>
+      </c>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="35">
+        <v>136</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>960</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>961</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="35">
+        <v>201</v>
+      </c>
+      <c r="F37" s="35">
+        <v>1049</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>827</v>
+      </c>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35" t="s">
+        <v>955</v>
+      </c>
+      <c r="J37" s="36" t="s">
+        <v>959</v>
+      </c>
+      <c r="K37"/>
+    </row>
+    <row r="38" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39">
+        <v>152</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="39">
+        <v>1055</v>
+      </c>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39" t="s">
+        <v>840</v>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="41">
+        <v>157</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>846</v>
+      </c>
+      <c r="C39" s="32" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42">
-        <v>19</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="42">
-        <v>950</v>
-      </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42">
-        <v>20</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="42">
-        <v>203</v>
-      </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
-        <v>22</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>945</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>946</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="36">
-        <v>950</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>950</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>949</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>960</v>
-      </c>
-      <c r="K9" s="37"/>
-    </row>
-    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
-        <v>23</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="42">
-        <v>952</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
-        <v>24</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="42">
+      <c r="D39" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="32">
+        <v>951</v>
+      </c>
+      <c r="F39" s="32">
+        <v>262</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32" t="s">
+        <v>969</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="35">
+        <v>162</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>841</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>842</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="35">
         <v>953</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42" t="s">
-        <v>833</v>
-      </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
-        <v>25</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="42">
-        <v>957</v>
-      </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
-        <v>26</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="42">
-        <v>203</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42">
-        <v>27</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="42">
-        <v>950</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42" t="s">
-        <v>830</v>
-      </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42">
-        <v>28</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="42">
-        <v>952</v>
-      </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42">
-        <v>29</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="42">
-        <v>957</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42">
-        <v>30</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="42">
-        <v>950</v>
-      </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42" t="s">
-        <v>831</v>
-      </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42">
-        <v>31</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="42">
-        <v>952</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42">
-        <v>32</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="42">
-        <v>957</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42">
-        <v>33</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="42">
-        <v>950</v>
-      </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42" t="s">
-        <v>835</v>
-      </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42">
-        <v>34</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="42">
-        <v>953</v>
-      </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42">
-        <v>35</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="42">
-        <v>957</v>
-      </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42">
-        <v>36</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="42">
-        <v>950</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42" t="s">
-        <v>836</v>
-      </c>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42">
-        <v>37</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="42">
-        <v>952</v>
-      </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42">
-        <v>38</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="42">
-        <v>957</v>
-      </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42">
-        <v>39</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="42">
-        <v>950</v>
-      </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42" t="s">
-        <v>837</v>
-      </c>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42">
-        <v>40</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="42">
-        <v>952</v>
-      </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42">
-        <v>41</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="42">
-        <v>950</v>
-      </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42" t="s">
-        <v>839</v>
-      </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42">
-        <v>42</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="42">
-        <v>952</v>
-      </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42">
-        <v>43</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="42">
-        <v>950</v>
-      </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42" t="s">
-        <v>838</v>
-      </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42">
-        <v>44</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="42">
-        <v>952</v>
-      </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42">
-        <v>59</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="42">
-        <v>950</v>
-      </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42" t="s">
-        <v>828</v>
-      </c>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42">
-        <v>61</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="42">
-        <v>950</v>
-      </c>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42">
-        <v>65</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="42">
-        <v>974</v>
-      </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42">
-        <v>67</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="42">
-        <v>974</v>
-      </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42">
-        <v>68</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="42">
-        <v>974</v>
-      </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36">
-        <v>136</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>962</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>963</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="36">
-        <v>201</v>
-      </c>
-      <c r="F37" s="36">
-        <v>1049</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>827</v>
-      </c>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36" t="s">
-        <v>957</v>
-      </c>
-      <c r="J37" s="37" t="s">
-        <v>961</v>
-      </c>
-      <c r="K37" s="37"/>
-    </row>
-    <row r="38" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="42">
-        <v>152</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="42">
-        <v>1055</v>
-      </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42" t="s">
-        <v>840</v>
-      </c>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32">
-        <v>157</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>846</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>967</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="33">
-        <v>951</v>
-      </c>
-      <c r="F39" s="33">
-        <v>262</v>
-      </c>
-      <c r="G39" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="J39" s="35" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36">
-        <v>162</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>842</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="36">
-        <v>953</v>
-      </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="G40" s="36" t="s">
+      <c r="G40" s="35" t="s">
         <v>843</v>
       </c>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36" t="s">
-        <v>957</v>
-      </c>
-      <c r="J40" s="37" t="s">
-        <v>974</v>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35" t="s">
+        <v>955</v>
+      </c>
+      <c r="J40" s="36" t="s">
+        <v>972</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
@@ -12398,10 +12387,10 @@
         <v>843</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12428,34 +12417,34 @@
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="28" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="38">
+        <v>167</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>848</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="38">
+        <v>950</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38" t="s">
         <v>924</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="40">
-        <v>167</v>
-      </c>
-      <c r="B43" s="40" t="s">
-        <v>848</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="40">
-        <v>950</v>
-      </c>
-      <c r="F43" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="G43" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12482,65 +12471,65 @@
       </c>
       <c r="H44" s="26"/>
       <c r="I44" s="26" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33">
+      <c r="A45" s="32">
         <v>171</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="32" t="s">
         <v>847</v>
       </c>
-      <c r="D45" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="33">
+      <c r="D45" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="32">
         <v>951</v>
       </c>
-      <c r="F45" s="33">
+      <c r="F45" s="32">
         <v>262</v>
       </c>
-      <c r="G45" s="33" t="s">
+      <c r="G45" s="32" t="s">
         <v>849</v>
       </c>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33" t="s">
-        <v>972</v>
-      </c>
-      <c r="J45" s="35" t="s">
-        <v>968</v>
-      </c>
-      <c r="K45" s="35"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32" t="s">
+        <v>970</v>
+      </c>
+      <c r="J45" s="34" t="s">
+        <v>966</v>
+      </c>
+      <c r="K45"/>
     </row>
     <row r="46" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="40">
+      <c r="A46" s="38">
         <v>179</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="38" t="s">
         <v>904</v>
       </c>
-      <c r="D46" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="40">
+      <c r="D46" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="38">
         <v>201</v>
       </c>
-      <c r="F46" s="40">
+      <c r="F46" s="38">
         <v>1049</v>
       </c>
-      <c r="G46" s="40" t="s">
+      <c r="G46" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40" t="s">
-        <v>980</v>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12567,7 +12556,7 @@
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="25" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12594,7 +12583,7 @@
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="25" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12621,7 +12610,7 @@
       </c>
       <c r="H49" s="25"/>
       <c r="I49" s="25" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12648,34 +12637,34 @@
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="25" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40">
+      <c r="A51" s="38">
         <v>197</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="38" t="s">
         <v>882</v>
       </c>
-      <c r="D51" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="40">
+      <c r="D51" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="38">
         <v>955</v>
       </c>
-      <c r="F51" s="40">
+      <c r="F51" s="38">
         <v>269</v>
       </c>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="38" t="s">
         <v>883</v>
       </c>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40" t="s">
-        <v>932</v>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12702,7 +12691,7 @@
       </c>
       <c r="H52" s="27"/>
       <c r="I52" s="27" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12729,7 +12718,7 @@
       </c>
       <c r="H53" s="27"/>
       <c r="I53" s="27" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12756,35 +12745,35 @@
       </c>
       <c r="H54" s="27"/>
       <c r="I54" s="27" t="s">
-        <v>938</v>
-      </c>
-      <c r="J54" s="39"/>
+        <v>936</v>
+      </c>
+      <c r="J54"/>
     </row>
     <row r="55" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28">
+      <c r="A55" s="38">
         <v>201</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="38" t="s">
         <v>856</v>
       </c>
-      <c r="D55" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="28">
+      <c r="D55" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="38">
         <v>1673</v>
       </c>
-      <c r="F55" s="28">
+      <c r="F55" s="38">
         <v>673</v>
       </c>
-      <c r="G55" s="28" t="s">
+      <c r="G55" s="38" t="s">
         <v>857</v>
       </c>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28" t="s">
-        <v>928</v>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12811,7 +12800,7 @@
       </c>
       <c r="H56" s="27"/>
       <c r="I56" s="27" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12838,7 +12827,7 @@
       </c>
       <c r="H57" s="27"/>
       <c r="I57" s="27" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12865,7 +12854,7 @@
       </c>
       <c r="H58" s="27"/>
       <c r="I58" s="27" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12892,7 +12881,7 @@
       </c>
       <c r="H59" s="27"/>
       <c r="I59" s="27" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12919,7 +12908,7 @@
       </c>
       <c r="H60" s="27"/>
       <c r="I60" s="27" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12946,34 +12935,37 @@
       </c>
       <c r="H61" s="27"/>
       <c r="I61" s="27" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="26">
+      <c r="A62" s="35">
         <v>260</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="35" t="s">
         <v>852</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="35" t="s">
         <v>853</v>
       </c>
-      <c r="D62" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="26">
+      <c r="D62" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="35">
         <v>1977</v>
       </c>
-      <c r="F62" s="26">
+      <c r="F62" s="35">
         <v>1977</v>
       </c>
-      <c r="G62" s="26" t="s">
+      <c r="G62" s="35" t="s">
         <v>854</v>
       </c>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26" t="s">
-        <v>926</v>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35" t="s">
+        <v>955</v>
+      </c>
+      <c r="J62" s="36" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13000,130 +12992,136 @@
       </c>
       <c r="H63" s="26"/>
       <c r="I63" s="26" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="36">
+      <c r="A64" s="35">
         <v>275</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="35" t="s">
         <v>899</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C64" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="D64" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="36">
+      <c r="D64" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="35">
         <v>951</v>
       </c>
-      <c r="F64" s="36" t="s">
+      <c r="F64" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="G64" s="36" t="s">
+      <c r="G64" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="H64" s="36" t="s">
+      <c r="H64" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="I64" s="36" t="s">
-        <v>973</v>
-      </c>
-      <c r="J64" s="37" t="s">
-        <v>968</v>
+      <c r="I64" s="35" t="s">
+        <v>971</v>
+      </c>
+      <c r="J64" s="36" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="36">
+      <c r="A65" s="35">
         <v>276</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="35" t="s">
         <v>858</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="35" t="s">
         <v>859</v>
       </c>
-      <c r="D65" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="36">
+      <c r="D65" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="35">
         <v>951</v>
       </c>
-      <c r="F65" s="36" t="s">
+      <c r="F65" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="G65" s="36" t="s">
+      <c r="G65" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="H65" s="36" t="s">
+      <c r="H65" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="I65" s="36" t="s">
-        <v>973</v>
-      </c>
-      <c r="J65" s="37" t="s">
-        <v>968</v>
-      </c>
-      <c r="K65" s="37"/>
+      <c r="I65" s="35" t="s">
+        <v>971</v>
+      </c>
+      <c r="J65" s="36" t="s">
+        <v>966</v>
+      </c>
+      <c r="K65"/>
     </row>
     <row r="66" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="25">
+      <c r="A66" s="35">
         <v>277</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="35" t="s">
         <v>859</v>
       </c>
-      <c r="D66" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" s="25">
+      <c r="D66" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="35">
         <v>951</v>
       </c>
-      <c r="F66" s="25">
+      <c r="F66" s="35">
         <v>263</v>
       </c>
-      <c r="G66" s="25" t="s">
+      <c r="G66" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="H66" s="25" t="s">
+      <c r="H66" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="I66" s="25" t="s">
-        <v>943</v>
+      <c r="I66" s="35" t="s">
+        <v>956</v>
+      </c>
+      <c r="J66" s="36" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="25">
+      <c r="A67" s="35">
         <v>278</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="D67" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="25">
+      <c r="D67" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="35">
         <v>951</v>
       </c>
-      <c r="F67" s="25">
+      <c r="F67" s="35">
         <v>263</v>
       </c>
-      <c r="G67" s="25" t="s">
+      <c r="G67" s="35" t="s">
         <v>885</v>
       </c>
-      <c r="H67" s="25" t="s">
+      <c r="H67" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="I67" s="25" t="s">
-        <v>944</v>
+      <c r="I67" s="35" t="s">
+        <v>981</v>
+      </c>
+      <c r="J67" s="36" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13152,7 +13150,7 @@
         <v>187</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13181,7 +13179,7 @@
         <v>190</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13210,7 +13208,7 @@
         <v>193</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13239,7 +13237,7 @@
         <v>196</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13265,7 +13263,7 @@
         <v>198</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="I72" s="25"/>
     </row>
@@ -13351,97 +13349,97 @@
       <c r="I75" s="25"/>
     </row>
     <row r="76" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="36">
+      <c r="A76" s="35">
         <v>287</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="35" t="s">
         <v>890</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="35" t="s">
         <v>842</v>
       </c>
-      <c r="D76" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="36">
+      <c r="D76" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="35">
         <v>953</v>
       </c>
-      <c r="F76" s="36" t="s">
+      <c r="F76" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="G76" s="36" t="s">
+      <c r="G76" s="35" t="s">
         <v>891</v>
       </c>
-      <c r="H76" s="36" t="s">
+      <c r="H76" s="35" t="s">
+        <v>953</v>
+      </c>
+      <c r="I76" s="35" t="s">
         <v>955</v>
       </c>
-      <c r="I76" s="36" t="s">
-        <v>957</v>
-      </c>
-      <c r="J76" s="37" t="s">
-        <v>974</v>
+      <c r="J76" s="36" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="36">
+      <c r="A77" s="35">
         <v>288</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="35" t="s">
         <v>900</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="35" t="s">
         <v>862</v>
       </c>
-      <c r="D77" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="36">
+      <c r="D77" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="35">
         <v>953</v>
       </c>
-      <c r="F77" s="36" t="s">
+      <c r="F77" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="G77" s="36" t="s">
+      <c r="G77" s="35" t="s">
         <v>901</v>
       </c>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36" t="s">
-        <v>957</v>
-      </c>
-      <c r="J77" s="37" t="s">
-        <v>974</v>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35" t="s">
+        <v>955</v>
+      </c>
+      <c r="J77" s="36" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="36">
+      <c r="A78" s="35">
         <v>289</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="35" t="s">
         <v>902</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="35" t="s">
         <v>842</v>
       </c>
-      <c r="D78" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" s="36">
+      <c r="D78" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="35">
         <v>953</v>
       </c>
-      <c r="F78" s="36" t="s">
+      <c r="F78" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="G78" s="36" t="s">
+      <c r="G78" s="35" t="s">
         <v>903</v>
       </c>
-      <c r="H78" s="36" t="s">
+      <c r="H78" s="35" t="s">
         <v>902</v>
       </c>
-      <c r="I78" s="36" t="s">
-        <v>973</v>
-      </c>
-      <c r="J78" s="37" t="s">
-        <v>978</v>
+      <c r="I78" s="35" t="s">
+        <v>971</v>
+      </c>
+      <c r="J78" s="36" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13467,7 +13465,7 @@
         <v>909</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I79" s="25"/>
     </row>
@@ -13494,7 +13492,7 @@
         <v>901</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="I80" s="25"/>
     </row>
@@ -13524,7 +13522,7 @@
         <v>905</v>
       </c>
       <c r="I81" s="25" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13550,10 +13548,10 @@
         <v>843</v>
       </c>
       <c r="H82" s="27" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I82" s="27" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13607,7 +13605,7 @@
       </c>
       <c r="H84" s="27"/>
       <c r="I84" s="27" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13746,72 +13744,75 @@
       </c>
     </row>
     <row r="90" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="36">
+      <c r="A90" s="35">
         <v>320</v>
       </c>
-      <c r="B90" s="36" t="s">
+      <c r="B90" s="35" t="s">
+        <v>943</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>944</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="35">
+        <v>950</v>
+      </c>
+      <c r="F90" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="G90" s="35" t="s">
         <v>945</v>
       </c>
-      <c r="C90" s="36" t="s">
+      <c r="H90" s="35" t="s">
         <v>946</v>
       </c>
-      <c r="D90" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E90" s="36">
-        <v>950</v>
-      </c>
-      <c r="F90" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="G90" s="36" t="s">
-        <v>947</v>
-      </c>
-      <c r="H90" s="36" t="s">
-        <v>948</v>
-      </c>
-      <c r="I90" s="36" t="s">
-        <v>957</v>
+      <c r="I90" s="35" t="s">
+        <v>955</v>
+      </c>
+      <c r="J90" s="36" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I91" s="31" t="s">
-        <v>911</v>
-      </c>
-      <c r="J91" s="37" t="s">
-        <v>960</v>
-      </c>
-      <c r="K91" s="37"/>
+        <v>942</v>
+      </c>
+      <c r="J91" t="s">
+        <v>958</v>
+      </c>
+      <c r="K91"/>
     </row>
     <row r="92" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I92" s="34" t="s">
-        <v>970</v>
+      <c r="I92" s="33" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I93" s="26" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="J93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I94" s="25" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I95" s="27" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I96" s="36" t="s">
-        <v>969</v>
+      <c r="I96" s="35" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="97" spans="9:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I97" s="42" t="s">
-        <v>981</v>
+      <c r="I97" s="39" t="s">
+        <v>979</v>
       </c>
     </row>
   </sheetData>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$H$282</definedName>
@@ -687,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="988">
   <si>
     <t>8</t>
   </si>
@@ -3526,9 +3527,6 @@
     <t>1.FileName 2.QueryName</t>
   </si>
   <si>
-    <t>ستون هایی که با سبز مشخص شده اند کمترین مشکل را دارند و این مشکل در خارج از لی اوت آن ها می باشد</t>
-  </si>
-  <si>
     <t>ستون هایی که با زرد مشخص شده اند در لود شدن خطا دارند</t>
   </si>
   <si>
@@ -3656,6 +3654,27 @@
   </si>
   <si>
     <t xml:space="preserve">  confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ستون هایی که با سبز مشخص شده اند کمترین مشکل را دارند </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> توضیحات</t>
+  </si>
+  <si>
+    <t>شماره صفحه اپکس</t>
+  </si>
+  <si>
+    <t>انتقال به misdata</t>
+  </si>
+  <si>
+    <t>انتقال به کارون</t>
+  </si>
+  <si>
+    <t>انتقال به سمنان</t>
+  </si>
+  <si>
+    <t>فرم کسر حقوق</t>
   </si>
 </sst>
 </file>
@@ -3665,7 +3684,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3766,6 +3785,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="B Nazanin"/>
       <charset val="178"/>
@@ -3912,7 +3938,7 @@
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4034,6 +4060,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -11340,8 +11372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D88" workbookViewId="0">
-      <selection activeCell="K92" sqref="K92"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11386,16 +11418,16 @@
         <v>826</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="K1" s="37" t="s">
+        <v>972</v>
+      </c>
+      <c r="L1" s="37" t="s">
         <v>973</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>974</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11420,7 +11452,7 @@
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
       <c r="I2" s="40" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11521,7 +11553,7 @@
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11577,10 +11609,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="35" t="s">
+        <v>942</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>943</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>944</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>69</v>
@@ -11592,16 +11624,16 @@
         <v>132</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K9"/>
     </row>
@@ -12251,10 +12283,10 @@
         <v>136</v>
       </c>
       <c r="B37" s="35" t="s">
+        <v>959</v>
+      </c>
+      <c r="C37" s="35" t="s">
         <v>960</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>961</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>69</v>
@@ -12270,10 +12302,10 @@
       </c>
       <c r="H37" s="35"/>
       <c r="I37" s="35" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K37"/>
     </row>
@@ -12310,7 +12342,7 @@
         <v>846</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D39" s="32" t="s">
         <v>69</v>
@@ -12326,10 +12358,10 @@
       </c>
       <c r="H39" s="32"/>
       <c r="I39" s="32" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12356,10 +12388,10 @@
       </c>
       <c r="H40" s="35"/>
       <c r="I40" s="35" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
@@ -12387,10 +12419,10 @@
         <v>843</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12471,7 +12503,7 @@
       </c>
       <c r="H44" s="26"/>
       <c r="I44" s="26" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12498,10 +12530,10 @@
       </c>
       <c r="H45" s="32"/>
       <c r="I45" s="32" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J45" s="34" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="K45"/>
     </row>
@@ -12529,7 +12561,7 @@
       </c>
       <c r="H46" s="38"/>
       <c r="I46" s="38" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12962,36 +12994,36 @@
       </c>
       <c r="H62" s="35"/>
       <c r="I62" s="35" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J62" s="36" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="26">
+      <c r="A63" s="27">
         <v>263</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="27" t="s">
         <v>867</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D63" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="26">
+      <c r="D63" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="27">
         <v>1976</v>
       </c>
-      <c r="F63" s="26">
+      <c r="F63" s="27">
         <v>1976</v>
       </c>
-      <c r="G63" s="26" t="s">
+      <c r="G63" s="27" t="s">
         <v>867</v>
       </c>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26" t="s">
+      <c r="H63" s="27"/>
+      <c r="I63" s="27" t="s">
         <v>929</v>
       </c>
     </row>
@@ -13021,10 +13053,10 @@
         <v>213</v>
       </c>
       <c r="I64" s="35" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J64" s="36" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13053,10 +13085,10 @@
         <v>176</v>
       </c>
       <c r="I65" s="35" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J65" s="36" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="K65"/>
     </row>
@@ -13086,10 +13118,10 @@
         <v>180</v>
       </c>
       <c r="I66" s="35" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J66" s="36" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13118,10 +13150,10 @@
         <v>184</v>
       </c>
       <c r="I67" s="35" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J67" s="36" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13150,7 +13182,7 @@
         <v>187</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13179,7 +13211,7 @@
         <v>190</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13208,7 +13240,7 @@
         <v>193</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13237,7 +13269,7 @@
         <v>196</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13263,7 +13295,7 @@
         <v>198</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I72" s="25"/>
     </row>
@@ -13371,13 +13403,13 @@
         <v>891</v>
       </c>
       <c r="H76" s="35" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I76" s="35" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J76" s="36" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13404,10 +13436,10 @@
       </c>
       <c r="H77" s="35"/>
       <c r="I77" s="35" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J77" s="36" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13436,10 +13468,10 @@
         <v>902</v>
       </c>
       <c r="I78" s="35" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J78" s="36" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13465,7 +13497,7 @@
         <v>909</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I79" s="25"/>
     </row>
@@ -13492,7 +13524,7 @@
         <v>901</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I80" s="25"/>
     </row>
@@ -13522,7 +13554,7 @@
         <v>905</v>
       </c>
       <c r="I81" s="25" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13548,10 +13580,10 @@
         <v>843</v>
       </c>
       <c r="H82" s="27" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I82" s="27" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13748,10 +13780,10 @@
         <v>320</v>
       </c>
       <c r="B90" s="35" t="s">
+        <v>942</v>
+      </c>
+      <c r="C90" s="35" t="s">
         <v>943</v>
-      </c>
-      <c r="C90" s="35" t="s">
-        <v>944</v>
       </c>
       <c r="D90" s="35" t="s">
         <v>69</v>
@@ -13763,56 +13795,54 @@
         <v>132</v>
       </c>
       <c r="G90" s="35" t="s">
+        <v>944</v>
+      </c>
+      <c r="H90" s="35" t="s">
         <v>945</v>
       </c>
-      <c r="H90" s="35" t="s">
-        <v>946</v>
-      </c>
       <c r="I90" s="35" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J90" s="36" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I91" s="31" t="s">
-        <v>942</v>
-      </c>
-      <c r="J91" t="s">
-        <v>958</v>
-      </c>
+        <v>941</v>
+      </c>
+      <c r="J91"/>
       <c r="K91"/>
     </row>
     <row r="92" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I92" s="33" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I93" s="26" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I94" s="25" t="s">
-        <v>938</v>
+        <v>981</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I95" s="27" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I96" s="35" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="97" spans="9:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I97" s="39" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>
@@ -13822,4 +13852,499 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="8" max="9" width="20.7109375" customWidth="1"/>
+    <col min="11" max="13" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>797</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>982</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>822</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>823</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>983</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>802</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>800</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>825</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>826</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>956</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>984</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>985</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43">
+        <v>127</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>987</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43" t="s">
+        <v>695</v>
+      </c>
+      <c r="E2" s="43">
+        <v>291</v>
+      </c>
+      <c r="F2" s="43">
+        <v>1295</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>696</v>
+      </c>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+    </row>
+    <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+    </row>
+    <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+    </row>
+    <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+    </row>
+    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+    </row>
+    <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+    </row>
+    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+    </row>
+    <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+    </row>
+    <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+    </row>
+    <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+    </row>
+    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+    </row>
+    <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+    </row>
+    <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+    </row>
+    <row r="17" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+    </row>
+    <row r="18" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+    </row>
+    <row r="19" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+    </row>
+    <row r="20" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+    </row>
+    <row r="21" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+    </row>
+    <row r="22" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+    </row>
+    <row r="23" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+    </row>
+    <row r="24" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+    </row>
+    <row r="25" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+    </row>
+    <row r="26" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+    </row>
+    <row r="27" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+    </row>
+    <row r="28" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+    </row>
+    <row r="29" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="992">
   <si>
     <t>8</t>
   </si>
@@ -3675,6 +3675,18 @@
   </si>
   <si>
     <t>فرم کسر حقوق</t>
+  </si>
+  <si>
+    <t>3-11-1400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirmed  </t>
+  </si>
+  <si>
+    <t>5-11-1400</t>
+  </si>
+  <si>
+    <t>5-11-140</t>
   </si>
 </sst>
 </file>
@@ -3938,7 +3950,7 @@
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4027,7 +4039,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4037,14 +4048,8 @@
     <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4066,6 +4071,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="13" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -11372,8 +11404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="C85" workbookViewId="0">
+      <selection activeCell="J90" sqref="C1:J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11396,138 +11428,141 @@
       <c r="B1" s="23" t="s">
         <v>801</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="44" t="s">
         <v>822</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="44" t="s">
         <v>823</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="44" t="s">
         <v>824</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="44" t="s">
         <v>802</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="44" t="s">
         <v>800</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="44" t="s">
         <v>826</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="44" t="s">
         <v>956</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="34" t="s">
         <v>972</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="34" t="s">
         <v>973</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="34" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="40">
+      <c r="D2" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="45">
         <v>203</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="45">
         <v>1048</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45" t="s">
         <v>961</v>
       </c>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
+      <c r="A3" s="36">
         <v>15</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="39">
+      <c r="D3" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="46">
         <v>950</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="46" t="s">
         <v>834</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39" t="s">
+      <c r="H3" s="46"/>
+      <c r="I3" s="46" t="s">
         <v>922</v>
       </c>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
+      <c r="A4" s="36">
         <v>16</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="39">
+      <c r="D4" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="46">
         <v>952</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46" t="s">
         <v>920</v>
       </c>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
+      <c r="A5" s="36">
         <v>17</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="39">
+      <c r="D5" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="46">
         <v>953</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="46" t="s">
         <v>832</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="46" t="s">
         <v>922</v>
       </c>
-      <c r="J5" s="30"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
@@ -11536,893 +11571,927 @@
       <c r="B6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="D6" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="35">
         <v>957</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="35">
         <v>294</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="35" t="s">
         <v>829</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27" t="s">
+      <c r="H6" s="35"/>
+      <c r="I6" s="35" t="s">
         <v>962</v>
       </c>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39">
+      <c r="A7" s="36">
         <v>19</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="39">
+      <c r="D7" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="46">
         <v>950</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39" t="s">
+      <c r="F7" s="46"/>
+      <c r="G7" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39" t="s">
+      <c r="H7" s="46"/>
+      <c r="I7" s="46" t="s">
         <v>912</v>
       </c>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
+      <c r="A8" s="36">
         <v>20</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="39">
+      <c r="D8" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="46">
         <v>203</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39" t="s">
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46" t="s">
         <v>922</v>
       </c>
+      <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
+      <c r="A9" s="33">
         <v>22</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="33" t="s">
         <v>942</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="47" t="s">
         <v>943</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="35">
+      <c r="D9" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="47">
         <v>950</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="47" t="s">
         <v>947</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="47" t="s">
         <v>946</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="47" t="s">
         <v>955</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="47" t="s">
         <v>957</v>
       </c>
       <c r="K9"/>
     </row>
     <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
+      <c r="A10" s="36">
         <v>23</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="D10" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="39">
+      <c r="D10" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="46">
         <v>952</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39" t="s">
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46" t="s">
         <v>922</v>
       </c>
+      <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+      <c r="A11" s="36">
         <v>24</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="39">
+      <c r="D11" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="46">
         <v>953</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39" t="s">
+      <c r="F11" s="46"/>
+      <c r="G11" s="46" t="s">
         <v>833</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39" t="s">
+      <c r="H11" s="46"/>
+      <c r="I11" s="46" t="s">
         <v>922</v>
       </c>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
+      <c r="A12" s="36">
         <v>25</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="D12" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="39">
+      <c r="D12" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="46">
         <v>957</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39" t="s">
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46" t="s">
         <v>922</v>
       </c>
+      <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
+      <c r="A13" s="36">
         <v>26</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="39">
+      <c r="D13" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="46">
         <v>203</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39" t="s">
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46" t="s">
         <v>922</v>
       </c>
+      <c r="J13" s="42"/>
     </row>
     <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
+      <c r="A14" s="36">
         <v>27</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="39">
+      <c r="D14" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="46">
         <v>950</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39" t="s">
+      <c r="F14" s="46"/>
+      <c r="G14" s="46" t="s">
         <v>830</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39" t="s">
+      <c r="H14" s="46"/>
+      <c r="I14" s="46" t="s">
         <v>918</v>
       </c>
+      <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
+      <c r="A15" s="36">
         <v>28</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="39">
+      <c r="D15" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="46">
         <v>952</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39" t="s">
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46" t="s">
         <v>921</v>
       </c>
+      <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+      <c r="A16" s="36">
         <v>29</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="39">
+      <c r="D16" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="46">
         <v>957</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39" t="s">
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
+      <c r="J16" s="42"/>
+    </row>
+    <row r="17" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36">
         <v>30</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="39">
+      <c r="D17" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="46">
         <v>950</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39" t="s">
+      <c r="F17" s="46"/>
+      <c r="G17" s="46" t="s">
         <v>831</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39" t="s">
+      <c r="H17" s="46"/>
+      <c r="I17" s="46" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
+      <c r="J17" s="42"/>
+    </row>
+    <row r="18" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36">
         <v>31</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="39">
+      <c r="D18" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="46">
         <v>952</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39" t="s">
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
+      <c r="J18" s="42"/>
+    </row>
+    <row r="19" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36">
         <v>32</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="39">
+      <c r="D19" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="46">
         <v>957</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39" t="s">
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
+      <c r="J19" s="42"/>
+    </row>
+    <row r="20" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36">
         <v>33</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="39">
+      <c r="D20" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="46">
         <v>950</v>
       </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39" t="s">
+      <c r="F20" s="46"/>
+      <c r="G20" s="46" t="s">
         <v>835</v>
       </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39" t="s">
+      <c r="H20" s="46"/>
+      <c r="I20" s="46" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
+      <c r="J20" s="42"/>
+    </row>
+    <row r="21" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36">
         <v>34</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="D21" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="39">
+      <c r="D21" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="46">
         <v>953</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39" t="s">
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
+      <c r="J21" s="42"/>
+    </row>
+    <row r="22" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36">
         <v>35</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="39">
+      <c r="D22" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="46">
         <v>957</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39" t="s">
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
+      <c r="J22" s="42"/>
+    </row>
+    <row r="23" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36">
         <v>36</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="39">
+      <c r="D23" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="46">
         <v>950</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39" t="s">
+      <c r="F23" s="46"/>
+      <c r="G23" s="46" t="s">
         <v>836</v>
       </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39" t="s">
+      <c r="H23" s="46"/>
+      <c r="I23" s="46" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
+      <c r="J23" s="42"/>
+    </row>
+    <row r="24" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36">
         <v>37</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="39">
+      <c r="D24" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="46">
         <v>952</v>
       </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39" t="s">
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
+      <c r="J24" s="42"/>
+    </row>
+    <row r="25" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="36">
         <v>38</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="39">
+      <c r="D25" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="46">
         <v>957</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39" t="s">
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
+      <c r="J25" s="42"/>
+    </row>
+    <row r="26" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="36">
         <v>39</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="39">
+      <c r="D26" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="46">
         <v>950</v>
       </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39" t="s">
+      <c r="F26" s="46"/>
+      <c r="G26" s="46" t="s">
         <v>837</v>
       </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
+      <c r="J26" s="42"/>
+    </row>
+    <row r="27" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="36">
         <v>40</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="D27" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="39">
+      <c r="D27" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="46">
         <v>952</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39" t="s">
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
+      <c r="J27" s="42"/>
+    </row>
+    <row r="28" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="36">
         <v>41</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="39">
+      <c r="D28" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="46">
         <v>950</v>
       </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39" t="s">
+      <c r="F28" s="46"/>
+      <c r="G28" s="46" t="s">
         <v>839</v>
       </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39" t="s">
+      <c r="H28" s="46"/>
+      <c r="I28" s="46" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
+      <c r="J28" s="42"/>
+    </row>
+    <row r="29" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36">
         <v>42</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="D29" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="39">
+      <c r="D29" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="46">
         <v>952</v>
       </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39" t="s">
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39">
+      <c r="J29" s="42"/>
+    </row>
+    <row r="30" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="36">
         <v>43</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="39">
+      <c r="D30" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="46">
         <v>950</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39" t="s">
+      <c r="F30" s="46"/>
+      <c r="G30" s="46" t="s">
         <v>838</v>
       </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39" t="s">
+      <c r="H30" s="46"/>
+      <c r="I30" s="46" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39">
+      <c r="J30" s="42"/>
+    </row>
+    <row r="31" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="36">
         <v>44</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="D31" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="39">
+      <c r="D31" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="46">
         <v>952</v>
       </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39" t="s">
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39">
+      <c r="J31" s="42"/>
+    </row>
+    <row r="32" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="36">
         <v>59</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="39">
+      <c r="D32" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="46">
         <v>950</v>
       </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39" t="s">
+      <c r="F32" s="46"/>
+      <c r="G32" s="46" t="s">
         <v>828</v>
       </c>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39" t="s">
+      <c r="H32" s="46"/>
+      <c r="I32" s="46" t="s">
         <v>917</v>
       </c>
+      <c r="J32" s="42"/>
     </row>
     <row r="33" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39">
+      <c r="A33" s="36">
         <v>61</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="39">
+      <c r="D33" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="46">
         <v>950</v>
       </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39" t="s">
+      <c r="F33" s="46"/>
+      <c r="G33" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39" t="s">
+      <c r="H33" s="46"/>
+      <c r="I33" s="46" t="s">
         <v>911</v>
       </c>
+      <c r="J33" s="42"/>
     </row>
     <row r="34" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39">
+      <c r="A34" s="36">
         <v>65</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="39">
+      <c r="D34" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="46">
         <v>974</v>
       </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39" t="s">
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46" t="s">
         <v>914</v>
       </c>
+      <c r="J34" s="42"/>
     </row>
     <row r="35" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39">
+      <c r="A35" s="36">
         <v>67</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="D35" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="39">
+      <c r="D35" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="46">
         <v>974</v>
       </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39" t="s">
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46" t="s">
         <v>915</v>
       </c>
+      <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39">
+      <c r="A36" s="36">
         <v>68</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="D36" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="39">
+      <c r="D36" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="46">
         <v>974</v>
       </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39" t="s">
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>916</v>
       </c>
+      <c r="J36" s="42"/>
     </row>
     <row r="37" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35">
+      <c r="A37" s="33">
         <v>136</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="33" t="s">
         <v>959</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="47" t="s">
         <v>960</v>
       </c>
-      <c r="D37" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="35">
+      <c r="D37" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="47">
         <v>201</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="47">
         <v>1049</v>
       </c>
-      <c r="G37" s="35" t="s">
+      <c r="G37" s="47" t="s">
         <v>827</v>
       </c>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35" t="s">
+      <c r="H37" s="47"/>
+      <c r="I37" s="47" t="s">
         <v>954</v>
       </c>
-      <c r="J37" s="36" t="s">
+      <c r="J37" s="47" t="s">
         <v>958</v>
       </c>
       <c r="K37"/>
     </row>
     <row r="38" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39">
+      <c r="A38" s="36">
         <v>152</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="D38" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="39">
+      <c r="D38" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="46">
         <v>1055</v>
       </c>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39" t="s">
+      <c r="F38" s="46"/>
+      <c r="G38" s="46" t="s">
         <v>840</v>
       </c>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39" t="s">
+      <c r="H38" s="46"/>
+      <c r="I38" s="46" t="s">
         <v>922</v>
       </c>
+      <c r="J38" s="42"/>
     </row>
     <row r="39" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="41">
+      <c r="A39" s="38">
         <v>157</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="31" t="s">
         <v>846</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="31" t="s">
         <v>964</v>
       </c>
-      <c r="D39" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="32">
+      <c r="D39" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="31">
         <v>951</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="31">
         <v>262</v>
       </c>
-      <c r="G39" s="32" t="s">
+      <c r="G39" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32" t="s">
+      <c r="H39" s="31"/>
+      <c r="I39" s="31" t="s">
         <v>968</v>
       </c>
-      <c r="J39" s="34" t="s">
+      <c r="J39" s="31" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="35">
+      <c r="A40" s="33">
         <v>162</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="33" t="s">
         <v>841</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="47" t="s">
         <v>842</v>
       </c>
-      <c r="D40" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="35">
+      <c r="D40" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="47">
         <v>953</v>
       </c>
-      <c r="F40" s="35" t="s">
+      <c r="F40" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="G40" s="35" t="s">
+      <c r="G40" s="47" t="s">
         <v>843</v>
       </c>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35" t="s">
+      <c r="H40" s="47"/>
+      <c r="I40" s="47" t="s">
         <v>954</v>
       </c>
-      <c r="J40" s="36" t="s">
+      <c r="J40" s="47" t="s">
         <v>971</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
     </row>
     <row r="41" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25">
+      <c r="A41" s="33">
         <v>163</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="33" t="s">
         <v>850</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="47" t="s">
         <v>851</v>
       </c>
-      <c r="D41" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="25">
+      <c r="D41" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="47">
         <v>952</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="47" t="s">
         <v>843</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="47" t="s">
         <v>948</v>
       </c>
-      <c r="I41" s="25" t="s">
-        <v>941</v>
+      <c r="I41" s="47" t="s">
+        <v>989</v>
+      </c>
+      <c r="J41" s="47" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12451,33 +12520,35 @@
       <c r="I42" s="28" t="s">
         <v>923</v>
       </c>
+      <c r="J42" s="42"/>
     </row>
     <row r="43" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38">
+      <c r="A43" s="35">
         <v>167</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="35" t="s">
         <v>848</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="38">
+      <c r="D43" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="35">
         <v>950</v>
       </c>
-      <c r="F43" s="38" t="s">
+      <c r="F43" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38" t="s">
+      <c r="H43" s="35"/>
+      <c r="I43" s="35" t="s">
         <v>924</v>
       </c>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
@@ -12486,83 +12557,85 @@
       <c r="B44" s="26" t="s">
         <v>844</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="28" t="s">
         <v>845</v>
       </c>
-      <c r="D44" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="26">
+      <c r="D44" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="28">
         <v>953</v>
       </c>
-      <c r="F44" s="26">
+      <c r="F44" s="28">
         <v>266</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="G44" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26" t="s">
+      <c r="H44" s="28"/>
+      <c r="I44" s="28" t="s">
         <v>976</v>
       </c>
+      <c r="J44" s="42"/>
     </row>
     <row r="45" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32">
+      <c r="A45" s="31">
         <v>171</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="31" t="s">
         <v>847</v>
       </c>
-      <c r="D45" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="32">
+      <c r="D45" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="31">
         <v>951</v>
       </c>
-      <c r="F45" s="32">
+      <c r="F45" s="31">
         <v>262</v>
       </c>
-      <c r="G45" s="32" t="s">
+      <c r="G45" s="31" t="s">
         <v>849</v>
       </c>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32" t="s">
+      <c r="H45" s="31"/>
+      <c r="I45" s="31" t="s">
         <v>969</v>
       </c>
-      <c r="J45" s="34" t="s">
+      <c r="J45" s="31" t="s">
         <v>965</v>
       </c>
       <c r="K45"/>
     </row>
     <row r="46" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38">
+      <c r="A46" s="35">
         <v>179</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="35" t="s">
         <v>904</v>
       </c>
-      <c r="D46" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="38">
+      <c r="D46" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="35">
         <v>201</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46" s="35">
         <v>1049</v>
       </c>
-      <c r="G46" s="38" t="s">
+      <c r="G46" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38" t="s">
+      <c r="H46" s="35"/>
+      <c r="I46" s="35" t="s">
         <v>977</v>
       </c>
+      <c r="J46" s="42"/>
     </row>
     <row r="47" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
@@ -12571,25 +12644,26 @@
       <c r="B47" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="48" t="s">
         <v>863</v>
       </c>
-      <c r="D47" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="25">
+      <c r="D47" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="48">
         <v>950</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25" t="s">
+      <c r="H47" s="48"/>
+      <c r="I47" s="48" t="s">
         <v>927</v>
       </c>
+      <c r="J47" s="42"/>
     </row>
     <row r="48" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
@@ -12598,25 +12672,26 @@
       <c r="B48" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="D48" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="25">
+      <c r="D48" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="48">
         <v>951</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="G48" s="48" t="s">
         <v>897</v>
       </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25" t="s">
+      <c r="H48" s="48"/>
+      <c r="I48" s="48" t="s">
         <v>937</v>
       </c>
+      <c r="J48" s="42"/>
     </row>
     <row r="49" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
@@ -12625,25 +12700,26 @@
       <c r="B49" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="D49" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="25">
+      <c r="D49" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="48">
         <v>952</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G49" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25" t="s">
+      <c r="H49" s="48"/>
+      <c r="I49" s="48" t="s">
         <v>937</v>
       </c>
+      <c r="J49" s="42"/>
     </row>
     <row r="50" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
@@ -12652,52 +12728,54 @@
       <c r="B50" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="D50" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="25">
+      <c r="D50" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="48">
         <v>953</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="48" t="s">
         <v>855</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25" t="s">
+      <c r="H50" s="48"/>
+      <c r="I50" s="48" t="s">
         <v>925</v>
       </c>
+      <c r="J50" s="42"/>
     </row>
     <row r="51" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38">
+      <c r="A51" s="35">
         <v>197</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="35" t="s">
         <v>882</v>
       </c>
-      <c r="D51" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="38">
+      <c r="D51" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="35">
         <v>955</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F51" s="35">
         <v>269</v>
       </c>
-      <c r="G51" s="38" t="s">
+      <c r="G51" s="35" t="s">
         <v>883</v>
       </c>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38" t="s">
+      <c r="H51" s="35"/>
+      <c r="I51" s="35" t="s">
         <v>930</v>
       </c>
+      <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27">
@@ -12706,25 +12784,26 @@
       <c r="B52" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="35" t="s">
         <v>884</v>
       </c>
-      <c r="D52" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="27">
+      <c r="D52" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="35">
         <v>955</v>
       </c>
-      <c r="F52" s="27">
+      <c r="F52" s="35">
         <v>269</v>
       </c>
-      <c r="G52" s="27" t="s">
+      <c r="G52" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27" t="s">
+      <c r="H52" s="35"/>
+      <c r="I52" s="35" t="s">
         <v>931</v>
       </c>
+      <c r="J52" s="42"/>
     </row>
     <row r="53" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27">
@@ -12733,25 +12812,26 @@
       <c r="B53" s="27" t="s">
         <v>894</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="35" t="s">
         <v>895</v>
       </c>
-      <c r="D53" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" s="27">
+      <c r="D53" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="35">
         <v>955</v>
       </c>
-      <c r="F53" s="27">
+      <c r="F53" s="35">
         <v>269</v>
       </c>
-      <c r="G53" s="27" t="s">
+      <c r="G53" s="35" t="s">
         <v>894</v>
       </c>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27" t="s">
+      <c r="H53" s="35"/>
+      <c r="I53" s="35" t="s">
         <v>932</v>
       </c>
+      <c r="J53" s="42"/>
     </row>
     <row r="54" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27">
@@ -12760,53 +12840,54 @@
       <c r="B54" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="27">
+      <c r="D54" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="35">
         <v>235</v>
       </c>
-      <c r="F54" s="27">
+      <c r="F54" s="35">
         <v>1100</v>
       </c>
-      <c r="G54" s="27" t="s">
+      <c r="G54" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27" t="s">
+      <c r="H54" s="35"/>
+      <c r="I54" s="35" t="s">
         <v>936</v>
       </c>
-      <c r="J54"/>
+      <c r="J54" s="43"/>
     </row>
     <row r="55" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="38">
+      <c r="A55" s="35">
         <v>201</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="C55" s="38" t="s">
+      <c r="C55" s="35" t="s">
         <v>856</v>
       </c>
-      <c r="D55" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="38">
+      <c r="D55" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="35">
         <v>1673</v>
       </c>
-      <c r="F55" s="38">
+      <c r="F55" s="35">
         <v>673</v>
       </c>
-      <c r="G55" s="38" t="s">
+      <c r="G55" s="35" t="s">
         <v>857</v>
       </c>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38" t="s">
+      <c r="H55" s="35"/>
+      <c r="I55" s="35" t="s">
         <v>926</v>
       </c>
+      <c r="J55" s="42"/>
     </row>
     <row r="56" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27">
@@ -12815,25 +12896,26 @@
       <c r="B56" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="35" t="s">
         <v>898</v>
       </c>
-      <c r="D56" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="27">
+      <c r="D56" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="35">
         <v>235</v>
       </c>
-      <c r="F56" s="27">
+      <c r="F56" s="35">
         <v>1100</v>
       </c>
-      <c r="G56" s="27" t="s">
+      <c r="G56" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27" t="s">
+      <c r="H56" s="35"/>
+      <c r="I56" s="35" t="s">
         <v>936</v>
       </c>
+      <c r="J56" s="42"/>
     </row>
     <row r="57" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27">
@@ -12842,25 +12924,26 @@
       <c r="B57" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="35" t="s">
         <v>898</v>
       </c>
-      <c r="D57" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E57" s="27">
+      <c r="D57" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="35">
         <v>235</v>
       </c>
-      <c r="F57" s="27">
+      <c r="F57" s="35">
         <v>1100</v>
       </c>
-      <c r="G57" s="27" t="s">
+      <c r="G57" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27" t="s">
+      <c r="H57" s="35"/>
+      <c r="I57" s="35" t="s">
         <v>933</v>
       </c>
+      <c r="J57" s="42"/>
     </row>
     <row r="58" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27">
@@ -12869,25 +12952,26 @@
       <c r="B58" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="35" t="s">
         <v>898</v>
       </c>
-      <c r="D58" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E58" s="27">
+      <c r="D58" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="35">
         <v>235</v>
       </c>
-      <c r="F58" s="27">
+      <c r="F58" s="35">
         <v>1100</v>
       </c>
-      <c r="G58" s="27" t="s">
+      <c r="G58" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27" t="s">
+      <c r="H58" s="35"/>
+      <c r="I58" s="35" t="s">
         <v>934</v>
       </c>
+      <c r="J58" s="42"/>
     </row>
     <row r="59" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27">
@@ -12896,25 +12980,26 @@
       <c r="B59" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59" s="27">
+      <c r="D59" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="35">
         <v>235</v>
       </c>
-      <c r="F59" s="27">
+      <c r="F59" s="35">
         <v>1100</v>
       </c>
-      <c r="G59" s="27" t="s">
+      <c r="G59" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27" t="s">
+      <c r="H59" s="35"/>
+      <c r="I59" s="35" t="s">
         <v>932</v>
       </c>
+      <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27">
@@ -12923,25 +13008,26 @@
       <c r="B60" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E60" s="27">
+      <c r="D60" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="35">
         <v>235</v>
       </c>
-      <c r="F60" s="27">
+      <c r="F60" s="35">
         <v>1100</v>
       </c>
-      <c r="G60" s="27" t="s">
+      <c r="G60" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27" t="s">
+      <c r="H60" s="35"/>
+      <c r="I60" s="35" t="s">
         <v>932</v>
       </c>
+      <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27">
@@ -12950,53 +13036,54 @@
       <c r="B61" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" s="27">
+      <c r="D61" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="35">
         <v>235</v>
       </c>
-      <c r="F61" s="27">
+      <c r="F61" s="35">
         <v>1100</v>
       </c>
-      <c r="G61" s="27" t="s">
+      <c r="G61" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27" t="s">
+      <c r="H61" s="35"/>
+      <c r="I61" s="35" t="s">
         <v>935</v>
       </c>
+      <c r="J61" s="42"/>
     </row>
     <row r="62" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="35">
+      <c r="A62" s="33">
         <v>260</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="33" t="s">
         <v>852</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="47" t="s">
         <v>853</v>
       </c>
-      <c r="D62" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="35">
+      <c r="D62" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="47">
         <v>1977</v>
       </c>
-      <c r="F62" s="35">
+      <c r="F62" s="47">
         <v>1977</v>
       </c>
-      <c r="G62" s="35" t="s">
+      <c r="G62" s="47" t="s">
         <v>854</v>
       </c>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35" t="s">
+      <c r="H62" s="47"/>
+      <c r="I62" s="47" t="s">
         <v>954</v>
       </c>
-      <c r="J62" s="36" t="s">
+      <c r="J62" s="47" t="s">
         <v>979</v>
       </c>
     </row>
@@ -13007,554 +13094,600 @@
       <c r="B63" s="27" t="s">
         <v>867</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="D63" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="27">
+      <c r="D63" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="35">
         <v>1976</v>
       </c>
-      <c r="F63" s="27">
+      <c r="F63" s="35">
         <v>1976</v>
       </c>
-      <c r="G63" s="27" t="s">
+      <c r="G63" s="35" t="s">
         <v>867</v>
       </c>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27" t="s">
+      <c r="H63" s="35"/>
+      <c r="I63" s="35" t="s">
         <v>929</v>
       </c>
+      <c r="J63" s="42"/>
     </row>
     <row r="64" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="35">
+      <c r="A64" s="33">
         <v>275</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="33" t="s">
         <v>899</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D64" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="35">
+      <c r="D64" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="47">
         <v>951</v>
       </c>
-      <c r="F64" s="35" t="s">
+      <c r="F64" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="G64" s="35" t="s">
+      <c r="G64" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="H64" s="35" t="s">
+      <c r="H64" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="I64" s="35" t="s">
+      <c r="I64" s="47" t="s">
         <v>970</v>
       </c>
-      <c r="J64" s="36" t="s">
+      <c r="J64" s="47" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="35">
+      <c r="A65" s="33">
         <v>276</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="33" t="s">
         <v>858</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="47" t="s">
         <v>859</v>
       </c>
-      <c r="D65" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="35">
+      <c r="D65" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="47">
         <v>951</v>
       </c>
-      <c r="F65" s="35" t="s">
+      <c r="F65" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="G65" s="35" t="s">
+      <c r="G65" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="H65" s="35" t="s">
+      <c r="H65" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="I65" s="35" t="s">
+      <c r="I65" s="47" t="s">
         <v>970</v>
       </c>
-      <c r="J65" s="36" t="s">
+      <c r="J65" s="47" t="s">
         <v>965</v>
       </c>
       <c r="K65"/>
     </row>
     <row r="66" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="35">
+      <c r="A66" s="33">
         <v>277</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="47" t="s">
         <v>859</v>
       </c>
-      <c r="D66" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" s="35">
+      <c r="D66" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="47">
         <v>951</v>
       </c>
-      <c r="F66" s="35">
+      <c r="F66" s="47">
         <v>263</v>
       </c>
-      <c r="G66" s="35" t="s">
+      <c r="G66" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="H66" s="35" t="s">
+      <c r="H66" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="I66" s="35" t="s">
+      <c r="I66" s="47" t="s">
         <v>955</v>
       </c>
-      <c r="J66" s="36" t="s">
+      <c r="J66" s="47" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="35">
+      <c r="A67" s="33">
         <v>278</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D67" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="35">
+      <c r="D67" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="47">
         <v>951</v>
       </c>
-      <c r="F67" s="35">
+      <c r="F67" s="47">
         <v>263</v>
       </c>
-      <c r="G67" s="35" t="s">
+      <c r="G67" s="47" t="s">
         <v>885</v>
       </c>
-      <c r="H67" s="35" t="s">
+      <c r="H67" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="I67" s="35" t="s">
+      <c r="I67" s="47" t="s">
         <v>980</v>
       </c>
-      <c r="J67" s="36" t="s">
+      <c r="J67" s="47" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="25">
+      <c r="A68" s="33">
         <v>279</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="33" t="s">
         <v>886</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="47" t="s">
         <v>859</v>
       </c>
-      <c r="D68" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E68" s="25">
+      <c r="D68" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="47">
         <v>951</v>
       </c>
-      <c r="F68" s="25">
+      <c r="F68" s="47">
         <v>263</v>
       </c>
-      <c r="G68" s="25" t="s">
+      <c r="G68" s="47" t="s">
         <v>887</v>
       </c>
-      <c r="H68" s="25" t="s">
+      <c r="H68" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="I68" s="25" t="s">
-        <v>941</v>
+      <c r="I68" s="47" t="s">
+        <v>980</v>
+      </c>
+      <c r="J68" s="47" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="25">
+      <c r="A69" s="33">
         <v>280</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D69" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E69" s="25">
+      <c r="D69" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="47">
         <v>951</v>
       </c>
-      <c r="F69" s="25">
+      <c r="F69" s="47">
         <v>263</v>
       </c>
-      <c r="G69" s="25" t="s">
+      <c r="G69" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="H69" s="25" t="s">
+      <c r="H69" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="I69" s="25" t="s">
-        <v>940</v>
+      <c r="I69" s="47" t="s">
+        <v>955</v>
+      </c>
+      <c r="J69" s="47" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="25">
+      <c r="A70" s="33">
         <v>281</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D70" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70" s="25">
+      <c r="D70" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="47">
         <v>951</v>
       </c>
-      <c r="F70" s="25">
+      <c r="F70" s="47">
         <v>263</v>
       </c>
-      <c r="G70" s="25" t="s">
+      <c r="G70" s="47" t="s">
         <v>888</v>
       </c>
-      <c r="H70" s="25" t="s">
+      <c r="H70" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="I70" s="25" t="s">
-        <v>940</v>
+      <c r="I70" s="47" t="s">
+        <v>970</v>
+      </c>
+      <c r="J70" s="47" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="25">
+      <c r="A71" s="33">
         <v>282</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D71" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E71" s="25">
+      <c r="D71" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="47">
         <v>951</v>
       </c>
-      <c r="F71" s="25">
+      <c r="F71" s="47">
         <v>263</v>
       </c>
-      <c r="G71" s="25" t="s">
+      <c r="G71" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="H71" s="25" t="s">
+      <c r="H71" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="I71" s="25" t="s">
-        <v>940</v>
+      <c r="I71" s="47" t="s">
+        <v>955</v>
+      </c>
+      <c r="J71" s="47" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="25">
+      <c r="A72" s="33">
         <v>283</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D72" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="25">
+      <c r="D72" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="47">
         <v>951</v>
       </c>
-      <c r="F72" s="25">
+      <c r="F72" s="47">
         <v>263</v>
       </c>
-      <c r="G72" s="25" t="s">
+      <c r="G72" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="H72" s="25" t="s">
+      <c r="H72" s="47" t="s">
         <v>951</v>
       </c>
-      <c r="I72" s="25"/>
+      <c r="I72" s="47" t="s">
+        <v>954</v>
+      </c>
+      <c r="J72" s="47" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="73" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="25">
+      <c r="A73" s="33">
         <v>284</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D73" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" s="25">
+      <c r="D73" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="47">
         <v>951</v>
       </c>
-      <c r="F73" s="25">
+      <c r="F73" s="47">
         <v>263</v>
       </c>
-      <c r="G73" s="25" t="s">
+      <c r="G73" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="H73" s="25" t="s">
+      <c r="H73" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="I73" s="25"/>
+      <c r="I73" s="47" t="s">
+        <v>954</v>
+      </c>
+      <c r="J73" s="47" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="74" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="25">
+      <c r="A74" s="33">
         <v>285</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="33" t="s">
         <v>889</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D74" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="25">
+      <c r="D74" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="47">
         <v>951</v>
       </c>
-      <c r="F74" s="25">
+      <c r="F74" s="47">
         <v>263</v>
       </c>
-      <c r="G74" s="25" t="s">
+      <c r="G74" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="H74" s="25" t="s">
+      <c r="H74" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="I74" s="25"/>
+      <c r="I74" s="47" t="s">
+        <v>954</v>
+      </c>
+      <c r="J74" s="47" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="75" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="25">
+      <c r="A75" s="33">
         <v>286</v>
       </c>
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D75" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E75" s="25">
+      <c r="D75" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="47">
         <v>951</v>
       </c>
-      <c r="F75" s="25">
+      <c r="F75" s="47">
         <v>263</v>
       </c>
-      <c r="G75" s="25" t="s">
+      <c r="G75" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="H75" s="25" t="s">
+      <c r="H75" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="I75" s="25"/>
+      <c r="I75" s="47" t="s">
+        <v>954</v>
+      </c>
+      <c r="J75" s="47" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="76" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="35">
+      <c r="A76" s="33">
         <v>287</v>
       </c>
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="33" t="s">
         <v>890</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="47" t="s">
         <v>842</v>
       </c>
-      <c r="D76" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="35">
+      <c r="D76" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="47">
         <v>953</v>
       </c>
-      <c r="F76" s="35" t="s">
+      <c r="F76" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="G76" s="35" t="s">
+      <c r="G76" s="47" t="s">
         <v>891</v>
       </c>
-      <c r="H76" s="35" t="s">
+      <c r="H76" s="47" t="s">
         <v>952</v>
       </c>
-      <c r="I76" s="35" t="s">
+      <c r="I76" s="47" t="s">
         <v>954</v>
       </c>
-      <c r="J76" s="36" t="s">
+      <c r="J76" s="47" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="35">
+      <c r="A77" s="33">
         <v>288</v>
       </c>
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="33" t="s">
         <v>900</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="47" t="s">
         <v>862</v>
       </c>
-      <c r="D77" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="35">
+      <c r="D77" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="47">
         <v>953</v>
       </c>
-      <c r="F77" s="35" t="s">
+      <c r="F77" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="G77" s="35" t="s">
+      <c r="G77" s="47" t="s">
         <v>901</v>
       </c>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35" t="s">
+      <c r="H77" s="47"/>
+      <c r="I77" s="47" t="s">
         <v>954</v>
       </c>
-      <c r="J77" s="36" t="s">
+      <c r="J77" s="47" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="35">
+      <c r="A78" s="33">
         <v>289</v>
       </c>
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="33" t="s">
         <v>902</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="47" t="s">
         <v>842</v>
       </c>
-      <c r="D78" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" s="35">
+      <c r="D78" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="47">
         <v>953</v>
       </c>
-      <c r="F78" s="35" t="s">
+      <c r="F78" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="G78" s="35" t="s">
+      <c r="G78" s="47" t="s">
         <v>903</v>
       </c>
-      <c r="H78" s="35" t="s">
+      <c r="H78" s="47" t="s">
         <v>902</v>
       </c>
-      <c r="I78" s="35" t="s">
+      <c r="I78" s="47" t="s">
         <v>970</v>
       </c>
-      <c r="J78" s="36" t="s">
+      <c r="J78" s="47" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="25">
+      <c r="A79" s="33">
         <v>290</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="33" t="s">
         <v>908</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C79" s="47" t="s">
         <v>906</v>
       </c>
-      <c r="D79" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E79" s="25">
+      <c r="D79" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="47">
         <v>952</v>
       </c>
-      <c r="F79" s="25" t="s">
+      <c r="F79" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="G79" s="25" t="s">
+      <c r="G79" s="47" t="s">
         <v>909</v>
       </c>
-      <c r="H79" s="25" t="s">
+      <c r="H79" s="47" t="s">
         <v>953</v>
       </c>
-      <c r="I79" s="25"/>
+      <c r="I79" s="47" t="s">
+        <v>954</v>
+      </c>
+      <c r="J79" s="47" t="s">
+        <v>990</v>
+      </c>
     </row>
     <row r="80" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="25">
+      <c r="A80" s="33">
         <v>291</v>
       </c>
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="33" t="s">
         <v>910</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="C80" s="47" t="s">
         <v>851</v>
       </c>
-      <c r="D80" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E80" s="25">
+      <c r="D80" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="47">
         <v>952</v>
       </c>
-      <c r="F80" s="25" t="s">
+      <c r="F80" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="G80" s="25" t="s">
+      <c r="G80" s="47" t="s">
         <v>901</v>
       </c>
-      <c r="H80" s="25" t="s">
+      <c r="H80" s="47" t="s">
         <v>949</v>
       </c>
-      <c r="I80" s="25"/>
+      <c r="I80" s="47" t="s">
+        <v>954</v>
+      </c>
+      <c r="J80" s="47" t="s">
+        <v>990</v>
+      </c>
     </row>
     <row r="81" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="25">
+      <c r="A81" s="33">
         <v>292</v>
       </c>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="33" t="s">
         <v>905</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="47" t="s">
         <v>906</v>
       </c>
-      <c r="D81" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E81" s="25">
+      <c r="D81" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="47">
         <v>952</v>
       </c>
-      <c r="F81" s="25" t="s">
+      <c r="F81" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="G81" s="25" t="s">
+      <c r="G81" s="47" t="s">
         <v>907</v>
       </c>
-      <c r="H81" s="25" t="s">
+      <c r="H81" s="47" t="s">
         <v>905</v>
       </c>
-      <c r="I81" s="25" t="s">
-        <v>940</v>
+      <c r="I81" s="47" t="s">
+        <v>955</v>
+      </c>
+      <c r="J81" s="47" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13564,26 +13697,29 @@
       <c r="B82" s="27" t="s">
         <v>860</v>
       </c>
-      <c r="C82" s="27" t="s">
+      <c r="C82" s="35" t="s">
         <v>861</v>
       </c>
-      <c r="D82" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E82" s="27">
+      <c r="D82" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="35">
         <v>202</v>
       </c>
-      <c r="F82" s="27">
+      <c r="F82" s="35">
         <v>24</v>
       </c>
-      <c r="G82" s="27" t="s">
+      <c r="G82" s="35" t="s">
         <v>843</v>
       </c>
-      <c r="H82" s="27" t="s">
+      <c r="H82" s="35" t="s">
         <v>950</v>
       </c>
-      <c r="I82" s="27" t="s">
+      <c r="I82" s="35" t="s">
         <v>940</v>
+      </c>
+      <c r="J82" s="49" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13593,24 +13729,27 @@
       <c r="B83" s="27" t="s">
         <v>868</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="35" t="s">
         <v>861</v>
       </c>
-      <c r="D83" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E83" s="27">
+      <c r="D83" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="35">
         <v>202</v>
       </c>
-      <c r="F83" s="27">
+      <c r="F83" s="35">
         <v>24</v>
       </c>
-      <c r="G83" s="27" t="s">
+      <c r="G83" s="35" t="s">
         <v>869</v>
       </c>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27" t="s">
+      <c r="H83" s="35"/>
+      <c r="I83" s="35" t="s">
         <v>870</v>
+      </c>
+      <c r="J83" s="49" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13620,24 +13759,27 @@
       <c r="B84" s="27" t="s">
         <v>864</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="35" t="s">
         <v>861</v>
       </c>
-      <c r="D84" s="27" t="s">
+      <c r="D84" s="35" t="s">
         <v>865</v>
       </c>
-      <c r="E84" s="27">
+      <c r="E84" s="35">
         <v>202</v>
       </c>
-      <c r="F84" s="27">
+      <c r="F84" s="35">
         <v>24</v>
       </c>
-      <c r="G84" s="27" t="s">
+      <c r="G84" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27" t="s">
+      <c r="H84" s="35"/>
+      <c r="I84" s="35" t="s">
         <v>928</v>
+      </c>
+      <c r="J84" s="49" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13647,24 +13789,27 @@
       <c r="B85" s="27" t="s">
         <v>892</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="35" t="s">
         <v>872</v>
       </c>
-      <c r="D85" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E85" s="27">
+      <c r="D85" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="35">
         <v>202</v>
       </c>
-      <c r="F85" s="27">
+      <c r="F85" s="35">
         <v>24</v>
       </c>
-      <c r="G85" s="27" t="s">
+      <c r="G85" s="35" t="s">
         <v>893</v>
       </c>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27" t="s">
+      <c r="H85" s="35"/>
+      <c r="I85" s="35" t="s">
         <v>877</v>
+      </c>
+      <c r="J85" s="49" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13674,24 +13819,27 @@
       <c r="B86" s="27" t="s">
         <v>871</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="35" t="s">
         <v>872</v>
       </c>
-      <c r="D86" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E86" s="27">
+      <c r="D86" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="35">
         <v>202</v>
       </c>
-      <c r="F86" s="27">
+      <c r="F86" s="35">
         <v>24</v>
       </c>
-      <c r="G86" s="27" t="s">
+      <c r="G86" s="35" t="s">
         <v>873</v>
       </c>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27" t="s">
+      <c r="H86" s="35"/>
+      <c r="I86" s="35" t="s">
         <v>874</v>
+      </c>
+      <c r="J86" s="49" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13701,24 +13849,27 @@
       <c r="B87" s="27" t="s">
         <v>875</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="35" t="s">
         <v>872</v>
       </c>
-      <c r="D87" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E87" s="27">
+      <c r="D87" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="35">
         <v>202</v>
       </c>
-      <c r="F87" s="27">
+      <c r="F87" s="35">
         <v>24</v>
       </c>
-      <c r="G87" s="27" t="s">
+      <c r="G87" s="35" t="s">
         <v>876</v>
       </c>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27" t="s">
+      <c r="H87" s="35"/>
+      <c r="I87" s="35" t="s">
         <v>877</v>
+      </c>
+      <c r="J87" s="49" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13728,24 +13879,27 @@
       <c r="B88" s="27" t="s">
         <v>878</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="C88" s="35" t="s">
         <v>861</v>
       </c>
-      <c r="D88" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E88" s="27">
+      <c r="D88" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="35">
         <v>202</v>
       </c>
-      <c r="F88" s="27">
+      <c r="F88" s="35">
         <v>24</v>
       </c>
-      <c r="G88" s="27" t="s">
+      <c r="G88" s="35" t="s">
         <v>879</v>
       </c>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27" t="s">
+      <c r="H88" s="35"/>
+      <c r="I88" s="35" t="s">
         <v>877</v>
+      </c>
+      <c r="J88" s="49" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13755,67 +13909,70 @@
       <c r="B89" s="27" t="s">
         <v>880</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="35" t="s">
         <v>872</v>
       </c>
-      <c r="D89" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E89" s="27">
+      <c r="D89" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="35">
         <v>202</v>
       </c>
-      <c r="F89" s="27">
+      <c r="F89" s="35">
         <v>24</v>
       </c>
-      <c r="G89" s="27" t="s">
+      <c r="G89" s="35" t="s">
         <v>881</v>
       </c>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27" t="s">
+      <c r="H89" s="35"/>
+      <c r="I89" s="35" t="s">
         <v>877</v>
       </c>
+      <c r="J89" s="49" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="90" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="35">
+      <c r="A90" s="33">
         <v>320</v>
       </c>
-      <c r="B90" s="35" t="s">
+      <c r="B90" s="33" t="s">
         <v>942</v>
       </c>
-      <c r="C90" s="35" t="s">
+      <c r="C90" s="47" t="s">
         <v>943</v>
       </c>
-      <c r="D90" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E90" s="35">
+      <c r="D90" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="47">
         <v>950</v>
       </c>
-      <c r="F90" s="35" t="s">
+      <c r="F90" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G90" s="35" t="s">
+      <c r="G90" s="47" t="s">
         <v>944</v>
       </c>
-      <c r="H90" s="35" t="s">
+      <c r="H90" s="47" t="s">
         <v>945</v>
       </c>
-      <c r="I90" s="35" t="s">
+      <c r="I90" s="47" t="s">
         <v>954</v>
       </c>
-      <c r="J90" s="36" t="s">
+      <c r="J90" s="47" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I91" s="31" t="s">
+      <c r="I91" s="30" t="s">
         <v>941</v>
       </c>
-      <c r="J91"/>
+      <c r="J91" s="41"/>
       <c r="K91"/>
     </row>
     <row r="92" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I92" s="33" t="s">
+      <c r="I92" s="32" t="s">
         <v>967</v>
       </c>
     </row>
@@ -13836,12 +13993,12 @@
       </c>
     </row>
     <row r="96" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I96" s="35" t="s">
+      <c r="I96" s="33" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="97" spans="9:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I97" s="39" t="s">
+      <c r="I97" s="36" t="s">
         <v>978</v>
       </c>
     </row>
@@ -13858,7 +14015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -13871,477 +14028,477 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>797</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="39" t="s">
         <v>982</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="39" t="s">
         <v>822</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="39" t="s">
         <v>823</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="39" t="s">
         <v>983</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="39" t="s">
         <v>802</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="39" t="s">
         <v>800</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="39" t="s">
         <v>825</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="39" t="s">
         <v>826</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="39" t="s">
         <v>956</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="39" t="s">
         <v>984</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="39" t="s">
         <v>985</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="39" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
+      <c r="A2" s="40">
         <v>127</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="40" t="s">
         <v>987</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="40">
         <v>291</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="40">
         <v>1295</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="40" t="s">
         <v>696</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
     </row>
     <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
     </row>
     <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
     </row>
     <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
     </row>
     <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
     </row>
     <row r="17" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
     </row>
     <row r="18" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
     </row>
     <row r="19" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
     </row>
     <row r="20" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
     </row>
     <row r="22" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
     </row>
     <row r="23" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
     </row>
     <row r="24" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
     </row>
     <row r="25" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
     </row>
     <row r="26" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
     </row>
     <row r="27" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
     </row>
     <row r="28" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
     </row>
     <row r="29" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="992">
   <si>
     <t>8</t>
   </si>
@@ -3950,7 +3950,7 @@
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4098,6 +4098,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -11404,8 +11407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C85" workbookViewId="0">
-      <selection activeCell="J90" sqref="C1:J90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12493,6 +12496,9 @@
       <c r="J41" s="47" t="s">
         <v>991</v>
       </c>
+      <c r="K41" s="50" t="s">
+        <v>990</v>
+      </c>
     </row>
     <row r="42" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
@@ -13625,6 +13631,9 @@
       <c r="J79" s="47" t="s">
         <v>990</v>
       </c>
+      <c r="K79" s="50" t="s">
+        <v>990</v>
+      </c>
     </row>
     <row r="80" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="33">
@@ -13657,6 +13666,9 @@
       <c r="J80" s="47" t="s">
         <v>990</v>
       </c>
+      <c r="K80" s="50" t="s">
+        <v>990</v>
+      </c>
     </row>
     <row r="81" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="33">
@@ -13687,6 +13699,9 @@
         <v>955</v>
       </c>
       <c r="J81" s="47" t="s">
+        <v>990</v>
+      </c>
+      <c r="K81" s="50" t="s">
         <v>990</v>
       </c>
     </row>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="993">
   <si>
     <t>8</t>
   </si>
@@ -3687,6 +3687,9 @@
   </si>
   <si>
     <t>5-11-140</t>
+  </si>
+  <si>
+    <t>6-11-1400</t>
   </si>
 </sst>
 </file>
@@ -3902,7 +3905,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3938,6 +3941,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -4099,8 +4113,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -11407,7 +11421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
@@ -12496,8 +12510,8 @@
       <c r="J41" s="47" t="s">
         <v>991</v>
       </c>
-      <c r="K41" s="50" t="s">
-        <v>990</v>
+      <c r="K41" s="33" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12699,7 +12713,7 @@
       </c>
       <c r="J48" s="42"/>
     </row>
-    <row r="49" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
         <v>185</v>
       </c>
@@ -12727,7 +12741,7 @@
       </c>
       <c r="J49" s="42"/>
     </row>
-    <row r="50" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
         <v>186</v>
       </c>
@@ -12755,7 +12769,7 @@
       </c>
       <c r="J50" s="42"/>
     </row>
-    <row r="51" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>197</v>
       </c>
@@ -12783,7 +12797,7 @@
       </c>
       <c r="J51" s="42"/>
     </row>
-    <row r="52" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27">
         <v>198</v>
       </c>
@@ -12811,7 +12825,7 @@
       </c>
       <c r="J52" s="42"/>
     </row>
-    <row r="53" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27">
         <v>199</v>
       </c>
@@ -12839,7 +12853,7 @@
       </c>
       <c r="J53" s="42"/>
     </row>
-    <row r="54" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27">
         <v>200</v>
       </c>
@@ -12867,7 +12881,7 @@
       </c>
       <c r="J54" s="43"/>
     </row>
-    <row r="55" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="35">
         <v>201</v>
       </c>
@@ -12895,7 +12909,7 @@
       </c>
       <c r="J55" s="42"/>
     </row>
-    <row r="56" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27">
         <v>208</v>
       </c>
@@ -12923,7 +12937,7 @@
       </c>
       <c r="J56" s="42"/>
     </row>
-    <row r="57" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27">
         <v>209</v>
       </c>
@@ -12951,7 +12965,7 @@
       </c>
       <c r="J57" s="42"/>
     </row>
-    <row r="58" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27">
         <v>210</v>
       </c>
@@ -12979,7 +12993,7 @@
       </c>
       <c r="J58" s="42"/>
     </row>
-    <row r="59" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27">
         <v>211</v>
       </c>
@@ -13007,7 +13021,7 @@
       </c>
       <c r="J59" s="42"/>
     </row>
-    <row r="60" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27">
         <v>212</v>
       </c>
@@ -13035,7 +13049,7 @@
       </c>
       <c r="J60" s="42"/>
     </row>
-    <row r="61" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27">
         <v>213</v>
       </c>
@@ -13063,7 +13077,7 @@
       </c>
       <c r="J61" s="42"/>
     </row>
-    <row r="62" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="33">
         <v>260</v>
       </c>
@@ -13093,7 +13107,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="27">
         <v>263</v>
       </c>
@@ -13121,7 +13135,7 @@
       </c>
       <c r="J63" s="42"/>
     </row>
-    <row r="64" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="33">
         <v>275</v>
       </c>
@@ -13151,6 +13165,9 @@
       </c>
       <c r="J64" s="47" t="s">
         <v>965</v>
+      </c>
+      <c r="K64" s="33" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13184,7 +13201,9 @@
       <c r="J65" s="47" t="s">
         <v>965</v>
       </c>
-      <c r="K65"/>
+      <c r="K65" s="50" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="66" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="33">
@@ -13217,6 +13236,9 @@
       <c r="J66" s="47" t="s">
         <v>979</v>
       </c>
+      <c r="K66" s="33" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="67" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="33">
@@ -13249,6 +13271,9 @@
       <c r="J67" s="47" t="s">
         <v>979</v>
       </c>
+      <c r="K67" s="33" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="68" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="33">
@@ -13281,6 +13306,9 @@
       <c r="J68" s="47" t="s">
         <v>988</v>
       </c>
+      <c r="K68" s="33" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="69" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="33">
@@ -13313,6 +13341,9 @@
       <c r="J69" s="47" t="s">
         <v>988</v>
       </c>
+      <c r="K69" s="33" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="70" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="33">
@@ -13345,6 +13376,9 @@
       <c r="J70" s="47" t="s">
         <v>988</v>
       </c>
+      <c r="K70" s="33" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="71" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="33">
@@ -13377,6 +13411,9 @@
       <c r="J71" s="47" t="s">
         <v>988</v>
       </c>
+      <c r="K71" s="33" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="72" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="33">
@@ -13409,6 +13446,9 @@
       <c r="J72" s="47" t="s">
         <v>988</v>
       </c>
+      <c r="K72" s="33" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="73" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="33">
@@ -13441,6 +13481,9 @@
       <c r="J73" s="47" t="s">
         <v>988</v>
       </c>
+      <c r="K73" s="33" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="74" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="33">
@@ -13473,6 +13516,9 @@
       <c r="J74" s="47" t="s">
         <v>988</v>
       </c>
+      <c r="K74" s="33" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="75" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="33">
@@ -13505,6 +13551,9 @@
       <c r="J75" s="47" t="s">
         <v>988</v>
       </c>
+      <c r="K75" s="33" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="76" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="33">
@@ -13631,8 +13680,8 @@
       <c r="J79" s="47" t="s">
         <v>990</v>
       </c>
-      <c r="K79" s="50" t="s">
-        <v>990</v>
+      <c r="K79" s="33" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13666,8 +13715,8 @@
       <c r="J80" s="47" t="s">
         <v>990</v>
       </c>
-      <c r="K80" s="50" t="s">
-        <v>990</v>
+      <c r="K80" s="33" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13701,8 +13750,8 @@
       <c r="J81" s="47" t="s">
         <v>990</v>
       </c>
-      <c r="K81" s="50" t="s">
-        <v>990</v>
+      <c r="K81" s="33" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13736,6 +13785,7 @@
       <c r="J82" s="49" t="s">
         <v>988</v>
       </c>
+      <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27">

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="995">
   <si>
     <t>8</t>
   </si>
@@ -3690,6 +3690,12 @@
   </si>
   <si>
     <t>6-11-1400</t>
+  </si>
+  <si>
+    <t>9-11-1400</t>
+  </si>
+  <si>
+    <t>9-11-144</t>
   </si>
 </sst>
 </file>
@@ -4053,9 +4059,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4086,9 +4089,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4115,6 +4115,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -11421,8 +11427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="D76" workbookViewId="0">
+      <selection activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11445,141 +11451,153 @@
       <c r="B1" s="23" t="s">
         <v>801</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="42" t="s">
         <v>822</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="42" t="s">
         <v>823</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="42" t="s">
         <v>824</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="42" t="s">
         <v>802</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="42" t="s">
         <v>800</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="42" t="s">
         <v>825</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="42" t="s">
         <v>826</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="42" t="s">
         <v>956</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>972</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="33" t="s">
         <v>973</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="33" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="45">
+      <c r="D2" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="43">
         <v>203</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="43">
         <v>1048</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43" t="s">
         <v>961</v>
       </c>
-      <c r="J2" s="42"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
+      <c r="A3" s="35">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="46">
+      <c r="D3" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="44">
         <v>950</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46" t="s">
+      <c r="F3" s="44"/>
+      <c r="G3" s="44" t="s">
         <v>834</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46" t="s">
+      <c r="H3" s="44"/>
+      <c r="I3" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J3" s="42"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+      <c r="A4" s="35">
         <v>16</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="46">
+      <c r="D4" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="44">
         <v>952</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44" t="s">
         <v>920</v>
       </c>
-      <c r="J4" s="42"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="A5" s="35">
         <v>17</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="46">
+      <c r="D5" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="44">
         <v>953</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46" t="s">
+      <c r="F5" s="44"/>
+      <c r="G5" s="44" t="s">
         <v>832</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46" t="s">
+      <c r="H5" s="44"/>
+      <c r="I5" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
@@ -11588,933 +11606,1042 @@
       <c r="B6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="35">
+      <c r="D6" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="34">
         <v>957</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="34">
         <v>294</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>829</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="34" t="s">
         <v>962</v>
       </c>
-      <c r="J6" s="42"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="35">
         <v>19</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="46">
+      <c r="D7" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="44">
         <v>950</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46" t="s">
+      <c r="F7" s="44"/>
+      <c r="G7" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46" t="s">
+      <c r="H7" s="44"/>
+      <c r="I7" s="44" t="s">
         <v>912</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+      <c r="A8" s="35">
         <v>20</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="46">
+      <c r="D8" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="44">
         <v>203</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46" t="s">
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J8" s="42"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>22</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>942</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="45" t="s">
         <v>943</v>
       </c>
-      <c r="D9" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="47">
+      <c r="D9" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="45">
         <v>950</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="45" t="s">
         <v>947</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="45" t="s">
         <v>946</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="45" t="s">
         <v>955</v>
       </c>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="45" t="s">
         <v>957</v>
       </c>
-      <c r="K9"/>
+      <c r="K9" s="48" t="s">
+        <v>993</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
     </row>
     <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="35">
         <v>23</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="46">
+      <c r="D10" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="44">
         <v>952</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46" t="s">
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J10" s="42"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
     </row>
     <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="A11" s="35">
         <v>24</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="D11" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="46">
+      <c r="D11" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="44">
         <v>953</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46" t="s">
+      <c r="F11" s="44"/>
+      <c r="G11" s="44" t="s">
         <v>833</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46" t="s">
+      <c r="H11" s="44"/>
+      <c r="I11" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J11" s="42"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+      <c r="A12" s="35">
         <v>25</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="46">
+      <c r="D12" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="44">
         <v>957</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46" t="s">
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J12" s="42"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
+      <c r="A13" s="35">
         <v>26</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="46">
+      <c r="D13" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="44">
         <v>203</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46" t="s">
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J13" s="42"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
     </row>
     <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+      <c r="A14" s="35">
         <v>27</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="46">
+      <c r="D14" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="44">
         <v>950</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="44" t="s">
         <v>830</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46" t="s">
+      <c r="H14" s="44"/>
+      <c r="I14" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="J14" s="42"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+      <c r="A15" s="35">
         <v>28</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="46">
+      <c r="D15" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="44">
         <v>952</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46" t="s">
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44" t="s">
         <v>921</v>
       </c>
-      <c r="J15" s="42"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
+      <c r="A16" s="35">
         <v>29</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="D16" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="46">
+      <c r="D16" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="44">
         <v>957</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46" t="s">
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44" t="s">
         <v>913</v>
       </c>
-      <c r="J16" s="42"/>
-    </row>
-    <row r="17" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
+      <c r="J16" s="40"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
         <v>30</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="46">
+      <c r="D17" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="44">
         <v>950</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46" t="s">
+      <c r="F17" s="44"/>
+      <c r="G17" s="44" t="s">
         <v>831</v>
       </c>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46" t="s">
+      <c r="H17" s="44"/>
+      <c r="I17" s="44" t="s">
         <v>919</v>
       </c>
-      <c r="J17" s="42"/>
-    </row>
-    <row r="18" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+      <c r="J17" s="40"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+    </row>
+    <row r="18" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
         <v>31</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="46">
+      <c r="D18" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="44">
         <v>952</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46" t="s">
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J18" s="42"/>
-    </row>
-    <row r="19" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
+      <c r="J18" s="40"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+    </row>
+    <row r="19" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35">
         <v>32</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="D19" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="46">
+      <c r="D19" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="44">
         <v>957</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46" t="s">
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J19" s="42"/>
-    </row>
-    <row r="20" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
+      <c r="J19" s="40"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+    </row>
+    <row r="20" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35">
         <v>33</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="46">
+      <c r="D20" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="44">
         <v>950</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46" t="s">
+      <c r="F20" s="44"/>
+      <c r="G20" s="44" t="s">
         <v>835</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46" t="s">
+      <c r="H20" s="44"/>
+      <c r="I20" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J20" s="42"/>
-    </row>
-    <row r="21" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
+      <c r="J20" s="40"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+    </row>
+    <row r="21" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35">
         <v>34</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="D21" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="46">
+      <c r="D21" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="44">
         <v>953</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J21" s="42"/>
-    </row>
-    <row r="22" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
+      <c r="J21" s="40"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+    </row>
+    <row r="22" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35">
         <v>35</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="46">
+      <c r="D22" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="44">
         <v>957</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46" t="s">
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J22" s="42"/>
-    </row>
-    <row r="23" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36">
+      <c r="J22" s="40"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+    </row>
+    <row r="23" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35">
         <v>36</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="46">
+      <c r="D23" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="44">
         <v>950</v>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46" t="s">
+      <c r="F23" s="44"/>
+      <c r="G23" s="44" t="s">
         <v>836</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46" t="s">
+      <c r="H23" s="44"/>
+      <c r="I23" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J23" s="42"/>
-    </row>
-    <row r="24" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36">
+      <c r="J23" s="40"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+    </row>
+    <row r="24" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35">
         <v>37</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="D24" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="46">
+      <c r="D24" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="44">
         <v>952</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46" t="s">
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J24" s="42"/>
-    </row>
-    <row r="25" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36">
+      <c r="J24" s="40"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+    </row>
+    <row r="25" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35">
         <v>38</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="46">
+      <c r="D25" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="44">
         <v>957</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J25" s="42"/>
-    </row>
-    <row r="26" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36">
+      <c r="J25" s="40"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+    </row>
+    <row r="26" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="35">
         <v>39</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="46">
+      <c r="D26" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="44">
         <v>950</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46" t="s">
+      <c r="F26" s="44"/>
+      <c r="G26" s="44" t="s">
         <v>837</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J26" s="42"/>
-    </row>
-    <row r="27" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36">
+      <c r="J26" s="40"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+    </row>
+    <row r="27" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35">
         <v>40</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="D27" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="46">
+      <c r="D27" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="44">
         <v>952</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46" t="s">
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J27" s="42"/>
-    </row>
-    <row r="28" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36">
+      <c r="J27" s="40"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+    </row>
+    <row r="28" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="35">
         <v>41</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="46">
+      <c r="D28" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="44">
         <v>950</v>
       </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46" t="s">
+      <c r="F28" s="44"/>
+      <c r="G28" s="44" t="s">
         <v>839</v>
       </c>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46" t="s">
+      <c r="H28" s="44"/>
+      <c r="I28" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J28" s="42"/>
-    </row>
-    <row r="29" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36">
+      <c r="J28" s="40"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+    </row>
+    <row r="29" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="35">
         <v>42</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="D29" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="46">
+      <c r="D29" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="44">
         <v>952</v>
       </c>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46" t="s">
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J29" s="42"/>
-    </row>
-    <row r="30" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36">
+      <c r="J29" s="40"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+    </row>
+    <row r="30" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="35">
         <v>43</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="46">
+      <c r="D30" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="44">
         <v>950</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46" t="s">
+      <c r="F30" s="44"/>
+      <c r="G30" s="44" t="s">
         <v>838</v>
       </c>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46" t="s">
+      <c r="H30" s="44"/>
+      <c r="I30" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J30" s="42"/>
-    </row>
-    <row r="31" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36">
+      <c r="J30" s="40"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+    </row>
+    <row r="31" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35">
         <v>44</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="D31" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="46">
+      <c r="D31" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="44">
         <v>952</v>
       </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46" t="s">
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J31" s="42"/>
-    </row>
-    <row r="32" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36">
+      <c r="J31" s="40"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+    </row>
+    <row r="32" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="35">
         <v>59</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="46">
+      <c r="D32" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="44">
         <v>950</v>
       </c>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46" t="s">
+      <c r="F32" s="44"/>
+      <c r="G32" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46" t="s">
+      <c r="H32" s="44"/>
+      <c r="I32" s="44" t="s">
         <v>917</v>
       </c>
-      <c r="J32" s="42"/>
-    </row>
-    <row r="33" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
+      <c r="J32" s="40"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+    </row>
+    <row r="33" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="35">
         <v>61</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="46">
+      <c r="D33" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="44">
         <v>950</v>
       </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46" t="s">
+      <c r="F33" s="44"/>
+      <c r="G33" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46" t="s">
+      <c r="H33" s="44"/>
+      <c r="I33" s="44" t="s">
         <v>911</v>
       </c>
-      <c r="J33" s="42"/>
-    </row>
-    <row r="34" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36">
+      <c r="J33" s="40"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+    </row>
+    <row r="34" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="35">
         <v>65</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="46">
+      <c r="D34" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="44">
         <v>974</v>
       </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46" t="s">
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44" t="s">
         <v>914</v>
       </c>
-      <c r="J34" s="42"/>
-    </row>
-    <row r="35" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36">
+      <c r="J34" s="40"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+    </row>
+    <row r="35" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="35">
         <v>67</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="D35" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="46">
+      <c r="D35" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="44">
         <v>974</v>
       </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46" t="s">
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44" t="s">
         <v>915</v>
       </c>
-      <c r="J35" s="42"/>
-    </row>
-    <row r="36" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36">
+      <c r="J35" s="40"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+    </row>
+    <row r="36" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="35">
         <v>68</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="D36" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="46">
+      <c r="D36" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="44">
         <v>974</v>
       </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46" t="s">
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44" t="s">
         <v>916</v>
       </c>
-      <c r="J36" s="42"/>
-    </row>
-    <row r="37" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
+      <c r="J36" s="40"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+    </row>
+    <row r="37" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="32">
         <v>136</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="32" t="s">
         <v>959</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="45" t="s">
         <v>960</v>
       </c>
-      <c r="D37" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="47">
+      <c r="D37" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="45">
         <v>201</v>
       </c>
-      <c r="F37" s="47">
+      <c r="F37" s="45">
         <v>1049</v>
       </c>
-      <c r="G37" s="47" t="s">
+      <c r="G37" s="45" t="s">
         <v>827</v>
       </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47" t="s">
+      <c r="H37" s="45"/>
+      <c r="I37" s="45" t="s">
         <v>954</v>
       </c>
-      <c r="J37" s="47" t="s">
+      <c r="J37" s="45" t="s">
         <v>958</v>
       </c>
-      <c r="K37"/>
-    </row>
-    <row r="38" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36">
+      <c r="K37" s="48" t="s">
+        <v>993</v>
+      </c>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+    </row>
+    <row r="38" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="35">
         <v>152</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="D38" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="46">
+      <c r="D38" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="44">
         <v>1055</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46" t="s">
+      <c r="F38" s="44"/>
+      <c r="G38" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46" t="s">
+      <c r="H38" s="44"/>
+      <c r="I38" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J38" s="42"/>
-    </row>
-    <row r="39" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38">
+      <c r="J38" s="40"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+    </row>
+    <row r="39" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="37">
         <v>157</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="30" t="s">
         <v>846</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="30" t="s">
         <v>964</v>
       </c>
-      <c r="D39" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="31">
+      <c r="D39" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="30">
         <v>951</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="30">
         <v>262</v>
       </c>
-      <c r="G39" s="31" t="s">
+      <c r="G39" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31" t="s">
+      <c r="H39" s="30"/>
+      <c r="I39" s="30" t="s">
         <v>968</v>
       </c>
-      <c r="J39" s="31" t="s">
+      <c r="J39" s="30" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33">
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+    </row>
+    <row r="40" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="32">
         <v>162</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="32" t="s">
         <v>841</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="45" t="s">
         <v>842</v>
       </c>
-      <c r="D40" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="47">
+      <c r="D40" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="45">
         <v>953</v>
       </c>
-      <c r="F40" s="47" t="s">
+      <c r="F40" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="G40" s="47" t="s">
+      <c r="G40" s="45" t="s">
         <v>843</v>
       </c>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47" t="s">
+      <c r="H40" s="45"/>
+      <c r="I40" s="45" t="s">
         <v>954</v>
       </c>
-      <c r="J40" s="47" t="s">
+      <c r="J40" s="45" t="s">
         <v>971</v>
       </c>
-      <c r="K40"/>
-      <c r="L40"/>
-    </row>
-    <row r="41" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="33">
+      <c r="K40" s="48" t="s">
+        <v>993</v>
+      </c>
+      <c r="L40" s="41"/>
+      <c r="M40" s="24"/>
+    </row>
+    <row r="41" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
         <v>163</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="32" t="s">
         <v>850</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="45" t="s">
         <v>851</v>
       </c>
-      <c r="D41" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="47">
+      <c r="D41" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="45">
         <v>952</v>
       </c>
-      <c r="F41" s="47" t="s">
+      <c r="F41" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="G41" s="47" t="s">
+      <c r="G41" s="45" t="s">
         <v>843</v>
       </c>
-      <c r="H41" s="47" t="s">
+      <c r="H41" s="45" t="s">
         <v>948</v>
       </c>
-      <c r="I41" s="47" t="s">
+      <c r="I41" s="45" t="s">
         <v>989</v>
       </c>
-      <c r="J41" s="47" t="s">
+      <c r="J41" s="45" t="s">
         <v>991</v>
       </c>
-      <c r="K41" s="33" t="s">
+      <c r="K41" s="32" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+    </row>
+    <row r="42" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>166</v>
       </c>
@@ -12540,37 +12667,43 @@
       <c r="I42" s="28" t="s">
         <v>923</v>
       </c>
-      <c r="J42" s="42"/>
-    </row>
-    <row r="43" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="35">
+      <c r="J42" s="40"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+    </row>
+    <row r="43" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="34">
         <v>167</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="34" t="s">
         <v>848</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="35">
+      <c r="D43" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="34">
         <v>950</v>
       </c>
-      <c r="F43" s="35" t="s">
+      <c r="F43" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="G43" s="35" t="s">
+      <c r="G43" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35" t="s">
+      <c r="H43" s="34"/>
+      <c r="I43" s="34" t="s">
         <v>924</v>
       </c>
-      <c r="J43" s="42"/>
-    </row>
-    <row r="44" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="40"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+    </row>
+    <row r="44" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <v>168</v>
       </c>
@@ -12596,1476 +12729,1691 @@
       <c r="I44" s="28" t="s">
         <v>976</v>
       </c>
-      <c r="J44" s="42"/>
-    </row>
-    <row r="45" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31">
+      <c r="J44" s="40"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+    </row>
+    <row r="45" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="30">
         <v>171</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="30" t="s">
         <v>847</v>
       </c>
-      <c r="D45" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="31">
+      <c r="D45" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="30">
         <v>951</v>
       </c>
-      <c r="F45" s="31">
+      <c r="F45" s="30">
         <v>262</v>
       </c>
-      <c r="G45" s="31" t="s">
+      <c r="G45" s="30" t="s">
         <v>849</v>
       </c>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31" t="s">
+      <c r="H45" s="30"/>
+      <c r="I45" s="30" t="s">
         <v>969</v>
       </c>
-      <c r="J45" s="31" t="s">
+      <c r="J45" s="30" t="s">
         <v>965</v>
       </c>
-      <c r="K45"/>
-    </row>
-    <row r="46" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="35">
+      <c r="K45" s="41"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+    </row>
+    <row r="46" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="34">
         <v>179</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="34" t="s">
         <v>904</v>
       </c>
-      <c r="D46" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="35">
+      <c r="D46" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="34">
         <v>201</v>
       </c>
-      <c r="F46" s="35">
+      <c r="F46" s="34">
         <v>1049</v>
       </c>
-      <c r="G46" s="35" t="s">
+      <c r="G46" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35" t="s">
+      <c r="H46" s="34"/>
+      <c r="I46" s="34" t="s">
         <v>977</v>
       </c>
-      <c r="J46" s="42"/>
-    </row>
-    <row r="47" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="40"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+    </row>
+    <row r="47" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
         <v>183</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="46" t="s">
         <v>863</v>
       </c>
-      <c r="D47" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="48">
+      <c r="D47" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="46">
         <v>950</v>
       </c>
-      <c r="F47" s="48" t="s">
+      <c r="F47" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="G47" s="48" t="s">
+      <c r="G47" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48" t="s">
+      <c r="H47" s="46"/>
+      <c r="I47" s="46" t="s">
         <v>927</v>
       </c>
-      <c r="J47" s="42"/>
-    </row>
-    <row r="48" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="40"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+    </row>
+    <row r="48" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <v>184</v>
       </c>
       <c r="B48" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="D48" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="48">
+      <c r="D48" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="46">
         <v>951</v>
       </c>
-      <c r="F48" s="48" t="s">
+      <c r="F48" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="G48" s="48" t="s">
+      <c r="G48" s="46" t="s">
         <v>897</v>
       </c>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48" t="s">
+      <c r="H48" s="46"/>
+      <c r="I48" s="46" t="s">
         <v>937</v>
       </c>
-      <c r="J48" s="42"/>
-    </row>
-    <row r="49" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="40"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+    </row>
+    <row r="49" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
         <v>185</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="D49" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="48">
+      <c r="D49" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="46">
         <v>952</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F49" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="G49" s="48" t="s">
+      <c r="G49" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48" t="s">
+      <c r="H49" s="46"/>
+      <c r="I49" s="46" t="s">
         <v>937</v>
       </c>
-      <c r="J49" s="42"/>
-    </row>
-    <row r="50" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="40"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+    </row>
+    <row r="50" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
         <v>186</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="D50" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="48">
+      <c r="D50" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="46">
         <v>953</v>
       </c>
-      <c r="F50" s="48" t="s">
+      <c r="F50" s="46" t="s">
         <v>855</v>
       </c>
-      <c r="G50" s="48" t="s">
+      <c r="G50" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48" t="s">
+      <c r="H50" s="46"/>
+      <c r="I50" s="46" t="s">
         <v>925</v>
       </c>
-      <c r="J50" s="42"/>
-    </row>
-    <row r="51" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="35">
+      <c r="J50" s="40"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+    </row>
+    <row r="51" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="34">
         <v>197</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="34" t="s">
         <v>882</v>
       </c>
-      <c r="D51" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="35">
+      <c r="D51" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="34">
         <v>955</v>
       </c>
-      <c r="F51" s="35">
+      <c r="F51" s="34">
         <v>269</v>
       </c>
-      <c r="G51" s="35" t="s">
+      <c r="G51" s="34" t="s">
         <v>883</v>
       </c>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35" t="s">
+      <c r="H51" s="34"/>
+      <c r="I51" s="34" t="s">
         <v>930</v>
       </c>
-      <c r="J51" s="42"/>
-    </row>
-    <row r="52" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="40"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+    </row>
+    <row r="52" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27">
         <v>198</v>
       </c>
       <c r="B52" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="34" t="s">
         <v>884</v>
       </c>
-      <c r="D52" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="35">
+      <c r="D52" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="34">
         <v>955</v>
       </c>
-      <c r="F52" s="35">
+      <c r="F52" s="34">
         <v>269</v>
       </c>
-      <c r="G52" s="35" t="s">
+      <c r="G52" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35" t="s">
+      <c r="H52" s="34"/>
+      <c r="I52" s="34" t="s">
         <v>931</v>
       </c>
-      <c r="J52" s="42"/>
-    </row>
-    <row r="53" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J52" s="40"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+    </row>
+    <row r="53" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27">
         <v>199</v>
       </c>
       <c r="B53" s="27" t="s">
         <v>894</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="34" t="s">
         <v>895</v>
       </c>
-      <c r="D53" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" s="35">
+      <c r="D53" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="34">
         <v>955</v>
       </c>
-      <c r="F53" s="35">
+      <c r="F53" s="34">
         <v>269</v>
       </c>
-      <c r="G53" s="35" t="s">
+      <c r="G53" s="34" t="s">
         <v>894</v>
       </c>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35" t="s">
+      <c r="H53" s="34"/>
+      <c r="I53" s="34" t="s">
         <v>932</v>
       </c>
-      <c r="J53" s="42"/>
-    </row>
-    <row r="54" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="40"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+    </row>
+    <row r="54" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27">
         <v>200</v>
       </c>
       <c r="B54" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="35">
+      <c r="D54" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="34">
         <v>235</v>
       </c>
-      <c r="F54" s="35">
+      <c r="F54" s="34">
         <v>1100</v>
       </c>
-      <c r="G54" s="35" t="s">
+      <c r="G54" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35" t="s">
+      <c r="H54" s="34"/>
+      <c r="I54" s="34" t="s">
         <v>936</v>
       </c>
-      <c r="J54" s="43"/>
-    </row>
-    <row r="55" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="35">
+      <c r="J54" s="41"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+    </row>
+    <row r="55" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="34">
         <v>201</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="34" t="s">
         <v>856</v>
       </c>
-      <c r="D55" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="35">
+      <c r="D55" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="34">
         <v>1673</v>
       </c>
-      <c r="F55" s="35">
+      <c r="F55" s="34">
         <v>673</v>
       </c>
-      <c r="G55" s="35" t="s">
+      <c r="G55" s="34" t="s">
         <v>857</v>
       </c>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35" t="s">
+      <c r="H55" s="34"/>
+      <c r="I55" s="34" t="s">
         <v>926</v>
       </c>
-      <c r="J55" s="42"/>
-    </row>
-    <row r="56" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J55" s="40"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+    </row>
+    <row r="56" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27">
         <v>208</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="34" t="s">
         <v>898</v>
       </c>
-      <c r="D56" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="35">
+      <c r="D56" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="34">
         <v>235</v>
       </c>
-      <c r="F56" s="35">
+      <c r="F56" s="34">
         <v>1100</v>
       </c>
-      <c r="G56" s="35" t="s">
+      <c r="G56" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35" t="s">
+      <c r="H56" s="34"/>
+      <c r="I56" s="34" t="s">
         <v>936</v>
       </c>
-      <c r="J56" s="42"/>
-    </row>
-    <row r="57" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J56" s="40"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+    </row>
+    <row r="57" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27">
         <v>209</v>
       </c>
       <c r="B57" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="34" t="s">
         <v>898</v>
       </c>
-      <c r="D57" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E57" s="35">
+      <c r="D57" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="34">
         <v>235</v>
       </c>
-      <c r="F57" s="35">
+      <c r="F57" s="34">
         <v>1100</v>
       </c>
-      <c r="G57" s="35" t="s">
+      <c r="G57" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35" t="s">
+      <c r="H57" s="34"/>
+      <c r="I57" s="34" t="s">
         <v>933</v>
       </c>
-      <c r="J57" s="42"/>
-    </row>
-    <row r="58" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="40"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+    </row>
+    <row r="58" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27">
         <v>210</v>
       </c>
       <c r="B58" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="34" t="s">
         <v>898</v>
       </c>
-      <c r="D58" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E58" s="35">
+      <c r="D58" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="34">
         <v>235</v>
       </c>
-      <c r="F58" s="35">
+      <c r="F58" s="34">
         <v>1100</v>
       </c>
-      <c r="G58" s="35" t="s">
+      <c r="G58" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35" t="s">
+      <c r="H58" s="34"/>
+      <c r="I58" s="34" t="s">
         <v>934</v>
       </c>
-      <c r="J58" s="42"/>
-    </row>
-    <row r="59" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="40"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+    </row>
+    <row r="59" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27">
         <v>211</v>
       </c>
       <c r="B59" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59" s="35">
+      <c r="D59" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="34">
         <v>235</v>
       </c>
-      <c r="F59" s="35">
+      <c r="F59" s="34">
         <v>1100</v>
       </c>
-      <c r="G59" s="35" t="s">
+      <c r="G59" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35" t="s">
+      <c r="H59" s="34"/>
+      <c r="I59" s="34" t="s">
         <v>932</v>
       </c>
-      <c r="J59" s="42"/>
-    </row>
-    <row r="60" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J59" s="40"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+    </row>
+    <row r="60" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27">
         <v>212</v>
       </c>
       <c r="B60" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E60" s="35">
+      <c r="D60" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="34">
         <v>235</v>
       </c>
-      <c r="F60" s="35">
+      <c r="F60" s="34">
         <v>1100</v>
       </c>
-      <c r="G60" s="35" t="s">
+      <c r="G60" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35" t="s">
+      <c r="H60" s="34"/>
+      <c r="I60" s="34" t="s">
         <v>932</v>
       </c>
-      <c r="J60" s="42"/>
-    </row>
-    <row r="61" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J60" s="40"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+    </row>
+    <row r="61" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27">
         <v>213</v>
       </c>
       <c r="B61" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" s="35">
+      <c r="D61" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="34">
         <v>235</v>
       </c>
-      <c r="F61" s="35">
+      <c r="F61" s="34">
         <v>1100</v>
       </c>
-      <c r="G61" s="35" t="s">
+      <c r="G61" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35" t="s">
+      <c r="H61" s="34"/>
+      <c r="I61" s="34" t="s">
         <v>935</v>
       </c>
-      <c r="J61" s="42"/>
-    </row>
-    <row r="62" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="33">
+      <c r="J61" s="40"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+    </row>
+    <row r="62" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="32">
         <v>260</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="32" t="s">
         <v>852</v>
       </c>
-      <c r="C62" s="47" t="s">
+      <c r="C62" s="45" t="s">
         <v>853</v>
       </c>
-      <c r="D62" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="47">
+      <c r="D62" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="45">
         <v>1977</v>
       </c>
-      <c r="F62" s="47">
+      <c r="F62" s="45">
         <v>1977</v>
       </c>
-      <c r="G62" s="47" t="s">
+      <c r="G62" s="45" t="s">
         <v>854</v>
       </c>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47" t="s">
+      <c r="H62" s="45"/>
+      <c r="I62" s="45" t="s">
         <v>954</v>
       </c>
-      <c r="J62" s="47" t="s">
+      <c r="J62" s="45" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K62" s="32" t="s">
+        <v>993</v>
+      </c>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+    </row>
+    <row r="63" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="27">
         <v>263</v>
       </c>
       <c r="B63" s="27" t="s">
         <v>867</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="D63" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="35">
+      <c r="D63" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="34">
         <v>1976</v>
       </c>
-      <c r="F63" s="35">
+      <c r="F63" s="34">
         <v>1976</v>
       </c>
-      <c r="G63" s="35" t="s">
+      <c r="G63" s="34" t="s">
         <v>867</v>
       </c>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35" t="s">
+      <c r="H63" s="34"/>
+      <c r="I63" s="34" t="s">
         <v>929</v>
       </c>
-      <c r="J63" s="42"/>
-    </row>
-    <row r="64" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="33">
+      <c r="J63" s="40"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+    </row>
+    <row r="64" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="32">
         <v>275</v>
       </c>
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="32" t="s">
         <v>899</v>
       </c>
-      <c r="C64" s="47" t="s">
+      <c r="C64" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="D64" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="47">
+      <c r="D64" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="45">
         <v>951</v>
       </c>
-      <c r="F64" s="47" t="s">
+      <c r="F64" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="G64" s="47" t="s">
+      <c r="G64" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="H64" s="47" t="s">
+      <c r="H64" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="I64" s="47" t="s">
+      <c r="I64" s="45" t="s">
         <v>970</v>
       </c>
-      <c r="J64" s="47" t="s">
+      <c r="J64" s="45" t="s">
         <v>965</v>
       </c>
-      <c r="K64" s="33" t="s">
+      <c r="K64" s="32" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="33">
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+    </row>
+    <row r="65" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="32">
         <v>276</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="32" t="s">
         <v>858</v>
       </c>
-      <c r="C65" s="47" t="s">
+      <c r="C65" s="45" t="s">
         <v>859</v>
       </c>
-      <c r="D65" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="47">
+      <c r="D65" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="45">
         <v>951</v>
       </c>
-      <c r="F65" s="47" t="s">
+      <c r="F65" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="G65" s="47" t="s">
+      <c r="G65" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="H65" s="47" t="s">
+      <c r="H65" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="I65" s="47" t="s">
+      <c r="I65" s="45" t="s">
         <v>970</v>
       </c>
-      <c r="J65" s="47" t="s">
+      <c r="J65" s="45" t="s">
         <v>965</v>
       </c>
-      <c r="K65" s="50" t="s">
+      <c r="K65" s="48" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="33">
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+    </row>
+    <row r="66" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="32">
         <v>277</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="47" t="s">
+      <c r="C66" s="45" t="s">
         <v>859</v>
       </c>
-      <c r="D66" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" s="47">
+      <c r="D66" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="45">
         <v>951</v>
       </c>
-      <c r="F66" s="47">
+      <c r="F66" s="45">
         <v>263</v>
       </c>
-      <c r="G66" s="47" t="s">
+      <c r="G66" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="H66" s="47" t="s">
+      <c r="H66" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="I66" s="47" t="s">
+      <c r="I66" s="45" t="s">
         <v>955</v>
       </c>
-      <c r="J66" s="47" t="s">
+      <c r="J66" s="45" t="s">
         <v>979</v>
       </c>
-      <c r="K66" s="33" t="s">
+      <c r="K66" s="32" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="33">
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+    </row>
+    <row r="67" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="32">
         <v>278</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="C67" s="47" t="s">
+      <c r="C67" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="D67" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="47">
+      <c r="D67" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="45">
         <v>951</v>
       </c>
-      <c r="F67" s="47">
+      <c r="F67" s="45">
         <v>263</v>
       </c>
-      <c r="G67" s="47" t="s">
+      <c r="G67" s="45" t="s">
         <v>885</v>
       </c>
-      <c r="H67" s="47" t="s">
+      <c r="H67" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="I67" s="47" t="s">
+      <c r="I67" s="45" t="s">
         <v>980</v>
       </c>
-      <c r="J67" s="47" t="s">
+      <c r="J67" s="45" t="s">
         <v>979</v>
       </c>
-      <c r="K67" s="33" t="s">
+      <c r="K67" s="32" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="33">
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+    </row>
+    <row r="68" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="32">
         <v>279</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="32" t="s">
         <v>886</v>
       </c>
-      <c r="C68" s="47" t="s">
+      <c r="C68" s="45" t="s">
         <v>859</v>
       </c>
-      <c r="D68" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E68" s="47">
+      <c r="D68" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="45">
         <v>951</v>
       </c>
-      <c r="F68" s="47">
+      <c r="F68" s="45">
         <v>263</v>
       </c>
-      <c r="G68" s="47" t="s">
+      <c r="G68" s="45" t="s">
         <v>887</v>
       </c>
-      <c r="H68" s="47" t="s">
+      <c r="H68" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="I68" s="47" t="s">
+      <c r="I68" s="45" t="s">
         <v>980</v>
       </c>
-      <c r="J68" s="47" t="s">
+      <c r="J68" s="45" t="s">
         <v>988</v>
       </c>
-      <c r="K68" s="33" t="s">
+      <c r="K68" s="32" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="33">
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+    </row>
+    <row r="69" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="32">
         <v>280</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C69" s="47" t="s">
+      <c r="C69" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="D69" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E69" s="47">
+      <c r="D69" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="45">
         <v>951</v>
       </c>
-      <c r="F69" s="47">
+      <c r="F69" s="45">
         <v>263</v>
       </c>
-      <c r="G69" s="47" t="s">
+      <c r="G69" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="H69" s="47" t="s">
+      <c r="H69" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="I69" s="47" t="s">
+      <c r="I69" s="45" t="s">
         <v>955</v>
       </c>
-      <c r="J69" s="47" t="s">
+      <c r="J69" s="45" t="s">
         <v>988</v>
       </c>
-      <c r="K69" s="33" t="s">
+      <c r="K69" s="32" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="33">
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+    </row>
+    <row r="70" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="32">
         <v>281</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C70" s="47" t="s">
+      <c r="C70" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="D70" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70" s="47">
+      <c r="D70" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="45">
         <v>951</v>
       </c>
-      <c r="F70" s="47">
+      <c r="F70" s="45">
         <v>263</v>
       </c>
-      <c r="G70" s="47" t="s">
+      <c r="G70" s="45" t="s">
         <v>888</v>
       </c>
-      <c r="H70" s="47" t="s">
+      <c r="H70" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="I70" s="47" t="s">
+      <c r="I70" s="45" t="s">
         <v>970</v>
       </c>
-      <c r="J70" s="47" t="s">
+      <c r="J70" s="45" t="s">
         <v>988</v>
       </c>
-      <c r="K70" s="33" t="s">
+      <c r="K70" s="32" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="33">
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+    </row>
+    <row r="71" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="32">
         <v>282</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="C71" s="47" t="s">
+      <c r="C71" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="D71" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E71" s="47">
+      <c r="D71" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="45">
         <v>951</v>
       </c>
-      <c r="F71" s="47">
+      <c r="F71" s="45">
         <v>263</v>
       </c>
-      <c r="G71" s="47" t="s">
+      <c r="G71" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="H71" s="47" t="s">
+      <c r="H71" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="I71" s="47" t="s">
+      <c r="I71" s="45" t="s">
         <v>955</v>
       </c>
-      <c r="J71" s="47" t="s">
+      <c r="J71" s="45" t="s">
         <v>988</v>
       </c>
-      <c r="K71" s="33" t="s">
+      <c r="K71" s="32" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="33">
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+    </row>
+    <row r="72" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="32">
         <v>283</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="C72" s="47" t="s">
+      <c r="C72" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="D72" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="47">
+      <c r="D72" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="45">
         <v>951</v>
       </c>
-      <c r="F72" s="47">
+      <c r="F72" s="45">
         <v>263</v>
       </c>
-      <c r="G72" s="47" t="s">
+      <c r="G72" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="H72" s="47" t="s">
+      <c r="H72" s="45" t="s">
         <v>951</v>
       </c>
-      <c r="I72" s="47" t="s">
+      <c r="I72" s="45" t="s">
         <v>954</v>
       </c>
-      <c r="J72" s="47" t="s">
+      <c r="J72" s="45" t="s">
         <v>988</v>
       </c>
-      <c r="K72" s="33" t="s">
+      <c r="K72" s="32" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="33">
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+    </row>
+    <row r="73" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="32">
         <v>284</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="C73" s="47" t="s">
+      <c r="C73" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="D73" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" s="47">
+      <c r="D73" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="45">
         <v>951</v>
       </c>
-      <c r="F73" s="47">
+      <c r="F73" s="45">
         <v>263</v>
       </c>
-      <c r="G73" s="47" t="s">
+      <c r="G73" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="H73" s="47" t="s">
+      <c r="H73" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="I73" s="47" t="s">
+      <c r="I73" s="45" t="s">
         <v>954</v>
       </c>
-      <c r="J73" s="47" t="s">
+      <c r="J73" s="45" t="s">
         <v>988</v>
       </c>
-      <c r="K73" s="33" t="s">
+      <c r="K73" s="32" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="33">
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+    </row>
+    <row r="74" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="32">
         <v>285</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="32" t="s">
         <v>889</v>
       </c>
-      <c r="C74" s="47" t="s">
+      <c r="C74" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="D74" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="47">
+      <c r="D74" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="45">
         <v>951</v>
       </c>
-      <c r="F74" s="47">
+      <c r="F74" s="45">
         <v>263</v>
       </c>
-      <c r="G74" s="47" t="s">
+      <c r="G74" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="H74" s="47" t="s">
+      <c r="H74" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="I74" s="47" t="s">
+      <c r="I74" s="45" t="s">
         <v>954</v>
       </c>
-      <c r="J74" s="47" t="s">
+      <c r="J74" s="45" t="s">
         <v>988</v>
       </c>
-      <c r="K74" s="33" t="s">
+      <c r="K74" s="32" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="33">
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+    </row>
+    <row r="75" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="32">
         <v>286</v>
       </c>
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C75" s="47" t="s">
+      <c r="C75" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="D75" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E75" s="47">
+      <c r="D75" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="45">
         <v>951</v>
       </c>
-      <c r="F75" s="47">
+      <c r="F75" s="45">
         <v>263</v>
       </c>
-      <c r="G75" s="47" t="s">
+      <c r="G75" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="H75" s="47" t="s">
+      <c r="H75" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="I75" s="47" t="s">
+      <c r="I75" s="45" t="s">
         <v>954</v>
       </c>
-      <c r="J75" s="47" t="s">
+      <c r="J75" s="45" t="s">
         <v>988</v>
       </c>
-      <c r="K75" s="33" t="s">
+      <c r="K75" s="32" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="33">
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+    </row>
+    <row r="76" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="32">
         <v>287</v>
       </c>
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="32" t="s">
         <v>890</v>
       </c>
-      <c r="C76" s="47" t="s">
+      <c r="C76" s="45" t="s">
         <v>842</v>
       </c>
-      <c r="D76" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="47">
+      <c r="D76" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="45">
         <v>953</v>
       </c>
-      <c r="F76" s="47" t="s">
+      <c r="F76" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="G76" s="47" t="s">
+      <c r="G76" s="45" t="s">
         <v>891</v>
       </c>
-      <c r="H76" s="47" t="s">
+      <c r="H76" s="45" t="s">
         <v>952</v>
       </c>
-      <c r="I76" s="47" t="s">
+      <c r="I76" s="45" t="s">
         <v>954</v>
       </c>
-      <c r="J76" s="47" t="s">
+      <c r="J76" s="45" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="33">
+      <c r="K76" s="32" t="s">
+        <v>993</v>
+      </c>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+    </row>
+    <row r="77" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="32">
         <v>288</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="32" t="s">
         <v>900</v>
       </c>
-      <c r="C77" s="47" t="s">
+      <c r="C77" s="45" t="s">
         <v>862</v>
       </c>
-      <c r="D77" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="47">
+      <c r="D77" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="45">
         <v>953</v>
       </c>
-      <c r="F77" s="47" t="s">
+      <c r="F77" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="G77" s="47" t="s">
+      <c r="G77" s="45" t="s">
         <v>901</v>
       </c>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47" t="s">
+      <c r="H77" s="45"/>
+      <c r="I77" s="45" t="s">
         <v>954</v>
       </c>
-      <c r="J77" s="47" t="s">
+      <c r="J77" s="45" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="33">
+      <c r="K77" s="32" t="s">
+        <v>994</v>
+      </c>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+    </row>
+    <row r="78" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="32">
         <v>289</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="32" t="s">
         <v>902</v>
       </c>
-      <c r="C78" s="47" t="s">
+      <c r="C78" s="45" t="s">
         <v>842</v>
       </c>
-      <c r="D78" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" s="47">
+      <c r="D78" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="45">
         <v>953</v>
       </c>
-      <c r="F78" s="47" t="s">
+      <c r="F78" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="G78" s="47" t="s">
+      <c r="G78" s="45" t="s">
         <v>903</v>
       </c>
-      <c r="H78" s="47" t="s">
+      <c r="H78" s="45" t="s">
         <v>902</v>
       </c>
-      <c r="I78" s="47" t="s">
+      <c r="I78" s="45" t="s">
         <v>970</v>
       </c>
-      <c r="J78" s="47" t="s">
+      <c r="J78" s="45" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="33">
+      <c r="K78" s="32" t="s">
+        <v>993</v>
+      </c>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+    </row>
+    <row r="79" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="32">
         <v>290</v>
       </c>
-      <c r="B79" s="33" t="s">
+      <c r="B79" s="32" t="s">
         <v>908</v>
       </c>
-      <c r="C79" s="47" t="s">
+      <c r="C79" s="45" t="s">
         <v>906</v>
       </c>
-      <c r="D79" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E79" s="47">
+      <c r="D79" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="45">
         <v>952</v>
       </c>
-      <c r="F79" s="47" t="s">
+      <c r="F79" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="G79" s="47" t="s">
+      <c r="G79" s="45" t="s">
         <v>909</v>
       </c>
-      <c r="H79" s="47" t="s">
+      <c r="H79" s="45" t="s">
         <v>953</v>
       </c>
-      <c r="I79" s="47" t="s">
+      <c r="I79" s="45" t="s">
         <v>954</v>
       </c>
-      <c r="J79" s="47" t="s">
+      <c r="J79" s="45" t="s">
         <v>990</v>
       </c>
-      <c r="K79" s="33" t="s">
+      <c r="K79" s="32" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="33">
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+    </row>
+    <row r="80" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="32">
         <v>291</v>
       </c>
-      <c r="B80" s="33" t="s">
+      <c r="B80" s="32" t="s">
         <v>910</v>
       </c>
-      <c r="C80" s="47" t="s">
+      <c r="C80" s="45" t="s">
         <v>851</v>
       </c>
-      <c r="D80" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E80" s="47">
+      <c r="D80" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="45">
         <v>952</v>
       </c>
-      <c r="F80" s="47" t="s">
+      <c r="F80" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="G80" s="47" t="s">
+      <c r="G80" s="45" t="s">
         <v>901</v>
       </c>
-      <c r="H80" s="47" t="s">
+      <c r="H80" s="45" t="s">
         <v>949</v>
       </c>
-      <c r="I80" s="47" t="s">
+      <c r="I80" s="45" t="s">
         <v>954</v>
       </c>
-      <c r="J80" s="47" t="s">
+      <c r="J80" s="45" t="s">
         <v>990</v>
       </c>
-      <c r="K80" s="33" t="s">
+      <c r="K80" s="32" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="33">
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+    </row>
+    <row r="81" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="32">
         <v>292</v>
       </c>
-      <c r="B81" s="33" t="s">
+      <c r="B81" s="32" t="s">
         <v>905</v>
       </c>
-      <c r="C81" s="47" t="s">
+      <c r="C81" s="45" t="s">
         <v>906</v>
       </c>
-      <c r="D81" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E81" s="47">
+      <c r="D81" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="45">
         <v>952</v>
       </c>
-      <c r="F81" s="47" t="s">
+      <c r="F81" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="G81" s="47" t="s">
+      <c r="G81" s="45" t="s">
         <v>907</v>
       </c>
-      <c r="H81" s="47" t="s">
+      <c r="H81" s="45" t="s">
         <v>905</v>
       </c>
-      <c r="I81" s="47" t="s">
+      <c r="I81" s="45" t="s">
         <v>955</v>
       </c>
-      <c r="J81" s="47" t="s">
+      <c r="J81" s="45" t="s">
         <v>990</v>
       </c>
-      <c r="K81" s="33" t="s">
+      <c r="K81" s="32" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+    </row>
+    <row r="82" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="27">
         <v>293</v>
       </c>
       <c r="B82" s="27" t="s">
         <v>860</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="34" t="s">
         <v>861</v>
       </c>
-      <c r="D82" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E82" s="35">
+      <c r="D82" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="34">
         <v>202</v>
       </c>
-      <c r="F82" s="35">
+      <c r="F82" s="34">
         <v>24</v>
       </c>
-      <c r="G82" s="35" t="s">
+      <c r="G82" s="34" t="s">
         <v>843</v>
       </c>
-      <c r="H82" s="35" t="s">
+      <c r="H82" s="34" t="s">
         <v>950</v>
       </c>
-      <c r="I82" s="35" t="s">
+      <c r="I82" s="34" t="s">
         <v>940</v>
       </c>
-      <c r="J82" s="49" t="s">
+      <c r="J82" s="47" t="s">
         <v>988</v>
       </c>
       <c r="K82" s="24"/>
-    </row>
-    <row r="83" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+    </row>
+    <row r="83" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27">
         <v>294</v>
       </c>
       <c r="B83" s="27" t="s">
         <v>868</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="34" t="s">
         <v>861</v>
       </c>
-      <c r="D83" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E83" s="35">
+      <c r="D83" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="34">
         <v>202</v>
       </c>
-      <c r="F83" s="35">
+      <c r="F83" s="34">
         <v>24</v>
       </c>
-      <c r="G83" s="35" t="s">
+      <c r="G83" s="34" t="s">
         <v>869</v>
       </c>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35" t="s">
+      <c r="H83" s="34"/>
+      <c r="I83" s="34" t="s">
         <v>870</v>
       </c>
-      <c r="J83" s="49" t="s">
+      <c r="J83" s="47" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+    </row>
+    <row r="84" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="27">
         <v>295</v>
       </c>
       <c r="B84" s="27" t="s">
         <v>864</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="C84" s="34" t="s">
         <v>861</v>
       </c>
-      <c r="D84" s="35" t="s">
+      <c r="D84" s="34" t="s">
         <v>865</v>
       </c>
-      <c r="E84" s="35">
+      <c r="E84" s="34">
         <v>202</v>
       </c>
-      <c r="F84" s="35">
+      <c r="F84" s="34">
         <v>24</v>
       </c>
-      <c r="G84" s="35" t="s">
+      <c r="G84" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35" t="s">
+      <c r="H84" s="34"/>
+      <c r="I84" s="34" t="s">
         <v>928</v>
       </c>
-      <c r="J84" s="49" t="s">
+      <c r="J84" s="47" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+    </row>
+    <row r="85" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="27">
         <v>296</v>
       </c>
       <c r="B85" s="27" t="s">
         <v>892</v>
       </c>
-      <c r="C85" s="35" t="s">
+      <c r="C85" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="D85" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E85" s="35">
+      <c r="D85" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="34">
         <v>202</v>
       </c>
-      <c r="F85" s="35">
+      <c r="F85" s="34">
         <v>24</v>
       </c>
-      <c r="G85" s="35" t="s">
+      <c r="G85" s="34" t="s">
         <v>893</v>
       </c>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35" t="s">
+      <c r="H85" s="34"/>
+      <c r="I85" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="J85" s="49" t="s">
+      <c r="J85" s="47" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+    </row>
+    <row r="86" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27">
         <v>297</v>
       </c>
       <c r="B86" s="27" t="s">
         <v>871</v>
       </c>
-      <c r="C86" s="35" t="s">
+      <c r="C86" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="D86" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E86" s="35">
+      <c r="D86" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="34">
         <v>202</v>
       </c>
-      <c r="F86" s="35">
+      <c r="F86" s="34">
         <v>24</v>
       </c>
-      <c r="G86" s="35" t="s">
+      <c r="G86" s="34" t="s">
         <v>873</v>
       </c>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35" t="s">
+      <c r="H86" s="34"/>
+      <c r="I86" s="34" t="s">
         <v>874</v>
       </c>
-      <c r="J86" s="49" t="s">
+      <c r="J86" s="47" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+    </row>
+    <row r="87" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27">
         <v>298</v>
       </c>
       <c r="B87" s="27" t="s">
         <v>875</v>
       </c>
-      <c r="C87" s="35" t="s">
+      <c r="C87" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="D87" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E87" s="35">
+      <c r="D87" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="34">
         <v>202</v>
       </c>
-      <c r="F87" s="35">
+      <c r="F87" s="34">
         <v>24</v>
       </c>
-      <c r="G87" s="35" t="s">
+      <c r="G87" s="34" t="s">
         <v>876</v>
       </c>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35" t="s">
+      <c r="H87" s="34"/>
+      <c r="I87" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="J87" s="49" t="s">
+      <c r="J87" s="47" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+    </row>
+    <row r="88" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27">
         <v>299</v>
       </c>
       <c r="B88" s="27" t="s">
         <v>878</v>
       </c>
-      <c r="C88" s="35" t="s">
+      <c r="C88" s="34" t="s">
         <v>861</v>
       </c>
-      <c r="D88" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E88" s="35">
+      <c r="D88" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="34">
         <v>202</v>
       </c>
-      <c r="F88" s="35">
+      <c r="F88" s="34">
         <v>24</v>
       </c>
-      <c r="G88" s="35" t="s">
+      <c r="G88" s="34" t="s">
         <v>879</v>
       </c>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35" t="s">
+      <c r="H88" s="34"/>
+      <c r="I88" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="J88" s="49" t="s">
+      <c r="J88" s="47" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+    </row>
+    <row r="89" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27">
         <v>300</v>
       </c>
       <c r="B89" s="27" t="s">
         <v>880</v>
       </c>
-      <c r="C89" s="35" t="s">
+      <c r="C89" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="D89" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E89" s="35">
+      <c r="D89" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="34">
         <v>202</v>
       </c>
-      <c r="F89" s="35">
+      <c r="F89" s="34">
         <v>24</v>
       </c>
-      <c r="G89" s="35" t="s">
+      <c r="G89" s="34" t="s">
         <v>881</v>
       </c>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35" t="s">
+      <c r="H89" s="34"/>
+      <c r="I89" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="J89" s="49" t="s">
+      <c r="J89" s="47" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="33">
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+    </row>
+    <row r="90" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="32">
         <v>320</v>
       </c>
-      <c r="B90" s="33" t="s">
+      <c r="B90" s="32" t="s">
         <v>942</v>
       </c>
-      <c r="C90" s="47" t="s">
+      <c r="C90" s="45" t="s">
         <v>943</v>
       </c>
-      <c r="D90" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E90" s="47">
+      <c r="D90" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="45">
         <v>950</v>
       </c>
-      <c r="F90" s="47" t="s">
+      <c r="F90" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="G90" s="47" t="s">
+      <c r="G90" s="45" t="s">
         <v>944</v>
       </c>
-      <c r="H90" s="47" t="s">
+      <c r="H90" s="45" t="s">
         <v>945</v>
       </c>
-      <c r="I90" s="47" t="s">
+      <c r="I90" s="45" t="s">
         <v>954</v>
       </c>
-      <c r="J90" s="47" t="s">
+      <c r="J90" s="45" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I91" s="30" t="s">
+      <c r="K90" s="32" t="s">
+        <v>993</v>
+      </c>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+    </row>
+    <row r="91" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="49" t="s">
         <v>941</v>
       </c>
-      <c r="J91" s="41"/>
-      <c r="K91"/>
-    </row>
-    <row r="92" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I92" s="32" t="s">
+      <c r="J91" s="50"/>
+      <c r="K91" s="41"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+    </row>
+    <row r="92" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="31" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+    </row>
+    <row r="93" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
       <c r="I93" s="26" t="s">
         <v>939</v>
       </c>
       <c r="J93" s="24"/>
-    </row>
-    <row r="94" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+    </row>
+    <row r="94" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
       <c r="I94" s="25" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+    </row>
+    <row r="95" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
       <c r="I95" s="27" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I96" s="33" t="s">
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+    </row>
+    <row r="96" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="32" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="97" spans="9:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I97" s="36" t="s">
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+    </row>
+    <row r="97" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="35" t="s">
         <v>978</v>
       </c>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
     </row>
   </sheetData>
   <sortState ref="A2:I97">
@@ -14093,477 +14441,477 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>797</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>982</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>822</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>823</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>983</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>802</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="38" t="s">
         <v>800</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>825</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>826</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="38" t="s">
         <v>956</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="38" t="s">
         <v>984</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="38" t="s">
         <v>985</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="38" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40">
+      <c r="A2" s="39">
         <v>127</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>987</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="39">
         <v>291</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="39">
         <v>1295</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
     </row>
     <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
     </row>
     <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
     </row>
     <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
     </row>
     <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
     </row>
     <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
     </row>
     <row r="17" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
     </row>
     <row r="18" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
     </row>
     <row r="19" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
     </row>
     <row r="20" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
     </row>
     <row r="21" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
     </row>
     <row r="22" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
     </row>
     <row r="23" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
     </row>
     <row r="24" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
     </row>
     <row r="25" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
     </row>
     <row r="26" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
     </row>
     <row r="27" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
     </row>
     <row r="28" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
     </row>
     <row r="29" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="1040">
   <si>
     <t>8</t>
   </si>
@@ -3696,6 +3696,141 @@
   </si>
   <si>
     <t>9-11-144</t>
+  </si>
+  <si>
+    <t>1.fileName 2.query 3.queryName 4.font 5.size</t>
+  </si>
+  <si>
+    <t>Fund_102_1101_208_GENERAL_Q1_L1.rtf</t>
+  </si>
+  <si>
+    <t>Fund_102_1101_208_GENERAL_Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> تنخواه هزینه</t>
+  </si>
+  <si>
+    <t>1.fileName 2.font 3. size</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> دریافت چک</t>
+  </si>
+  <si>
+    <t>1.fileName 2.font 3.size</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> صدور چک</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cheque_Out_Rpt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> پرداخت وجه نقد</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CASH_LIST_ITEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> چاپ فرم</t>
+  </si>
+  <si>
+    <t>PurchaseFund_102_1101_208_GENERAL_Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TREASURY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> تنخواه خرید</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> گزارش کسر حقوق (گروهی)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> فیش و حواله بانکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cash_lists_report2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> لیست دریافت و پرداخت های نقد بانکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CASH_LIST_RPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> دریافت و پرداخت های نقد بانکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> گزارش چک های دریافتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHEQUE_IN_LIST_RPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> لیست چک های صادره</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Garantee List</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GARANTEE_LIST_RPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> صدور ضمانت</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> دریافت ضمانت</t>
+  </si>
+  <si>
+    <t>فرم درخواست صدور چک فایل ChequeRequest_102_616_616_GENERAL_Q1_L1.RTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BALANCE_PRINT_166</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SALARY_DEDUCTION_RPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> گزارش کسر حقوق</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> قالب چک</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OPERATION_PRINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> عملکرد مشتریان</t>
+  </si>
+  <si>
+    <t>CHEQUE_102_1104_210_KAROUN_Q1_L2.rtf این قالب مختص شرکت کارون است</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> قالب چک مرورگر (کارون)</t>
+  </si>
+  <si>
+    <t>BALANCE_PRINT_166 تراز</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TREASURY </t>
+  </si>
+  <si>
+    <t>CHEQUE_102_1104_210_FARA_Q1_L1.rtf این قالب چک فقط برای شرکت فرا رایانه استفاده میشود</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHEQUE_102_1104_210_GENERAL_Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEQUE_102_1104_210_KAROUN_Q1_L1.rtf این قالب چک فقط برای شرکت کارون استفاده میشود </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> قالب چک (کارون)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> گزارش موجودی</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> عملکرد</t>
   </si>
 </sst>
 </file>
@@ -3705,7 +3840,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3811,14 +3946,32 @@
       <charset val="178"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF262626"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFC00000"/>
-      <name val="B Nazanin"/>
-      <charset val="178"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF262626"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3910,8 +4063,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3960,6 +4119,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF2F2F2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF2F2F2"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3970,7 +4144,7 @@
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4083,12 +4257,6 @@
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4120,6 +4288,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11427,7 +11613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D76" workbookViewId="0">
+    <sheetView topLeftCell="D76" workbookViewId="0">
       <selection activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
@@ -11451,28 +11637,28 @@
       <c r="B1" s="23" t="s">
         <v>801</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="40" t="s">
         <v>822</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>823</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>824</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="40" t="s">
         <v>802</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="40" t="s">
         <v>800</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="40" t="s">
         <v>825</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="40" t="s">
         <v>826</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="40" t="s">
         <v>956</v>
       </c>
       <c r="K1" s="33" t="s">
@@ -11492,24 +11678,24 @@
       <c r="B2" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="43">
+      <c r="D2" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="41">
         <v>203</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="41">
         <v>1048</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41" t="s">
         <v>961</v>
       </c>
-      <c r="J2" s="40"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
@@ -11521,24 +11707,24 @@
       <c r="B3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="44">
+      <c r="D3" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="42">
         <v>950</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44" t="s">
+      <c r="F3" s="42"/>
+      <c r="G3" s="42" t="s">
         <v>834</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44" t="s">
+      <c r="H3" s="42"/>
+      <c r="I3" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J3" s="40"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
@@ -11550,22 +11736,22 @@
       <c r="B4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="44">
+      <c r="D4" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="42">
         <v>952</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42" t="s">
         <v>920</v>
       </c>
-      <c r="J4" s="40"/>
+      <c r="J4" s="38"/>
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
@@ -11577,24 +11763,24 @@
       <c r="B5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="44">
+      <c r="D5" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="42">
         <v>953</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42" t="s">
         <v>832</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44" t="s">
+      <c r="H5" s="42"/>
+      <c r="I5" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J5" s="40"/>
+      <c r="J5" s="38"/>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
@@ -11625,7 +11811,7 @@
       <c r="I6" s="34" t="s">
         <v>962</v>
       </c>
-      <c r="J6" s="40"/>
+      <c r="J6" s="38"/>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
@@ -11637,24 +11823,24 @@
       <c r="B7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="44">
+      <c r="D7" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="42">
         <v>950</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44" t="s">
+      <c r="F7" s="42"/>
+      <c r="G7" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44" t="s">
+      <c r="H7" s="42"/>
+      <c r="I7" s="42" t="s">
         <v>912</v>
       </c>
-      <c r="J7" s="40"/>
+      <c r="J7" s="38"/>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
@@ -11666,22 +11852,22 @@
       <c r="B8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="44">
+      <c r="D8" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="42">
         <v>203</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44" t="s">
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J8" s="40"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
@@ -11693,31 +11879,31 @@
       <c r="B9" s="32" t="s">
         <v>942</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="43" t="s">
         <v>943</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="45">
+      <c r="D9" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="43">
         <v>950</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="43" t="s">
         <v>947</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="43" t="s">
         <v>946</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="43" t="s">
         <v>955</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="43" t="s">
         <v>957</v>
       </c>
-      <c r="K9" s="48" t="s">
+      <c r="K9" s="46" t="s">
         <v>993</v>
       </c>
       <c r="L9" s="24"/>
@@ -11730,22 +11916,22 @@
       <c r="B10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="D10" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="44">
+      <c r="D10" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="42">
         <v>952</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44" t="s">
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J10" s="40"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
@@ -11757,24 +11943,24 @@
       <c r="B11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="D11" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="44">
+      <c r="D11" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="42">
         <v>953</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44" t="s">
+      <c r="F11" s="42"/>
+      <c r="G11" s="42" t="s">
         <v>833</v>
       </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44" t="s">
+      <c r="H11" s="42"/>
+      <c r="I11" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J11" s="40"/>
+      <c r="J11" s="38"/>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
@@ -11786,22 +11972,22 @@
       <c r="B12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="D12" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="44">
+      <c r="D12" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="42">
         <v>957</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44" t="s">
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J12" s="40"/>
+      <c r="J12" s="38"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
@@ -11813,22 +11999,22 @@
       <c r="B13" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="44">
+      <c r="D13" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="42">
         <v>203</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44" t="s">
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J13" s="40"/>
+      <c r="J13" s="38"/>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
@@ -11840,24 +12026,24 @@
       <c r="B14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="44">
+      <c r="D14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="42">
         <v>950</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44" t="s">
+      <c r="F14" s="42"/>
+      <c r="G14" s="42" t="s">
         <v>830</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44" t="s">
+      <c r="H14" s="42"/>
+      <c r="I14" s="42" t="s">
         <v>918</v>
       </c>
-      <c r="J14" s="40"/>
+      <c r="J14" s="38"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
@@ -11869,22 +12055,22 @@
       <c r="B15" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="44">
+      <c r="D15" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="42">
         <v>952</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44" t="s">
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42" t="s">
         <v>921</v>
       </c>
-      <c r="J15" s="40"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
@@ -11896,22 +12082,22 @@
       <c r="B16" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="D16" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="44">
+      <c r="D16" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="42">
         <v>957</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44" t="s">
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42" t="s">
         <v>913</v>
       </c>
-      <c r="J16" s="40"/>
+      <c r="J16" s="38"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
@@ -11923,24 +12109,24 @@
       <c r="B17" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="44">
+      <c r="D17" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="42">
         <v>950</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44" t="s">
+      <c r="F17" s="42"/>
+      <c r="G17" s="42" t="s">
         <v>831</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44" t="s">
+      <c r="H17" s="42"/>
+      <c r="I17" s="42" t="s">
         <v>919</v>
       </c>
-      <c r="J17" s="40"/>
+      <c r="J17" s="38"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
@@ -11952,22 +12138,22 @@
       <c r="B18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="44">
+      <c r="D18" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="42">
         <v>952</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44" t="s">
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J18" s="40"/>
+      <c r="J18" s="38"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
@@ -11979,22 +12165,22 @@
       <c r="B19" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="D19" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="44">
+      <c r="D19" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="42">
         <v>957</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44" t="s">
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J19" s="40"/>
+      <c r="J19" s="38"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
@@ -12006,24 +12192,24 @@
       <c r="B20" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="44">
+      <c r="D20" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="42">
         <v>950</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44" t="s">
+      <c r="F20" s="42"/>
+      <c r="G20" s="42" t="s">
         <v>835</v>
       </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44" t="s">
+      <c r="H20" s="42"/>
+      <c r="I20" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J20" s="40"/>
+      <c r="J20" s="38"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
@@ -12035,22 +12221,22 @@
       <c r="B21" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="D21" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="44">
+      <c r="D21" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="42">
         <v>953</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44" t="s">
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J21" s="40"/>
+      <c r="J21" s="38"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
@@ -12062,22 +12248,22 @@
       <c r="B22" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="44">
+      <c r="D22" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="42">
         <v>957</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44" t="s">
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J22" s="40"/>
+      <c r="J22" s="38"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
@@ -12089,24 +12275,24 @@
       <c r="B23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="44">
+      <c r="D23" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="42">
         <v>950</v>
       </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44" t="s">
+      <c r="F23" s="42"/>
+      <c r="G23" s="42" t="s">
         <v>836</v>
       </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44" t="s">
+      <c r="H23" s="42"/>
+      <c r="I23" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J23" s="40"/>
+      <c r="J23" s="38"/>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
@@ -12118,22 +12304,22 @@
       <c r="B24" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="D24" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="44">
+      <c r="D24" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="42">
         <v>952</v>
       </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44" t="s">
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J24" s="40"/>
+      <c r="J24" s="38"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
@@ -12145,22 +12331,22 @@
       <c r="B25" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="44">
+      <c r="D25" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="42">
         <v>957</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44" t="s">
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J25" s="40"/>
+      <c r="J25" s="38"/>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
@@ -12172,24 +12358,24 @@
       <c r="B26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="44">
+      <c r="D26" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="42">
         <v>950</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44" t="s">
+      <c r="F26" s="42"/>
+      <c r="G26" s="42" t="s">
         <v>837</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44" t="s">
+      <c r="H26" s="42"/>
+      <c r="I26" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J26" s="40"/>
+      <c r="J26" s="38"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
@@ -12201,22 +12387,22 @@
       <c r="B27" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="D27" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="44">
+      <c r="D27" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="42">
         <v>952</v>
       </c>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44" t="s">
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J27" s="40"/>
+      <c r="J27" s="38"/>
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
@@ -12228,24 +12414,24 @@
       <c r="B28" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="44">
+      <c r="D28" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="42">
         <v>950</v>
       </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44" t="s">
+      <c r="F28" s="42"/>
+      <c r="G28" s="42" t="s">
         <v>839</v>
       </c>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44" t="s">
+      <c r="H28" s="42"/>
+      <c r="I28" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J28" s="40"/>
+      <c r="J28" s="38"/>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
@@ -12257,22 +12443,22 @@
       <c r="B29" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="D29" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="44">
+      <c r="D29" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="42">
         <v>952</v>
       </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44" t="s">
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J29" s="40"/>
+      <c r="J29" s="38"/>
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
@@ -12284,24 +12470,24 @@
       <c r="B30" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="44">
+      <c r="D30" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="42">
         <v>950</v>
       </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44" t="s">
+      <c r="F30" s="42"/>
+      <c r="G30" s="42" t="s">
         <v>838</v>
       </c>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44" t="s">
+      <c r="H30" s="42"/>
+      <c r="I30" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J30" s="40"/>
+      <c r="J30" s="38"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
@@ -12313,22 +12499,22 @@
       <c r="B31" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="D31" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="44">
+      <c r="D31" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="42">
         <v>952</v>
       </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44" t="s">
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J31" s="40"/>
+      <c r="J31" s="38"/>
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
@@ -12340,24 +12526,24 @@
       <c r="B32" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="44">
+      <c r="D32" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="42">
         <v>950</v>
       </c>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44" t="s">
+      <c r="F32" s="42"/>
+      <c r="G32" s="42" t="s">
         <v>828</v>
       </c>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44" t="s">
+      <c r="H32" s="42"/>
+      <c r="I32" s="42" t="s">
         <v>917</v>
       </c>
-      <c r="J32" s="40"/>
+      <c r="J32" s="38"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
@@ -12369,24 +12555,24 @@
       <c r="B33" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="44">
+      <c r="D33" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="42">
         <v>950</v>
       </c>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44" t="s">
+      <c r="F33" s="42"/>
+      <c r="G33" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44" t="s">
+      <c r="H33" s="42"/>
+      <c r="I33" s="42" t="s">
         <v>911</v>
       </c>
-      <c r="J33" s="40"/>
+      <c r="J33" s="38"/>
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
@@ -12398,22 +12584,22 @@
       <c r="B34" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="44">
+      <c r="D34" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="42">
         <v>974</v>
       </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44" t="s">
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42" t="s">
         <v>914</v>
       </c>
-      <c r="J34" s="40"/>
+      <c r="J34" s="38"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
@@ -12425,22 +12611,22 @@
       <c r="B35" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="D35" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="44">
+      <c r="D35" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="42">
         <v>974</v>
       </c>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44" t="s">
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42" t="s">
         <v>915</v>
       </c>
-      <c r="J35" s="40"/>
+      <c r="J35" s="38"/>
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
@@ -12452,22 +12638,22 @@
       <c r="B36" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="D36" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="44">
+      <c r="D36" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="42">
         <v>974</v>
       </c>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42" t="s">
         <v>916</v>
       </c>
-      <c r="J36" s="40"/>
+      <c r="J36" s="38"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
@@ -12479,29 +12665,29 @@
       <c r="B37" s="32" t="s">
         <v>959</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="43" t="s">
         <v>960</v>
       </c>
-      <c r="D37" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="45">
+      <c r="D37" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="43">
         <v>201</v>
       </c>
-      <c r="F37" s="45">
+      <c r="F37" s="43">
         <v>1049</v>
       </c>
-      <c r="G37" s="45" t="s">
+      <c r="G37" s="43" t="s">
         <v>827</v>
       </c>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45" t="s">
+      <c r="H37" s="43"/>
+      <c r="I37" s="43" t="s">
         <v>954</v>
       </c>
-      <c r="J37" s="45" t="s">
+      <c r="J37" s="43" t="s">
         <v>958</v>
       </c>
-      <c r="K37" s="48" t="s">
+      <c r="K37" s="46" t="s">
         <v>993</v>
       </c>
       <c r="L37" s="24"/>
@@ -12514,24 +12700,24 @@
       <c r="B38" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="D38" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="44">
+      <c r="D38" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="42">
         <v>1055</v>
       </c>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44" t="s">
+      <c r="F38" s="42"/>
+      <c r="G38" s="42" t="s">
         <v>840</v>
       </c>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44" t="s">
+      <c r="H38" s="42"/>
+      <c r="I38" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="J38" s="40"/>
+      <c r="J38" s="38"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
@@ -12576,32 +12762,32 @@
       <c r="B40" s="32" t="s">
         <v>841</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="43" t="s">
         <v>842</v>
       </c>
-      <c r="D40" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="45">
+      <c r="D40" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="43">
         <v>953</v>
       </c>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="G40" s="45" t="s">
+      <c r="G40" s="43" t="s">
         <v>843</v>
       </c>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45" t="s">
+      <c r="H40" s="43"/>
+      <c r="I40" s="43" t="s">
         <v>954</v>
       </c>
-      <c r="J40" s="45" t="s">
+      <c r="J40" s="43" t="s">
         <v>971</v>
       </c>
-      <c r="K40" s="48" t="s">
+      <c r="K40" s="46" t="s">
         <v>993</v>
       </c>
-      <c r="L40" s="41"/>
+      <c r="L40" s="39"/>
       <c r="M40" s="24"/>
     </row>
     <row r="41" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12611,28 +12797,28 @@
       <c r="B41" s="32" t="s">
         <v>850</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="43" t="s">
         <v>851</v>
       </c>
-      <c r="D41" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="45">
+      <c r="D41" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="43">
         <v>952</v>
       </c>
-      <c r="F41" s="45" t="s">
+      <c r="F41" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="G41" s="45" t="s">
+      <c r="G41" s="43" t="s">
         <v>843</v>
       </c>
-      <c r="H41" s="45" t="s">
+      <c r="H41" s="43" t="s">
         <v>948</v>
       </c>
-      <c r="I41" s="45" t="s">
+      <c r="I41" s="43" t="s">
         <v>989</v>
       </c>
-      <c r="J41" s="45" t="s">
+      <c r="J41" s="43" t="s">
         <v>991</v>
       </c>
       <c r="K41" s="32" t="s">
@@ -12667,7 +12853,7 @@
       <c r="I42" s="28" t="s">
         <v>923</v>
       </c>
-      <c r="J42" s="40"/>
+      <c r="J42" s="38"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
@@ -12698,7 +12884,7 @@
       <c r="I43" s="34" t="s">
         <v>924</v>
       </c>
-      <c r="J43" s="40"/>
+      <c r="J43" s="38"/>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
@@ -12729,7 +12915,7 @@
       <c r="I44" s="28" t="s">
         <v>976</v>
       </c>
-      <c r="J44" s="40"/>
+      <c r="J44" s="38"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
@@ -12763,7 +12949,7 @@
       <c r="J45" s="30" t="s">
         <v>965</v>
       </c>
-      <c r="K45" s="41"/>
+      <c r="K45" s="39"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
     </row>
@@ -12793,7 +12979,7 @@
       <c r="I46" s="34" t="s">
         <v>977</v>
       </c>
-      <c r="J46" s="40"/>
+      <c r="J46" s="38"/>
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
       <c r="M46" s="24"/>
@@ -12805,26 +12991,26 @@
       <c r="B47" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="44" t="s">
         <v>863</v>
       </c>
-      <c r="D47" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="46">
+      <c r="D47" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="44">
         <v>950</v>
       </c>
-      <c r="F47" s="46" t="s">
+      <c r="F47" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="G47" s="46" t="s">
+      <c r="G47" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46" t="s">
+      <c r="H47" s="44"/>
+      <c r="I47" s="44" t="s">
         <v>927</v>
       </c>
-      <c r="J47" s="40"/>
+      <c r="J47" s="38"/>
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
       <c r="M47" s="24"/>
@@ -12836,26 +13022,26 @@
       <c r="B48" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="D48" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="46">
+      <c r="D48" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="44">
         <v>951</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="44" t="s">
         <v>897</v>
       </c>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46" t="s">
+      <c r="H48" s="44"/>
+      <c r="I48" s="44" t="s">
         <v>937</v>
       </c>
-      <c r="J48" s="40"/>
+      <c r="J48" s="38"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
       <c r="M48" s="24"/>
@@ -12867,26 +13053,26 @@
       <c r="B49" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="D49" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="46">
+      <c r="D49" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="44">
         <v>952</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="G49" s="46" t="s">
+      <c r="G49" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46" t="s">
+      <c r="H49" s="44"/>
+      <c r="I49" s="44" t="s">
         <v>937</v>
       </c>
-      <c r="J49" s="40"/>
+      <c r="J49" s="38"/>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
@@ -12898,26 +13084,26 @@
       <c r="B50" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C50" s="46" t="s">
+      <c r="C50" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="D50" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="46">
+      <c r="D50" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="44">
         <v>953</v>
       </c>
-      <c r="F50" s="46" t="s">
+      <c r="F50" s="44" t="s">
         <v>855</v>
       </c>
-      <c r="G50" s="46" t="s">
+      <c r="G50" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46" t="s">
+      <c r="H50" s="44"/>
+      <c r="I50" s="44" t="s">
         <v>925</v>
       </c>
-      <c r="J50" s="40"/>
+      <c r="J50" s="38"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
@@ -12948,7 +13134,7 @@
       <c r="I51" s="34" t="s">
         <v>930</v>
       </c>
-      <c r="J51" s="40"/>
+      <c r="J51" s="38"/>
       <c r="K51" s="24"/>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
@@ -12979,7 +13165,7 @@
       <c r="I52" s="34" t="s">
         <v>931</v>
       </c>
-      <c r="J52" s="40"/>
+      <c r="J52" s="38"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
       <c r="M52" s="24"/>
@@ -13010,7 +13196,7 @@
       <c r="I53" s="34" t="s">
         <v>932</v>
       </c>
-      <c r="J53" s="40"/>
+      <c r="J53" s="38"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
       <c r="M53" s="24"/>
@@ -13041,7 +13227,7 @@
       <c r="I54" s="34" t="s">
         <v>936</v>
       </c>
-      <c r="J54" s="41"/>
+      <c r="J54" s="39"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
       <c r="M54" s="24"/>
@@ -13072,7 +13258,7 @@
       <c r="I55" s="34" t="s">
         <v>926</v>
       </c>
-      <c r="J55" s="40"/>
+      <c r="J55" s="38"/>
       <c r="K55" s="24"/>
       <c r="L55" s="24"/>
       <c r="M55" s="24"/>
@@ -13103,7 +13289,7 @@
       <c r="I56" s="34" t="s">
         <v>936</v>
       </c>
-      <c r="J56" s="40"/>
+      <c r="J56" s="38"/>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
       <c r="M56" s="24"/>
@@ -13134,7 +13320,7 @@
       <c r="I57" s="34" t="s">
         <v>933</v>
       </c>
-      <c r="J57" s="40"/>
+      <c r="J57" s="38"/>
       <c r="K57" s="24"/>
       <c r="L57" s="24"/>
       <c r="M57" s="24"/>
@@ -13165,7 +13351,7 @@
       <c r="I58" s="34" t="s">
         <v>934</v>
       </c>
-      <c r="J58" s="40"/>
+      <c r="J58" s="38"/>
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
       <c r="M58" s="24"/>
@@ -13196,7 +13382,7 @@
       <c r="I59" s="34" t="s">
         <v>932</v>
       </c>
-      <c r="J59" s="40"/>
+      <c r="J59" s="38"/>
       <c r="K59" s="24"/>
       <c r="L59" s="24"/>
       <c r="M59" s="24"/>
@@ -13227,7 +13413,7 @@
       <c r="I60" s="34" t="s">
         <v>932</v>
       </c>
-      <c r="J60" s="40"/>
+      <c r="J60" s="38"/>
       <c r="K60" s="24"/>
       <c r="L60" s="24"/>
       <c r="M60" s="24"/>
@@ -13258,7 +13444,7 @@
       <c r="I61" s="34" t="s">
         <v>935</v>
       </c>
-      <c r="J61" s="40"/>
+      <c r="J61" s="38"/>
       <c r="K61" s="24"/>
       <c r="L61" s="24"/>
       <c r="M61" s="24"/>
@@ -13270,26 +13456,26 @@
       <c r="B62" s="32" t="s">
         <v>852</v>
       </c>
-      <c r="C62" s="45" t="s">
+      <c r="C62" s="43" t="s">
         <v>853</v>
       </c>
-      <c r="D62" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="45">
+      <c r="D62" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="43">
         <v>1977</v>
       </c>
-      <c r="F62" s="45">
+      <c r="F62" s="43">
         <v>1977</v>
       </c>
-      <c r="G62" s="45" t="s">
+      <c r="G62" s="43" t="s">
         <v>854</v>
       </c>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45" t="s">
+      <c r="H62" s="43"/>
+      <c r="I62" s="43" t="s">
         <v>954</v>
       </c>
-      <c r="J62" s="45" t="s">
+      <c r="J62" s="43" t="s">
         <v>979</v>
       </c>
       <c r="K62" s="32" t="s">
@@ -13324,7 +13510,7 @@
       <c r="I63" s="34" t="s">
         <v>929</v>
       </c>
-      <c r="J63" s="40"/>
+      <c r="J63" s="38"/>
       <c r="K63" s="24"/>
       <c r="L63" s="24"/>
       <c r="M63" s="24"/>
@@ -13336,28 +13522,28 @@
       <c r="B64" s="32" t="s">
         <v>899</v>
       </c>
-      <c r="C64" s="45" t="s">
+      <c r="C64" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D64" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="45">
+      <c r="D64" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="43">
         <v>951</v>
       </c>
-      <c r="F64" s="45" t="s">
+      <c r="F64" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="G64" s="45" t="s">
+      <c r="G64" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="H64" s="45" t="s">
+      <c r="H64" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="I64" s="45" t="s">
+      <c r="I64" s="43" t="s">
         <v>970</v>
       </c>
-      <c r="J64" s="45" t="s">
+      <c r="J64" s="43" t="s">
         <v>965</v>
       </c>
       <c r="K64" s="32" t="s">
@@ -13373,31 +13559,31 @@
       <c r="B65" s="32" t="s">
         <v>858</v>
       </c>
-      <c r="C65" s="45" t="s">
+      <c r="C65" s="43" t="s">
         <v>859</v>
       </c>
-      <c r="D65" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="45">
+      <c r="D65" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="43">
         <v>951</v>
       </c>
-      <c r="F65" s="45" t="s">
+      <c r="F65" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="G65" s="45" t="s">
+      <c r="G65" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="H65" s="45" t="s">
+      <c r="H65" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="I65" s="45" t="s">
+      <c r="I65" s="43" t="s">
         <v>970</v>
       </c>
-      <c r="J65" s="45" t="s">
+      <c r="J65" s="43" t="s">
         <v>965</v>
       </c>
-      <c r="K65" s="48" t="s">
+      <c r="K65" s="46" t="s">
         <v>992</v>
       </c>
       <c r="L65" s="24"/>
@@ -13410,28 +13596,28 @@
       <c r="B66" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="45" t="s">
+      <c r="C66" s="43" t="s">
         <v>859</v>
       </c>
-      <c r="D66" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" s="45">
+      <c r="D66" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="43">
         <v>951</v>
       </c>
-      <c r="F66" s="45">
+      <c r="F66" s="43">
         <v>263</v>
       </c>
-      <c r="G66" s="45" t="s">
+      <c r="G66" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="H66" s="45" t="s">
+      <c r="H66" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="I66" s="45" t="s">
+      <c r="I66" s="43" t="s">
         <v>955</v>
       </c>
-      <c r="J66" s="45" t="s">
+      <c r="J66" s="43" t="s">
         <v>979</v>
       </c>
       <c r="K66" s="32" t="s">
@@ -13447,28 +13633,28 @@
       <c r="B67" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="C67" s="45" t="s">
+      <c r="C67" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D67" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="45">
+      <c r="D67" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="43">
         <v>951</v>
       </c>
-      <c r="F67" s="45">
+      <c r="F67" s="43">
         <v>263</v>
       </c>
-      <c r="G67" s="45" t="s">
+      <c r="G67" s="43" t="s">
         <v>885</v>
       </c>
-      <c r="H67" s="45" t="s">
+      <c r="H67" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="I67" s="45" t="s">
+      <c r="I67" s="43" t="s">
         <v>980</v>
       </c>
-      <c r="J67" s="45" t="s">
+      <c r="J67" s="43" t="s">
         <v>979</v>
       </c>
       <c r="K67" s="32" t="s">
@@ -13484,28 +13670,28 @@
       <c r="B68" s="32" t="s">
         <v>886</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="43" t="s">
         <v>859</v>
       </c>
-      <c r="D68" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E68" s="45">
+      <c r="D68" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="43">
         <v>951</v>
       </c>
-      <c r="F68" s="45">
+      <c r="F68" s="43">
         <v>263</v>
       </c>
-      <c r="G68" s="45" t="s">
+      <c r="G68" s="43" t="s">
         <v>887</v>
       </c>
-      <c r="H68" s="45" t="s">
+      <c r="H68" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="I68" s="45" t="s">
+      <c r="I68" s="43" t="s">
         <v>980</v>
       </c>
-      <c r="J68" s="45" t="s">
+      <c r="J68" s="43" t="s">
         <v>988</v>
       </c>
       <c r="K68" s="32" t="s">
@@ -13521,28 +13707,28 @@
       <c r="B69" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C69" s="45" t="s">
+      <c r="C69" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D69" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E69" s="45">
+      <c r="D69" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="43">
         <v>951</v>
       </c>
-      <c r="F69" s="45">
+      <c r="F69" s="43">
         <v>263</v>
       </c>
-      <c r="G69" s="45" t="s">
+      <c r="G69" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="H69" s="45" t="s">
+      <c r="H69" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="I69" s="45" t="s">
+      <c r="I69" s="43" t="s">
         <v>955</v>
       </c>
-      <c r="J69" s="45" t="s">
+      <c r="J69" s="43" t="s">
         <v>988</v>
       </c>
       <c r="K69" s="32" t="s">
@@ -13558,28 +13744,28 @@
       <c r="B70" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C70" s="45" t="s">
+      <c r="C70" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D70" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70" s="45">
+      <c r="D70" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="43">
         <v>951</v>
       </c>
-      <c r="F70" s="45">
+      <c r="F70" s="43">
         <v>263</v>
       </c>
-      <c r="G70" s="45" t="s">
+      <c r="G70" s="43" t="s">
         <v>888</v>
       </c>
-      <c r="H70" s="45" t="s">
+      <c r="H70" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="I70" s="45" t="s">
+      <c r="I70" s="43" t="s">
         <v>970</v>
       </c>
-      <c r="J70" s="45" t="s">
+      <c r="J70" s="43" t="s">
         <v>988</v>
       </c>
       <c r="K70" s="32" t="s">
@@ -13595,28 +13781,28 @@
       <c r="B71" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C71" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D71" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E71" s="45">
+      <c r="D71" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="43">
         <v>951</v>
       </c>
-      <c r="F71" s="45">
+      <c r="F71" s="43">
         <v>263</v>
       </c>
-      <c r="G71" s="45" t="s">
+      <c r="G71" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="H71" s="45" t="s">
+      <c r="H71" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="I71" s="45" t="s">
+      <c r="I71" s="43" t="s">
         <v>955</v>
       </c>
-      <c r="J71" s="45" t="s">
+      <c r="J71" s="43" t="s">
         <v>988</v>
       </c>
       <c r="K71" s="32" t="s">
@@ -13632,28 +13818,28 @@
       <c r="B72" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="C72" s="45" t="s">
+      <c r="C72" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D72" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="45">
+      <c r="D72" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="43">
         <v>951</v>
       </c>
-      <c r="F72" s="45">
+      <c r="F72" s="43">
         <v>263</v>
       </c>
-      <c r="G72" s="45" t="s">
+      <c r="G72" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="H72" s="45" t="s">
+      <c r="H72" s="43" t="s">
         <v>951</v>
       </c>
-      <c r="I72" s="45" t="s">
+      <c r="I72" s="43" t="s">
         <v>954</v>
       </c>
-      <c r="J72" s="45" t="s">
+      <c r="J72" s="43" t="s">
         <v>988</v>
       </c>
       <c r="K72" s="32" t="s">
@@ -13669,28 +13855,28 @@
       <c r="B73" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="C73" s="45" t="s">
+      <c r="C73" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D73" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" s="45">
+      <c r="D73" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="43">
         <v>951</v>
       </c>
-      <c r="F73" s="45">
+      <c r="F73" s="43">
         <v>263</v>
       </c>
-      <c r="G73" s="45" t="s">
+      <c r="G73" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="H73" s="45" t="s">
+      <c r="H73" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="I73" s="45" t="s">
+      <c r="I73" s="43" t="s">
         <v>954</v>
       </c>
-      <c r="J73" s="45" t="s">
+      <c r="J73" s="43" t="s">
         <v>988</v>
       </c>
       <c r="K73" s="32" t="s">
@@ -13706,28 +13892,28 @@
       <c r="B74" s="32" t="s">
         <v>889</v>
       </c>
-      <c r="C74" s="45" t="s">
+      <c r="C74" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D74" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="45">
+      <c r="D74" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="43">
         <v>951</v>
       </c>
-      <c r="F74" s="45">
+      <c r="F74" s="43">
         <v>263</v>
       </c>
-      <c r="G74" s="45" t="s">
+      <c r="G74" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="H74" s="45" t="s">
+      <c r="H74" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="I74" s="45" t="s">
+      <c r="I74" s="43" t="s">
         <v>954</v>
       </c>
-      <c r="J74" s="45" t="s">
+      <c r="J74" s="43" t="s">
         <v>988</v>
       </c>
       <c r="K74" s="32" t="s">
@@ -13743,28 +13929,28 @@
       <c r="B75" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C75" s="45" t="s">
+      <c r="C75" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D75" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E75" s="45">
+      <c r="D75" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="43">
         <v>951</v>
       </c>
-      <c r="F75" s="45">
+      <c r="F75" s="43">
         <v>263</v>
       </c>
-      <c r="G75" s="45" t="s">
+      <c r="G75" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="H75" s="45" t="s">
+      <c r="H75" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="I75" s="45" t="s">
+      <c r="I75" s="43" t="s">
         <v>954</v>
       </c>
-      <c r="J75" s="45" t="s">
+      <c r="J75" s="43" t="s">
         <v>988</v>
       </c>
       <c r="K75" s="32" t="s">
@@ -13780,28 +13966,28 @@
       <c r="B76" s="32" t="s">
         <v>890</v>
       </c>
-      <c r="C76" s="45" t="s">
+      <c r="C76" s="43" t="s">
         <v>842</v>
       </c>
-      <c r="D76" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="45">
+      <c r="D76" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="43">
         <v>953</v>
       </c>
-      <c r="F76" s="45" t="s">
+      <c r="F76" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="G76" s="45" t="s">
+      <c r="G76" s="43" t="s">
         <v>891</v>
       </c>
-      <c r="H76" s="45" t="s">
+      <c r="H76" s="43" t="s">
         <v>952</v>
       </c>
-      <c r="I76" s="45" t="s">
+      <c r="I76" s="43" t="s">
         <v>954</v>
       </c>
-      <c r="J76" s="45" t="s">
+      <c r="J76" s="43" t="s">
         <v>971</v>
       </c>
       <c r="K76" s="32" t="s">
@@ -13817,26 +14003,26 @@
       <c r="B77" s="32" t="s">
         <v>900</v>
       </c>
-      <c r="C77" s="45" t="s">
+      <c r="C77" s="43" t="s">
         <v>862</v>
       </c>
-      <c r="D77" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="45">
+      <c r="D77" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="43">
         <v>953</v>
       </c>
-      <c r="F77" s="45" t="s">
+      <c r="F77" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="G77" s="45" t="s">
+      <c r="G77" s="43" t="s">
         <v>901</v>
       </c>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45" t="s">
+      <c r="H77" s="43"/>
+      <c r="I77" s="43" t="s">
         <v>954</v>
       </c>
-      <c r="J77" s="45" t="s">
+      <c r="J77" s="43" t="s">
         <v>971</v>
       </c>
       <c r="K77" s="32" t="s">
@@ -13852,28 +14038,28 @@
       <c r="B78" s="32" t="s">
         <v>902</v>
       </c>
-      <c r="C78" s="45" t="s">
+      <c r="C78" s="43" t="s">
         <v>842</v>
       </c>
-      <c r="D78" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" s="45">
+      <c r="D78" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="43">
         <v>953</v>
       </c>
-      <c r="F78" s="45" t="s">
+      <c r="F78" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="G78" s="45" t="s">
+      <c r="G78" s="43" t="s">
         <v>903</v>
       </c>
-      <c r="H78" s="45" t="s">
+      <c r="H78" s="43" t="s">
         <v>902</v>
       </c>
-      <c r="I78" s="45" t="s">
+      <c r="I78" s="43" t="s">
         <v>970</v>
       </c>
-      <c r="J78" s="45" t="s">
+      <c r="J78" s="43" t="s">
         <v>975</v>
       </c>
       <c r="K78" s="32" t="s">
@@ -13889,28 +14075,28 @@
       <c r="B79" s="32" t="s">
         <v>908</v>
       </c>
-      <c r="C79" s="45" t="s">
+      <c r="C79" s="43" t="s">
         <v>906</v>
       </c>
-      <c r="D79" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E79" s="45">
+      <c r="D79" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="43">
         <v>952</v>
       </c>
-      <c r="F79" s="45" t="s">
+      <c r="F79" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="G79" s="45" t="s">
+      <c r="G79" s="43" t="s">
         <v>909</v>
       </c>
-      <c r="H79" s="45" t="s">
+      <c r="H79" s="43" t="s">
         <v>953</v>
       </c>
-      <c r="I79" s="45" t="s">
+      <c r="I79" s="43" t="s">
         <v>954</v>
       </c>
-      <c r="J79" s="45" t="s">
+      <c r="J79" s="43" t="s">
         <v>990</v>
       </c>
       <c r="K79" s="32" t="s">
@@ -13926,28 +14112,28 @@
       <c r="B80" s="32" t="s">
         <v>910</v>
       </c>
-      <c r="C80" s="45" t="s">
+      <c r="C80" s="43" t="s">
         <v>851</v>
       </c>
-      <c r="D80" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E80" s="45">
+      <c r="D80" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="43">
         <v>952</v>
       </c>
-      <c r="F80" s="45" t="s">
+      <c r="F80" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="G80" s="45" t="s">
+      <c r="G80" s="43" t="s">
         <v>901</v>
       </c>
-      <c r="H80" s="45" t="s">
+      <c r="H80" s="43" t="s">
         <v>949</v>
       </c>
-      <c r="I80" s="45" t="s">
+      <c r="I80" s="43" t="s">
         <v>954</v>
       </c>
-      <c r="J80" s="45" t="s">
+      <c r="J80" s="43" t="s">
         <v>990</v>
       </c>
       <c r="K80" s="32" t="s">
@@ -13963,28 +14149,28 @@
       <c r="B81" s="32" t="s">
         <v>905</v>
       </c>
-      <c r="C81" s="45" t="s">
+      <c r="C81" s="43" t="s">
         <v>906</v>
       </c>
-      <c r="D81" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E81" s="45">
+      <c r="D81" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="43">
         <v>952</v>
       </c>
-      <c r="F81" s="45" t="s">
+      <c r="F81" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="G81" s="45" t="s">
+      <c r="G81" s="43" t="s">
         <v>907</v>
       </c>
-      <c r="H81" s="45" t="s">
+      <c r="H81" s="43" t="s">
         <v>905</v>
       </c>
-      <c r="I81" s="45" t="s">
+      <c r="I81" s="43" t="s">
         <v>955</v>
       </c>
-      <c r="J81" s="45" t="s">
+      <c r="J81" s="43" t="s">
         <v>990</v>
       </c>
       <c r="K81" s="32" t="s">
@@ -14021,7 +14207,7 @@
       <c r="I82" s="34" t="s">
         <v>940</v>
       </c>
-      <c r="J82" s="47" t="s">
+      <c r="J82" s="45" t="s">
         <v>988</v>
       </c>
       <c r="K82" s="24"/>
@@ -14054,7 +14240,7 @@
       <c r="I83" s="34" t="s">
         <v>870</v>
       </c>
-      <c r="J83" s="47" t="s">
+      <c r="J83" s="45" t="s">
         <v>988</v>
       </c>
       <c r="K83" s="24"/>
@@ -14087,7 +14273,7 @@
       <c r="I84" s="34" t="s">
         <v>928</v>
       </c>
-      <c r="J84" s="47" t="s">
+      <c r="J84" s="45" t="s">
         <v>988</v>
       </c>
       <c r="K84" s="24"/>
@@ -14120,7 +14306,7 @@
       <c r="I85" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="J85" s="47" t="s">
+      <c r="J85" s="45" t="s">
         <v>988</v>
       </c>
       <c r="K85" s="24"/>
@@ -14153,7 +14339,7 @@
       <c r="I86" s="34" t="s">
         <v>874</v>
       </c>
-      <c r="J86" s="47" t="s">
+      <c r="J86" s="45" t="s">
         <v>988</v>
       </c>
       <c r="K86" s="24"/>
@@ -14186,7 +14372,7 @@
       <c r="I87" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="J87" s="47" t="s">
+      <c r="J87" s="45" t="s">
         <v>988</v>
       </c>
       <c r="K87" s="24"/>
@@ -14219,7 +14405,7 @@
       <c r="I88" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="J88" s="47" t="s">
+      <c r="J88" s="45" t="s">
         <v>988</v>
       </c>
       <c r="K88" s="24"/>
@@ -14252,7 +14438,7 @@
       <c r="I89" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="J89" s="47" t="s">
+      <c r="J89" s="45" t="s">
         <v>988</v>
       </c>
       <c r="K89" s="24"/>
@@ -14266,28 +14452,28 @@
       <c r="B90" s="32" t="s">
         <v>942</v>
       </c>
-      <c r="C90" s="45" t="s">
+      <c r="C90" s="43" t="s">
         <v>943</v>
       </c>
-      <c r="D90" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E90" s="45">
+      <c r="D90" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="43">
         <v>950</v>
       </c>
-      <c r="F90" s="45" t="s">
+      <c r="F90" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="G90" s="45" t="s">
+      <c r="G90" s="43" t="s">
         <v>944</v>
       </c>
-      <c r="H90" s="45" t="s">
+      <c r="H90" s="43" t="s">
         <v>945</v>
       </c>
-      <c r="I90" s="45" t="s">
+      <c r="I90" s="43" t="s">
         <v>954</v>
       </c>
-      <c r="J90" s="45" t="s">
+      <c r="J90" s="43" t="s">
         <v>957</v>
       </c>
       <c r="K90" s="32" t="s">
@@ -14305,11 +14491,11 @@
       <c r="F91" s="24"/>
       <c r="G91" s="24"/>
       <c r="H91" s="24"/>
-      <c r="I91" s="49" t="s">
+      <c r="I91" s="47" t="s">
         <v>941</v>
       </c>
-      <c r="J91" s="50"/>
-      <c r="K91" s="41"/>
+      <c r="J91" s="48"/>
+      <c r="K91" s="39"/>
       <c r="L91" s="24"/>
       <c r="M91" s="24"/>
     </row>
@@ -14428,490 +14614,709 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="8" max="9" width="20.7109375" customWidth="1"/>
-    <col min="11" max="13" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="52"/>
+    <col min="2" max="3" width="35.7109375" style="52" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="52" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="52"/>
+    <col min="8" max="9" width="20.7109375" style="52" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="52"/>
+    <col min="11" max="13" width="20.7109375" style="52" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="51" t="s">
         <v>797</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="51" t="s">
         <v>982</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="51" t="s">
         <v>822</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="51" t="s">
         <v>823</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="51" t="s">
         <v>983</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="51" t="s">
         <v>802</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="51" t="s">
         <v>800</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="51" t="s">
         <v>825</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="51" t="s">
         <v>826</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="51" t="s">
         <v>956</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="51" t="s">
         <v>984</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="51" t="s">
         <v>985</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="51" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39">
+      <c r="A2" s="52">
         <v>127</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="52" t="s">
         <v>987</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="53" t="s">
         <v>695</v>
       </c>
-      <c r="E2" s="39">
+      <c r="D2" s="52" t="s">
+        <v>675</v>
+      </c>
+      <c r="E2" s="52">
         <v>291</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="52">
         <v>1295</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="52" t="s">
         <v>696</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-    </row>
-    <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-    </row>
-    <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="I2" s="52" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52">
+        <v>69</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>996</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>997</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>675</v>
+      </c>
+      <c r="E3" s="53">
+        <v>1101</v>
+      </c>
+      <c r="F3" s="53">
+        <v>208</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>998</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52">
+        <v>72</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>734</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>732</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>675</v>
+      </c>
+      <c r="E4" s="53">
+        <v>1103</v>
+      </c>
+      <c r="F4" s="52">
+        <v>213</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
+      <c r="A5" s="52">
+        <v>45</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>675</v>
+      </c>
+      <c r="E5" s="49">
+        <v>1104</v>
+      </c>
+      <c r="F5" s="52">
+        <v>210</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>1002</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="A6" s="52">
+        <v>115</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>675</v>
+      </c>
+      <c r="E6" s="52">
+        <v>1102</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>724</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>1006</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="A7" s="52">
+        <v>49</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>719</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E7" s="52">
+        <v>1101</v>
+      </c>
+      <c r="F7" s="52">
+        <v>208</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="A8" s="52">
+        <v>126</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>689</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>688</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E8" s="52">
+        <v>271</v>
+      </c>
+      <c r="F8" s="49">
+        <v>503</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="A9" s="49">
+        <v>47</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>726</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>721</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E9" s="52">
+        <v>1102</v>
+      </c>
+      <c r="F9" s="52">
+        <v>206</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="A10" s="52">
+        <v>116</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>727</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E10" s="52">
+        <v>1102</v>
+      </c>
+      <c r="F10" s="52">
+        <v>610</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>1011</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="A11" s="52">
+        <v>117</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>730</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>721</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E11" s="52">
+        <v>1102</v>
+      </c>
+      <c r="F11" s="52">
+        <v>611</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="A12" s="52">
+        <v>118</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>707</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>675</v>
+      </c>
+      <c r="E12" s="52">
+        <v>1100</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>708</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-    </row>
-    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-    </row>
-    <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="A13" s="52">
+        <v>119</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E13" s="52">
+        <v>1100</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="52">
+        <v>120</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E14" s="52">
+        <v>1110</v>
+      </c>
+      <c r="F14" s="52">
+        <v>1504</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="52">
+        <v>121</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>772</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>675</v>
+      </c>
+      <c r="E15" s="52">
+        <v>1112</v>
+      </c>
+      <c r="F15" s="52">
+        <v>1507</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-    </row>
-    <row r="17" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-    </row>
-    <row r="18" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-    </row>
-    <row r="19" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-    </row>
-    <row r="20" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-    </row>
-    <row r="21" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-    </row>
-    <row r="22" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-    </row>
-    <row r="23" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-    </row>
-    <row r="24" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-    </row>
-    <row r="25" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-    </row>
-    <row r="26" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-    </row>
-    <row r="27" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-    </row>
-    <row r="28" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-    </row>
-    <row r="29" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
+      <c r="A16" s="52">
+        <v>122</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E16" s="52">
+        <v>1111</v>
+      </c>
+      <c r="F16" s="52">
+        <v>1505</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52">
+        <v>124</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>755</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E17" s="52">
+        <v>1109</v>
+      </c>
+      <c r="F17" s="52">
+        <v>1192</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52">
+        <v>125</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>755</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E18" s="52">
+        <v>1109</v>
+      </c>
+      <c r="F18" s="52">
+        <v>1190</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52">
+        <v>174</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>700</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="E19" s="52">
+        <v>616</v>
+      </c>
+      <c r="F19" s="52">
+        <v>616</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="52">
+        <v>154</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E20" s="52">
+        <v>166</v>
+      </c>
+      <c r="F20" s="52">
+        <v>1120</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52">
+        <v>170</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>693</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>675</v>
+      </c>
+      <c r="E21" s="52">
+        <v>271</v>
+      </c>
+      <c r="F21" s="52">
+        <v>503</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52">
+        <v>173</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>736</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>736</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>675</v>
+      </c>
+      <c r="E22" s="52">
+        <v>1104</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52">
+        <v>156</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>682</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>675</v>
+      </c>
+      <c r="E23" s="52">
+        <v>167</v>
+      </c>
+      <c r="F23" s="52">
+        <v>1153</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52">
+        <v>269</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>740</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E24" s="52">
+        <v>1104</v>
+      </c>
+      <c r="F24" s="52">
+        <v>210</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="52">
+        <v>190</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E25" s="52">
+        <v>166</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>678</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52">
+        <v>195</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>675</v>
+      </c>
+      <c r="E26" s="52">
+        <v>1104</v>
+      </c>
+      <c r="F26" s="52">
+        <v>210</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="52">
+        <v>264</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E27" s="52">
+        <v>1104</v>
+      </c>
+      <c r="F27" s="52">
+        <v>210</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="52">
+        <v>181</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>752</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>750</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>675</v>
+      </c>
+      <c r="E28" s="52">
+        <v>1105</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>753</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="52">
+        <v>191</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>680</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E29" s="52">
+        <v>167</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>1039</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="1042">
   <si>
     <t>8</t>
   </si>
@@ -3831,6 +3831,12 @@
   </si>
   <si>
     <t xml:space="preserve"> عملکرد</t>
+  </si>
+  <si>
+    <t>1.fileName 2.font 3.size 4.فقط یک ردیف از دیتا را چاپ می کند</t>
+  </si>
+  <si>
+    <t>1.fileName 2.font 3.size 4.query</t>
   </si>
 </sst>
 </file>
@@ -3840,7 +3846,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3967,6 +3973,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF262626"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
@@ -4144,7 +4156,7 @@
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4306,6 +4318,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14614,8 +14629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14794,6 +14809,9 @@
       <c r="G6" s="52" t="s">
         <v>1006</v>
       </c>
+      <c r="I6" s="52" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52">
@@ -14817,6 +14835,9 @@
       <c r="G7" s="52" t="s">
         <v>1009</v>
       </c>
+      <c r="I7" s="52" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52">
@@ -14840,6 +14861,9 @@
       <c r="G8" s="52" t="s">
         <v>1010</v>
       </c>
+      <c r="I8" s="52" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49">
@@ -14863,6 +14887,9 @@
       <c r="G9" s="49" t="s">
         <v>726</v>
       </c>
+      <c r="I9" s="52" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52">
@@ -14886,6 +14913,9 @@
       <c r="G10" s="52" t="s">
         <v>1011</v>
       </c>
+      <c r="I10" s="52" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52">
@@ -14909,6 +14939,9 @@
       <c r="G11" s="52" t="s">
         <v>730</v>
       </c>
+      <c r="I11" s="52" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
@@ -14932,6 +14965,9 @@
       <c r="G12" s="52" t="s">
         <v>706</v>
       </c>
+      <c r="I12" s="52" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52">
@@ -14975,6 +15011,9 @@
       <c r="G14" s="52" t="s">
         <v>763</v>
       </c>
+      <c r="I14" s="52" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="52">
@@ -14998,6 +15037,9 @@
       <c r="G15" s="52" t="s">
         <v>773</v>
       </c>
+      <c r="I15" s="52" t="s">
+        <v>1040</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52">
@@ -15021,8 +15063,11 @@
       <c r="G16" s="52" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="52" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52">
         <v>124</v>
       </c>
@@ -15044,8 +15089,11 @@
       <c r="G17" s="52" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="52" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52">
         <v>125</v>
       </c>
@@ -15067,8 +15115,11 @@
       <c r="G18" s="52" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="52" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52">
         <v>174</v>
       </c>
@@ -15091,7 +15142,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="52">
         <v>154</v>
       </c>
@@ -15113,8 +15164,11 @@
       <c r="G20" s="52" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="52" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52">
         <v>170</v>
       </c>
@@ -15136,8 +15190,11 @@
       <c r="G21" s="52" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="52" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="52">
         <v>173</v>
       </c>
@@ -15157,8 +15214,8 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52">
+    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="55">
         <v>156</v>
       </c>
       <c r="B23" s="52" t="s">
@@ -15180,7 +15237,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52">
         <v>269</v>
       </c>
@@ -15203,7 +15260,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52">
         <v>190</v>
       </c>
@@ -15225,8 +15282,11 @@
       <c r="G25" s="52" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="52" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52">
         <v>195</v>
       </c>
@@ -15249,7 +15309,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="52">
         <v>264</v>
       </c>
@@ -15272,7 +15332,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52">
         <v>181</v>
       </c>
@@ -15295,7 +15355,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="52">
         <v>191</v>
       </c>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="1045">
   <si>
     <t>8</t>
   </si>
@@ -3599,9 +3599,6 @@
     <t>1.size 2.QueryName3.FileName  4.font  (ERROR)</t>
   </si>
   <si>
-    <t>1.size 2.QueryName3.FileName  4.font   (NO DATA)</t>
-  </si>
-  <si>
     <t>5-10-1400</t>
   </si>
   <si>
@@ -3837,6 +3834,18 @@
   </si>
   <si>
     <t>1.fileName 2.font 3.size 4.query</t>
+  </si>
+  <si>
+    <t>13-11-1400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JOURNAL_VOUCHER_113_957_294_GENERAL_Q1</t>
+  </si>
+  <si>
+    <t>شرکت استفاده کننده  : Default</t>
+  </si>
+  <si>
+    <t>چاپ دفنر روزنامه عمومی</t>
   </si>
 </sst>
 </file>
@@ -11628,8 +11637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView topLeftCell="D76" workbookViewId="0">
-      <selection activeCell="L84" sqref="L84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11677,13 +11686,13 @@
         <v>956</v>
       </c>
       <c r="K1" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="L1" s="33" t="s">
         <v>972</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>973</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11801,33 +11810,37 @@
       <c r="M5" s="24"/>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="32">
         <v>18</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="34">
+      <c r="B6" s="32" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="43">
         <v>957</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="43">
         <v>294</v>
       </c>
-      <c r="G6" s="34" t="s">
-        <v>829</v>
-      </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34" t="s">
-        <v>962</v>
-      </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="24"/>
+      <c r="G6" s="43" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
+        <v>954</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>1041</v>
+      </c>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
     </row>
@@ -11919,7 +11932,7 @@
         <v>957</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
@@ -12703,7 +12716,7 @@
         <v>958</v>
       </c>
       <c r="K37" s="46" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
@@ -12745,7 +12758,7 @@
         <v>846</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D39" s="30" t="s">
         <v>69</v>
@@ -12761,10 +12774,10 @@
       </c>
       <c r="H39" s="30"/>
       <c r="I39" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J39" s="30" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
@@ -12797,10 +12810,10 @@
         <v>954</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K40" s="46" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="L40" s="39"/>
       <c r="M40" s="24"/>
@@ -12831,13 +12844,13 @@
         <v>948</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J41" s="43" t="s">
+        <v>990</v>
+      </c>
+      <c r="K41" s="32" t="s">
         <v>991</v>
-      </c>
-      <c r="K41" s="32" t="s">
-        <v>992</v>
       </c>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -12928,7 +12941,7 @@
       </c>
       <c r="H44" s="28"/>
       <c r="I44" s="28" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J44" s="38"/>
       <c r="K44" s="24"/>
@@ -12959,10 +12972,10 @@
       </c>
       <c r="H45" s="30"/>
       <c r="I45" s="30" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J45" s="30" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="K45" s="39"/>
       <c r="L45" s="24"/>
@@ -12992,7 +13005,7 @@
       </c>
       <c r="H46" s="34"/>
       <c r="I46" s="34" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J46" s="38"/>
       <c r="K46" s="24"/>
@@ -13491,10 +13504,10 @@
         <v>954</v>
       </c>
       <c r="J62" s="43" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K62" s="32" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
@@ -13556,13 +13569,13 @@
         <v>213</v>
       </c>
       <c r="I64" s="43" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J64" s="43" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="K64" s="32" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
@@ -13593,13 +13606,13 @@
         <v>176</v>
       </c>
       <c r="I65" s="43" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J65" s="43" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="K65" s="46" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L65" s="24"/>
       <c r="M65" s="24"/>
@@ -13633,10 +13646,10 @@
         <v>955</v>
       </c>
       <c r="J66" s="43" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K66" s="32" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L66" s="24"/>
       <c r="M66" s="24"/>
@@ -13667,13 +13680,13 @@
         <v>184</v>
       </c>
       <c r="I67" s="43" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J67" s="43" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K67" s="32" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L67" s="24"/>
       <c r="M67" s="24"/>
@@ -13704,13 +13717,13 @@
         <v>187</v>
       </c>
       <c r="I68" s="43" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J68" s="43" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K68" s="32" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L68" s="24"/>
       <c r="M68" s="24"/>
@@ -13744,10 +13757,10 @@
         <v>955</v>
       </c>
       <c r="J69" s="43" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K69" s="32" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L69" s="24"/>
       <c r="M69" s="24"/>
@@ -13778,13 +13791,13 @@
         <v>193</v>
       </c>
       <c r="I70" s="43" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J70" s="43" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K70" s="32" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L70" s="24"/>
       <c r="M70" s="24"/>
@@ -13818,10 +13831,10 @@
         <v>955</v>
       </c>
       <c r="J71" s="43" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K71" s="32" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
@@ -13855,10 +13868,10 @@
         <v>954</v>
       </c>
       <c r="J72" s="43" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K72" s="32" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L72" s="24"/>
       <c r="M72" s="24"/>
@@ -13892,10 +13905,10 @@
         <v>954</v>
       </c>
       <c r="J73" s="43" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K73" s="32" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L73" s="24"/>
       <c r="M73" s="24"/>
@@ -13929,10 +13942,10 @@
         <v>954</v>
       </c>
       <c r="J74" s="43" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K74" s="32" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L74" s="24"/>
       <c r="M74" s="24"/>
@@ -13966,10 +13979,10 @@
         <v>954</v>
       </c>
       <c r="J75" s="43" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K75" s="32" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L75" s="24"/>
       <c r="M75" s="24"/>
@@ -14003,10 +14016,10 @@
         <v>954</v>
       </c>
       <c r="J76" s="43" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K76" s="32" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="L76" s="24"/>
       <c r="M76" s="24"/>
@@ -14038,10 +14051,10 @@
         <v>954</v>
       </c>
       <c r="J77" s="43" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K77" s="32" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="L77" s="24"/>
       <c r="M77" s="24"/>
@@ -14072,13 +14085,13 @@
         <v>902</v>
       </c>
       <c r="I78" s="43" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J78" s="43" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="K78" s="32" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
@@ -14112,10 +14125,10 @@
         <v>954</v>
       </c>
       <c r="J79" s="43" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="K79" s="32" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L79" s="24"/>
       <c r="M79" s="24"/>
@@ -14149,10 +14162,10 @@
         <v>954</v>
       </c>
       <c r="J80" s="43" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="K80" s="32" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
@@ -14186,10 +14199,10 @@
         <v>955</v>
       </c>
       <c r="J81" s="43" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="K81" s="32" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L81" s="24"/>
       <c r="M81" s="24"/>
@@ -14223,7 +14236,7 @@
         <v>940</v>
       </c>
       <c r="J82" s="45" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K82" s="24"/>
       <c r="L82" s="24"/>
@@ -14256,7 +14269,7 @@
         <v>870</v>
       </c>
       <c r="J83" s="45" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K83" s="24"/>
       <c r="L83" s="24"/>
@@ -14289,7 +14302,7 @@
         <v>928</v>
       </c>
       <c r="J84" s="45" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K84" s="24"/>
       <c r="L84" s="24"/>
@@ -14322,7 +14335,7 @@
         <v>877</v>
       </c>
       <c r="J85" s="45" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K85" s="24"/>
       <c r="L85" s="24"/>
@@ -14355,7 +14368,7 @@
         <v>874</v>
       </c>
       <c r="J86" s="45" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K86" s="24"/>
       <c r="L86" s="24"/>
@@ -14388,7 +14401,7 @@
         <v>877</v>
       </c>
       <c r="J87" s="45" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K87" s="24"/>
       <c r="L87" s="24"/>
@@ -14421,7 +14434,7 @@
         <v>877</v>
       </c>
       <c r="J88" s="45" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K88" s="24"/>
       <c r="L88" s="24"/>
@@ -14454,7 +14467,7 @@
         <v>877</v>
       </c>
       <c r="J89" s="45" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K89" s="24"/>
       <c r="L89" s="24"/>
@@ -14492,7 +14505,7 @@
         <v>957</v>
       </c>
       <c r="K90" s="32" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="L90" s="24"/>
       <c r="M90" s="24"/>
@@ -14524,7 +14537,7 @@
       <c r="G92" s="24"/>
       <c r="H92" s="24"/>
       <c r="I92" s="31" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J92" s="24"/>
       <c r="K92" s="24"/>
@@ -14558,7 +14571,7 @@
       <c r="G94" s="24"/>
       <c r="H94" s="24"/>
       <c r="I94" s="25" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J94" s="24"/>
       <c r="K94" s="24"/>
@@ -14592,7 +14605,7 @@
       <c r="G96" s="24"/>
       <c r="H96" s="24"/>
       <c r="I96" s="32" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J96" s="24"/>
       <c r="K96" s="24"/>
@@ -14609,7 +14622,7 @@
       <c r="G97" s="24"/>
       <c r="H97" s="24"/>
       <c r="I97" s="35" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J97" s="24"/>
       <c r="K97" s="24"/>
@@ -14629,7 +14642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -14650,7 +14663,7 @@
         <v>797</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>822</v>
@@ -14659,7 +14672,7 @@
         <v>823</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>802</v>
@@ -14677,13 +14690,13 @@
         <v>956</v>
       </c>
       <c r="K1" s="51" t="s">
+        <v>983</v>
+      </c>
+      <c r="L1" s="51" t="s">
         <v>984</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="M1" s="51" t="s">
         <v>985</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14691,7 +14704,7 @@
         <v>127</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C2" s="53" t="s">
         <v>695</v>
@@ -14709,7 +14722,7 @@
         <v>696</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14717,10 +14730,10 @@
         <v>69</v>
       </c>
       <c r="B3" s="52" t="s">
+        <v>995</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>996</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>997</v>
       </c>
       <c r="D3" s="52" t="s">
         <v>675</v>
@@ -14732,10 +14745,10 @@
         <v>208</v>
       </c>
       <c r="G3" s="52" t="s">
+        <v>997</v>
+      </c>
+      <c r="I3" s="52" t="s">
         <v>998</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14758,10 +14771,10 @@
         <v>213</v>
       </c>
       <c r="G4" s="52" t="s">
+        <v>999</v>
+      </c>
+      <c r="I4" s="52" t="s">
         <v>1000</v>
-      </c>
-      <c r="I4" s="52" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14769,10 +14782,10 @@
         <v>45</v>
       </c>
       <c r="B5" s="52" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>1002</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>1003</v>
       </c>
       <c r="D5" s="52" t="s">
         <v>675</v>
@@ -14784,7 +14797,7 @@
         <v>210</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14792,10 +14805,10 @@
         <v>115</v>
       </c>
       <c r="B6" s="52" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>1004</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>1005</v>
       </c>
       <c r="D6" s="52" t="s">
         <v>675</v>
@@ -14807,10 +14820,10 @@
         <v>724</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I6" s="52" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14821,10 +14834,10 @@
         <v>719</v>
       </c>
       <c r="C7" s="52" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D7" s="52" t="s">
         <v>1007</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>1008</v>
       </c>
       <c r="E7" s="52">
         <v>1101</v>
@@ -14833,10 +14846,10 @@
         <v>208</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I7" s="52" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14850,7 +14863,7 @@
         <v>688</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E8" s="52">
         <v>271</v>
@@ -14859,10 +14872,10 @@
         <v>503</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I8" s="52" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14876,7 +14889,7 @@
         <v>721</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E9" s="52">
         <v>1102</v>
@@ -14888,7 +14901,7 @@
         <v>726</v>
       </c>
       <c r="I9" s="52" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14899,10 +14912,10 @@
         <v>727</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E10" s="52">
         <v>1102</v>
@@ -14911,10 +14924,10 @@
         <v>610</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14928,7 +14941,7 @@
         <v>721</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E11" s="52">
         <v>1102</v>
@@ -14940,7 +14953,7 @@
         <v>730</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14951,7 +14964,7 @@
         <v>707</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>675</v>
@@ -14966,7 +14979,7 @@
         <v>706</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14974,19 +14987,19 @@
         <v>119</v>
       </c>
       <c r="B13" s="52" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C13" s="52" t="s">
         <v>1013</v>
       </c>
-      <c r="C13" s="52" t="s">
-        <v>1014</v>
-      </c>
       <c r="D13" s="52" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E13" s="52">
         <v>1100</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14994,13 +15007,13 @@
         <v>120</v>
       </c>
       <c r="B14" s="52" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C14" s="52" t="s">
         <v>1016</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>1017</v>
-      </c>
       <c r="D14" s="52" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E14" s="52">
         <v>1110</v>
@@ -15012,7 +15025,7 @@
         <v>763</v>
       </c>
       <c r="I14" s="52" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15020,7 +15033,7 @@
         <v>121</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C15" s="50" t="s">
         <v>772</v>
@@ -15038,7 +15051,7 @@
         <v>773</v>
       </c>
       <c r="I15" s="52" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15046,13 +15059,13 @@
         <v>122</v>
       </c>
       <c r="B16" s="52" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C16" s="52" t="s">
         <v>1019</v>
       </c>
-      <c r="C16" s="52" t="s">
-        <v>1020</v>
-      </c>
       <c r="D16" s="52" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E16" s="52">
         <v>1111</v>
@@ -15064,7 +15077,7 @@
         <v>768</v>
       </c>
       <c r="I16" s="52" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15072,13 +15085,13 @@
         <v>124</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>755</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E17" s="52">
         <v>1109</v>
@@ -15087,10 +15100,10 @@
         <v>1192</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15098,13 +15111,13 @@
         <v>125</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C18" s="52" t="s">
         <v>755</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E18" s="52">
         <v>1109</v>
@@ -15113,10 +15126,10 @@
         <v>1190</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I18" s="52" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15124,7 +15137,7 @@
         <v>174</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>700</v>
@@ -15150,10 +15163,10 @@
         <v>673</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E20" s="52">
         <v>166</v>
@@ -15165,7 +15178,7 @@
         <v>47</v>
       </c>
       <c r="I20" s="52" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15176,7 +15189,7 @@
         <v>693</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D21" s="52" t="s">
         <v>675</v>
@@ -15188,10 +15201,10 @@
         <v>503</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I21" s="52" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15211,7 +15224,7 @@
         <v>1104</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15222,7 +15235,7 @@
         <v>682</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D23" s="52" t="s">
         <v>675</v>
@@ -15234,7 +15247,7 @@
         <v>1153</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15242,13 +15255,13 @@
         <v>269</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C24" s="52" t="s">
         <v>740</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E24" s="52">
         <v>1104</v>
@@ -15257,7 +15270,7 @@
         <v>210</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15265,13 +15278,13 @@
         <v>190</v>
       </c>
       <c r="B25" s="52" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D25" s="52" t="s">
         <v>1032</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>1033</v>
       </c>
       <c r="E25" s="52">
         <v>166</v>
@@ -15283,7 +15296,7 @@
         <v>829</v>
       </c>
       <c r="I25" s="52" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15291,10 +15304,10 @@
         <v>195</v>
       </c>
       <c r="B26" s="52" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C26" s="52" t="s">
         <v>1034</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>1035</v>
       </c>
       <c r="D26" s="52" t="s">
         <v>675</v>
@@ -15314,13 +15327,13 @@
         <v>264</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E27" s="52">
         <v>1104</v>
@@ -15329,7 +15342,7 @@
         <v>210</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15352,7 +15365,7 @@
         <v>753</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15366,7 +15379,7 @@
         <v>680</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E29" s="52">
         <v>167</v>
@@ -15375,7 +15388,7 @@
         <v>686</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="1047">
   <si>
     <t>8</t>
   </si>
@@ -3485,9 +3485,6 @@
     <t xml:space="preserve">1.size 2.QueryName3.FileName 4.font   </t>
   </si>
   <si>
-    <t xml:space="preserve">1.size 2.QueryName3.FileName  4.font </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.FileName     2.QueryName  </t>
   </si>
   <si>
@@ -3503,9 +3500,6 @@
     <t xml:space="preserve">1.size 2.QueryName3.FileName  </t>
   </si>
   <si>
-    <t xml:space="preserve">1.size  2.QueryName3.FileName 4.font  </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.FileName   2.QueryName     </t>
   </si>
   <si>
@@ -3846,6 +3840,18 @@
   </si>
   <si>
     <t>چاپ دفنر روزنامه عمومی</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>22-11-1400</t>
+  </si>
+  <si>
+    <t>25-11-1400</t>
+  </si>
+  <si>
+    <t>24-11-1400</t>
   </si>
 </sst>
 </file>
@@ -11637,8 +11643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11683,16 +11689,16 @@
         <v>826</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="K1" s="33" t="s">
+        <v>969</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>970</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>971</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>972</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11717,7 +11723,7 @@
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
       <c r="I2" s="41" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="J2" s="38"/>
       <c r="K2" s="24"/>
@@ -11814,10 +11820,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>69</v>
@@ -11829,17 +11835,17 @@
         <v>294</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
@@ -11905,10 +11911,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>69</v>
@@ -11920,19 +11926,19 @@
         <v>132</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="I9" s="43" t="s">
+        <v>953</v>
+      </c>
+      <c r="J9" s="43" t="s">
         <v>955</v>
       </c>
-      <c r="J9" s="43" t="s">
-        <v>957</v>
-      </c>
       <c r="K9" s="46" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
@@ -12691,10 +12697,10 @@
         <v>136</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D37" s="43" t="s">
         <v>69</v>
@@ -12710,13 +12716,13 @@
       </c>
       <c r="H37" s="43"/>
       <c r="I37" s="43" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J37" s="43" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="K37" s="46" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
@@ -12758,7 +12764,7 @@
         <v>846</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D39" s="30" t="s">
         <v>69</v>
@@ -12774,10 +12780,10 @@
       </c>
       <c r="H39" s="30"/>
       <c r="I39" s="30" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="J39" s="30" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
@@ -12807,13 +12813,13 @@
       </c>
       <c r="H40" s="43"/>
       <c r="I40" s="43" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="K40" s="46" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="L40" s="39"/>
       <c r="M40" s="24"/>
@@ -12841,16 +12847,16 @@
         <v>843</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="I41" s="43" t="s">
+        <v>986</v>
+      </c>
+      <c r="J41" s="43" t="s">
         <v>988</v>
       </c>
-      <c r="J41" s="43" t="s">
-        <v>990</v>
-      </c>
       <c r="K41" s="32" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -12887,33 +12893,37 @@
       <c r="M42" s="24"/>
     </row>
     <row r="43" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34">
+      <c r="A43" s="43">
         <v>167</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="43" t="s">
         <v>848</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="34">
+      <c r="D43" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="43">
         <v>950</v>
       </c>
-      <c r="F43" s="34" t="s">
+      <c r="F43" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="G43" s="34" t="s">
+      <c r="G43" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34" t="s">
-        <v>924</v>
-      </c>
-      <c r="J43" s="38"/>
-      <c r="K43" s="24"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43" t="s">
+        <v>952</v>
+      </c>
+      <c r="J43" s="43" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K43" s="32" t="s">
+        <v>1045</v>
+      </c>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
     </row>
@@ -12941,7 +12951,7 @@
       </c>
       <c r="H44" s="28"/>
       <c r="I44" s="28" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="J44" s="38"/>
       <c r="K44" s="24"/>
@@ -12972,10 +12982,10 @@
       </c>
       <c r="H45" s="30"/>
       <c r="I45" s="30" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="J45" s="30" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="K45" s="39"/>
       <c r="L45" s="24"/>
@@ -13005,7 +13015,7 @@
       </c>
       <c r="H46" s="34"/>
       <c r="I46" s="34" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="J46" s="38"/>
       <c r="K46" s="24"/>
@@ -13036,7 +13046,7 @@
       </c>
       <c r="H47" s="44"/>
       <c r="I47" s="44" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J47" s="38"/>
       <c r="K47" s="24"/>
@@ -13067,7 +13077,7 @@
       </c>
       <c r="H48" s="44"/>
       <c r="I48" s="44" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="J48" s="38"/>
       <c r="K48" s="24"/>
@@ -13098,7 +13108,7 @@
       </c>
       <c r="H49" s="44"/>
       <c r="I49" s="44" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="J49" s="38"/>
       <c r="K49" s="24"/>
@@ -13129,7 +13139,7 @@
       </c>
       <c r="H50" s="44"/>
       <c r="I50" s="44" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J50" s="38"/>
       <c r="K50" s="24"/>
@@ -13137,32 +13147,34 @@
       <c r="M50" s="24"/>
     </row>
     <row r="51" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34">
+      <c r="A51" s="43">
         <v>197</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="43" t="s">
         <v>882</v>
       </c>
-      <c r="D51" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="34">
+      <c r="D51" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="43">
         <v>955</v>
       </c>
-      <c r="F51" s="34">
+      <c r="F51" s="43">
         <v>269</v>
       </c>
-      <c r="G51" s="34" t="s">
+      <c r="G51" s="43" t="s">
         <v>883</v>
       </c>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34" t="s">
-        <v>930</v>
-      </c>
-      <c r="J51" s="38"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43" t="s">
+        <v>986</v>
+      </c>
+      <c r="J51" s="43" t="s">
+        <v>1046</v>
+      </c>
       <c r="K51" s="24"/>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
@@ -13191,7 +13203,7 @@
       </c>
       <c r="H52" s="34"/>
       <c r="I52" s="34" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="J52" s="38"/>
       <c r="K52" s="24"/>
@@ -13199,61 +13211,63 @@
       <c r="M52" s="24"/>
     </row>
     <row r="53" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="27">
+      <c r="A53" s="32">
         <v>199</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="32" t="s">
         <v>894</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="43" t="s">
         <v>895</v>
       </c>
-      <c r="D53" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" s="34">
+      <c r="D53" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="43">
         <v>955</v>
       </c>
-      <c r="F53" s="34">
+      <c r="F53" s="43">
         <v>269</v>
       </c>
-      <c r="G53" s="34" t="s">
+      <c r="G53" s="43" t="s">
         <v>894</v>
       </c>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34" t="s">
-        <v>932</v>
-      </c>
-      <c r="J53" s="38"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43" t="s">
+        <v>952</v>
+      </c>
+      <c r="J53" s="43" t="s">
+        <v>1046</v>
+      </c>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
       <c r="M53" s="24"/>
     </row>
     <row r="54" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="27">
+      <c r="A54" s="31">
         <v>200</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="34">
+      <c r="D54" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="30">
         <v>235</v>
       </c>
-      <c r="F54" s="34">
+      <c r="F54" s="30">
         <v>1100</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34" t="s">
-        <v>936</v>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30" t="s">
+        <v>1043</v>
       </c>
       <c r="J54" s="39"/>
       <c r="K54" s="24"/>
@@ -13284,7 +13298,7 @@
       </c>
       <c r="H55" s="34"/>
       <c r="I55" s="34" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J55" s="38"/>
       <c r="K55" s="24"/>
@@ -13315,7 +13329,7 @@
       </c>
       <c r="H56" s="34"/>
       <c r="I56" s="34" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="J56" s="38"/>
       <c r="K56" s="24"/>
@@ -13346,7 +13360,7 @@
       </c>
       <c r="H57" s="34"/>
       <c r="I57" s="34" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="J57" s="38"/>
       <c r="K57" s="24"/>
@@ -13377,7 +13391,7 @@
       </c>
       <c r="H58" s="34"/>
       <c r="I58" s="34" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="J58" s="38"/>
       <c r="K58" s="24"/>
@@ -13408,7 +13422,7 @@
       </c>
       <c r="H59" s="34"/>
       <c r="I59" s="34" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="J59" s="38"/>
       <c r="K59" s="24"/>
@@ -13439,7 +13453,7 @@
       </c>
       <c r="H60" s="34"/>
       <c r="I60" s="34" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="J60" s="38"/>
       <c r="K60" s="24"/>
@@ -13470,7 +13484,7 @@
       </c>
       <c r="H61" s="34"/>
       <c r="I61" s="34" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="J61" s="38"/>
       <c r="K61" s="24"/>
@@ -13501,13 +13515,13 @@
       </c>
       <c r="H62" s="43"/>
       <c r="I62" s="43" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J62" s="43" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="K62" s="32" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
@@ -13536,7 +13550,7 @@
       </c>
       <c r="H63" s="34"/>
       <c r="I63" s="34" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J63" s="38"/>
       <c r="K63" s="24"/>
@@ -13569,13 +13583,13 @@
         <v>213</v>
       </c>
       <c r="I64" s="43" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="J64" s="43" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="K64" s="32" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
@@ -13606,13 +13620,13 @@
         <v>176</v>
       </c>
       <c r="I65" s="43" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="J65" s="43" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="K65" s="46" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="L65" s="24"/>
       <c r="M65" s="24"/>
@@ -13643,13 +13657,13 @@
         <v>180</v>
       </c>
       <c r="I66" s="43" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="J66" s="43" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="K66" s="32" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="L66" s="24"/>
       <c r="M66" s="24"/>
@@ -13680,13 +13694,13 @@
         <v>184</v>
       </c>
       <c r="I67" s="43" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="J67" s="43" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="K67" s="32" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="L67" s="24"/>
       <c r="M67" s="24"/>
@@ -13717,13 +13731,13 @@
         <v>187</v>
       </c>
       <c r="I68" s="43" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="J68" s="43" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K68" s="32" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="L68" s="24"/>
       <c r="M68" s="24"/>
@@ -13754,13 +13768,13 @@
         <v>190</v>
       </c>
       <c r="I69" s="43" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="J69" s="43" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K69" s="32" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="L69" s="24"/>
       <c r="M69" s="24"/>
@@ -13791,13 +13805,13 @@
         <v>193</v>
       </c>
       <c r="I70" s="43" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="J70" s="43" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K70" s="32" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="L70" s="24"/>
       <c r="M70" s="24"/>
@@ -13828,13 +13842,13 @@
         <v>196</v>
       </c>
       <c r="I71" s="43" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="J71" s="43" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K71" s="32" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
@@ -13862,16 +13876,16 @@
         <v>198</v>
       </c>
       <c r="H72" s="43" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I72" s="43" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J72" s="43" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K72" s="32" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="L72" s="24"/>
       <c r="M72" s="24"/>
@@ -13902,13 +13916,13 @@
         <v>202</v>
       </c>
       <c r="I73" s="43" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J73" s="43" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K73" s="32" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="L73" s="24"/>
       <c r="M73" s="24"/>
@@ -13939,13 +13953,13 @@
         <v>205</v>
       </c>
       <c r="I74" s="43" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J74" s="43" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K74" s="32" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="L74" s="24"/>
       <c r="M74" s="24"/>
@@ -13976,13 +13990,13 @@
         <v>208</v>
       </c>
       <c r="I75" s="43" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J75" s="43" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K75" s="32" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="L75" s="24"/>
       <c r="M75" s="24"/>
@@ -14010,16 +14024,16 @@
         <v>891</v>
       </c>
       <c r="H76" s="43" t="s">
+        <v>950</v>
+      </c>
+      <c r="I76" s="43" t="s">
         <v>952</v>
       </c>
-      <c r="I76" s="43" t="s">
-        <v>954</v>
-      </c>
       <c r="J76" s="43" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="K76" s="32" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="L76" s="24"/>
       <c r="M76" s="24"/>
@@ -14048,13 +14062,13 @@
       </c>
       <c r="H77" s="43"/>
       <c r="I77" s="43" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J77" s="43" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="K77" s="32" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="L77" s="24"/>
       <c r="M77" s="24"/>
@@ -14085,13 +14099,13 @@
         <v>902</v>
       </c>
       <c r="I78" s="43" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="J78" s="43" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="K78" s="32" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
@@ -14119,16 +14133,16 @@
         <v>909</v>
       </c>
       <c r="H79" s="43" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I79" s="43" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J79" s="43" t="s">
+        <v>987</v>
+      </c>
+      <c r="K79" s="32" t="s">
         <v>989</v>
-      </c>
-      <c r="K79" s="32" t="s">
-        <v>991</v>
       </c>
       <c r="L79" s="24"/>
       <c r="M79" s="24"/>
@@ -14156,16 +14170,16 @@
         <v>901</v>
       </c>
       <c r="H80" s="43" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="I80" s="43" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J80" s="43" t="s">
+        <v>987</v>
+      </c>
+      <c r="K80" s="32" t="s">
         <v>989</v>
-      </c>
-      <c r="K80" s="32" t="s">
-        <v>991</v>
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
@@ -14196,13 +14210,13 @@
         <v>905</v>
       </c>
       <c r="I81" s="43" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="J81" s="43" t="s">
+        <v>987</v>
+      </c>
+      <c r="K81" s="32" t="s">
         <v>989</v>
-      </c>
-      <c r="K81" s="32" t="s">
-        <v>991</v>
       </c>
       <c r="L81" s="24"/>
       <c r="M81" s="24"/>
@@ -14230,13 +14244,13 @@
         <v>843</v>
       </c>
       <c r="H82" s="34" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="I82" s="34" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="J82" s="45" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K82" s="24"/>
       <c r="L82" s="24"/>
@@ -14269,7 +14283,7 @@
         <v>870</v>
       </c>
       <c r="J83" s="45" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K83" s="24"/>
       <c r="L83" s="24"/>
@@ -14299,10 +14313,10 @@
       </c>
       <c r="H84" s="34"/>
       <c r="I84" s="34" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J84" s="45" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K84" s="24"/>
       <c r="L84" s="24"/>
@@ -14335,7 +14349,7 @@
         <v>877</v>
       </c>
       <c r="J85" s="45" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K85" s="24"/>
       <c r="L85" s="24"/>
@@ -14368,7 +14382,7 @@
         <v>874</v>
       </c>
       <c r="J86" s="45" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K86" s="24"/>
       <c r="L86" s="24"/>
@@ -14401,7 +14415,7 @@
         <v>877</v>
       </c>
       <c r="J87" s="45" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K87" s="24"/>
       <c r="L87" s="24"/>
@@ -14434,7 +14448,7 @@
         <v>877</v>
       </c>
       <c r="J88" s="45" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K88" s="24"/>
       <c r="L88" s="24"/>
@@ -14467,7 +14481,7 @@
         <v>877</v>
       </c>
       <c r="J89" s="45" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K89" s="24"/>
       <c r="L89" s="24"/>
@@ -14478,10 +14492,10 @@
         <v>320</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D90" s="43" t="s">
         <v>69</v>
@@ -14493,19 +14507,19 @@
         <v>132</v>
       </c>
       <c r="G90" s="43" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H90" s="43" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I90" s="43" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J90" s="43" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="K90" s="32" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="L90" s="24"/>
       <c r="M90" s="24"/>
@@ -14520,7 +14534,7 @@
       <c r="G91" s="24"/>
       <c r="H91" s="24"/>
       <c r="I91" s="47" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="J91" s="48"/>
       <c r="K91" s="39"/>
@@ -14537,7 +14551,7 @@
       <c r="G92" s="24"/>
       <c r="H92" s="24"/>
       <c r="I92" s="31" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J92" s="24"/>
       <c r="K92" s="24"/>
@@ -14554,7 +14568,7 @@
       <c r="G93" s="24"/>
       <c r="H93" s="24"/>
       <c r="I93" s="26" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="J93" s="24"/>
       <c r="K93" s="24"/>
@@ -14571,7 +14585,7 @@
       <c r="G94" s="24"/>
       <c r="H94" s="24"/>
       <c r="I94" s="25" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="J94" s="24"/>
       <c r="K94" s="24"/>
@@ -14588,7 +14602,7 @@
       <c r="G95" s="24"/>
       <c r="H95" s="24"/>
       <c r="I95" s="27" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="J95" s="24"/>
       <c r="K95" s="24"/>
@@ -14605,7 +14619,7 @@
       <c r="G96" s="24"/>
       <c r="H96" s="24"/>
       <c r="I96" s="32" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J96" s="24"/>
       <c r="K96" s="24"/>
@@ -14622,7 +14636,7 @@
       <c r="G97" s="24"/>
       <c r="H97" s="24"/>
       <c r="I97" s="35" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="J97" s="24"/>
       <c r="K97" s="24"/>
@@ -14663,7 +14677,7 @@
         <v>797</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>822</v>
@@ -14672,7 +14686,7 @@
         <v>823</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>802</v>
@@ -14687,16 +14701,16 @@
         <v>826</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="K1" s="51" t="s">
+        <v>981</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>982</v>
+      </c>
+      <c r="M1" s="51" t="s">
         <v>983</v>
-      </c>
-      <c r="L1" s="51" t="s">
-        <v>984</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14704,7 +14718,7 @@
         <v>127</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C2" s="53" t="s">
         <v>695</v>
@@ -14722,7 +14736,7 @@
         <v>696</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14730,10 +14744,10 @@
         <v>69</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D3" s="52" t="s">
         <v>675</v>
@@ -14745,10 +14759,10 @@
         <v>208</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I3" s="52" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14771,10 +14785,10 @@
         <v>213</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14782,10 +14796,10 @@
         <v>45</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="52" t="s">
         <v>675</v>
@@ -14797,7 +14811,7 @@
         <v>210</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14805,10 +14819,10 @@
         <v>115</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D6" s="52" t="s">
         <v>675</v>
@@ -14820,10 +14834,10 @@
         <v>724</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I6" s="52" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14834,10 +14848,10 @@
         <v>719</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E7" s="52">
         <v>1101</v>
@@ -14846,10 +14860,10 @@
         <v>208</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I7" s="52" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14863,7 +14877,7 @@
         <v>688</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E8" s="52">
         <v>271</v>
@@ -14872,10 +14886,10 @@
         <v>503</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="I8" s="52" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14889,7 +14903,7 @@
         <v>721</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E9" s="52">
         <v>1102</v>
@@ -14901,7 +14915,7 @@
         <v>726</v>
       </c>
       <c r="I9" s="52" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14912,10 +14926,10 @@
         <v>727</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E10" s="52">
         <v>1102</v>
@@ -14924,10 +14938,10 @@
         <v>610</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14941,7 +14955,7 @@
         <v>721</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E11" s="52">
         <v>1102</v>
@@ -14953,7 +14967,7 @@
         <v>730</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14964,7 +14978,7 @@
         <v>707</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>675</v>
@@ -14979,7 +14993,7 @@
         <v>706</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14987,19 +15001,19 @@
         <v>119</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E13" s="52">
         <v>1100</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15007,13 +15021,13 @@
         <v>120</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E14" s="52">
         <v>1110</v>
@@ -15025,7 +15039,7 @@
         <v>763</v>
       </c>
       <c r="I14" s="52" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15033,7 +15047,7 @@
         <v>121</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C15" s="50" t="s">
         <v>772</v>
@@ -15051,7 +15065,7 @@
         <v>773</v>
       </c>
       <c r="I15" s="52" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15059,13 +15073,13 @@
         <v>122</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E16" s="52">
         <v>1111</v>
@@ -15077,7 +15091,7 @@
         <v>768</v>
       </c>
       <c r="I16" s="52" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15085,13 +15099,13 @@
         <v>124</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>755</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E17" s="52">
         <v>1109</v>
@@ -15100,10 +15114,10 @@
         <v>1192</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15111,13 +15125,13 @@
         <v>125</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C18" s="52" t="s">
         <v>755</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E18" s="52">
         <v>1109</v>
@@ -15126,10 +15140,10 @@
         <v>1190</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="I18" s="52" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15137,7 +15151,7 @@
         <v>174</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>700</v>
@@ -15163,10 +15177,10 @@
         <v>673</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E20" s="52">
         <v>166</v>
@@ -15178,7 +15192,7 @@
         <v>47</v>
       </c>
       <c r="I20" s="52" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15189,7 +15203,7 @@
         <v>693</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D21" s="52" t="s">
         <v>675</v>
@@ -15201,10 +15215,10 @@
         <v>503</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="I21" s="52" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15224,7 +15238,7 @@
         <v>1104</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15235,7 +15249,7 @@
         <v>682</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D23" s="52" t="s">
         <v>675</v>
@@ -15247,7 +15261,7 @@
         <v>1153</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15255,13 +15269,13 @@
         <v>269</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C24" s="52" t="s">
         <v>740</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E24" s="52">
         <v>1104</v>
@@ -15270,7 +15284,7 @@
         <v>210</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15278,13 +15292,13 @@
         <v>190</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E25" s="52">
         <v>166</v>
@@ -15296,7 +15310,7 @@
         <v>829</v>
       </c>
       <c r="I25" s="52" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15304,10 +15318,10 @@
         <v>195</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D26" s="52" t="s">
         <v>675</v>
@@ -15327,13 +15341,13 @@
         <v>264</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E27" s="52">
         <v>1104</v>
@@ -15342,7 +15356,7 @@
         <v>210</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15365,7 +15379,7 @@
         <v>753</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15379,7 +15393,7 @@
         <v>680</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E29" s="52">
         <v>167</v>
@@ -15388,7 +15402,7 @@
         <v>686</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
   </sheetData>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="1047">
   <si>
     <t>8</t>
   </si>
@@ -11643,8 +11643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13175,7 +13175,9 @@
       <c r="J51" s="43" t="s">
         <v>1046</v>
       </c>
-      <c r="K51" s="24"/>
+      <c r="K51" s="32" t="s">
+        <v>1045</v>
+      </c>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
     </row>
@@ -13239,7 +13241,9 @@
       <c r="J53" s="43" t="s">
         <v>1046</v>
       </c>
-      <c r="K53" s="24"/>
+      <c r="K53" s="32" t="s">
+        <v>1045</v>
+      </c>
       <c r="L53" s="24"/>
       <c r="M53" s="24"/>
     </row>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="1056">
   <si>
     <t>8</t>
   </si>
@@ -3530,9 +3530,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>FINANCE_BALANCE_113_950_MULTIFORMCODE_GENERAL_Q1</t>
   </si>
   <si>
@@ -3852,6 +3849,36 @@
   </si>
   <si>
     <t>24-11-1400</t>
+  </si>
+  <si>
+    <t>10-11-1400</t>
+  </si>
+  <si>
+    <t>DETAILED_BALANCE_MULTI_COL_113_MultiPage_MltiFormCode_GENERAL_Q1</t>
+  </si>
+  <si>
+    <t>شرکت استفاده کننده : Default</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance </t>
+  </si>
+  <si>
+    <t>تراز تفضیلی 6 ستونی</t>
+  </si>
+  <si>
+    <t>DETAILED_BALANCE_MULTI_COL_113_MultiPage_MltiFormCode_GENERAL_Q1_L3.rtf</t>
+  </si>
+  <si>
+    <t>DETAILED_BALANCE_MULTI_COL_113_MultiPage_MltiFormCode_GENERAL_Q1_L4.rtf</t>
+  </si>
+  <si>
+    <t>1-12-1400</t>
+  </si>
+  <si>
+    <t>2-12-1400</t>
   </si>
 </sst>
 </file>
@@ -3861,7 +3888,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3909,13 +3936,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="178"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -4164,14 +4184,14 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4236,52 +4256,52 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="13" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="11" fillId="13" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4290,37 +4310,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="13" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="11" fillId="13" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4329,14 +4343,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -11641,10 +11662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11689,16 +11710,16 @@
         <v>826</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K1" s="33" t="s">
+        <v>968</v>
+      </c>
+      <c r="L1" s="33" t="s">
         <v>969</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>970</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11723,7 +11744,7 @@
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
       <c r="I2" s="41" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J2" s="38"/>
       <c r="K2" s="24"/>
@@ -11820,10 +11841,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>69</v>
@@ -11835,17 +11856,17 @@
         <v>294</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
@@ -11911,10 +11932,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>939</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>940</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>941</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>69</v>
@@ -11926,19 +11947,19 @@
         <v>132</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>955</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>990</v>
+        <v>954</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>989</v>
       </c>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
@@ -12697,10 +12718,10 @@
         <v>136</v>
       </c>
       <c r="B37" s="32" t="s">
+        <v>956</v>
+      </c>
+      <c r="C37" s="43" t="s">
         <v>957</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>958</v>
       </c>
       <c r="D37" s="43" t="s">
         <v>69</v>
@@ -12716,13 +12737,13 @@
       </c>
       <c r="H37" s="43"/>
       <c r="I37" s="43" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J37" s="43" t="s">
-        <v>956</v>
-      </c>
-      <c r="K37" s="46" t="s">
-        <v>990</v>
+        <v>955</v>
+      </c>
+      <c r="K37" s="45" t="s">
+        <v>989</v>
       </c>
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
@@ -12764,7 +12785,7 @@
         <v>846</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D39" s="30" t="s">
         <v>69</v>
@@ -12780,10 +12801,10 @@
       </c>
       <c r="H39" s="30"/>
       <c r="I39" s="30" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J39" s="30" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
@@ -12813,13 +12834,13 @@
       </c>
       <c r="H40" s="43"/>
       <c r="I40" s="43" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>968</v>
-      </c>
-      <c r="K40" s="46" t="s">
-        <v>990</v>
+        <v>967</v>
+      </c>
+      <c r="K40" s="45" t="s">
+        <v>989</v>
       </c>
       <c r="L40" s="39"/>
       <c r="M40" s="24"/>
@@ -12847,16 +12868,16 @@
         <v>843</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J41" s="43" t="s">
+        <v>987</v>
+      </c>
+      <c r="K41" s="32" t="s">
         <v>988</v>
-      </c>
-      <c r="K41" s="32" t="s">
-        <v>989</v>
       </c>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -12916,13 +12937,13 @@
       </c>
       <c r="H43" s="43"/>
       <c r="I43" s="43" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J43" s="43" t="s">
+        <v>1043</v>
+      </c>
+      <c r="K43" s="32" t="s">
         <v>1044</v>
-      </c>
-      <c r="K43" s="32" t="s">
-        <v>1045</v>
       </c>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
@@ -12951,7 +12972,7 @@
       </c>
       <c r="H44" s="28"/>
       <c r="I44" s="28" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J44" s="38"/>
       <c r="K44" s="24"/>
@@ -12982,10 +13003,10 @@
       </c>
       <c r="H45" s="30"/>
       <c r="I45" s="30" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J45" s="30" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K45" s="39"/>
       <c r="L45" s="24"/>
@@ -13015,7 +13036,7 @@
       </c>
       <c r="H46" s="34"/>
       <c r="I46" s="34" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J46" s="38"/>
       <c r="K46" s="24"/>
@@ -13023,29 +13044,29 @@
       <c r="M46" s="24"/>
     </row>
     <row r="47" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25">
+      <c r="A47" s="31">
         <v>183</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="30" t="s">
         <v>863</v>
       </c>
-      <c r="D47" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="44">
+      <c r="D47" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="30">
         <v>950</v>
       </c>
-      <c r="F47" s="44" t="s">
+      <c r="F47" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="G47" s="44" t="s">
+      <c r="G47" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44" t="s">
+      <c r="H47" s="30"/>
+      <c r="I47" s="30" t="s">
         <v>926</v>
       </c>
       <c r="J47" s="38"/>
@@ -13054,29 +13075,29 @@
       <c r="M47" s="24"/>
     </row>
     <row r="48" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25">
+      <c r="A48" s="31">
         <v>184</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="31" t="s">
         <v>896</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="D48" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="44">
+      <c r="D48" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="30">
         <v>951</v>
       </c>
-      <c r="F48" s="44" t="s">
+      <c r="F48" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="G48" s="44" t="s">
+      <c r="G48" s="30" t="s">
         <v>897</v>
       </c>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44" t="s">
+      <c r="H48" s="30"/>
+      <c r="I48" s="30" t="s">
         <v>935</v>
       </c>
       <c r="J48" s="38"/>
@@ -13085,60 +13106,62 @@
       <c r="M48" s="24"/>
     </row>
     <row r="49" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25">
+      <c r="A49" s="32">
         <v>185</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="D49" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="44">
+      <c r="D49" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="43">
         <v>952</v>
       </c>
-      <c r="F49" s="44" t="s">
+      <c r="F49" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="G49" s="44" t="s">
+      <c r="G49" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44" t="s">
-        <v>935</v>
-      </c>
-      <c r="J49" s="38"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43" t="s">
+        <v>951</v>
+      </c>
+      <c r="J49" s="43" t="s">
+        <v>1046</v>
+      </c>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
     </row>
     <row r="50" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25">
+      <c r="A50" s="31">
         <v>186</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="D50" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="44">
+      <c r="D50" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="30">
         <v>953</v>
       </c>
-      <c r="F50" s="44" t="s">
+      <c r="F50" s="30" t="s">
         <v>855</v>
       </c>
-      <c r="G50" s="44" t="s">
+      <c r="G50" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44" t="s">
+      <c r="H50" s="30"/>
+      <c r="I50" s="30" t="s">
         <v>924</v>
       </c>
       <c r="J50" s="38"/>
@@ -13170,41 +13193,41 @@
       </c>
       <c r="H51" s="43"/>
       <c r="I51" s="43" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J51" s="43" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
     </row>
     <row r="52" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="27">
+      <c r="A52" s="31">
         <v>198</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="30" t="s">
         <v>884</v>
       </c>
-      <c r="D52" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="34">
+      <c r="D52" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="30">
         <v>955</v>
       </c>
-      <c r="F52" s="34">
+      <c r="F52" s="30">
         <v>269</v>
       </c>
-      <c r="G52" s="34" t="s">
+      <c r="G52" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34" t="s">
+      <c r="H52" s="30"/>
+      <c r="I52" s="30" t="s">
         <v>929</v>
       </c>
       <c r="J52" s="38"/>
@@ -13236,13 +13259,13 @@
       </c>
       <c r="H53" s="43"/>
       <c r="I53" s="43" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J53" s="43" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K53" s="32" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L53" s="24"/>
       <c r="M53" s="24"/>
@@ -13271,7 +13294,7 @@
       </c>
       <c r="H54" s="30"/>
       <c r="I54" s="30" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="J54" s="39"/>
       <c r="K54" s="24"/>
@@ -13519,13 +13542,13 @@
       </c>
       <c r="H62" s="43"/>
       <c r="I62" s="43" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J62" s="43" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="K62" s="32" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
@@ -13587,13 +13610,13 @@
         <v>213</v>
       </c>
       <c r="I64" s="43" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J64" s="43" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K64" s="32" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
@@ -13624,13 +13647,13 @@
         <v>176</v>
       </c>
       <c r="I65" s="43" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J65" s="43" t="s">
-        <v>962</v>
-      </c>
-      <c r="K65" s="46" t="s">
-        <v>989</v>
+        <v>961</v>
+      </c>
+      <c r="K65" s="45" t="s">
+        <v>988</v>
       </c>
       <c r="L65" s="24"/>
       <c r="M65" s="24"/>
@@ -13661,13 +13684,13 @@
         <v>180</v>
       </c>
       <c r="I66" s="43" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J66" s="43" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="K66" s="32" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L66" s="24"/>
       <c r="M66" s="24"/>
@@ -13698,13 +13721,13 @@
         <v>184</v>
       </c>
       <c r="I67" s="43" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J67" s="43" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="K67" s="32" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L67" s="24"/>
       <c r="M67" s="24"/>
@@ -13735,13 +13758,13 @@
         <v>187</v>
       </c>
       <c r="I68" s="43" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J68" s="43" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="K68" s="32" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L68" s="24"/>
       <c r="M68" s="24"/>
@@ -13772,13 +13795,13 @@
         <v>190</v>
       </c>
       <c r="I69" s="43" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J69" s="43" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="K69" s="32" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L69" s="24"/>
       <c r="M69" s="24"/>
@@ -13809,13 +13832,13 @@
         <v>193</v>
       </c>
       <c r="I70" s="43" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J70" s="43" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="K70" s="32" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L70" s="24"/>
       <c r="M70" s="24"/>
@@ -13846,13 +13869,13 @@
         <v>196</v>
       </c>
       <c r="I71" s="43" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J71" s="43" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="K71" s="32" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
@@ -13880,16 +13903,16 @@
         <v>198</v>
       </c>
       <c r="H72" s="43" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I72" s="43" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J72" s="43" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="K72" s="32" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L72" s="24"/>
       <c r="M72" s="24"/>
@@ -13920,13 +13943,13 @@
         <v>202</v>
       </c>
       <c r="I73" s="43" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J73" s="43" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="K73" s="32" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L73" s="24"/>
       <c r="M73" s="24"/>
@@ -13957,13 +13980,13 @@
         <v>205</v>
       </c>
       <c r="I74" s="43" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J74" s="43" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="K74" s="32" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L74" s="24"/>
       <c r="M74" s="24"/>
@@ -13994,13 +14017,13 @@
         <v>208</v>
       </c>
       <c r="I75" s="43" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J75" s="43" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="K75" s="32" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L75" s="24"/>
       <c r="M75" s="24"/>
@@ -14028,16 +14051,16 @@
         <v>891</v>
       </c>
       <c r="H76" s="43" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I76" s="43" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J76" s="43" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="K76" s="32" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="L76" s="24"/>
       <c r="M76" s="24"/>
@@ -14066,13 +14089,13 @@
       </c>
       <c r="H77" s="43"/>
       <c r="I77" s="43" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J77" s="43" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="K77" s="32" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="L77" s="24"/>
       <c r="M77" s="24"/>
@@ -14103,13 +14126,13 @@
         <v>902</v>
       </c>
       <c r="I78" s="43" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J78" s="43" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="K78" s="32" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
@@ -14137,16 +14160,16 @@
         <v>909</v>
       </c>
       <c r="H79" s="43" t="s">
+        <v>950</v>
+      </c>
+      <c r="I79" s="43" t="s">
         <v>951</v>
       </c>
-      <c r="I79" s="43" t="s">
-        <v>952</v>
-      </c>
       <c r="J79" s="43" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="K79" s="32" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L79" s="24"/>
       <c r="M79" s="24"/>
@@ -14174,16 +14197,16 @@
         <v>901</v>
       </c>
       <c r="H80" s="43" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I80" s="43" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J80" s="43" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="K80" s="32" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
@@ -14214,13 +14237,13 @@
         <v>905</v>
       </c>
       <c r="I81" s="43" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J81" s="43" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="K81" s="32" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L81" s="24"/>
       <c r="M81" s="24"/>
@@ -14248,13 +14271,13 @@
         <v>843</v>
       </c>
       <c r="H82" s="34" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I82" s="34" t="s">
         <v>938</v>
       </c>
-      <c r="J82" s="45" t="s">
-        <v>985</v>
+      <c r="J82" s="44" t="s">
+        <v>984</v>
       </c>
       <c r="K82" s="24"/>
       <c r="L82" s="24"/>
@@ -14286,8 +14309,8 @@
       <c r="I83" s="34" t="s">
         <v>870</v>
       </c>
-      <c r="J83" s="45" t="s">
-        <v>985</v>
+      <c r="J83" s="44" t="s">
+        <v>984</v>
       </c>
       <c r="K83" s="24"/>
       <c r="L83" s="24"/>
@@ -14319,8 +14342,8 @@
       <c r="I84" s="34" t="s">
         <v>927</v>
       </c>
-      <c r="J84" s="45" t="s">
-        <v>985</v>
+      <c r="J84" s="44" t="s">
+        <v>984</v>
       </c>
       <c r="K84" s="24"/>
       <c r="L84" s="24"/>
@@ -14352,8 +14375,8 @@
       <c r="I85" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="J85" s="45" t="s">
-        <v>985</v>
+      <c r="J85" s="44" t="s">
+        <v>984</v>
       </c>
       <c r="K85" s="24"/>
       <c r="L85" s="24"/>
@@ -14385,8 +14408,8 @@
       <c r="I86" s="34" t="s">
         <v>874</v>
       </c>
-      <c r="J86" s="45" t="s">
-        <v>985</v>
+      <c r="J86" s="44" t="s">
+        <v>984</v>
       </c>
       <c r="K86" s="24"/>
       <c r="L86" s="24"/>
@@ -14418,8 +14441,8 @@
       <c r="I87" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="J87" s="45" t="s">
-        <v>985</v>
+      <c r="J87" s="44" t="s">
+        <v>984</v>
       </c>
       <c r="K87" s="24"/>
       <c r="L87" s="24"/>
@@ -14451,8 +14474,8 @@
       <c r="I88" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="J88" s="45" t="s">
-        <v>985</v>
+      <c r="J88" s="44" t="s">
+        <v>984</v>
       </c>
       <c r="K88" s="24"/>
       <c r="L88" s="24"/>
@@ -14484,8 +14507,8 @@
       <c r="I89" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="J89" s="45" t="s">
-        <v>985</v>
+      <c r="J89" s="44" t="s">
+        <v>984</v>
       </c>
       <c r="K89" s="24"/>
       <c r="L89" s="24"/>
@@ -14496,10 +14519,10 @@
         <v>320</v>
       </c>
       <c r="B90" s="32" t="s">
+        <v>939</v>
+      </c>
+      <c r="C90" s="43" t="s">
         <v>940</v>
-      </c>
-      <c r="C90" s="43" t="s">
-        <v>941</v>
       </c>
       <c r="D90" s="43" t="s">
         <v>69</v>
@@ -14511,54 +14534,94 @@
         <v>132</v>
       </c>
       <c r="G90" s="43" t="s">
+        <v>941</v>
+      </c>
+      <c r="H90" s="43" t="s">
         <v>942</v>
       </c>
-      <c r="H90" s="43" t="s">
-        <v>943</v>
-      </c>
       <c r="I90" s="43" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J90" s="43" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K90" s="32" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="L90" s="24"/>
       <c r="M90" s="24"/>
     </row>
     <row r="91" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="24"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="47" t="s">
-        <v>939</v>
-      </c>
-      <c r="J91" s="48"/>
-      <c r="K91" s="39"/>
+      <c r="A91" s="32">
+        <v>329</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D91" s="32" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E91" s="32">
+        <v>951</v>
+      </c>
+      <c r="F91" s="32">
+        <v>777</v>
+      </c>
+      <c r="G91" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="H91" s="32" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I91" s="32" t="s">
+        <v>985</v>
+      </c>
+      <c r="J91" s="54" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K91" s="56" t="s">
+        <v>1055</v>
+      </c>
       <c r="L91" s="24"/>
       <c r="M91" s="24"/>
     </row>
     <row r="92" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="24"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="31" t="s">
-        <v>964</v>
-      </c>
-      <c r="J92" s="24"/>
-      <c r="K92" s="24"/>
+      <c r="A92" s="32">
+        <v>330</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D92" s="55" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E92" s="32">
+        <v>951</v>
+      </c>
+      <c r="F92" s="32">
+        <v>777</v>
+      </c>
+      <c r="G92" s="32" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H92" s="32" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I92" s="45" t="s">
+        <v>951</v>
+      </c>
+      <c r="J92" s="32" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K92" s="32" t="s">
+        <v>1055</v>
+      </c>
       <c r="L92" s="24"/>
       <c r="M92" s="24"/>
     </row>
@@ -14589,7 +14652,7 @@
       <c r="G94" s="24"/>
       <c r="H94" s="24"/>
       <c r="I94" s="25" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J94" s="24"/>
       <c r="K94" s="24"/>
@@ -14623,7 +14686,7 @@
       <c r="G96" s="24"/>
       <c r="H96" s="24"/>
       <c r="I96" s="32" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J96" s="24"/>
       <c r="K96" s="24"/>
@@ -14640,12 +14703,17 @@
       <c r="G97" s="24"/>
       <c r="H97" s="24"/>
       <c r="I97" s="35" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J97" s="24"/>
       <c r="K97" s="24"/>
       <c r="L97" s="24"/>
       <c r="M97" s="24"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I98" s="53" t="s">
+        <v>963</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:I97">
@@ -14666,747 +14734,747 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="52"/>
-    <col min="2" max="3" width="35.7109375" style="52" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="52" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="52"/>
-    <col min="8" max="9" width="20.7109375" style="52" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="52"/>
-    <col min="11" max="13" width="20.7109375" style="52" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" width="9.140625" style="49"/>
+    <col min="2" max="3" width="35.7109375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="49" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="49"/>
+    <col min="8" max="9" width="20.7109375" style="49" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="49"/>
+    <col min="11" max="13" width="20.7109375" style="49" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="48" t="s">
         <v>797</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="48" t="s">
+        <v>978</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>822</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="E1" s="48" t="s">
         <v>979</v>
       </c>
-      <c r="C1" s="51" t="s">
-        <v>822</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>823</v>
-      </c>
-      <c r="E1" s="51" t="s">
+      <c r="F1" s="48" t="s">
+        <v>802</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>800</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>825</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>826</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>953</v>
+      </c>
+      <c r="K1" s="48" t="s">
         <v>980</v>
       </c>
-      <c r="F1" s="51" t="s">
-        <v>802</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>800</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>825</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>826</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>954</v>
-      </c>
-      <c r="K1" s="51" t="s">
+      <c r="L1" s="48" t="s">
         <v>981</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="M1" s="48" t="s">
         <v>982</v>
       </c>
-      <c r="M1" s="51" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49">
+        <v>127</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52">
-        <v>127</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>984</v>
-      </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="50" t="s">
         <v>695</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="49" t="s">
         <v>675</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="49">
         <v>291</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="49">
         <v>1295</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="49" t="s">
         <v>696</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="49" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49">
+        <v>69</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52">
-        <v>69</v>
-      </c>
-      <c r="B3" s="52" t="s">
+      <c r="C3" s="49" t="s">
         <v>993</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="D3" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="E3" s="50">
+        <v>1101</v>
+      </c>
+      <c r="F3" s="50">
+        <v>208</v>
+      </c>
+      <c r="G3" s="49" t="s">
         <v>994</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="I3" s="49" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49">
+        <v>72</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>734</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>732</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>675</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E4" s="50">
+        <v>1103</v>
+      </c>
+      <c r="F4" s="49">
+        <v>213</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>996</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49">
+        <v>45</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>998</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>999</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="E5" s="46">
+        <v>1104</v>
+      </c>
+      <c r="F5" s="49">
+        <v>210</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49">
+        <v>115</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="E6" s="49">
+        <v>1102</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>724</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="49">
+        <v>49</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>719</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E7" s="49">
         <v>1101</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F7" s="49">
         <v>208</v>
       </c>
-      <c r="G3" s="52" t="s">
-        <v>995</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52">
-        <v>72</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>734</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>732</v>
-      </c>
-      <c r="D4" s="52" t="s">
+      <c r="G7" s="49" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49">
+        <v>126</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>689</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E8" s="49">
+        <v>271</v>
+      </c>
+      <c r="F8" s="46">
+        <v>503</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46">
+        <v>47</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>721</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E9" s="49">
+        <v>1102</v>
+      </c>
+      <c r="F9" s="49">
+        <v>206</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>726</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="49">
+        <v>116</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>727</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E10" s="49">
+        <v>1102</v>
+      </c>
+      <c r="F10" s="49">
+        <v>610</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="49">
+        <v>117</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>730</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>721</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E11" s="49">
+        <v>1102</v>
+      </c>
+      <c r="F11" s="49">
+        <v>611</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>730</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="49">
+        <v>118</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>707</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D12" s="49" t="s">
         <v>675</v>
       </c>
-      <c r="E4" s="53">
-        <v>1103</v>
-      </c>
-      <c r="F4" s="52">
-        <v>213</v>
-      </c>
-      <c r="G4" s="52" t="s">
+      <c r="E12" s="49">
+        <v>1100</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>708</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>706</v>
+      </c>
+      <c r="I12" s="49" t="s">
         <v>997</v>
       </c>
-      <c r="I4" s="52" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52">
-        <v>45</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>999</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="52" t="s">
+    </row>
+    <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="49">
+        <v>119</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E13" s="49">
+        <v>1100</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="49">
+        <v>120</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E14" s="49">
+        <v>1110</v>
+      </c>
+      <c r="F14" s="49">
+        <v>1504</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>763</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="49">
+        <v>121</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>772</v>
+      </c>
+      <c r="D15" s="49" t="s">
         <v>675</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E15" s="49">
+        <v>1112</v>
+      </c>
+      <c r="F15" s="49">
+        <v>1507</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>773</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="49">
+        <v>122</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E16" s="49">
+        <v>1111</v>
+      </c>
+      <c r="F16" s="49">
+        <v>1505</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="49">
+        <v>124</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>755</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E17" s="49">
+        <v>1109</v>
+      </c>
+      <c r="F17" s="49">
+        <v>1192</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="49">
+        <v>125</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>755</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E18" s="49">
+        <v>1109</v>
+      </c>
+      <c r="F18" s="49">
+        <v>1190</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49">
+        <v>174</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>700</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>675</v>
+      </c>
+      <c r="E19" s="49">
+        <v>616</v>
+      </c>
+      <c r="F19" s="49">
+        <v>616</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49">
+        <v>154</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>673</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E20" s="49">
+        <v>166</v>
+      </c>
+      <c r="F20" s="49">
+        <v>1120</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="49">
+        <v>170</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>693</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="E21" s="49">
+        <v>271</v>
+      </c>
+      <c r="F21" s="49">
+        <v>503</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="49">
+        <v>173</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>736</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>736</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="E22" s="49">
         <v>1104</v>
       </c>
-      <c r="F5" s="52">
+      <c r="G22" s="49" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52">
+        <v>156</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>682</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="E23" s="49">
+        <v>167</v>
+      </c>
+      <c r="F23" s="49">
+        <v>1153</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="49">
+        <v>269</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>740</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E24" s="49">
+        <v>1104</v>
+      </c>
+      <c r="F24" s="49">
         <v>210</v>
       </c>
-      <c r="G5" s="52" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
-        <v>115</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D6" s="52" t="s">
+      <c r="G24" s="49" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="49">
+        <v>190</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E25" s="49">
+        <v>166</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>678</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>829</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="49">
+        <v>195</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D26" s="49" t="s">
         <v>675</v>
       </c>
-      <c r="E6" s="52">
-        <v>1102</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>724</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52">
-        <v>49</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>719</v>
-      </c>
-      <c r="C7" s="52" t="s">
+      <c r="E26" s="49">
+        <v>1104</v>
+      </c>
+      <c r="F26" s="49">
+        <v>210</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="49">
+        <v>264</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D27" s="49" t="s">
         <v>1004</v>
       </c>
-      <c r="D7" s="52" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E7" s="52">
-        <v>1101</v>
-      </c>
-      <c r="F7" s="52">
-        <v>208</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>1006</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
-        <v>126</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>689</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>688</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E8" s="52">
-        <v>271</v>
-      </c>
-      <c r="F8" s="49">
-        <v>503</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I8" s="52" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49">
-        <v>47</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>726</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>721</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E9" s="52">
-        <v>1102</v>
-      </c>
-      <c r="F9" s="52">
-        <v>206</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>726</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
-        <v>116</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>727</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E10" s="52">
-        <v>1102</v>
-      </c>
-      <c r="F10" s="52">
-        <v>610</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52">
-        <v>117</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>730</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>721</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E11" s="52">
-        <v>1102</v>
-      </c>
-      <c r="F11" s="52">
-        <v>611</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>730</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
-        <v>118</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>707</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D12" s="52" t="s">
+      <c r="E27" s="49">
+        <v>1104</v>
+      </c>
+      <c r="F27" s="49">
+        <v>210</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="49">
+        <v>181</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>752</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>750</v>
+      </c>
+      <c r="D28" s="49" t="s">
         <v>675</v>
       </c>
-      <c r="E12" s="52">
-        <v>1100</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>708</v>
-      </c>
-      <c r="G12" s="52" t="s">
-        <v>706</v>
-      </c>
-      <c r="I12" s="52" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52">
-        <v>119</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E13" s="52">
-        <v>1100</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52">
-        <v>120</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E14" s="52">
-        <v>1110</v>
-      </c>
-      <c r="F14" s="52">
-        <v>1504</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>763</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52">
-        <v>121</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>772</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>675</v>
-      </c>
-      <c r="E15" s="52">
-        <v>1112</v>
-      </c>
-      <c r="F15" s="52">
-        <v>1507</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>773</v>
-      </c>
-      <c r="I15" s="52" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52">
-        <v>122</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E16" s="52">
-        <v>1111</v>
-      </c>
-      <c r="F16" s="52">
-        <v>1505</v>
-      </c>
-      <c r="G16" s="52" t="s">
-        <v>768</v>
-      </c>
-      <c r="I16" s="52" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52">
-        <v>124</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>755</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E17" s="52">
-        <v>1109</v>
-      </c>
-      <c r="F17" s="52">
-        <v>1192</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I17" s="52" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52">
-        <v>125</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>755</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E18" s="52">
-        <v>1109</v>
-      </c>
-      <c r="F18" s="52">
-        <v>1190</v>
-      </c>
-      <c r="G18" s="52" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52">
-        <v>174</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>700</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>675</v>
-      </c>
-      <c r="E19" s="52">
-        <v>616</v>
-      </c>
-      <c r="F19" s="52">
-        <v>616</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52">
-        <v>154</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>673</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E20" s="52">
-        <v>166</v>
-      </c>
-      <c r="F20" s="52">
-        <v>1120</v>
-      </c>
-      <c r="G20" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="52" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52">
-        <v>170</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>693</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>675</v>
-      </c>
-      <c r="E21" s="52">
-        <v>271</v>
-      </c>
-      <c r="F21" s="52">
-        <v>503</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>1023</v>
-      </c>
-      <c r="I21" s="52" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52">
-        <v>173</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>736</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>736</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>675</v>
-      </c>
-      <c r="E22" s="52">
-        <v>1104</v>
-      </c>
-      <c r="G22" s="52" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55">
-        <v>156</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>682</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>675</v>
-      </c>
-      <c r="E23" s="52">
+      <c r="E28" s="49">
+        <v>1105</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>753</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="49">
+        <v>191</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>685</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>680</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E29" s="49">
         <v>167</v>
       </c>
-      <c r="F23" s="52">
-        <v>1153</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52">
-        <v>269</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>740</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E24" s="52">
-        <v>1104</v>
-      </c>
-      <c r="F24" s="52">
-        <v>210</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52">
-        <v>190</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E25" s="52">
-        <v>166</v>
-      </c>
-      <c r="F25" s="52" t="s">
-        <v>678</v>
-      </c>
-      <c r="G25" s="52" t="s">
-        <v>829</v>
-      </c>
-      <c r="I25" s="52" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
-        <v>195</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>675</v>
-      </c>
-      <c r="E26" s="52">
-        <v>1104</v>
-      </c>
-      <c r="F26" s="52">
-        <v>210</v>
-      </c>
-      <c r="G26" s="52" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52">
-        <v>264</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E27" s="52">
-        <v>1104</v>
-      </c>
-      <c r="F27" s="52">
-        <v>210</v>
-      </c>
-      <c r="G27" s="52" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52">
-        <v>181</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>752</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>750</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>675</v>
-      </c>
-      <c r="E28" s="52">
-        <v>1105</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>753</v>
-      </c>
-      <c r="G28" s="52" t="s">
+      <c r="F29" s="46" t="s">
+        <v>686</v>
+      </c>
+      <c r="G29" s="49" t="s">
         <v>1035</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52">
-        <v>191</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>685</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>680</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E29" s="52">
-        <v>167</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>686</v>
-      </c>
-      <c r="G29" s="52" t="s">
-        <v>1036</v>
       </c>
     </row>
   </sheetData>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="1059">
   <si>
     <t>8</t>
   </si>
@@ -3281,12 +3281,6 @@
     <t xml:space="preserve"> 266:267</t>
   </si>
   <si>
-    <t xml:space="preserve"> ledger_account_1673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">چاپ </t>
-  </si>
-  <si>
     <t xml:space="preserve"> DetailedBalence_113_951_MultiFormCode_GENERAL_Q1_L1.rtf</t>
   </si>
   <si>
@@ -3488,9 +3482,6 @@
     <t xml:space="preserve">1.FileName     2.QueryName  </t>
   </si>
   <si>
-    <t xml:space="preserve">1.size    2.QueryName  3.FileName    4.font  </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.FileName   2.QueryName  </t>
   </si>
   <si>
@@ -3632,9 +3623,6 @@
     <t>1.font   2.QueryName3.FileName  4. do not show data</t>
   </si>
   <si>
-    <t>1.size 2.QueryName3.FileName 4.font 5. not open</t>
-  </si>
-  <si>
     <t>کد فرم ندارند</t>
   </si>
   <si>
@@ -3879,6 +3867,27 @@
   </si>
   <si>
     <t>2-12-1400</t>
+  </si>
+  <si>
+    <t>9-12-1400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">چاپ دفتر کل قانونی  </t>
+  </si>
+  <si>
+    <t>ledger_account_113_1673_673_Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ledger_account_113_1673_673_Q1_L1.rtf</t>
+  </si>
+  <si>
+    <t>TRIAL_BALANCE_SOME_COLUMN_113_954_268_Q1</t>
+  </si>
+  <si>
+    <t>TRIAL_BALANCE_SOME_COLUMN_113_954_268_Q1_L1.rtf</t>
+  </si>
+  <si>
+    <t>TRIAL_BALANCE_SOME_COLUMN_113_954_268_Q1_L2.rtf</t>
   </si>
 </sst>
 </file>
@@ -4191,7 +4200,7 @@
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4348,9 +4357,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11662,10 +11668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="M92" sqref="M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11677,7 +11683,8 @@
     <col min="8" max="8" width="30.7109375" style="29" customWidth="1"/>
     <col min="9" max="9" width="55.7109375" style="29" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="29"/>
-    <col min="11" max="13" width="20.7109375" style="29" customWidth="1"/>
+    <col min="11" max="11" width="40.7109375" style="29" customWidth="1"/>
+    <col min="12" max="13" width="20.7109375" style="29" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
@@ -11710,16 +11717,16 @@
         <v>826</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11744,7 +11751,7 @@
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
       <c r="I2" s="41" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="J2" s="38"/>
       <c r="K2" s="24"/>
@@ -11773,7 +11780,7 @@
       </c>
       <c r="H3" s="42"/>
       <c r="I3" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J3" s="38"/>
       <c r="K3" s="24"/>
@@ -11800,7 +11807,7 @@
       <c r="G4" s="42"/>
       <c r="H4" s="42"/>
       <c r="I4" s="42" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="J4" s="38"/>
       <c r="K4" s="24"/>
@@ -11829,7 +11836,7 @@
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="24"/>
@@ -11841,10 +11848,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>69</v>
@@ -11856,17 +11863,17 @@
         <v>294</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
@@ -11893,7 +11900,7 @@
       </c>
       <c r="H7" s="42"/>
       <c r="I7" s="42" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="J7" s="38"/>
       <c r="K7" s="24"/>
@@ -11920,7 +11927,7 @@
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
       <c r="I8" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="24"/>
@@ -11932,10 +11939,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>69</v>
@@ -11947,19 +11954,19 @@
         <v>132</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
@@ -11984,7 +11991,7 @@
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J10" s="38"/>
       <c r="K10" s="24"/>
@@ -12013,7 +12020,7 @@
       </c>
       <c r="H11" s="42"/>
       <c r="I11" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="24"/>
@@ -12040,7 +12047,7 @@
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J12" s="38"/>
       <c r="K12" s="24"/>
@@ -12067,7 +12074,7 @@
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J13" s="38"/>
       <c r="K13" s="24"/>
@@ -12096,7 +12103,7 @@
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="42" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="J14" s="38"/>
       <c r="K14" s="24"/>
@@ -12123,7 +12130,7 @@
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="24"/>
@@ -12150,7 +12157,7 @@
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="J16" s="38"/>
       <c r="K16" s="24"/>
@@ -12179,7 +12186,7 @@
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="42" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="J17" s="38"/>
       <c r="K17" s="24"/>
@@ -12206,7 +12213,7 @@
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
       <c r="I18" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J18" s="38"/>
       <c r="K18" s="24"/>
@@ -12233,7 +12240,7 @@
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
       <c r="I19" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J19" s="38"/>
       <c r="K19" s="24"/>
@@ -12262,7 +12269,7 @@
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J20" s="38"/>
       <c r="K20" s="24"/>
@@ -12289,7 +12296,7 @@
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
       <c r="I21" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J21" s="38"/>
       <c r="K21" s="24"/>
@@ -12316,7 +12323,7 @@
       <c r="G22" s="42"/>
       <c r="H22" s="42"/>
       <c r="I22" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J22" s="38"/>
       <c r="K22" s="24"/>
@@ -12345,7 +12352,7 @@
       </c>
       <c r="H23" s="42"/>
       <c r="I23" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J23" s="38"/>
       <c r="K23" s="24"/>
@@ -12372,7 +12379,7 @@
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
       <c r="I24" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J24" s="38"/>
       <c r="K24" s="24"/>
@@ -12399,7 +12406,7 @@
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J25" s="38"/>
       <c r="K25" s="24"/>
@@ -12428,7 +12435,7 @@
       </c>
       <c r="H26" s="42"/>
       <c r="I26" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J26" s="38"/>
       <c r="K26" s="24"/>
@@ -12455,7 +12462,7 @@
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
       <c r="I27" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J27" s="38"/>
       <c r="K27" s="24"/>
@@ -12484,7 +12491,7 @@
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J28" s="38"/>
       <c r="K28" s="24"/>
@@ -12511,7 +12518,7 @@
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J29" s="38"/>
       <c r="K29" s="24"/>
@@ -12540,7 +12547,7 @@
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J30" s="38"/>
       <c r="K30" s="24"/>
@@ -12567,7 +12574,7 @@
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
       <c r="I31" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J31" s="38"/>
       <c r="K31" s="24"/>
@@ -12596,7 +12603,7 @@
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="42" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="J32" s="38"/>
       <c r="K32" s="24"/>
@@ -12625,7 +12632,7 @@
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="42" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="J33" s="38"/>
       <c r="K33" s="24"/>
@@ -12652,7 +12659,7 @@
       <c r="G34" s="42"/>
       <c r="H34" s="42"/>
       <c r="I34" s="42" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="J34" s="38"/>
       <c r="K34" s="24"/>
@@ -12679,7 +12686,7 @@
       <c r="G35" s="42"/>
       <c r="H35" s="42"/>
       <c r="I35" s="42" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="J35" s="38"/>
       <c r="K35" s="24"/>
@@ -12706,7 +12713,7 @@
       <c r="G36" s="42"/>
       <c r="H36" s="42"/>
       <c r="I36" s="42" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="J36" s="38"/>
       <c r="K36" s="24"/>
@@ -12718,10 +12725,10 @@
         <v>136</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D37" s="43" t="s">
         <v>69</v>
@@ -12737,13 +12744,13 @@
       </c>
       <c r="H37" s="43"/>
       <c r="I37" s="43" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J37" s="43" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="K37" s="45" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
@@ -12770,7 +12777,7 @@
       </c>
       <c r="H38" s="42"/>
       <c r="I38" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J38" s="38"/>
       <c r="K38" s="24"/>
@@ -12785,7 +12792,7 @@
         <v>846</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D39" s="30" t="s">
         <v>69</v>
@@ -12801,10 +12808,10 @@
       </c>
       <c r="H39" s="30"/>
       <c r="I39" s="30" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="J39" s="30" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
@@ -12834,13 +12841,13 @@
       </c>
       <c r="H40" s="43"/>
       <c r="I40" s="43" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="K40" s="45" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="L40" s="39"/>
       <c r="M40" s="24"/>
@@ -12868,16 +12875,16 @@
         <v>843</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="J41" s="43" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="K41" s="32" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -12906,7 +12913,7 @@
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="28" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="J42" s="38"/>
       <c r="K42" s="24"/>
@@ -12937,13 +12944,13 @@
       </c>
       <c r="H43" s="43"/>
       <c r="I43" s="43" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J43" s="43" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="K43" s="32" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
@@ -12972,7 +12979,7 @@
       </c>
       <c r="H44" s="28"/>
       <c r="I44" s="28" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="J44" s="38"/>
       <c r="K44" s="24"/>
@@ -13003,43 +13010,45 @@
       </c>
       <c r="H45" s="30"/>
       <c r="I45" s="30" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="J45" s="30" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="K45" s="39"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
     </row>
     <row r="46" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34">
+      <c r="A46" s="30">
         <v>179</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="34" t="s">
-        <v>904</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="34">
+      <c r="C46" s="30" t="s">
+        <v>902</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="30">
         <v>201</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F46" s="30">
         <v>1049</v>
       </c>
-      <c r="G46" s="34" t="s">
+      <c r="G46" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34" t="s">
-        <v>973</v>
-      </c>
-      <c r="J46" s="38"/>
-      <c r="K46" s="24"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J46" s="30" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K46" s="31"/>
       <c r="L46" s="24"/>
       <c r="M46" s="24"/>
     </row>
@@ -13051,7 +13060,7 @@
         <v>131</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D47" s="30" t="s">
         <v>69</v>
@@ -13067,7 +13076,7 @@
       </c>
       <c r="H47" s="30"/>
       <c r="I47" s="30" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="J47" s="38"/>
       <c r="K47" s="24"/>
@@ -13079,7 +13088,7 @@
         <v>184</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C48" s="30" t="s">
         <v>210</v>
@@ -13094,11 +13103,11 @@
         <v>177</v>
       </c>
       <c r="G48" s="30" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H48" s="30"/>
       <c r="I48" s="30" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="J48" s="38"/>
       <c r="K48" s="24"/>
@@ -13129,10 +13138,10 @@
       </c>
       <c r="H49" s="43"/>
       <c r="I49" s="43" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J49" s="43" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
@@ -13162,7 +13171,7 @@
       </c>
       <c r="H50" s="30"/>
       <c r="I50" s="30" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="J50" s="38"/>
       <c r="K50" s="24"/>
@@ -13177,7 +13186,7 @@
         <v>254</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D51" s="43" t="s">
         <v>69</v>
@@ -13189,17 +13198,17 @@
         <v>269</v>
       </c>
       <c r="G51" s="43" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="H51" s="43"/>
       <c r="I51" s="43" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="J51" s="43" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
@@ -13212,7 +13221,7 @@
         <v>254</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D52" s="30" t="s">
         <v>69</v>
@@ -13228,7 +13237,7 @@
       </c>
       <c r="H52" s="30"/>
       <c r="I52" s="30" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="J52" s="38"/>
       <c r="K52" s="24"/>
@@ -13240,10 +13249,10 @@
         <v>199</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D53" s="43" t="s">
         <v>69</v>
@@ -13255,17 +13264,17 @@
         <v>269</v>
       </c>
       <c r="G53" s="43" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H53" s="43"/>
       <c r="I53" s="43" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J53" s="43" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="K53" s="32" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="L53" s="24"/>
       <c r="M53" s="24"/>
@@ -13294,7 +13303,7 @@
       </c>
       <c r="H54" s="30"/>
       <c r="I54" s="30" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="J54" s="39"/>
       <c r="K54" s="24"/>
@@ -13302,33 +13311,37 @@
       <c r="M54" s="24"/>
     </row>
     <row r="55" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="34">
+      <c r="A55" s="43">
         <v>201</v>
       </c>
-      <c r="B55" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>856</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="34">
+      <c r="B55" s="43" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="43">
         <v>1673</v>
       </c>
-      <c r="F55" s="34">
+      <c r="F55" s="43">
         <v>673</v>
       </c>
-      <c r="G55" s="34" t="s">
-        <v>857</v>
-      </c>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34" t="s">
-        <v>925</v>
-      </c>
-      <c r="J55" s="38"/>
-      <c r="K55" s="24"/>
+      <c r="G55" s="43" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43" t="s">
+        <v>948</v>
+      </c>
+      <c r="J55" s="43" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K55" s="32" t="s">
+        <v>1052</v>
+      </c>
       <c r="L55" s="24"/>
       <c r="M55" s="24"/>
     </row>
@@ -13340,7 +13353,7 @@
         <v>109</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D56" s="34" t="s">
         <v>69</v>
@@ -13356,7 +13369,7 @@
       </c>
       <c r="H56" s="34"/>
       <c r="I56" s="34" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="J56" s="38"/>
       <c r="K56" s="24"/>
@@ -13371,7 +13384,7 @@
         <v>109</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D57" s="34" t="s">
         <v>69</v>
@@ -13387,7 +13400,7 @@
       </c>
       <c r="H57" s="34"/>
       <c r="I57" s="34" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J57" s="38"/>
       <c r="K57" s="24"/>
@@ -13402,7 +13415,7 @@
         <v>109</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D58" s="34" t="s">
         <v>69</v>
@@ -13418,7 +13431,7 @@
       </c>
       <c r="H58" s="34"/>
       <c r="I58" s="34" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="J58" s="38"/>
       <c r="K58" s="24"/>
@@ -13449,7 +13462,7 @@
       </c>
       <c r="H59" s="34"/>
       <c r="I59" s="34" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="J59" s="38"/>
       <c r="K59" s="24"/>
@@ -13480,7 +13493,7 @@
       </c>
       <c r="H60" s="34"/>
       <c r="I60" s="34" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="J60" s="38"/>
       <c r="K60" s="24"/>
@@ -13511,7 +13524,7 @@
       </c>
       <c r="H61" s="34"/>
       <c r="I61" s="34" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="J61" s="38"/>
       <c r="K61" s="24"/>
@@ -13542,13 +13555,13 @@
       </c>
       <c r="H62" s="43"/>
       <c r="I62" s="43" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J62" s="43" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="K62" s="32" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
@@ -13558,7 +13571,7 @@
         <v>263</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C63" s="34" t="s">
         <v>286</v>
@@ -13573,11 +13586,11 @@
         <v>1976</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="H63" s="34"/>
       <c r="I63" s="34" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="J63" s="38"/>
       <c r="K63" s="24"/>
@@ -13589,7 +13602,7 @@
         <v>275</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C64" s="43" t="s">
         <v>174</v>
@@ -13610,13 +13623,13 @@
         <v>213</v>
       </c>
       <c r="I64" s="43" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="J64" s="43" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="K64" s="32" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
@@ -13626,10 +13639,10 @@
         <v>276</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D65" s="43" t="s">
         <v>69</v>
@@ -13647,13 +13660,13 @@
         <v>176</v>
       </c>
       <c r="I65" s="43" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="J65" s="43" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="K65" s="45" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="L65" s="24"/>
       <c r="M65" s="24"/>
@@ -13666,7 +13679,7 @@
         <v>180</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D66" s="43" t="s">
         <v>69</v>
@@ -13684,13 +13697,13 @@
         <v>180</v>
       </c>
       <c r="I66" s="43" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="J66" s="43" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="K66" s="32" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="L66" s="24"/>
       <c r="M66" s="24"/>
@@ -13715,19 +13728,19 @@
         <v>263</v>
       </c>
       <c r="G67" s="43" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H67" s="43" t="s">
         <v>184</v>
       </c>
       <c r="I67" s="43" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="J67" s="43" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="K67" s="32" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="L67" s="24"/>
       <c r="M67" s="24"/>
@@ -13737,10 +13750,10 @@
         <v>279</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D68" s="43" t="s">
         <v>69</v>
@@ -13752,19 +13765,19 @@
         <v>263</v>
       </c>
       <c r="G68" s="43" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H68" s="43" t="s">
         <v>187</v>
       </c>
       <c r="I68" s="43" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="J68" s="43" t="s">
+        <v>980</v>
+      </c>
+      <c r="K68" s="32" t="s">
         <v>984</v>
-      </c>
-      <c r="K68" s="32" t="s">
-        <v>988</v>
       </c>
       <c r="L68" s="24"/>
       <c r="M68" s="24"/>
@@ -13795,13 +13808,13 @@
         <v>190</v>
       </c>
       <c r="I69" s="43" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="J69" s="43" t="s">
+        <v>980</v>
+      </c>
+      <c r="K69" s="32" t="s">
         <v>984</v>
-      </c>
-      <c r="K69" s="32" t="s">
-        <v>988</v>
       </c>
       <c r="L69" s="24"/>
       <c r="M69" s="24"/>
@@ -13826,19 +13839,19 @@
         <v>263</v>
       </c>
       <c r="G70" s="43" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H70" s="43" t="s">
         <v>193</v>
       </c>
       <c r="I70" s="43" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="J70" s="43" t="s">
+        <v>980</v>
+      </c>
+      <c r="K70" s="32" t="s">
         <v>984</v>
-      </c>
-      <c r="K70" s="32" t="s">
-        <v>988</v>
       </c>
       <c r="L70" s="24"/>
       <c r="M70" s="24"/>
@@ -13869,13 +13882,13 @@
         <v>196</v>
       </c>
       <c r="I71" s="43" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="J71" s="43" t="s">
+        <v>980</v>
+      </c>
+      <c r="K71" s="32" t="s">
         <v>984</v>
-      </c>
-      <c r="K71" s="32" t="s">
-        <v>988</v>
       </c>
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
@@ -13903,16 +13916,16 @@
         <v>198</v>
       </c>
       <c r="H72" s="43" t="s">
+        <v>945</v>
+      </c>
+      <c r="I72" s="43" t="s">
         <v>948</v>
       </c>
-      <c r="I72" s="43" t="s">
-        <v>951</v>
-      </c>
       <c r="J72" s="43" t="s">
+        <v>980</v>
+      </c>
+      <c r="K72" s="32" t="s">
         <v>984</v>
-      </c>
-      <c r="K72" s="32" t="s">
-        <v>988</v>
       </c>
       <c r="L72" s="24"/>
       <c r="M72" s="24"/>
@@ -13943,13 +13956,13 @@
         <v>202</v>
       </c>
       <c r="I73" s="43" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J73" s="43" t="s">
+        <v>980</v>
+      </c>
+      <c r="K73" s="32" t="s">
         <v>984</v>
-      </c>
-      <c r="K73" s="32" t="s">
-        <v>988</v>
       </c>
       <c r="L73" s="24"/>
       <c r="M73" s="24"/>
@@ -13959,7 +13972,7 @@
         <v>285</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C74" s="43" t="s">
         <v>174</v>
@@ -13980,13 +13993,13 @@
         <v>205</v>
       </c>
       <c r="I74" s="43" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J74" s="43" t="s">
+        <v>980</v>
+      </c>
+      <c r="K74" s="32" t="s">
         <v>984</v>
-      </c>
-      <c r="K74" s="32" t="s">
-        <v>988</v>
       </c>
       <c r="L74" s="24"/>
       <c r="M74" s="24"/>
@@ -14017,13 +14030,13 @@
         <v>208</v>
       </c>
       <c r="I75" s="43" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J75" s="43" t="s">
+        <v>980</v>
+      </c>
+      <c r="K75" s="32" t="s">
         <v>984</v>
-      </c>
-      <c r="K75" s="32" t="s">
-        <v>988</v>
       </c>
       <c r="L75" s="24"/>
       <c r="M75" s="24"/>
@@ -14033,7 +14046,7 @@
         <v>287</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C76" s="43" t="s">
         <v>842</v>
@@ -14048,19 +14061,19 @@
         <v>245</v>
       </c>
       <c r="G76" s="43" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H76" s="43" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="I76" s="43" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J76" s="43" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="K76" s="32" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="L76" s="24"/>
       <c r="M76" s="24"/>
@@ -14070,10 +14083,10 @@
         <v>288</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D77" s="43" t="s">
         <v>69</v>
@@ -14085,17 +14098,17 @@
         <v>245</v>
       </c>
       <c r="G77" s="43" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H77" s="43"/>
       <c r="I77" s="43" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J77" s="43" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="K77" s="32" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="L77" s="24"/>
       <c r="M77" s="24"/>
@@ -14105,7 +14118,7 @@
         <v>289</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>842</v>
@@ -14120,19 +14133,19 @@
         <v>245</v>
       </c>
       <c r="G78" s="43" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H78" s="43" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="I78" s="43" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="J78" s="43" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="K78" s="32" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
@@ -14142,10 +14155,10 @@
         <v>290</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D79" s="43" t="s">
         <v>69</v>
@@ -14157,19 +14170,19 @@
         <v>232</v>
       </c>
       <c r="G79" s="43" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H79" s="43" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="I79" s="43" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J79" s="43" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="K79" s="32" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="L79" s="24"/>
       <c r="M79" s="24"/>
@@ -14179,7 +14192,7 @@
         <v>291</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C80" s="43" t="s">
         <v>851</v>
@@ -14194,19 +14207,19 @@
         <v>232</v>
       </c>
       <c r="G80" s="43" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H80" s="43" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="I80" s="43" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J80" s="43" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="K80" s="32" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
@@ -14216,10 +14229,10 @@
         <v>292</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D81" s="43" t="s">
         <v>69</v>
@@ -14231,19 +14244,19 @@
         <v>232</v>
       </c>
       <c r="G81" s="43" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H81" s="43" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I81" s="43" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="J81" s="43" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="K81" s="32" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="L81" s="24"/>
       <c r="M81" s="24"/>
@@ -14253,10 +14266,10 @@
         <v>293</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D82" s="34" t="s">
         <v>69</v>
@@ -14271,13 +14284,13 @@
         <v>843</v>
       </c>
       <c r="H82" s="34" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="I82" s="34" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="J82" s="44" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="K82" s="24"/>
       <c r="L82" s="24"/>
@@ -14288,10 +14301,10 @@
         <v>294</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D83" s="34" t="s">
         <v>69</v>
@@ -14303,14 +14316,14 @@
         <v>24</v>
       </c>
       <c r="G83" s="34" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H83" s="34"/>
       <c r="I83" s="34" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="J83" s="44" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="K83" s="24"/>
       <c r="L83" s="24"/>
@@ -14321,13 +14334,13 @@
         <v>295</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D84" s="34" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E84" s="34">
         <v>202</v>
@@ -14336,14 +14349,14 @@
         <v>24</v>
       </c>
       <c r="G84" s="34" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H84" s="34"/>
       <c r="I84" s="34" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="J84" s="44" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="K84" s="24"/>
       <c r="L84" s="24"/>
@@ -14354,10 +14367,10 @@
         <v>296</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D85" s="34" t="s">
         <v>69</v>
@@ -14369,14 +14382,14 @@
         <v>24</v>
       </c>
       <c r="G85" s="34" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H85" s="34"/>
       <c r="I85" s="34" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J85" s="44" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="K85" s="24"/>
       <c r="L85" s="24"/>
@@ -14387,10 +14400,10 @@
         <v>297</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D86" s="34" t="s">
         <v>69</v>
@@ -14402,14 +14415,14 @@
         <v>24</v>
       </c>
       <c r="G86" s="34" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="H86" s="34"/>
       <c r="I86" s="34" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="J86" s="44" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="K86" s="24"/>
       <c r="L86" s="24"/>
@@ -14420,10 +14433,10 @@
         <v>298</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D87" s="34" t="s">
         <v>69</v>
@@ -14435,14 +14448,14 @@
         <v>24</v>
       </c>
       <c r="G87" s="34" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H87" s="34"/>
       <c r="I87" s="34" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J87" s="44" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="K87" s="24"/>
       <c r="L87" s="24"/>
@@ -14453,10 +14466,10 @@
         <v>299</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D88" s="34" t="s">
         <v>69</v>
@@ -14468,14 +14481,14 @@
         <v>24</v>
       </c>
       <c r="G88" s="34" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="H88" s="34"/>
       <c r="I88" s="34" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J88" s="44" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="K88" s="24"/>
       <c r="L88" s="24"/>
@@ -14486,10 +14499,10 @@
         <v>300</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D89" s="34" t="s">
         <v>69</v>
@@ -14501,14 +14514,14 @@
         <v>24</v>
       </c>
       <c r="G89" s="34" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="H89" s="34"/>
       <c r="I89" s="34" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J89" s="44" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="K89" s="24"/>
       <c r="L89" s="24"/>
@@ -14519,10 +14532,10 @@
         <v>320</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D90" s="43" t="s">
         <v>69</v>
@@ -14534,19 +14547,19 @@
         <v>132</v>
       </c>
       <c r="G90" s="43" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="H90" s="43" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="I90" s="43" t="s">
+        <v>948</v>
+      </c>
+      <c r="J90" s="43" t="s">
         <v>951</v>
       </c>
-      <c r="J90" s="43" t="s">
-        <v>954</v>
-      </c>
       <c r="K90" s="32" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="L90" s="24"/>
       <c r="M90" s="24"/>
@@ -14556,13 +14569,13 @@
         <v>329</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="E91" s="32">
         <v>951</v>
@@ -14574,16 +14587,16 @@
         <v>255</v>
       </c>
       <c r="H91" s="32" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="I91" s="32" t="s">
-        <v>985</v>
-      </c>
-      <c r="J91" s="54" t="s">
-        <v>1054</v>
-      </c>
-      <c r="K91" s="56" t="s">
-        <v>1055</v>
+        <v>981</v>
+      </c>
+      <c r="J91" s="53" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K91" s="55" t="s">
+        <v>1051</v>
       </c>
       <c r="L91" s="24"/>
       <c r="M91" s="24"/>
@@ -14593,13 +14606,13 @@
         <v>330</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D92" s="55" t="s">
-        <v>1050</v>
+        <v>1043</v>
+      </c>
+      <c r="D92" s="54" t="s">
+        <v>1046</v>
       </c>
       <c r="E92" s="32">
         <v>951</v>
@@ -14608,54 +14621,94 @@
         <v>777</v>
       </c>
       <c r="G92" s="32" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H92" s="32" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I92" s="45" t="s">
+        <v>948</v>
+      </c>
+      <c r="J92" s="32" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K92" s="32" t="s">
         <v>1051</v>
-      </c>
-      <c r="H92" s="32" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I92" s="45" t="s">
-        <v>951</v>
-      </c>
-      <c r="J92" s="32" t="s">
-        <v>1054</v>
-      </c>
-      <c r="K92" s="32" t="s">
-        <v>1055</v>
       </c>
       <c r="L92" s="24"/>
       <c r="M92" s="24"/>
     </row>
     <row r="93" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="24"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="26" t="s">
-        <v>937</v>
-      </c>
-      <c r="J93" s="24"/>
-      <c r="K93" s="24"/>
+      <c r="A93" s="32">
+        <v>327</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D93" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E93" s="32">
+        <v>954</v>
+      </c>
+      <c r="F93" s="32">
+        <v>268</v>
+      </c>
+      <c r="G93" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="H93" s="32" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I93" s="32" t="s">
+        <v>948</v>
+      </c>
+      <c r="J93" s="32" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K93" s="32" t="s">
+        <v>1052</v>
+      </c>
       <c r="L93" s="24"/>
       <c r="M93" s="24"/>
     </row>
     <row r="94" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="25" t="s">
-        <v>977</v>
-      </c>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
+      <c r="A94" s="32">
+        <v>328</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D94" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E94" s="32">
+        <v>954</v>
+      </c>
+      <c r="F94" s="32">
+        <v>268</v>
+      </c>
+      <c r="G94" s="32" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H94" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I94" s="32" t="s">
+        <v>948</v>
+      </c>
+      <c r="J94" s="32" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K94" s="32" t="s">
+        <v>1052</v>
+      </c>
       <c r="L94" s="24"/>
       <c r="M94" s="24"/>
     </row>
@@ -14668,9 +14721,6 @@
       <c r="F95" s="24"/>
       <c r="G95" s="24"/>
       <c r="H95" s="24"/>
-      <c r="I95" s="27" t="s">
-        <v>936</v>
-      </c>
       <c r="J95" s="24"/>
       <c r="K95" s="24"/>
       <c r="L95" s="24"/>
@@ -14685,9 +14735,6 @@
       <c r="F96" s="24"/>
       <c r="G96" s="24"/>
       <c r="H96" s="24"/>
-      <c r="I96" s="32" t="s">
-        <v>962</v>
-      </c>
       <c r="J96" s="24"/>
       <c r="K96" s="24"/>
       <c r="L96" s="24"/>
@@ -14702,17 +14749,39 @@
       <c r="F97" s="24"/>
       <c r="G97" s="24"/>
       <c r="H97" s="24"/>
-      <c r="I97" s="35" t="s">
-        <v>974</v>
-      </c>
       <c r="J97" s="24"/>
       <c r="K97" s="24"/>
       <c r="L97" s="24"/>
       <c r="M97" s="24"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I98" s="53" t="s">
-        <v>963</v>
+    <row r="114" spans="11:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K114" s="26" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="115" spans="11:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K115" s="25" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="116" spans="11:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K116" s="27" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="117" spans="11:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K117" s="32" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="118" spans="11:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K118" s="35" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="119" spans="11:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K119" s="31" t="s">
+        <v>960</v>
       </c>
     </row>
   </sheetData>
@@ -14749,7 +14818,7 @@
         <v>797</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C1" s="48" t="s">
         <v>822</v>
@@ -14758,7 +14827,7 @@
         <v>823</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F1" s="48" t="s">
         <v>802</v>
@@ -14773,16 +14842,16 @@
         <v>826</v>
       </c>
       <c r="J1" s="48" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="L1" s="48" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14790,7 +14859,7 @@
         <v>127</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C2" s="50" t="s">
         <v>695</v>
@@ -14808,7 +14877,7 @@
         <v>696</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14816,10 +14885,10 @@
         <v>69</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="D3" s="49" t="s">
         <v>675</v>
@@ -14831,10 +14900,10 @@
         <v>208</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="I3" s="49" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14857,10 +14926,10 @@
         <v>213</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="I4" s="49" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14868,10 +14937,10 @@
         <v>45</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D5" s="49" t="s">
         <v>675</v>
@@ -14883,7 +14952,7 @@
         <v>210</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14891,10 +14960,10 @@
         <v>115</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>675</v>
@@ -14906,10 +14975,10 @@
         <v>724</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14920,10 +14989,10 @@
         <v>719</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="49">
         <v>1101</v>
@@ -14932,10 +15001,10 @@
         <v>208</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14949,7 +15018,7 @@
         <v>688</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="49">
         <v>271</v>
@@ -14958,10 +15027,10 @@
         <v>503</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14975,7 +15044,7 @@
         <v>721</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="49">
         <v>1102</v>
@@ -14987,7 +15056,7 @@
         <v>726</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14998,10 +15067,10 @@
         <v>727</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="49">
         <v>1102</v>
@@ -15010,10 +15079,10 @@
         <v>610</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15027,7 +15096,7 @@
         <v>721</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="49">
         <v>1102</v>
@@ -15039,7 +15108,7 @@
         <v>730</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15050,7 +15119,7 @@
         <v>707</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="D12" s="49" t="s">
         <v>675</v>
@@ -15065,7 +15134,7 @@
         <v>706</v>
       </c>
       <c r="I12" s="49" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15073,19 +15142,19 @@
         <v>119</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="49">
         <v>1100</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15093,13 +15162,13 @@
         <v>120</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="49">
         <v>1110</v>
@@ -15111,7 +15180,7 @@
         <v>763</v>
       </c>
       <c r="I14" s="49" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15119,7 +15188,7 @@
         <v>121</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>772</v>
@@ -15137,7 +15206,7 @@
         <v>773</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15145,13 +15214,13 @@
         <v>122</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E16" s="49">
         <v>1111</v>
@@ -15163,7 +15232,7 @@
         <v>768</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15171,13 +15240,13 @@
         <v>124</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="C17" s="49" t="s">
         <v>755</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="49">
         <v>1109</v>
@@ -15186,10 +15255,10 @@
         <v>1192</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15197,13 +15266,13 @@
         <v>125</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C18" s="49" t="s">
         <v>755</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="49">
         <v>1109</v>
@@ -15212,10 +15281,10 @@
         <v>1190</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15223,7 +15292,7 @@
         <v>174</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>700</v>
@@ -15249,10 +15318,10 @@
         <v>673</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="49">
         <v>166</v>
@@ -15264,7 +15333,7 @@
         <v>47</v>
       </c>
       <c r="I20" s="49" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15275,7 +15344,7 @@
         <v>693</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D21" s="49" t="s">
         <v>675</v>
@@ -15287,10 +15356,10 @@
         <v>503</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="I21" s="49" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15310,7 +15379,7 @@
         <v>1104</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15321,7 +15390,7 @@
         <v>682</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D23" s="49" t="s">
         <v>675</v>
@@ -15333,7 +15402,7 @@
         <v>1153</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15341,13 +15410,13 @@
         <v>269</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C24" s="49" t="s">
         <v>740</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="49">
         <v>1104</v>
@@ -15356,7 +15425,7 @@
         <v>210</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15364,13 +15433,13 @@
         <v>190</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="E25" s="49">
         <v>166</v>
@@ -15382,7 +15451,7 @@
         <v>829</v>
       </c>
       <c r="I25" s="49" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15390,10 +15459,10 @@
         <v>195</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D26" s="49" t="s">
         <v>675</v>
@@ -15413,13 +15482,13 @@
         <v>264</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="49">
         <v>1104</v>
@@ -15428,7 +15497,7 @@
         <v>210</v>
       </c>
       <c r="G27" s="49" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15451,7 +15520,7 @@
         <v>753</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15465,7 +15534,7 @@
         <v>680</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E29" s="49">
         <v>167</v>
@@ -15474,7 +15543,7 @@
         <v>686</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
   </sheetData>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="1058">
   <si>
     <t>8</t>
   </si>
@@ -3486,9 +3486,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.FileName   2.QueryName   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.size 2.QueryName3.FileName  </t>
   </si>
   <si>
     <t xml:space="preserve">1.FileName   2.QueryName     </t>
@@ -11670,8 +11667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="M92" sqref="M92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11717,16 +11714,16 @@
         <v>826</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K1" s="33" t="s">
+        <v>964</v>
+      </c>
+      <c r="L1" s="33" t="s">
         <v>965</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>966</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11751,7 +11748,7 @@
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
       <c r="I2" s="41" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J2" s="38"/>
       <c r="K2" s="24"/>
@@ -11848,10 +11845,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>69</v>
@@ -11863,17 +11860,17 @@
         <v>294</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
@@ -11939,10 +11936,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>935</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>936</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>937</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>69</v>
@@ -11954,19 +11951,19 @@
         <v>132</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
@@ -12725,10 +12722,10 @@
         <v>136</v>
       </c>
       <c r="B37" s="32" t="s">
+        <v>952</v>
+      </c>
+      <c r="C37" s="43" t="s">
         <v>953</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>954</v>
       </c>
       <c r="D37" s="43" t="s">
         <v>69</v>
@@ -12744,13 +12741,13 @@
       </c>
       <c r="H37" s="43"/>
       <c r="I37" s="43" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J37" s="43" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="K37" s="45" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
@@ -12792,7 +12789,7 @@
         <v>846</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D39" s="30" t="s">
         <v>69</v>
@@ -12808,10 +12805,10 @@
       </c>
       <c r="H39" s="30"/>
       <c r="I39" s="30" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J39" s="30" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
@@ -12841,13 +12838,13 @@
       </c>
       <c r="H40" s="43"/>
       <c r="I40" s="43" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="K40" s="45" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="L40" s="39"/>
       <c r="M40" s="24"/>
@@ -12875,16 +12872,16 @@
         <v>843</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J41" s="43" t="s">
+        <v>982</v>
+      </c>
+      <c r="K41" s="32" t="s">
         <v>983</v>
-      </c>
-      <c r="K41" s="32" t="s">
-        <v>984</v>
       </c>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -12944,13 +12941,13 @@
       </c>
       <c r="H43" s="43"/>
       <c r="I43" s="43" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J43" s="43" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K43" s="32" t="s">
         <v>1039</v>
-      </c>
-      <c r="K43" s="32" t="s">
-        <v>1040</v>
       </c>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
@@ -12979,7 +12976,7 @@
       </c>
       <c r="H44" s="28"/>
       <c r="I44" s="28" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J44" s="38"/>
       <c r="K44" s="24"/>
@@ -13010,10 +13007,10 @@
       </c>
       <c r="H45" s="30"/>
       <c r="I45" s="30" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J45" s="30" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K45" s="39"/>
       <c r="L45" s="24"/>
@@ -13043,10 +13040,10 @@
       </c>
       <c r="H46" s="30"/>
       <c r="I46" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="J46" s="30" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K46" s="31"/>
       <c r="L46" s="24"/>
@@ -13107,7 +13104,7 @@
       </c>
       <c r="H48" s="30"/>
       <c r="I48" s="30" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J48" s="38"/>
       <c r="K48" s="24"/>
@@ -13138,10 +13135,10 @@
       </c>
       <c r="H49" s="43"/>
       <c r="I49" s="43" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J49" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
@@ -13202,13 +13199,13 @@
       </c>
       <c r="H51" s="43"/>
       <c r="I51" s="43" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J51" s="43" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
@@ -13237,7 +13234,7 @@
       </c>
       <c r="H52" s="30"/>
       <c r="I52" s="30" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J52" s="38"/>
       <c r="K52" s="24"/>
@@ -13268,13 +13265,13 @@
       </c>
       <c r="H53" s="43"/>
       <c r="I53" s="43" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J53" s="43" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K53" s="32" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L53" s="24"/>
       <c r="M53" s="24"/>
@@ -13303,7 +13300,7 @@
       </c>
       <c r="H54" s="30"/>
       <c r="I54" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="J54" s="39"/>
       <c r="K54" s="24"/>
@@ -13315,10 +13312,10 @@
         <v>201</v>
       </c>
       <c r="B55" s="43" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C55" s="43" t="s">
         <v>1054</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>1055</v>
       </c>
       <c r="D55" s="43" t="s">
         <v>69</v>
@@ -13330,46 +13327,46 @@
         <v>673</v>
       </c>
       <c r="G55" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H55" s="43"/>
       <c r="I55" s="43" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J55" s="43" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K55" s="32" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L55" s="24"/>
       <c r="M55" s="24"/>
     </row>
     <row r="56" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27">
+      <c r="A56" s="31">
         <v>208</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="30" t="s">
         <v>896</v>
       </c>
-      <c r="D56" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="34">
+      <c r="D56" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="30">
         <v>235</v>
       </c>
-      <c r="F56" s="34">
+      <c r="F56" s="30">
         <v>1100</v>
       </c>
-      <c r="G56" s="34" t="s">
+      <c r="G56" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34" t="s">
-        <v>931</v>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30" t="s">
+        <v>930</v>
       </c>
       <c r="J56" s="38"/>
       <c r="K56" s="24"/>
@@ -13377,30 +13374,30 @@
       <c r="M56" s="24"/>
     </row>
     <row r="57" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="27">
+      <c r="A57" s="31">
         <v>209</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="30" t="s">
         <v>896</v>
       </c>
-      <c r="D57" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E57" s="34">
+      <c r="D57" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="30">
         <v>235</v>
       </c>
-      <c r="F57" s="34">
+      <c r="F57" s="30">
         <v>1100</v>
       </c>
-      <c r="G57" s="34" t="s">
+      <c r="G57" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34" t="s">
-        <v>928</v>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30" t="s">
+        <v>927</v>
       </c>
       <c r="J57" s="38"/>
       <c r="K57" s="24"/>
@@ -13408,30 +13405,30 @@
       <c r="M57" s="24"/>
     </row>
     <row r="58" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="27">
+      <c r="A58" s="31">
         <v>210</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="30" t="s">
         <v>896</v>
       </c>
-      <c r="D58" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E58" s="34">
+      <c r="D58" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="30">
         <v>235</v>
       </c>
-      <c r="F58" s="34">
+      <c r="F58" s="30">
         <v>1100</v>
       </c>
-      <c r="G58" s="34" t="s">
+      <c r="G58" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34" t="s">
-        <v>929</v>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30" t="s">
+        <v>928</v>
       </c>
       <c r="J58" s="38"/>
       <c r="K58" s="24"/>
@@ -13439,30 +13436,30 @@
       <c r="M58" s="24"/>
     </row>
     <row r="59" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="27">
+      <c r="A59" s="31">
         <v>211</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59" s="34">
+      <c r="D59" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="30">
         <v>235</v>
       </c>
-      <c r="F59" s="34">
+      <c r="F59" s="30">
         <v>1100</v>
       </c>
-      <c r="G59" s="34" t="s">
+      <c r="G59" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34" t="s">
-        <v>927</v>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30" t="s">
+        <v>926</v>
       </c>
       <c r="J59" s="38"/>
       <c r="K59" s="24"/>
@@ -13470,30 +13467,30 @@
       <c r="M59" s="24"/>
     </row>
     <row r="60" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="27">
+      <c r="A60" s="31">
         <v>212</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E60" s="34">
+      <c r="D60" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="30">
         <v>235</v>
       </c>
-      <c r="F60" s="34">
+      <c r="F60" s="30">
         <v>1100</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34" t="s">
-        <v>927</v>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30" t="s">
+        <v>926</v>
       </c>
       <c r="J60" s="38"/>
       <c r="K60" s="24"/>
@@ -13501,30 +13498,30 @@
       <c r="M60" s="24"/>
     </row>
     <row r="61" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="27">
+      <c r="A61" s="31">
         <v>213</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" s="34">
+      <c r="D61" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="30">
         <v>235</v>
       </c>
-      <c r="F61" s="34">
+      <c r="F61" s="30">
         <v>1100</v>
       </c>
-      <c r="G61" s="34" t="s">
+      <c r="G61" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34" t="s">
-        <v>930</v>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30" t="s">
+        <v>929</v>
       </c>
       <c r="J61" s="38"/>
       <c r="K61" s="24"/>
@@ -13555,45 +13552,49 @@
       </c>
       <c r="H62" s="43"/>
       <c r="I62" s="43" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J62" s="43" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K62" s="32" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
     </row>
     <row r="63" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="27">
+      <c r="A63" s="32">
         <v>263</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="32" t="s">
         <v>865</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="D63" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="34">
+      <c r="D63" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="43">
         <v>1976</v>
       </c>
-      <c r="F63" s="34">
+      <c r="F63" s="43">
         <v>1976</v>
       </c>
-      <c r="G63" s="34" t="s">
+      <c r="G63" s="43" t="s">
         <v>865</v>
       </c>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34" t="s">
-        <v>925</v>
-      </c>
-      <c r="J63" s="38"/>
-      <c r="K63" s="24"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43" t="s">
+        <v>947</v>
+      </c>
+      <c r="J63" s="43" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K63" s="32" t="s">
+        <v>1051</v>
+      </c>
       <c r="L63" s="24"/>
       <c r="M63" s="24"/>
     </row>
@@ -13623,13 +13624,13 @@
         <v>213</v>
       </c>
       <c r="I64" s="43" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J64" s="43" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K64" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
@@ -13660,13 +13661,13 @@
         <v>176</v>
       </c>
       <c r="I65" s="43" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J65" s="43" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K65" s="45" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L65" s="24"/>
       <c r="M65" s="24"/>
@@ -13697,13 +13698,13 @@
         <v>180</v>
       </c>
       <c r="I66" s="43" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J66" s="43" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K66" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L66" s="24"/>
       <c r="M66" s="24"/>
@@ -13734,13 +13735,13 @@
         <v>184</v>
       </c>
       <c r="I67" s="43" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J67" s="43" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K67" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L67" s="24"/>
       <c r="M67" s="24"/>
@@ -13771,13 +13772,13 @@
         <v>187</v>
       </c>
       <c r="I68" s="43" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J68" s="43" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K68" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L68" s="24"/>
       <c r="M68" s="24"/>
@@ -13808,13 +13809,13 @@
         <v>190</v>
       </c>
       <c r="I69" s="43" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J69" s="43" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K69" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L69" s="24"/>
       <c r="M69" s="24"/>
@@ -13845,13 +13846,13 @@
         <v>193</v>
       </c>
       <c r="I70" s="43" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J70" s="43" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K70" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L70" s="24"/>
       <c r="M70" s="24"/>
@@ -13882,13 +13883,13 @@
         <v>196</v>
       </c>
       <c r="I71" s="43" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J71" s="43" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K71" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
@@ -13916,16 +13917,16 @@
         <v>198</v>
       </c>
       <c r="H72" s="43" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I72" s="43" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J72" s="43" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K72" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L72" s="24"/>
       <c r="M72" s="24"/>
@@ -13956,13 +13957,13 @@
         <v>202</v>
       </c>
       <c r="I73" s="43" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J73" s="43" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K73" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L73" s="24"/>
       <c r="M73" s="24"/>
@@ -13993,13 +13994,13 @@
         <v>205</v>
       </c>
       <c r="I74" s="43" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J74" s="43" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K74" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L74" s="24"/>
       <c r="M74" s="24"/>
@@ -14030,13 +14031,13 @@
         <v>208</v>
       </c>
       <c r="I75" s="43" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J75" s="43" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K75" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L75" s="24"/>
       <c r="M75" s="24"/>
@@ -14064,16 +14065,16 @@
         <v>889</v>
       </c>
       <c r="H76" s="43" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I76" s="43" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J76" s="43" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="K76" s="32" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="L76" s="24"/>
       <c r="M76" s="24"/>
@@ -14102,13 +14103,13 @@
       </c>
       <c r="H77" s="43"/>
       <c r="I77" s="43" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J77" s="43" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="K77" s="32" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="L77" s="24"/>
       <c r="M77" s="24"/>
@@ -14139,13 +14140,13 @@
         <v>900</v>
       </c>
       <c r="I78" s="43" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J78" s="43" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="K78" s="32" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
@@ -14173,16 +14174,16 @@
         <v>907</v>
       </c>
       <c r="H79" s="43" t="s">
+        <v>946</v>
+      </c>
+      <c r="I79" s="43" t="s">
         <v>947</v>
       </c>
-      <c r="I79" s="43" t="s">
-        <v>948</v>
-      </c>
       <c r="J79" s="43" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="K79" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L79" s="24"/>
       <c r="M79" s="24"/>
@@ -14210,16 +14211,16 @@
         <v>899</v>
       </c>
       <c r="H80" s="43" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I80" s="43" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J80" s="43" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="K80" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
@@ -14250,13 +14251,13 @@
         <v>903</v>
       </c>
       <c r="I81" s="43" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J81" s="43" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="K81" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L81" s="24"/>
       <c r="M81" s="24"/>
@@ -14284,13 +14285,13 @@
         <v>843</v>
       </c>
       <c r="H82" s="34" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I82" s="34" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J82" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K82" s="24"/>
       <c r="L82" s="24"/>
@@ -14323,7 +14324,7 @@
         <v>868</v>
       </c>
       <c r="J83" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K83" s="24"/>
       <c r="L83" s="24"/>
@@ -14356,7 +14357,7 @@
         <v>924</v>
       </c>
       <c r="J84" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K84" s="24"/>
       <c r="L84" s="24"/>
@@ -14389,7 +14390,7 @@
         <v>875</v>
       </c>
       <c r="J85" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K85" s="24"/>
       <c r="L85" s="24"/>
@@ -14422,7 +14423,7 @@
         <v>872</v>
       </c>
       <c r="J86" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K86" s="24"/>
       <c r="L86" s="24"/>
@@ -14455,7 +14456,7 @@
         <v>875</v>
       </c>
       <c r="J87" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K87" s="24"/>
       <c r="L87" s="24"/>
@@ -14488,7 +14489,7 @@
         <v>875</v>
       </c>
       <c r="J88" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K88" s="24"/>
       <c r="L88" s="24"/>
@@ -14521,7 +14522,7 @@
         <v>875</v>
       </c>
       <c r="J89" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K89" s="24"/>
       <c r="L89" s="24"/>
@@ -14532,10 +14533,10 @@
         <v>320</v>
       </c>
       <c r="B90" s="32" t="s">
+        <v>935</v>
+      </c>
+      <c r="C90" s="43" t="s">
         <v>936</v>
-      </c>
-      <c r="C90" s="43" t="s">
-        <v>937</v>
       </c>
       <c r="D90" s="43" t="s">
         <v>69</v>
@@ -14547,19 +14548,19 @@
         <v>132</v>
       </c>
       <c r="G90" s="43" t="s">
+        <v>937</v>
+      </c>
+      <c r="H90" s="43" t="s">
         <v>938</v>
       </c>
-      <c r="H90" s="43" t="s">
-        <v>939</v>
-      </c>
       <c r="I90" s="43" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J90" s="43" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="K90" s="32" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="L90" s="24"/>
       <c r="M90" s="24"/>
@@ -14569,13 +14570,13 @@
         <v>329</v>
       </c>
       <c r="B91" s="32" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D91" s="32" t="s">
         <v>1044</v>
-      </c>
-      <c r="C91" s="32" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D91" s="32" t="s">
-        <v>1045</v>
       </c>
       <c r="E91" s="32">
         <v>951</v>
@@ -14587,16 +14588,16 @@
         <v>255</v>
       </c>
       <c r="H91" s="32" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I91" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="J91" s="53" t="s">
         <v>1049</v>
       </c>
-      <c r="I91" s="32" t="s">
-        <v>981</v>
-      </c>
-      <c r="J91" s="53" t="s">
+      <c r="K91" s="55" t="s">
         <v>1050</v>
-      </c>
-      <c r="K91" s="55" t="s">
-        <v>1051</v>
       </c>
       <c r="L91" s="24"/>
       <c r="M91" s="24"/>
@@ -14606,13 +14607,13 @@
         <v>330</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D92" s="54" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E92" s="32">
         <v>951</v>
@@ -14621,19 +14622,19 @@
         <v>777</v>
       </c>
       <c r="G92" s="32" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H92" s="32" t="s">
         <v>1047</v>
       </c>
-      <c r="H92" s="32" t="s">
-        <v>1048</v>
-      </c>
       <c r="I92" s="45" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J92" s="32" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K92" s="32" t="s">
         <v>1050</v>
-      </c>
-      <c r="K92" s="32" t="s">
-        <v>1051</v>
       </c>
       <c r="L92" s="24"/>
       <c r="M92" s="24"/>
@@ -14643,13 +14644,13 @@
         <v>327</v>
       </c>
       <c r="B93" s="32" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D93" s="32" t="s">
         <v>1044</v>
-      </c>
-      <c r="C93" s="32" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D93" s="32" t="s">
-        <v>1045</v>
       </c>
       <c r="E93" s="32">
         <v>954</v>
@@ -14661,16 +14662,16 @@
         <v>255</v>
       </c>
       <c r="H93" s="32" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I93" s="32" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J93" s="32" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K93" s="32" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L93" s="24"/>
       <c r="M93" s="24"/>
@@ -14680,13 +14681,13 @@
         <v>328</v>
       </c>
       <c r="B94" s="32" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D94" s="32" t="s">
         <v>1044</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D94" s="32" t="s">
-        <v>1045</v>
       </c>
       <c r="E94" s="32">
         <v>954</v>
@@ -14695,19 +14696,19 @@
         <v>268</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H94" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I94" s="32" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J94" s="32" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K94" s="32" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L94" s="24"/>
       <c r="M94" s="24"/>
@@ -14756,32 +14757,32 @@
     </row>
     <row r="114" spans="11:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K114" s="26" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="115" spans="11:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K115" s="25" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="116" spans="11:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K116" s="27" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="117" spans="11:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K117" s="32" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="118" spans="11:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K118" s="35" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="119" spans="11:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K119" s="31" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
   </sheetData>
@@ -14818,7 +14819,7 @@
         <v>797</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C1" s="48" t="s">
         <v>822</v>
@@ -14827,7 +14828,7 @@
         <v>823</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F1" s="48" t="s">
         <v>802</v>
@@ -14842,16 +14843,16 @@
         <v>826</v>
       </c>
       <c r="J1" s="48" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K1" s="48" t="s">
+        <v>975</v>
+      </c>
+      <c r="L1" s="48" t="s">
         <v>976</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="M1" s="48" t="s">
         <v>977</v>
-      </c>
-      <c r="M1" s="48" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14859,7 +14860,7 @@
         <v>127</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C2" s="50" t="s">
         <v>695</v>
@@ -14877,7 +14878,7 @@
         <v>696</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14885,10 +14886,10 @@
         <v>69</v>
       </c>
       <c r="B3" s="49" t="s">
+        <v>987</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>988</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>989</v>
       </c>
       <c r="D3" s="49" t="s">
         <v>675</v>
@@ -14900,10 +14901,10 @@
         <v>208</v>
       </c>
       <c r="G3" s="49" t="s">
+        <v>989</v>
+      </c>
+      <c r="I3" s="49" t="s">
         <v>990</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14926,10 +14927,10 @@
         <v>213</v>
       </c>
       <c r="G4" s="49" t="s">
+        <v>991</v>
+      </c>
+      <c r="I4" s="49" t="s">
         <v>992</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14937,10 +14938,10 @@
         <v>45</v>
       </c>
       <c r="B5" s="49" t="s">
+        <v>993</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>994</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>995</v>
       </c>
       <c r="D5" s="49" t="s">
         <v>675</v>
@@ -14952,7 +14953,7 @@
         <v>210</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14960,10 +14961,10 @@
         <v>115</v>
       </c>
       <c r="B6" s="49" t="s">
+        <v>995</v>
+      </c>
+      <c r="C6" s="49" t="s">
         <v>996</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>997</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>675</v>
@@ -14975,10 +14976,10 @@
         <v>724</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14989,10 +14990,10 @@
         <v>719</v>
       </c>
       <c r="C7" s="49" t="s">
+        <v>998</v>
+      </c>
+      <c r="D7" s="49" t="s">
         <v>999</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>1000</v>
       </c>
       <c r="E7" s="49">
         <v>1101</v>
@@ -15001,10 +15002,10 @@
         <v>208</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15018,7 +15019,7 @@
         <v>688</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E8" s="49">
         <v>271</v>
@@ -15027,10 +15028,10 @@
         <v>503</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15044,7 +15045,7 @@
         <v>721</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E9" s="49">
         <v>1102</v>
@@ -15056,7 +15057,7 @@
         <v>726</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15067,10 +15068,10 @@
         <v>727</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E10" s="49">
         <v>1102</v>
@@ -15079,10 +15080,10 @@
         <v>610</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15096,7 +15097,7 @@
         <v>721</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E11" s="49">
         <v>1102</v>
@@ -15108,7 +15109,7 @@
         <v>730</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15119,7 +15120,7 @@
         <v>707</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D12" s="49" t="s">
         <v>675</v>
@@ -15134,7 +15135,7 @@
         <v>706</v>
       </c>
       <c r="I12" s="49" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15142,19 +15143,19 @@
         <v>119</v>
       </c>
       <c r="B13" s="49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C13" s="49" t="s">
         <v>1005</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>1006</v>
-      </c>
       <c r="D13" s="49" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E13" s="49">
         <v>1100</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15162,13 +15163,13 @@
         <v>120</v>
       </c>
       <c r="B14" s="49" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C14" s="49" t="s">
         <v>1008</v>
       </c>
-      <c r="C14" s="49" t="s">
-        <v>1009</v>
-      </c>
       <c r="D14" s="49" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E14" s="49">
         <v>1110</v>
@@ -15180,7 +15181,7 @@
         <v>763</v>
       </c>
       <c r="I14" s="49" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15188,7 +15189,7 @@
         <v>121</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>772</v>
@@ -15206,7 +15207,7 @@
         <v>773</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15214,13 +15215,13 @@
         <v>122</v>
       </c>
       <c r="B16" s="49" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C16" s="49" t="s">
         <v>1011</v>
       </c>
-      <c r="C16" s="49" t="s">
-        <v>1012</v>
-      </c>
       <c r="D16" s="49" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E16" s="49">
         <v>1111</v>
@@ -15232,7 +15233,7 @@
         <v>768</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15240,13 +15241,13 @@
         <v>124</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C17" s="49" t="s">
         <v>755</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E17" s="49">
         <v>1109</v>
@@ -15255,10 +15256,10 @@
         <v>1192</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15266,13 +15267,13 @@
         <v>125</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C18" s="49" t="s">
         <v>755</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E18" s="49">
         <v>1109</v>
@@ -15281,10 +15282,10 @@
         <v>1190</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15292,7 +15293,7 @@
         <v>174</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>700</v>
@@ -15318,10 +15319,10 @@
         <v>673</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E20" s="49">
         <v>166</v>
@@ -15333,7 +15334,7 @@
         <v>47</v>
       </c>
       <c r="I20" s="49" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15344,7 +15345,7 @@
         <v>693</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D21" s="49" t="s">
         <v>675</v>
@@ -15356,10 +15357,10 @@
         <v>503</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I21" s="49" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15379,7 +15380,7 @@
         <v>1104</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15390,7 +15391,7 @@
         <v>682</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D23" s="49" t="s">
         <v>675</v>
@@ -15402,7 +15403,7 @@
         <v>1153</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15410,13 +15411,13 @@
         <v>269</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C24" s="49" t="s">
         <v>740</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E24" s="49">
         <v>1104</v>
@@ -15425,7 +15426,7 @@
         <v>210</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15433,13 +15434,13 @@
         <v>190</v>
       </c>
       <c r="B25" s="49" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D25" s="49" t="s">
         <v>1024</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D25" s="49" t="s">
-        <v>1025</v>
       </c>
       <c r="E25" s="49">
         <v>166</v>
@@ -15451,7 +15452,7 @@
         <v>829</v>
       </c>
       <c r="I25" s="49" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15459,10 +15460,10 @@
         <v>195</v>
       </c>
       <c r="B26" s="49" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C26" s="49" t="s">
         <v>1026</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>1027</v>
       </c>
       <c r="D26" s="49" t="s">
         <v>675</v>
@@ -15482,13 +15483,13 @@
         <v>264</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E27" s="49">
         <v>1104</v>
@@ -15497,7 +15498,7 @@
         <v>210</v>
       </c>
       <c r="G27" s="49" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15520,7 +15521,7 @@
         <v>753</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15534,7 +15535,7 @@
         <v>680</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E29" s="49">
         <v>167</v>
@@ -15543,7 +15544,7 @@
         <v>686</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="1062">
   <si>
     <t>8</t>
   </si>
@@ -3885,6 +3885,18 @@
   </si>
   <si>
     <t>TRIAL_BALANCE_SOME_COLUMN_113_954_268_Q1_L2.rtf</t>
+  </si>
+  <si>
+    <t>15-12-1400</t>
+  </si>
+  <si>
+    <t>10-12-1400</t>
+  </si>
+  <si>
+    <t>21-01-1401</t>
+  </si>
+  <si>
+    <t>DELETED</t>
   </si>
 </sst>
 </file>
@@ -4197,7 +4209,7 @@
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4361,6 +4373,15 @@
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -11667,8 +11688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11872,7 +11893,9 @@
       <c r="K6" s="32" t="s">
         <v>1033</v>
       </c>
-      <c r="L6" s="24"/>
+      <c r="L6" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -11965,7 +11988,9 @@
       <c r="K9" s="45" t="s">
         <v>984</v>
       </c>
-      <c r="L9" s="24"/>
+      <c r="L9" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M9" s="24"/>
     </row>
     <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12749,7 +12774,9 @@
       <c r="K37" s="45" t="s">
         <v>984</v>
       </c>
-      <c r="L37" s="24"/>
+      <c r="L37" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M37" s="24"/>
     </row>
     <row r="38" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12846,7 +12873,9 @@
       <c r="K40" s="45" t="s">
         <v>984</v>
       </c>
-      <c r="L40" s="39"/>
+      <c r="L40" s="55" t="s">
+        <v>1058</v>
+      </c>
       <c r="M40" s="24"/>
     </row>
     <row r="41" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12883,7 +12912,9 @@
       <c r="K41" s="32" t="s">
         <v>983</v>
       </c>
-      <c r="L41" s="24"/>
+      <c r="L41" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M41" s="24"/>
     </row>
     <row r="42" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12949,7 +12980,9 @@
       <c r="K43" s="32" t="s">
         <v>1039</v>
       </c>
-      <c r="L43" s="24"/>
+      <c r="L43" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M43" s="24"/>
     </row>
     <row r="44" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13140,8 +13173,12 @@
       <c r="J49" s="43" t="s">
         <v>1041</v>
       </c>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
+      <c r="K49" s="32" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L49" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M49" s="24"/>
     </row>
     <row r="50" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13207,7 +13244,9 @@
       <c r="K51" s="32" t="s">
         <v>1039</v>
       </c>
-      <c r="L51" s="24"/>
+      <c r="L51" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M51" s="24"/>
     </row>
     <row r="52" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13273,7 +13312,9 @@
       <c r="K53" s="32" t="s">
         <v>1039</v>
       </c>
-      <c r="L53" s="24"/>
+      <c r="L53" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M53" s="24"/>
     </row>
     <row r="54" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13339,7 +13380,9 @@
       <c r="K55" s="32" t="s">
         <v>1051</v>
       </c>
-      <c r="L55" s="24"/>
+      <c r="L55" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M55" s="24"/>
     </row>
     <row r="56" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13560,7 +13603,9 @@
       <c r="K62" s="32" t="s">
         <v>984</v>
       </c>
-      <c r="L62" s="24"/>
+      <c r="L62" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M62" s="24"/>
     </row>
     <row r="63" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13595,7 +13640,9 @@
       <c r="K63" s="32" t="s">
         <v>1051</v>
       </c>
-      <c r="L63" s="24"/>
+      <c r="L63" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M63" s="24"/>
     </row>
     <row r="64" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13632,7 +13679,9 @@
       <c r="K64" s="32" t="s">
         <v>983</v>
       </c>
-      <c r="L64" s="24"/>
+      <c r="L64" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M64" s="24"/>
     </row>
     <row r="65" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13669,377 +13718,379 @@
       <c r="K65" s="45" t="s">
         <v>983</v>
       </c>
-      <c r="L65" s="24"/>
+      <c r="L65" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M65" s="24"/>
     </row>
     <row r="66" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="32">
+      <c r="A66" s="31">
         <v>277</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="30" t="s">
         <v>857</v>
       </c>
-      <c r="D66" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" s="43">
+      <c r="D66" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="30">
         <v>951</v>
       </c>
-      <c r="F66" s="43">
+      <c r="F66" s="30">
         <v>263</v>
       </c>
-      <c r="G66" s="43" t="s">
+      <c r="G66" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="H66" s="43" t="s">
+      <c r="H66" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="I66" s="43" t="s">
+      <c r="I66" s="30" t="s">
         <v>948</v>
       </c>
-      <c r="J66" s="43" t="s">
+      <c r="J66" s="30" t="s">
         <v>970</v>
       </c>
-      <c r="K66" s="32" t="s">
+      <c r="K66" s="31" t="s">
         <v>983</v>
       </c>
-      <c r="L66" s="24"/>
+      <c r="L66" s="31"/>
       <c r="M66" s="24"/>
     </row>
     <row r="67" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="32">
+      <c r="A67" s="31">
         <v>278</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="C67" s="43" t="s">
+      <c r="C67" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D67" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="43">
+      <c r="D67" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="30">
         <v>951</v>
       </c>
-      <c r="F67" s="43">
+      <c r="F67" s="30">
         <v>263</v>
       </c>
-      <c r="G67" s="43" t="s">
+      <c r="G67" s="30" t="s">
         <v>883</v>
       </c>
-      <c r="H67" s="43" t="s">
+      <c r="H67" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="I67" s="43" t="s">
+      <c r="I67" s="30" t="s">
         <v>971</v>
       </c>
-      <c r="J67" s="43" t="s">
+      <c r="J67" s="30" t="s">
         <v>970</v>
       </c>
-      <c r="K67" s="32" t="s">
+      <c r="K67" s="31" t="s">
         <v>983</v>
       </c>
-      <c r="L67" s="24"/>
+      <c r="L67" s="31"/>
       <c r="M67" s="24"/>
     </row>
     <row r="68" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="32">
+      <c r="A68" s="31">
         <v>279</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="31" t="s">
         <v>884</v>
       </c>
-      <c r="C68" s="43" t="s">
+      <c r="C68" s="30" t="s">
         <v>857</v>
       </c>
-      <c r="D68" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E68" s="43">
+      <c r="D68" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="30">
         <v>951</v>
       </c>
-      <c r="F68" s="43">
+      <c r="F68" s="30">
         <v>263</v>
       </c>
-      <c r="G68" s="43" t="s">
+      <c r="G68" s="30" t="s">
         <v>885</v>
       </c>
-      <c r="H68" s="43" t="s">
+      <c r="H68" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="I68" s="43" t="s">
+      <c r="I68" s="30" t="s">
         <v>971</v>
       </c>
-      <c r="J68" s="43" t="s">
+      <c r="J68" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="K68" s="32" t="s">
+      <c r="K68" s="31" t="s">
         <v>983</v>
       </c>
-      <c r="L68" s="24"/>
+      <c r="L68" s="31"/>
       <c r="M68" s="24"/>
     </row>
     <row r="69" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="32">
+      <c r="A69" s="31">
         <v>280</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C69" s="43" t="s">
+      <c r="C69" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D69" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E69" s="43">
+      <c r="D69" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="30">
         <v>951</v>
       </c>
-      <c r="F69" s="43">
+      <c r="F69" s="30">
         <v>263</v>
       </c>
-      <c r="G69" s="43" t="s">
+      <c r="G69" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="H69" s="43" t="s">
+      <c r="H69" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="I69" s="43" t="s">
+      <c r="I69" s="30" t="s">
         <v>948</v>
       </c>
-      <c r="J69" s="43" t="s">
+      <c r="J69" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="K69" s="32" t="s">
+      <c r="K69" s="31" t="s">
         <v>983</v>
       </c>
-      <c r="L69" s="24"/>
+      <c r="L69" s="31"/>
       <c r="M69" s="24"/>
     </row>
     <row r="70" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="32">
+      <c r="A70" s="31">
         <v>281</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="C70" s="43" t="s">
+      <c r="C70" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D70" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70" s="43">
+      <c r="D70" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="30">
         <v>951</v>
       </c>
-      <c r="F70" s="43">
+      <c r="F70" s="30">
         <v>263</v>
       </c>
-      <c r="G70" s="43" t="s">
+      <c r="G70" s="30" t="s">
         <v>886</v>
       </c>
-      <c r="H70" s="43" t="s">
+      <c r="H70" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="I70" s="43" t="s">
+      <c r="I70" s="30" t="s">
         <v>962</v>
       </c>
-      <c r="J70" s="43" t="s">
+      <c r="J70" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="K70" s="32" t="s">
+      <c r="K70" s="31" t="s">
         <v>983</v>
       </c>
-      <c r="L70" s="24"/>
+      <c r="L70" s="31"/>
       <c r="M70" s="24"/>
     </row>
     <row r="71" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="32">
+      <c r="A71" s="31">
         <v>282</v>
       </c>
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="C71" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D71" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E71" s="43">
+      <c r="D71" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="30">
         <v>951</v>
       </c>
-      <c r="F71" s="43">
+      <c r="F71" s="30">
         <v>263</v>
       </c>
-      <c r="G71" s="43" t="s">
+      <c r="G71" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="H71" s="43" t="s">
+      <c r="H71" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I71" s="43" t="s">
+      <c r="I71" s="30" t="s">
         <v>948</v>
       </c>
-      <c r="J71" s="43" t="s">
+      <c r="J71" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="K71" s="32" t="s">
+      <c r="K71" s="31" t="s">
         <v>983</v>
       </c>
-      <c r="L71" s="24"/>
+      <c r="L71" s="31"/>
       <c r="M71" s="24"/>
     </row>
     <row r="72" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="32">
+      <c r="A72" s="31">
         <v>283</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="C72" s="43" t="s">
+      <c r="C72" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D72" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="43">
+      <c r="D72" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="30">
         <v>951</v>
       </c>
-      <c r="F72" s="43">
+      <c r="F72" s="30">
         <v>263</v>
       </c>
-      <c r="G72" s="43" t="s">
+      <c r="G72" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="H72" s="43" t="s">
+      <c r="H72" s="30" t="s">
         <v>944</v>
       </c>
-      <c r="I72" s="43" t="s">
+      <c r="I72" s="30" t="s">
         <v>947</v>
       </c>
-      <c r="J72" s="43" t="s">
+      <c r="J72" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="K72" s="32" t="s">
+      <c r="K72" s="31" t="s">
         <v>983</v>
       </c>
-      <c r="L72" s="24"/>
+      <c r="L72" s="31"/>
       <c r="M72" s="24"/>
     </row>
     <row r="73" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="32">
+      <c r="A73" s="31">
         <v>284</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="C73" s="43" t="s">
+      <c r="C73" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D73" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" s="43">
+      <c r="D73" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="30">
         <v>951</v>
       </c>
-      <c r="F73" s="43">
+      <c r="F73" s="30">
         <v>263</v>
       </c>
-      <c r="G73" s="43" t="s">
+      <c r="G73" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="H73" s="43" t="s">
+      <c r="H73" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="I73" s="43" t="s">
+      <c r="I73" s="30" t="s">
         <v>947</v>
       </c>
-      <c r="J73" s="43" t="s">
+      <c r="J73" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="K73" s="32" t="s">
+      <c r="K73" s="31" t="s">
         <v>983</v>
       </c>
-      <c r="L73" s="24"/>
+      <c r="L73" s="31"/>
       <c r="M73" s="24"/>
     </row>
     <row r="74" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="32">
+      <c r="A74" s="31">
         <v>285</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="31" t="s">
         <v>887</v>
       </c>
-      <c r="C74" s="43" t="s">
+      <c r="C74" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D74" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="43">
+      <c r="D74" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="30">
         <v>951</v>
       </c>
-      <c r="F74" s="43">
+      <c r="F74" s="30">
         <v>263</v>
       </c>
-      <c r="G74" s="43" t="s">
+      <c r="G74" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="H74" s="43" t="s">
+      <c r="H74" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="I74" s="43" t="s">
+      <c r="I74" s="30" t="s">
         <v>947</v>
       </c>
-      <c r="J74" s="43" t="s">
+      <c r="J74" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="K74" s="32" t="s">
+      <c r="K74" s="31" t="s">
         <v>983</v>
       </c>
-      <c r="L74" s="24"/>
+      <c r="L74" s="31"/>
       <c r="M74" s="24"/>
     </row>
     <row r="75" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="32">
+      <c r="A75" s="31">
         <v>286</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="C75" s="43" t="s">
+      <c r="C75" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D75" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E75" s="43">
+      <c r="D75" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="30">
         <v>951</v>
       </c>
-      <c r="F75" s="43">
+      <c r="F75" s="30">
         <v>263</v>
       </c>
-      <c r="G75" s="43" t="s">
+      <c r="G75" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="H75" s="43" t="s">
+      <c r="H75" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="I75" s="43" t="s">
+      <c r="I75" s="30" t="s">
         <v>947</v>
       </c>
-      <c r="J75" s="43" t="s">
+      <c r="J75" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="K75" s="32" t="s">
+      <c r="K75" s="31" t="s">
         <v>983</v>
       </c>
-      <c r="L75" s="24"/>
+      <c r="L75" s="31"/>
       <c r="M75" s="24"/>
     </row>
     <row r="76" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14076,7 +14127,9 @@
       <c r="K76" s="32" t="s">
         <v>984</v>
       </c>
-      <c r="L76" s="24"/>
+      <c r="L76" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M76" s="24"/>
     </row>
     <row r="77" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14111,7 +14164,9 @@
       <c r="K77" s="32" t="s">
         <v>985</v>
       </c>
-      <c r="L77" s="24"/>
+      <c r="L77" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M77" s="24"/>
     </row>
     <row r="78" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14148,7 +14203,9 @@
       <c r="K78" s="32" t="s">
         <v>984</v>
       </c>
-      <c r="L78" s="24"/>
+      <c r="L78" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M78" s="24"/>
     </row>
     <row r="79" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14185,7 +14242,9 @@
       <c r="K79" s="32" t="s">
         <v>983</v>
       </c>
-      <c r="L79" s="24"/>
+      <c r="L79" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M79" s="24"/>
     </row>
     <row r="80" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14222,7 +14281,9 @@
       <c r="K80" s="32" t="s">
         <v>983</v>
       </c>
-      <c r="L80" s="24"/>
+      <c r="L80" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M80" s="24"/>
     </row>
     <row r="81" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14259,7 +14320,9 @@
       <c r="K81" s="32" t="s">
         <v>983</v>
       </c>
-      <c r="L81" s="24"/>
+      <c r="L81" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M81" s="24"/>
     </row>
     <row r="82" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14562,7 +14625,9 @@
       <c r="K90" s="32" t="s">
         <v>984</v>
       </c>
-      <c r="L90" s="24"/>
+      <c r="L90" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M90" s="24"/>
     </row>
     <row r="91" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14599,7 +14664,9 @@
       <c r="K91" s="55" t="s">
         <v>1050</v>
       </c>
-      <c r="L91" s="24"/>
+      <c r="L91" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M91" s="24"/>
     </row>
     <row r="92" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14636,7 +14703,9 @@
       <c r="K92" s="32" t="s">
         <v>1050</v>
       </c>
-      <c r="L92" s="24"/>
+      <c r="L92" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M92" s="24"/>
     </row>
     <row r="93" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14673,7 +14742,9 @@
       <c r="K93" s="32" t="s">
         <v>1051</v>
       </c>
-      <c r="L93" s="24"/>
+      <c r="L93" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M93" s="24"/>
     </row>
     <row r="94" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14710,7 +14781,9 @@
       <c r="K94" s="32" t="s">
         <v>1051</v>
       </c>
-      <c r="L94" s="24"/>
+      <c r="L94" s="32" t="s">
+        <v>1058</v>
+      </c>
       <c r="M94" s="24"/>
     </row>
     <row r="95" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14798,8 +14871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14856,29 +14929,39 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49">
+      <c r="A2" s="56">
         <v>127</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="56" t="s">
         <v>978</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="56" t="s">
         <v>695</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="56" t="s">
         <v>675</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="56">
         <v>291</v>
       </c>
-      <c r="F2" s="49">
+      <c r="F2" s="56">
         <v>1295</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="56" t="s">
         <v>696</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56" t="s">
         <v>986</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14957,29 +15040,39 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49">
+      <c r="A6" s="56">
         <v>115</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="56" t="s">
         <v>995</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="56" t="s">
         <v>996</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="56" t="s">
         <v>675</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="56">
         <v>1102</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="56" t="s">
         <v>724</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="56" t="s">
         <v>997</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="H6" s="56"/>
+      <c r="I6" s="56" t="s">
         <v>992</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15035,81 +15128,109 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46">
+      <c r="A9" s="57">
         <v>47</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="56" t="s">
         <v>726</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="56" t="s">
         <v>721</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="56" t="s">
         <v>999</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="56">
         <v>1102</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="56">
         <v>206</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="57" t="s">
         <v>726</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="H9" s="56"/>
+      <c r="I9" s="56" t="s">
         <v>992</v>
       </c>
+      <c r="J9" s="56" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49">
+      <c r="A10" s="56">
         <v>116</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="56" t="s">
         <v>727</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="56" t="s">
         <v>996</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="56" t="s">
         <v>999</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="56">
         <v>1102</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="56">
         <v>610</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="56" t="s">
         <v>1002</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="H10" s="56"/>
+      <c r="I10" s="56" t="s">
         <v>992</v>
       </c>
+      <c r="J10" s="56" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K10" s="56" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L10" s="56" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49">
+      <c r="A11" s="56">
         <v>117</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="56" t="s">
         <v>730</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="56" t="s">
         <v>721</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="56" t="s">
         <v>999</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="56">
         <v>1102</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="56">
         <v>611</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="56" t="s">
         <v>730</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="H11" s="56"/>
+      <c r="I11" s="56" t="s">
         <v>992</v>
+      </c>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -15236,7 +15357,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49">
         <v>124</v>
       </c>
@@ -15262,82 +15383,104 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+    <row r="18" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="56">
         <v>125</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="56" t="s">
         <v>1013</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="56" t="s">
         <v>755</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="56" t="s">
         <v>999</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="56">
         <v>1109</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="56">
         <v>1190</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="56" t="s">
         <v>1013</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="H18" s="56"/>
+      <c r="I18" s="56" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49">
+      <c r="J18" s="56"/>
+      <c r="K18" s="56" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L18" s="56" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="56">
         <v>174</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="56" t="s">
         <v>1014</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="56" t="s">
         <v>700</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="57" t="s">
         <v>675</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="56">
         <v>616</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="56">
         <v>616</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="56" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L19" s="56" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58">
         <v>154</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="58" t="s">
         <v>673</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="58" t="s">
         <v>1015</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="58" t="s">
         <v>999</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="58">
         <v>166</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="58">
         <v>1120</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="49" t="s">
+      <c r="H20" s="58"/>
+      <c r="I20" s="58" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="58"/>
+      <c r="K20" s="58" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49">
         <v>170</v>
       </c>
@@ -15363,7 +15506,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
         <v>173</v>
       </c>
@@ -15383,7 +15526,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52">
         <v>156</v>
       </c>
@@ -15406,7 +15549,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49">
         <v>269</v>
       </c>
@@ -15429,7 +15572,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49">
         <v>190</v>
       </c>
@@ -15455,7 +15598,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49">
         <v>195</v>
       </c>
@@ -15478,7 +15621,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49">
         <v>264</v>
       </c>
@@ -15501,7 +15644,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49">
         <v>181</v>
       </c>
@@ -15524,7 +15667,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49">
         <v>191</v>
       </c>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$H$282</definedName>
@@ -688,7 +689,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="1071">
   <si>
     <t>8</t>
   </si>
@@ -3897,6 +3898,33 @@
   </si>
   <si>
     <t>DELETED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> گزارش فروش بر اساس کالا و خریدار صفحه 250</t>
+  </si>
+  <si>
+    <t>گزارش فروش بر اساس خریدار صفحه 250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گزارش فروش بر اساس ویزیتور </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">گزارش فروش بر اساس کالا و خریدار </t>
+  </si>
+  <si>
+    <t xml:space="preserve">گزارش فروش بر اساس خریدار </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاکتور فروش 1400 </t>
+  </si>
+  <si>
+    <t>چا41</t>
+  </si>
+  <si>
+    <t>1.fileName 2.font 3.size4.query Name</t>
   </si>
 </sst>
 </file>
@@ -4209,7 +4237,7 @@
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4382,6 +4410,16 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -14871,8 +14909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15694,4 +15732,397 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>797</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>973</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>822</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>974</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>802</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>800</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>825</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>826</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>975</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60">
+        <v>176</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>643</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E2" s="60">
+        <v>250</v>
+      </c>
+      <c r="F2" s="60">
+        <v>1802</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+    </row>
+    <row r="3" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60">
+        <v>177</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>643</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E3" s="60">
+        <v>250</v>
+      </c>
+      <c r="F3" s="60">
+        <v>1800</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+    </row>
+    <row r="4" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="60">
+        <v>178</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>649</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>643</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E4" s="60">
+        <v>250</v>
+      </c>
+      <c r="F4" s="60">
+        <v>1801</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>649</v>
+      </c>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+    </row>
+    <row r="5" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61">
+        <v>180</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>643</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E5" s="60">
+        <v>250</v>
+      </c>
+      <c r="F5" s="60">
+        <v>1803</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+    </row>
+    <row r="6" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="60">
+        <v>217</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>662</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>662</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E6" s="60">
+        <v>717</v>
+      </c>
+      <c r="F6" s="60">
+        <v>717</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+    </row>
+    <row r="7" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61">
+        <v>218</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>662</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>662</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E7" s="60">
+        <v>717</v>
+      </c>
+      <c r="F7" s="60">
+        <v>717</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+    </row>
+    <row r="8" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="60">
+        <v>219</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>662</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>662</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E8" s="60">
+        <v>717</v>
+      </c>
+      <c r="F8" s="60">
+        <v>717</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+    </row>
+    <row r="9" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61">
+        <v>220</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>662</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>662</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E9" s="60">
+        <v>717</v>
+      </c>
+      <c r="F9" s="60">
+        <v>717</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+    </row>
+    <row r="10" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="61">
+        <v>221</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>662</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>662</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E10" s="60">
+        <v>717</v>
+      </c>
+      <c r="F10" s="60">
+        <v>717</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+    </row>
+    <row r="11" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="61">
+        <v>222</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>662</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>662</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E11" s="60">
+        <v>717</v>
+      </c>
+      <c r="F11" s="60">
+        <v>717</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+    </row>
+    <row r="12" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="61">
+        <v>254</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>660</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E12" s="60">
+        <v>461</v>
+      </c>
+      <c r="F12" s="60">
+        <v>223</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="59"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="59"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="59"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="59"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="59"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="59"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -689,7 +689,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="1071">
   <si>
     <t>8</t>
   </si>
@@ -3810,9 +3810,6 @@
     <t>1.fileName 2.font 3.size 4.فقط یک ردیف از دیتا را چاپ می کند</t>
   </si>
   <si>
-    <t>1.fileName 2.font 3.size 4.query</t>
-  </si>
-  <si>
     <t>13-11-1400</t>
   </si>
   <si>
@@ -3925,6 +3922,9 @@
   </si>
   <si>
     <t>1.fileName 2.font 3.size4.query Name</t>
+  </si>
+  <si>
+    <t>5-2-1401</t>
   </si>
 </sst>
 </file>
@@ -4374,25 +4374,7 @@
     <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
@@ -4401,15 +4383,6 @@
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4420,6 +4393,33 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -11904,10 +11904,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>69</v>
@@ -11919,20 +11919,20 @@
         <v>294</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43" t="s">
         <v>947</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M6" s="24"/>
     </row>
@@ -12027,7 +12027,7 @@
         <v>984</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M9" s="24"/>
     </row>
@@ -12813,7 +12813,7 @@
         <v>984</v>
       </c>
       <c r="L37" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M37" s="24"/>
     </row>
@@ -12911,8 +12911,8 @@
       <c r="K40" s="45" t="s">
         <v>984</v>
       </c>
-      <c r="L40" s="55" t="s">
-        <v>1058</v>
+      <c r="L40" s="49" t="s">
+        <v>1057</v>
       </c>
       <c r="M40" s="24"/>
     </row>
@@ -12951,7 +12951,7 @@
         <v>983</v>
       </c>
       <c r="L41" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M41" s="24"/>
     </row>
@@ -13013,13 +13013,13 @@
         <v>947</v>
       </c>
       <c r="J43" s="43" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K43" s="32" t="s">
         <v>1038</v>
       </c>
-      <c r="K43" s="32" t="s">
-        <v>1039</v>
-      </c>
       <c r="L43" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M43" s="24"/>
     </row>
@@ -13111,10 +13111,10 @@
       </c>
       <c r="H46" s="30"/>
       <c r="I46" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="J46" s="30" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K46" s="31"/>
       <c r="L46" s="24"/>
@@ -13209,13 +13209,13 @@
         <v>947</v>
       </c>
       <c r="J49" s="43" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K49" s="32" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="L49" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M49" s="24"/>
     </row>
@@ -13277,13 +13277,13 @@
         <v>980</v>
       </c>
       <c r="J51" s="43" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="L51" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M51" s="24"/>
     </row>
@@ -13345,13 +13345,13 @@
         <v>947</v>
       </c>
       <c r="J53" s="43" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="K53" s="32" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="L53" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M53" s="24"/>
     </row>
@@ -13379,7 +13379,7 @@
       </c>
       <c r="H54" s="30"/>
       <c r="I54" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="J54" s="39"/>
       <c r="K54" s="24"/>
@@ -13391,10 +13391,10 @@
         <v>201</v>
       </c>
       <c r="B55" s="43" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C55" s="43" t="s">
         <v>1053</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>1054</v>
       </c>
       <c r="D55" s="43" t="s">
         <v>69</v>
@@ -13406,20 +13406,20 @@
         <v>673</v>
       </c>
       <c r="G55" s="43" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H55" s="43"/>
       <c r="I55" s="43" t="s">
         <v>947</v>
       </c>
       <c r="J55" s="43" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K55" s="32" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="L55" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M55" s="24"/>
     </row>
@@ -13642,7 +13642,7 @@
         <v>984</v>
       </c>
       <c r="L62" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M62" s="24"/>
     </row>
@@ -13673,13 +13673,13 @@
         <v>947</v>
       </c>
       <c r="J63" s="43" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K63" s="32" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="L63" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M63" s="24"/>
     </row>
@@ -13718,7 +13718,7 @@
         <v>983</v>
       </c>
       <c r="L64" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M64" s="24"/>
     </row>
@@ -13757,7 +13757,7 @@
         <v>983</v>
       </c>
       <c r="L65" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M65" s="24"/>
     </row>
@@ -14166,7 +14166,7 @@
         <v>984</v>
       </c>
       <c r="L76" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M76" s="24"/>
     </row>
@@ -14203,7 +14203,7 @@
         <v>985</v>
       </c>
       <c r="L77" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M77" s="24"/>
     </row>
@@ -14242,7 +14242,7 @@
         <v>984</v>
       </c>
       <c r="L78" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M78" s="24"/>
     </row>
@@ -14281,7 +14281,7 @@
         <v>983</v>
       </c>
       <c r="L79" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M79" s="24"/>
     </row>
@@ -14320,7 +14320,7 @@
         <v>983</v>
       </c>
       <c r="L80" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M80" s="24"/>
     </row>
@@ -14359,7 +14359,7 @@
         <v>983</v>
       </c>
       <c r="L81" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M81" s="24"/>
     </row>
@@ -14664,7 +14664,7 @@
         <v>984</v>
       </c>
       <c r="L90" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M90" s="24"/>
     </row>
@@ -14673,13 +14673,13 @@
         <v>329</v>
       </c>
       <c r="B91" s="32" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D91" s="32" t="s">
         <v>1043</v>
-      </c>
-      <c r="C91" s="32" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D91" s="32" t="s">
-        <v>1044</v>
       </c>
       <c r="E91" s="32">
         <v>951</v>
@@ -14691,19 +14691,19 @@
         <v>255</v>
       </c>
       <c r="H91" s="32" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I91" s="32" t="s">
         <v>980</v>
       </c>
-      <c r="J91" s="53" t="s">
+      <c r="J91" s="47" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K91" s="49" t="s">
         <v>1049</v>
       </c>
-      <c r="K91" s="55" t="s">
-        <v>1050</v>
-      </c>
       <c r="L91" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M91" s="24"/>
     </row>
@@ -14712,13 +14712,13 @@
         <v>330</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D92" s="54" t="s">
-        <v>1045</v>
+        <v>1041</v>
+      </c>
+      <c r="D92" s="48" t="s">
+        <v>1044</v>
       </c>
       <c r="E92" s="32">
         <v>951</v>
@@ -14727,22 +14727,22 @@
         <v>777</v>
       </c>
       <c r="G92" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H92" s="32" t="s">
         <v>1046</v>
-      </c>
-      <c r="H92" s="32" t="s">
-        <v>1047</v>
       </c>
       <c r="I92" s="45" t="s">
         <v>947</v>
       </c>
       <c r="J92" s="32" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K92" s="32" t="s">
         <v>1049</v>
       </c>
-      <c r="K92" s="32" t="s">
-        <v>1050</v>
-      </c>
       <c r="L92" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M92" s="24"/>
     </row>
@@ -14751,13 +14751,13 @@
         <v>327</v>
       </c>
       <c r="B93" s="32" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D93" s="32" t="s">
         <v>1043</v>
-      </c>
-      <c r="C93" s="32" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D93" s="32" t="s">
-        <v>1044</v>
       </c>
       <c r="E93" s="32">
         <v>954</v>
@@ -14769,19 +14769,19 @@
         <v>255</v>
       </c>
       <c r="H93" s="32" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I93" s="32" t="s">
         <v>947</v>
       </c>
       <c r="J93" s="32" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K93" s="32" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="L93" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M93" s="24"/>
     </row>
@@ -14790,13 +14790,13 @@
         <v>328</v>
       </c>
       <c r="B94" s="32" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D94" s="32" t="s">
         <v>1043</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D94" s="32" t="s">
-        <v>1044</v>
       </c>
       <c r="E94" s="32">
         <v>954</v>
@@ -14805,22 +14805,22 @@
         <v>268</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H94" s="32" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I94" s="32" t="s">
         <v>947</v>
       </c>
       <c r="J94" s="32" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K94" s="32" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="L94" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M94" s="24"/>
     </row>
@@ -14909,826 +14909,911 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="49"/>
-    <col min="2" max="3" width="35.7109375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="49" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="49"/>
-    <col min="8" max="9" width="20.7109375" style="49" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="49"/>
-    <col min="11" max="13" width="20.7109375" style="49" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="49"/>
+    <col min="1" max="1" width="9.140625" style="55"/>
+    <col min="2" max="3" width="35.7109375" style="55" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="55" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="55"/>
+    <col min="8" max="9" width="20.7109375" style="55" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="55"/>
+    <col min="11" max="13" width="20.7109375" style="55" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="54" t="s">
         <v>797</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="54" t="s">
         <v>973</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="54" t="s">
         <v>823</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="54" t="s">
         <v>974</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="54" t="s">
         <v>802</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="54" t="s">
         <v>800</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="54" t="s">
         <v>825</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="54" t="s">
         <v>826</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="54" t="s">
         <v>949</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="54" t="s">
         <v>975</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="54" t="s">
         <v>976</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="54" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
-        <v>127</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>978</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>695</v>
-      </c>
-      <c r="D2" s="56" t="s">
+      <c r="A2" s="55">
+        <v>45</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>993</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>994</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>675</v>
       </c>
       <c r="E2" s="56">
-        <v>291</v>
-      </c>
-      <c r="F2" s="56">
-        <v>1295</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>696</v>
-      </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56" t="s">
-        <v>986</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>1060</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>1060</v>
-      </c>
-      <c r="L2" s="56" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49">
-        <v>69</v>
-      </c>
-      <c r="B3" s="49" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F2" s="55">
+        <v>210</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="57">
+        <v>47</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>726</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>721</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>999</v>
+      </c>
+      <c r="E3" s="57">
+        <v>1102</v>
+      </c>
+      <c r="F3" s="57">
+        <v>206</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>726</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57" t="s">
+        <v>992</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55">
+        <v>49</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>719</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>998</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>999</v>
+      </c>
+      <c r="E4" s="55">
+        <v>1101</v>
+      </c>
+      <c r="F4" s="55">
+        <v>208</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="55">
+        <v>69</v>
+      </c>
+      <c r="B5" s="55" t="s">
         <v>987</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C5" s="55" t="s">
         <v>988</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D5" s="55" t="s">
         <v>675</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E5" s="58">
         <v>1101</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F5" s="58">
         <v>208</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G5" s="55" t="s">
         <v>989</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I5" s="55" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49">
+    <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="55">
         <v>72</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B6" s="58" t="s">
         <v>734</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C6" s="59" t="s">
         <v>732</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D6" s="55" t="s">
         <v>675</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E6" s="58">
         <v>1103</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F6" s="55">
         <v>213</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G6" s="55" t="s">
         <v>991</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I6" s="55" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
-        <v>45</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>993</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>994</v>
-      </c>
-      <c r="D5" s="49" t="s">
+    <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57">
+        <v>115</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>995</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>996</v>
+      </c>
+      <c r="D7" s="57" t="s">
         <v>675</v>
       </c>
-      <c r="E5" s="46">
-        <v>1104</v>
-      </c>
-      <c r="F5" s="49">
-        <v>210</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
-        <v>115</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>995</v>
-      </c>
-      <c r="C6" s="56" t="s">
+      <c r="E7" s="57">
+        <v>1102</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>724</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>997</v>
+      </c>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57" t="s">
+        <v>992</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L7" s="57" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57">
+        <v>116</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>727</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>996</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>675</v>
-      </c>
-      <c r="E6" s="56">
+      <c r="D8" s="57" t="s">
+        <v>999</v>
+      </c>
+      <c r="E8" s="57">
         <v>1102</v>
       </c>
-      <c r="F6" s="56" t="s">
-        <v>724</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>997</v>
-      </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56" t="s">
+      <c r="F8" s="57">
+        <v>610</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57" t="s">
         <v>992</v>
       </c>
-      <c r="J6" s="56" t="s">
-        <v>1060</v>
-      </c>
-      <c r="K6" s="56" t="s">
-        <v>1060</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49">
-        <v>49</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>719</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>998</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>999</v>
-      </c>
-      <c r="E7" s="49">
-        <v>1101</v>
-      </c>
-      <c r="F7" s="49">
-        <v>208</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
-        <v>126</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>689</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>688</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>999</v>
-      </c>
-      <c r="E8" s="49">
-        <v>271</v>
-      </c>
-      <c r="F8" s="46">
-        <v>503</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I8" s="49" t="s">
-        <v>992</v>
+      <c r="J8" s="57" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L8" s="57" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="57">
+        <v>117</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>730</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>721</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>999</v>
+      </c>
+      <c r="E9" s="57">
+        <v>1102</v>
+      </c>
+      <c r="F9" s="57">
+        <v>611</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>730</v>
+      </c>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57" t="s">
+        <v>992</v>
+      </c>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="57">
+        <v>118</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>707</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>675</v>
+      </c>
+      <c r="E10" s="57">
+        <v>1100</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>708</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>706</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57" t="s">
+        <v>992</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="60">
+        <v>119</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>999</v>
+      </c>
+      <c r="E11" s="60">
+        <v>1100</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+    </row>
+    <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57">
+        <v>120</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>999</v>
+      </c>
+      <c r="E12" s="57">
+        <v>1110</v>
+      </c>
+      <c r="F12" s="57">
+        <v>1504</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>763</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57" t="s">
+        <v>992</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L12" s="57" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="55">
+        <v>121</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>772</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>675</v>
+      </c>
+      <c r="E13" s="55">
+        <v>1112</v>
+      </c>
+      <c r="F13" s="55">
+        <v>1507</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>773</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55">
+        <v>122</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>999</v>
+      </c>
+      <c r="E14" s="55">
+        <v>1111</v>
+      </c>
+      <c r="F14" s="55">
+        <v>1505</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>768</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60">
+        <v>124</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>755</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>999</v>
+      </c>
+      <c r="E15" s="60">
+        <v>1109</v>
+      </c>
+      <c r="F15" s="60">
+        <v>1192</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+    </row>
+    <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57">
+        <v>125</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>755</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>999</v>
+      </c>
+      <c r="E16" s="57">
+        <v>1109</v>
+      </c>
+      <c r="F16" s="57">
+        <v>1190</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57" t="s">
+        <v>992</v>
+      </c>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L16" s="57" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55">
+        <v>126</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>689</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>999</v>
+      </c>
+      <c r="E17" s="55">
+        <v>271</v>
+      </c>
+      <c r="F17" s="56">
+        <v>503</v>
+      </c>
+      <c r="G17" s="55" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57">
+        <v>127</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>978</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>695</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>675</v>
+      </c>
+      <c r="E18" s="57">
+        <v>291</v>
+      </c>
+      <c r="F18" s="57">
+        <v>1295</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>696</v>
+      </c>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57" t="s">
+        <v>986</v>
+      </c>
+      <c r="J18" s="57" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K18" s="57" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L18" s="57" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60">
+        <v>154</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>673</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>999</v>
+      </c>
+      <c r="E19" s="60">
+        <v>166</v>
+      </c>
+      <c r="F19" s="60">
+        <v>1120</v>
+      </c>
+      <c r="G19" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="56" t="s">
-        <v>726</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>721</v>
-      </c>
-      <c r="D9" s="56" t="s">
+      <c r="H19" s="60"/>
+      <c r="I19" s="60" t="s">
+        <v>992</v>
+      </c>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L19" s="60"/>
+    </row>
+    <row r="20" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="62">
+        <v>156</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>682</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>675</v>
+      </c>
+      <c r="E20" s="55">
+        <v>167</v>
+      </c>
+      <c r="F20" s="55">
+        <v>1153</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="60">
+        <v>170</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>693</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>675</v>
+      </c>
+      <c r="E21" s="60">
+        <v>271</v>
+      </c>
+      <c r="F21" s="60">
+        <v>503</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60" t="s">
+        <v>992</v>
+      </c>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L21" s="60"/>
+    </row>
+    <row r="22" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="60">
+        <v>173</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>736</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>736</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>675</v>
+      </c>
+      <c r="E22" s="60">
+        <v>1104</v>
+      </c>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L22" s="60"/>
+    </row>
+    <row r="23" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="57">
+        <v>174</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>675</v>
+      </c>
+      <c r="E23" s="57">
+        <v>616</v>
+      </c>
+      <c r="F23" s="57">
+        <v>616</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>701</v>
+      </c>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L23" s="57" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="55">
+        <v>181</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>752</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>750</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>675</v>
+      </c>
+      <c r="E24" s="55">
+        <v>1105</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>753</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="57">
+        <v>190</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E25" s="57">
+        <v>166</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>829</v>
+      </c>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57" t="s">
+        <v>992</v>
+      </c>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L25" s="57" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="55">
+        <v>191</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>685</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>680</v>
+      </c>
+      <c r="D26" s="55" t="s">
         <v>999</v>
       </c>
-      <c r="E9" s="56">
-        <v>1102</v>
-      </c>
-      <c r="F9" s="56">
-        <v>206</v>
-      </c>
-      <c r="G9" s="57" t="s">
-        <v>726</v>
-      </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56" t="s">
-        <v>992</v>
-      </c>
-      <c r="J9" s="56" t="s">
-        <v>1060</v>
-      </c>
-      <c r="K9" s="56" t="s">
-        <v>1060</v>
-      </c>
-      <c r="L9" s="56" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
-        <v>116</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>727</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>996</v>
-      </c>
-      <c r="D10" s="56" t="s">
+      <c r="E26" s="55">
+        <v>167</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>686</v>
+      </c>
+      <c r="G26" s="55" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="57">
+        <v>195</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>675</v>
+      </c>
+      <c r="E27" s="57">
+        <v>1104</v>
+      </c>
+      <c r="F27" s="57">
+        <v>210</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>744</v>
+      </c>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L27" s="57" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="57">
+        <v>264</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D28" s="57" t="s">
         <v>999</v>
       </c>
-      <c r="E10" s="56">
-        <v>1102</v>
-      </c>
-      <c r="F10" s="56">
-        <v>610</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56" t="s">
-        <v>992</v>
-      </c>
-      <c r="J10" s="56" t="s">
-        <v>1060</v>
-      </c>
-      <c r="K10" s="56" t="s">
-        <v>1060</v>
-      </c>
-      <c r="L10" s="56" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
-        <v>117</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>730</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>721</v>
-      </c>
-      <c r="D11" s="56" t="s">
+      <c r="E28" s="57">
+        <v>1104</v>
+      </c>
+      <c r="F28" s="57">
+        <v>210</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L28" s="57" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="57">
+        <v>269</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>740</v>
+      </c>
+      <c r="D29" s="57" t="s">
         <v>999</v>
       </c>
-      <c r="E11" s="56">
-        <v>1102</v>
-      </c>
-      <c r="F11" s="56">
-        <v>611</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>730</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56" t="s">
-        <v>992</v>
-      </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56" t="s">
-        <v>1060</v>
-      </c>
-      <c r="L11" s="56" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
-        <v>118</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>707</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>675</v>
-      </c>
-      <c r="E12" s="49">
-        <v>1100</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>708</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>706</v>
-      </c>
-      <c r="I12" s="49" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49">
-        <v>119</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>999</v>
-      </c>
-      <c r="E13" s="49">
-        <v>1100</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49">
-        <v>120</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>999</v>
-      </c>
-      <c r="E14" s="49">
-        <v>1110</v>
-      </c>
-      <c r="F14" s="49">
-        <v>1504</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>763</v>
-      </c>
-      <c r="I14" s="49" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49">
-        <v>121</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>772</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>675</v>
-      </c>
-      <c r="E15" s="49">
-        <v>1112</v>
-      </c>
-      <c r="F15" s="49">
-        <v>1507</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>773</v>
-      </c>
-      <c r="I15" s="49" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49">
-        <v>122</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>999</v>
-      </c>
-      <c r="E16" s="49">
-        <v>1111</v>
-      </c>
-      <c r="F16" s="49">
-        <v>1505</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>768</v>
-      </c>
-      <c r="I16" s="49" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49">
-        <v>124</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>755</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>999</v>
-      </c>
-      <c r="E17" s="49">
-        <v>1109</v>
-      </c>
-      <c r="F17" s="49">
-        <v>1192</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I17" s="49" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
-        <v>125</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>755</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>999</v>
-      </c>
-      <c r="E18" s="56">
-        <v>1109</v>
-      </c>
-      <c r="F18" s="56">
-        <v>1190</v>
-      </c>
-      <c r="G18" s="56" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56" t="s">
-        <v>992</v>
-      </c>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56" t="s">
-        <v>1060</v>
-      </c>
-      <c r="L18" s="56" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56">
-        <v>174</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>700</v>
-      </c>
-      <c r="D19" s="57" t="s">
-        <v>675</v>
-      </c>
-      <c r="E19" s="56">
-        <v>616</v>
-      </c>
-      <c r="F19" s="56">
-        <v>616</v>
-      </c>
-      <c r="G19" s="56" t="s">
-        <v>701</v>
-      </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56" t="s">
-        <v>1060</v>
-      </c>
-      <c r="L19" s="56" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58">
-        <v>154</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>673</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>999</v>
-      </c>
-      <c r="E20" s="58">
-        <v>166</v>
-      </c>
-      <c r="F20" s="58">
-        <v>1120</v>
-      </c>
-      <c r="G20" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58" t="s">
-        <v>992</v>
-      </c>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
-        <v>170</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>693</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>675</v>
-      </c>
-      <c r="E21" s="49">
-        <v>271</v>
-      </c>
-      <c r="F21" s="49">
-        <v>503</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I21" s="49" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49">
-        <v>173</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>736</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>736</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>675</v>
-      </c>
-      <c r="E22" s="49">
+      <c r="E29" s="57">
         <v>1104</v>
       </c>
-      <c r="G22" s="49" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52">
-        <v>156</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>682</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>675</v>
-      </c>
-      <c r="E23" s="49">
-        <v>167</v>
-      </c>
-      <c r="F23" s="49">
-        <v>1153</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49">
-        <v>269</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>740</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>999</v>
-      </c>
-      <c r="E24" s="49">
-        <v>1104</v>
-      </c>
-      <c r="F24" s="49">
+      <c r="F29" s="57">
         <v>210</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G29" s="57" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49">
-        <v>190</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D25" s="49" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E25" s="49">
-        <v>166</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>678</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>829</v>
-      </c>
-      <c r="I25" s="49" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
-        <v>195</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>675</v>
-      </c>
-      <c r="E26" s="49">
-        <v>1104</v>
-      </c>
-      <c r="F26" s="49">
-        <v>210</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49">
-        <v>264</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>999</v>
-      </c>
-      <c r="E27" s="49">
-        <v>1104</v>
-      </c>
-      <c r="F27" s="49">
-        <v>210</v>
-      </c>
-      <c r="G27" s="49" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49">
-        <v>181</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>752</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>750</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>675</v>
-      </c>
-      <c r="E28" s="49">
-        <v>1105</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>753</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49">
-        <v>191</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>685</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>680</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>999</v>
-      </c>
-      <c r="E29" s="49">
-        <v>167</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>686</v>
-      </c>
-      <c r="G29" s="49" t="s">
-        <v>1030</v>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L29" s="57" t="s">
+        <v>1070</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:M29">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -15738,7 +15823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -15750,376 +15835,376 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>797</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="46" t="s">
         <v>973</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="46" t="s">
         <v>822</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="46" t="s">
         <v>823</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="46" t="s">
         <v>974</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="46" t="s">
         <v>802</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="46" t="s">
         <v>800</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="46" t="s">
         <v>825</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="46" t="s">
         <v>826</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="46" t="s">
         <v>949</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="46" t="s">
         <v>975</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="46" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60">
+      <c r="A2" s="51">
         <v>176</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="51" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>643</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E2" s="51">
+        <v>250</v>
+      </c>
+      <c r="F2" s="51">
+        <v>1802</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+    </row>
+    <row r="3" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51">
+        <v>177</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>1062</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C3" s="51" t="s">
         <v>643</v>
       </c>
-      <c r="D2" s="60" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E2" s="60">
+      <c r="D3" s="51" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E3" s="51">
         <v>250</v>
       </c>
-      <c r="F2" s="60">
-        <v>1802</v>
-      </c>
-      <c r="G2" s="60" t="s">
+      <c r="F3" s="51">
+        <v>1800</v>
+      </c>
+      <c r="G3" s="51" t="s">
         <v>1066</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-    </row>
-    <row r="3" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60">
-        <v>177</v>
-      </c>
-      <c r="B3" s="61" t="s">
+      <c r="H3" s="51"/>
+      <c r="I3" s="51" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+    </row>
+    <row r="4" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="51">
+        <v>178</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>649</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>643</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E4" s="51">
+        <v>250</v>
+      </c>
+      <c r="F4" s="51">
+        <v>1801</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>649</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+    </row>
+    <row r="5" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52">
+        <v>180</v>
+      </c>
+      <c r="B5" s="51" t="s">
         <v>1063</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C5" s="52" t="s">
         <v>643</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E3" s="60">
+      <c r="D5" s="51" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E5" s="51">
         <v>250</v>
       </c>
-      <c r="F3" s="60">
-        <v>1800</v>
-      </c>
-      <c r="G3" s="60" t="s">
+      <c r="F5" s="51">
+        <v>1803</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+    </row>
+    <row r="6" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51">
+        <v>217</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>662</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>662</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E6" s="51">
+        <v>717</v>
+      </c>
+      <c r="F6" s="51">
+        <v>717</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+    </row>
+    <row r="7" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52">
+        <v>218</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>662</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>662</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E7" s="51">
+        <v>717</v>
+      </c>
+      <c r="F7" s="51">
+        <v>717</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+    </row>
+    <row r="8" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51">
+        <v>219</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>662</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>662</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E8" s="51">
+        <v>717</v>
+      </c>
+      <c r="F8" s="51">
+        <v>717</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+    </row>
+    <row r="9" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52">
+        <v>220</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>662</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>662</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E9" s="51">
+        <v>717</v>
+      </c>
+      <c r="F9" s="51">
+        <v>717</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+    </row>
+    <row r="10" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52">
+        <v>221</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>662</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>662</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E10" s="51">
+        <v>717</v>
+      </c>
+      <c r="F10" s="51">
+        <v>717</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+    </row>
+    <row r="11" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52">
+        <v>222</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>662</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>662</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E11" s="51">
+        <v>717</v>
+      </c>
+      <c r="F11" s="51">
+        <v>717</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+    </row>
+    <row r="12" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52">
+        <v>254</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>660</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E12" s="51">
+        <v>461</v>
+      </c>
+      <c r="F12" s="51">
+        <v>223</v>
+      </c>
+      <c r="G12" s="51" t="s">
         <v>1067</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-    </row>
-    <row r="4" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60">
-        <v>178</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>649</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>643</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E4" s="60">
-        <v>250</v>
-      </c>
-      <c r="F4" s="60">
-        <v>1801</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>649</v>
-      </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-    </row>
-    <row r="5" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61">
-        <v>180</v>
-      </c>
-      <c r="B5" s="60" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>643</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E5" s="60">
-        <v>250</v>
-      </c>
-      <c r="F5" s="60">
-        <v>1803</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-    </row>
-    <row r="6" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60">
-        <v>217</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>662</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>662</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E6" s="60">
-        <v>717</v>
-      </c>
-      <c r="F6" s="60">
-        <v>717</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61">
-        <v>218</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>662</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>662</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E7" s="60">
-        <v>717</v>
-      </c>
-      <c r="F7" s="60">
-        <v>717</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-    </row>
-    <row r="8" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60">
-        <v>219</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>662</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>662</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E8" s="60">
-        <v>717</v>
-      </c>
-      <c r="F8" s="60">
-        <v>717</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-    </row>
-    <row r="9" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61">
-        <v>220</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>662</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>662</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E9" s="60">
-        <v>717</v>
-      </c>
-      <c r="F9" s="60">
-        <v>717</v>
-      </c>
-      <c r="G9" s="60" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-    </row>
-    <row r="10" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61">
-        <v>221</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>662</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>662</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E10" s="60">
-        <v>717</v>
-      </c>
-      <c r="F10" s="60">
-        <v>717</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-    </row>
-    <row r="11" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61">
-        <v>222</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>662</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>662</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E11" s="60">
-        <v>717</v>
-      </c>
-      <c r="F11" s="60">
-        <v>717</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-    </row>
-    <row r="12" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61">
-        <v>254</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>660</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E12" s="60">
-        <v>461</v>
-      </c>
-      <c r="F12" s="60">
-        <v>223</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="59"/>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="59"/>
+      <c r="B14" s="50"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="59"/>
+      <c r="B15" s="50"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="59"/>
+      <c r="B16" s="50"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="59"/>
+      <c r="B17" s="50"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="59"/>
+      <c r="B18" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$H$282</definedName>
@@ -689,7 +693,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="1077">
   <si>
     <t>8</t>
   </si>
@@ -3925,6 +3929,24 @@
   </si>
   <si>
     <t>5-2-1401</t>
+  </si>
+  <si>
+    <t>WORKACCEPTANCE_107_306_31_GENERAL_Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cash_Request</t>
+  </si>
+  <si>
+    <t>شرکت استفاده کننده : KAROUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> درخواست وجه</t>
+  </si>
+  <si>
+    <t>درخواست وجه (اختصاصی کارون)</t>
+  </si>
+  <si>
+    <t>Cash_Request_L1.RTF</t>
   </si>
 </sst>
 </file>
@@ -4237,7 +4259,7 @@
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4420,6 +4442,16 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -14909,7 +14941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -15824,7 +15856,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16210,4 +16242,378 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>797</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>973</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>822</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>823</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>974</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>802</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>800</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>825</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>826</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>975</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>780</v>
+      </c>
+      <c r="E2">
+        <v>306</v>
+      </c>
+      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>785</v>
+      </c>
+      <c r="C3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D3" t="s">
+        <v>780</v>
+      </c>
+      <c r="E3">
+        <v>315</v>
+      </c>
+      <c r="F3">
+        <v>1097</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D4" t="s">
+        <v>780</v>
+      </c>
+      <c r="E4">
+        <v>306</v>
+      </c>
+      <c r="F4">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>778</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>797</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>973</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>822</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>823</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>974</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>802</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>800</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>825</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>826</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>975</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="52">
+        <v>172</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="52">
+        <v>1114</v>
+      </c>
+      <c r="F2" s="51">
+        <v>332</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="51">
+        <v>339</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="52">
+        <v>1114</v>
+      </c>
+      <c r="F3" s="52">
+        <v>332</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G7" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="8" max="12" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>797</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>973</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>822</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>823</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>974</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>802</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>800</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>825</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>826</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>975</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65">
+        <v>215</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="51">
+        <v>723</v>
+      </c>
+      <c r="F2" s="51">
+        <v>723</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="51">
+        <v>2</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="51">
+        <v>215</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>